--- a/src/main/resources/template_report.xlsx
+++ b/src/main/resources/template_report.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{DED22581-4E2D-4D0D-84FA-FF4E5799C451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBB1CF86-C8A6-4A25-801C-FD59E2E5903E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5B4968-320A-4FD0-86C1-526023A77F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="623" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="623" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="業務報告" sheetId="79" r:id="rId1"/>
+    <sheet name="変更履歴" sheetId="80" r:id="rId1"/>
+    <sheet name="説明" sheetId="81" r:id="rId2"/>
+    <sheet name="業務報告（共通) サンプル" sheetId="82" r:id="rId3"/>
+    <sheet name="業務報告" sheetId="79" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -20,6 +23,146 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{B0E40CE2-5EA0-41B0-AADC-1347DC95C443}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>勤怠表の実稼働時間
+(休憩時間を除く)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{C7F6C03D-3022-4361-B51C-9ACBBB1CBF6C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">勤怠表の残業時間
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{2865B934-7ECB-49C6-B17B-8BF2709D91FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>【運用】
+業務目標/学習目標の達成率を大体で記入。
+【開発】</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>前月の目標に対する達成率（主観）。業務に対しては通常通りの作業ができれば７０％になる程度のパーセンテージとする。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{D154C90C-C747-4738-8C54-BACDCE4B546A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>【運用】
+オペレータ等で変動により、分からない場合は、“-”でよい。
+【開発】
+主観による業務量の前月比（業務時間の前月比からの判断でも構わない）。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A65" authorId="0" shapeId="0" xr:uid="{9A70151B-655F-4EC1-9046-15B9D2A1F024}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>急な調整は難しいので基本的に翌月を指定する事</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A66" authorId="0" shapeId="0" xr:uid="{22E91ABA-AE1C-4953-B14F-40BFE5DE187B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>基本的に事務所でお願いします</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
@@ -224,7 +367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="147">
   <si>
     <t>勤務時間</t>
     <phoneticPr fontId="1"/>
@@ -448,16 +591,1356 @@
   <si>
     <t>サービス＆セキュリティ株式会社</t>
   </si>
+  <si>
+    <t>変更履歴</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver/Rev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更者名</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初版（Rev1.00）リリース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土肥</t>
+    <rPh sb="0" eb="2">
+      <t>ドヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明シート内、リーダー送付先の近藤部長を宛先から外す</t>
+    <rPh sb="11" eb="13">
+      <t>ソウフ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各シートのコメント内、誤字（勤怠）の修正</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明シート内、メンバー送付先の川口課長、平郡主任を宛先から外す</t>
+    <rPh sb="11" eb="13">
+      <t>ソウフ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カワグチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カチョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘグリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更履歴追加</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関西営業二部、大津本社から大津支社に変更</t>
+    <rPh sb="0" eb="2">
+      <t>カンサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オオツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホンシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オオツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川口課長から川口部長に変更</t>
+    <rPh sb="0" eb="2">
+      <t>カワグチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カワグチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブチョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更履歴に変更者名欄追加</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSK版（Ver2.00）リリース/PW変更/誤記訂正(一部修正)</t>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゴキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW変更(occ6200→ssk1468)に伴う修正。</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務報告書提出のお願い</t>
+  </si>
+  <si>
+    <t>業務報告書について任意提出でしたが、評価についての参考資料とさせていただく事から、</t>
+    <rPh sb="37" eb="38">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提出義務化に変更します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GL（サイトリーダ）まで、勤怠表と一緒に、又は月末までに提出してください。</t>
+    <rPh sb="21" eb="22">
+      <t>マタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠表を紙ベースで作成しFAXで提出されている方は勤怠表の提出は今までと同様で結構です。</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキャン等が可能なら業務報告書と一緒に添付してください。</t>
+    <rPh sb="4" eb="5">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（添付頂ける場合でも今までと同様にFAXでの提出もお願い致します。）</t>
+    <rPh sb="1" eb="3">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※提出方法は基本的にメールですので、提出の際、必ずパスワードをかけて、</t>
+    <rPh sb="6" eb="9">
+      <t>キホンテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記にあるメールフォーマットに従って記載の上、送付してください。</t>
+    <rPh sb="21" eb="22">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードは　“ssk1468”　でお願いします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールで提出不可能な方は、GL（サイトリーダ）と相談下さい。</t>
+    <rPh sb="4" eb="6">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>フカノウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【パスワードのかけ方】</t>
+  </si>
+  <si>
+    <t>【Excel2002,2003】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼操作手順：読み取りパスワードを設定する</t>
+  </si>
+  <si>
+    <t>メニュー［ツール］−［オプション］をクリック</t>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>［オプション］ダイアログ−［セキュリティ］タブをクリック</t>
+  </si>
+  <si>
+    <t>［読み取りパスワード］欄にパスワードを入力</t>
+  </si>
+  <si>
+    <t>［オプション］ダイアログ−［OK］ボタンをクリック</t>
+  </si>
+  <si>
+    <t>［パスワードの確認］ダイアログでもう一度パスワードを入力後［OK］ボタンをクリック</t>
+  </si>
+  <si>
+    <t>【Excel2007】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左上のオフイスボタンをクリック−［配布準備］をクリック</t>
+  </si>
+  <si>
+    <t>ドキュメントの暗号化−パスワードを入力→OK→パスワードの確認→パスワードを再度入力→OK</t>
+  </si>
+  <si>
+    <t>【Office2013等】</t>
+    <rPh sb="11" eb="12">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼操作手順</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左上のファイルボタン−［ブックの保護］をクリック</t>
+    <rPh sb="16" eb="18">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードを使用して暗号化を選択</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【メールフォーマット】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度に関して順位付けする場合は</t>
+  </si>
+  <si>
+    <t>優先度1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の順番に記載。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【メンバー用】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宛先は各サイトリーダー。</t>
+  </si>
+  <si>
+    <t>===================================================================</t>
+  </si>
+  <si>
+    <t>件名:YYYYMM月_サイト名_業務報告</t>
+  </si>
+  <si>
+    <t>お疲れ様です。</t>
+  </si>
+  <si>
+    <t>***です。</t>
+  </si>
+  <si>
+    <t>首記の件の報告をさせて頂きます。</t>
+  </si>
+  <si>
+    <t>優先度順に重要なトピックと理由を記入しました。</t>
+  </si>
+  <si>
+    <t>【優先度：***】</t>
+  </si>
+  <si>
+    <t>重要なトピック：***</t>
+  </si>
+  <si>
+    <t>理由：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>御確認、宜しくお願い致します。</t>
+  </si>
+  <si>
+    <t>【リーダー用】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宛先は川口部長、平郡主任とする。</t>
+    <rPh sb="5" eb="7">
+      <t>ブチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各メンバーの優先度と理由を御確認の上、御参照願います。</t>
+  </si>
+  <si>
+    <t>【名前】</t>
+  </si>
+  <si>
+    <t>優先度：***  理由：***</t>
+  </si>
+  <si>
+    <t>業　務　報　告　書</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツトム</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>現場関係</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンバ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>現場での所属名</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンバ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショゾクメイ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>A社○○分室</t>
+    <rPh sb="1" eb="2">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンシツ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>業務環境/開発環境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・イベント情報
+・業務動向（業務量の増減等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・成果物
+・開発言語</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウコウ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ギョウムリョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ゾウゲン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>・定例作業（監視と通報[電話・メール]）…対応件数45件
+・週次作業/月次作業（月次資料作成）/・その他（手順書の作成）
+・業務関連、作業関連についての勉強会及び、説明会の受講。
+・改善提案
+・新規半導体製造装置 Aプロジェクト 
+  要求分析：・・・ 基本設計：・・・ 詳細設計：・・・ 移行運用設計：・・・ プログラミング：・・・
+  結合試験：・・・ 総合試験：・・・ ユーザ試験：・・・ 本番：・・・    ※行った作業のみで構わない
+・お客様との定例報告会（開催日、問題点、課題、今後のイベント等）
+※定例作業以外の業務量が増加、残業が続いている。
+・開発言語：ＰＣ　ＯＳ　WindowsＸｐ　EXCEL、ACCESS、UNIX　ProC　SQL
+・現場作業期間は３年目</t>
+    <rPh sb="97" eb="99">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>ハンドウタイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="209" eb="210">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="217" eb="218">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="281" eb="283">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="283" eb="285">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="330" eb="332">
+      <t>ゲンバ</t>
+    </rPh>
+    <rPh sb="332" eb="334">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="334" eb="336">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="338" eb="340">
+      <t>ネンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間/目標達成率/業務量推移</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>勤務時間</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業時間</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標達成率(全体：%)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務量推移(前月比：%)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>その他メンバー関連</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+・係異動
+・新人の着任（教育の状況）
+・発生している問題
+</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カカリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シンジン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チャクニン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>・新人１名が着任（OJTの実施）
+・大津支社のA社員が３係から１係に異動。
+・他社BPが来月で引上げ予定。
+・B社員がインフルエンザに感染したため、シフト調整。
+・契約が完了する予定の社員に対し何とか現場内で用途が無いか各部門を回っているが現時点で
+  良い返事がもらえていないです。</t>
+    <rPh sb="18" eb="20">
+      <t>オオツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シシャ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ゲンバ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="110" eb="113">
+      <t>カクブモン</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>ゲンジテン</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ヘンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>お客様情報</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">・お客様からのクレーム
+・要望事項
+・お客様が困っていること
+・お客様のイベント情報
+</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>・館内警備にて入退館セキュリティ強化週間実施。
+・システムリプレース。
+・日中、夜間の気温の変化により、体調を崩すオペレーターが増加、シフト調整多発。
+・客先でのセキュリティー関連がどんどん厳しく（充実）なってきていると思われます。
+ （全てのメールと、Web閲覧、USBメモリ接続状態、PC内インストールアプリが監視されています。）</t>
+    <rPh sb="77" eb="79">
+      <t>キャクサキ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>キビ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ジュウジツ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業における
+問題点と解決策</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>モンダイテン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カイケツサク</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>【問題点】　
+・定例業務以外の作業量増加。
+【解決策】
+・C社員の業務に負荷が掛かっているため、A社員がフォロー。
+【ヒヤリハット】
+・手順書が更新されておらず、通報先の電話番号が古いままだった。
+電話を掛ける前に手順書以外の情報を確認し、通報ミスを未然に防ぐことができた。</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>目標</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>当月の目標に対する自己評価
+（前月の目標に対し）</t>
+    <rPh sb="9" eb="11">
+      <t>ジコ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>業務目標</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>先月初めて発生した未知のインシデントについて迅速に対応できるよう対策を講じた。
+目標にしていたAプロジェクトに対して詳細設計までを完成させることができた。</t>
+    <rPh sb="40" eb="42">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習目標</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t xml:space="preserve">基本情報技術者試験に向けての学習。
+進捗率50％（テキストについてはひととおり目を通せたので、過去問題の学習に移行）。
+試験まで期間があるため、随時試験の　ITIL　V３を並行して学習。
+予定していた講座を全て受講することができた。
+</t>
+    <rPh sb="94" eb="96">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ジュコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>来月目標</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>オペレーションミス０件を目指す。
+新人への教育（A業務についてOJT）。
+その他：ワークライフバランスの充実（休日出勤０日を目標とする。）</t>
+    <rPh sb="52" eb="54">
+      <t>ジュウジツ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>キュウジツ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">毎週、基本情報技術者試験の過去問１回分を解く。（正答率６０％）を目標にする。
+大学の単位認定試験がある為、合格できるレベルまで（主観）学習を行う。
+その他：ワークライフバランスの充実（予定の講座を全て受講する。）
+</t>
+    <rPh sb="39" eb="41">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニンテイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ゴウカク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シュカン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社関係</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>・要望
+・苦情
+・連絡事項
+・依頼
+・改善提案など</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>新しく配属された新人について、WORD・EXCELの操作等にあまり慣れていないため、日報の記入・資料作成等に
+時間がかかっている。
+WORD・EXCEL基本操作の研修を行ってから配属してほしい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>新人が１名着任したこともあり、今までは現場の先輩に教わったことを、引き継いでいきたいと思う。
+自身のスキルUPと新人の育成に力を入れ、業務量増加の負荷を分散できるよう工夫してオペミスを防止に
+努めたい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面談依頼</t>
+    <rPh sb="0" eb="2">
+      <t>メンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>面談の内容</t>
+    <rPh sb="0" eb="2">
+      <t>メンダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>新人の教育について</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施希望日（第１～第３希望）</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キボウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キボウ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>面談実施場所</t>
+    <rPh sb="0" eb="2">
+      <t>メンダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>大津支社　　・　　　大阪支社　　・　　サイト近辺　（　　　　　　　　）　・　　その他　（　　　　　　　　　　）　</t>
+    <rPh sb="0" eb="2">
+      <t>オオツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オオサカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シシャ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キンペン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>面談を希望する相手</t>
+    <rPh sb="0" eb="2">
+      <t>メンダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キボウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アイテ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>取締役　（　　　　　　　　　　　）　　・　　営業　（　　　　　　　　　　　　　）　・　　その他　（　　　　　　　　　　　　）　</t>
+    <rPh sb="0" eb="3">
+      <t>トリシマリヤク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>サービス＆セキュリティ株式会社</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>社外秘</t>
+    <rPh sb="0" eb="3">
+      <t>シャガイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日(&quot;aaa&quot;)&quot;"/>
     <numFmt numFmtId="177" formatCode="[$-411]ggge&quot;年&quot;\ m&quot;月&quot;&quot;度&quot;"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,8 +2058,69 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,8 +2133,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -855,8 +2405,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,8 +2506,11 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,33 +2539,459 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1023,18 +3091,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1047,21 +3109,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1143,30 +3190,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1203,8 +3226,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="パーセント" xfId="4" builtinId="5"/>
     <cellStyle name="パーセント 2" xfId="3" xr:uid="{FC5592F3-9614-4A36-95E1-7B4BD826B78E}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1248,7 +3275,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98050B63-01E8-4989-9870-5F3B8AC47076}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE3BF4C-445E-4968-84A8-A22B4AECC90F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,7 +3283,7 @@
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="7934325" y="142875"/>
           <a:ext cx="1247775" cy="333375"/>
@@ -1268,6 +3295,8 @@
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1296,13 +3325,554 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" charset="-128"/>
-              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" charset="-128"/>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
             <a:t>社外秘</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>276226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694CD85F-3360-4268-918A-B55B3F996ECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1924050" y="38100"/>
+          <a:ext cx="1219200" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -15853"/>
+            <a:gd name="adj2" fmla="val 82156"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>提出する月を入力</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Text Box 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6107050C-F1C7-45CF-B198-13DCA1BEFE37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7800975" y="5581650"/>
+          <a:ext cx="3276601" cy="1019173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　現場関係の情報については、書ける範囲で記入。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>担当している社名については、イニシャルで記載。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>例：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>社監視業務</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0883691C-A2B6-4193-8659-BCE3FDDF0736}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7143750" y="7353300"/>
+          <a:ext cx="3810000" cy="1276349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>A4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>サイズで印刷しても中途半端に切れないのであれば、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　行を増やしたり削除することは可能。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　給与に関わる質問や相談など、早急に対応しなければ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　ならないことについては、業務報告書ではなく</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　メールや電話で連絡すること。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="円/楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A6D3B4-56C9-4365-AF54-38134C573261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2781300" y="15963900"/>
+          <a:ext cx="1009650" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="円/楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{525A10C8-3821-412B-B511-EDA89BEADC46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5010150" y="16211550"/>
+          <a:ext cx="571500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1571,6 +4141,2091 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA64035-9DED-4B99-8D47-DDF9D5177669}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="57.25" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="20">
+        <v>42543</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="49">
+        <v>42545</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="50"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="54"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="49">
+        <v>42566</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="50"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="54"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="20">
+        <v>42573</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="49">
+        <v>42600</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="50"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="20">
+        <v>42711</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="20">
+        <v>42725</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="26"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="26"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="30"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="30"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="30"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="30"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="30"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="30"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="30"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="30"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="30"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="30"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="30"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="30"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAB46D6-8988-4883-B062-307D58C1A3DF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I122"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="40"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="39"/>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="40"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="40"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="40"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="40"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="40"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="38"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="40"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="39"/>
+      <c r="I35" s="40"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="40"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="40"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="40"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="40"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="43"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="36"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="38"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="40"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="39"/>
+      <c r="I44" s="40"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45" s="40"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" s="40"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="I47" s="40"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="I48" s="40"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="43"/>
+    </row>
+    <row r="52" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="36"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="38"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I61" s="40"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="39"/>
+      <c r="I62" s="40"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I63" s="40"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="39"/>
+      <c r="I64" s="40"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="I65" s="40"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I66" s="40"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="39"/>
+      <c r="I67" s="40"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I68" s="40"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="I69" s="40"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="39"/>
+      <c r="I70" s="40"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="I71" s="40"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="39"/>
+      <c r="I72" s="40"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="I73" s="40"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="39"/>
+      <c r="I74" s="40"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75" s="40"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I76" s="40"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I77" s="40"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" s="39"/>
+      <c r="I78" s="40"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I79" s="40"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I80" s="40"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I81" s="40"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="39"/>
+      <c r="I82" s="40"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="40"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I84" s="40"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I85" s="40"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I86" s="40"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="I87" s="40"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" s="39"/>
+      <c r="I88" s="40"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="I89" s="40"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="41"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="43"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" s="36"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="38"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="I93" s="40"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94" s="39"/>
+      <c r="I94" s="40"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="I95" s="40"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A96" s="39"/>
+      <c r="I96" s="40"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="I97" s="40"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I98" s="40"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" s="39"/>
+      <c r="I99" s="40"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I100" s="40"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A101" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="I101" s="40"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A102" s="39"/>
+      <c r="I102" s="40"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A103" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="I103" s="40"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A104" s="39"/>
+      <c r="I104" s="40"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A105" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I105" s="40"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A106" s="39"/>
+      <c r="I106" s="40"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A107" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I107" s="40"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A108" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I108" s="40"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A109" s="39"/>
+      <c r="I109" s="40"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A110" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I110" s="40"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A111" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I111" s="40"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A112" s="39"/>
+      <c r="I112" s="40"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A113" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I113" s="40"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A114" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I114" s="40"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A115" s="39"/>
+      <c r="I115" s="40"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A116" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I116" s="40"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A117" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I117" s="40"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A118" s="39"/>
+      <c r="I118" s="40"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A119" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="I119" s="40"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A120" s="39"/>
+      <c r="I120" s="40"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A121" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="I121" s="40"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A122" s="41"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="42"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8C4C72-88E4-46F2-8634-806328189AD9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P74"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="11.125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5" style="4" customWidth="1"/>
+    <col min="14" max="15" width="9" style="4"/>
+    <col min="16" max="16" width="7" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C1" s="154" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+    </row>
+    <row r="2" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="155">
+        <v>42547</v>
+      </c>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="156" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="158"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+    </row>
+    <row r="5" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="157"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="163"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="O6" s="45"/>
+    </row>
+    <row r="7" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="138" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="141"/>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="138"/>
+      <c r="B8" s="142" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="146"/>
+      <c r="O8" s="45"/>
+    </row>
+    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="138"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="149"/>
+      <c r="O9" s="45"/>
+    </row>
+    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="138"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="149"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="47"/>
+    </row>
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="138"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="149"/>
+      <c r="O11" s="45"/>
+    </row>
+    <row r="12" spans="1:16" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="138"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="152"/>
+      <c r="O12" s="47"/>
+    </row>
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="138"/>
+      <c r="B13" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="131"/>
+      <c r="E13" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="131"/>
+      <c r="G13" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="130"/>
+      <c r="L13" s="131"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="138"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="132" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="135"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="133"/>
+    </row>
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="138"/>
+      <c r="B15" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="108"/>
+    </row>
+    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="138"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="111"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="138"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="111"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="138"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="111"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="138"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="111"/>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="138"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="111"/>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="138"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="114"/>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="138"/>
+      <c r="B22" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="108"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="138"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="111"/>
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="138"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="111"/>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="138"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="111"/>
+    </row>
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="138"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="111"/>
+    </row>
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="138"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="111"/>
+    </row>
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="138"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="111"/>
+    </row>
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="138"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="114"/>
+    </row>
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="138"/>
+      <c r="B30" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="122"/>
+    </row>
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="138"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="125"/>
+    </row>
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="138"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="125"/>
+    </row>
+    <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="138"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="125"/>
+      <c r="O33" s="47"/>
+    </row>
+    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="138"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="138"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="138"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="138"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="45"/>
+    </row>
+    <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="138"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="125"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="45"/>
+    </row>
+    <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="138"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="128"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="45"/>
+    </row>
+    <row r="40" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="72"/>
+    </row>
+    <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="78"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="74"/>
+    </row>
+    <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="78"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="76"/>
+    </row>
+    <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="78"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="72"/>
+    </row>
+    <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="78"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="74"/>
+    </row>
+    <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="78"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="76"/>
+    </row>
+    <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="78"/>
+      <c r="B47" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="72"/>
+    </row>
+    <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="78"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="74"/>
+    </row>
+    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="78"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="76"/>
+    </row>
+    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="78"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="72"/>
+    </row>
+    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="78"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="74"/>
+    </row>
+    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="79"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="76"/>
+    </row>
+    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="85"/>
+    </row>
+    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="78"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="88"/>
+    </row>
+    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="78"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="88"/>
+    </row>
+    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="78"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="88"/>
+    </row>
+    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="78"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="88"/>
+    </row>
+    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="79"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="88"/>
+    </row>
+    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="90"/>
+      <c r="C59" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="85"/>
+    </row>
+    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="91"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="87"/>
+      <c r="I60" s="87"/>
+      <c r="J60" s="87"/>
+      <c r="K60" s="87"/>
+      <c r="L60" s="88"/>
+    </row>
+    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="91"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="87"/>
+      <c r="J61" s="87"/>
+      <c r="K61" s="87"/>
+      <c r="L61" s="88"/>
+    </row>
+    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="93"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="97"/>
+    </row>
+    <row r="63" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="65"/>
+    </row>
+    <row r="64" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="57"/>
+      <c r="C64" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="68"/>
+    </row>
+    <row r="65" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="57"/>
+      <c r="C65" s="48">
+        <v>1</v>
+      </c>
+      <c r="D65" s="69">
+        <v>41411</v>
+      </c>
+      <c r="E65" s="70"/>
+      <c r="F65" s="48">
+        <v>2</v>
+      </c>
+      <c r="G65" s="7">
+        <v>41418</v>
+      </c>
+      <c r="H65" s="48">
+        <v>3</v>
+      </c>
+      <c r="I65" s="69">
+        <v>41424</v>
+      </c>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="57"/>
+      <c r="C66" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="60"/>
+    </row>
+    <row r="67" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="61"/>
+      <c r="C67" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="60"/>
+    </row>
+    <row r="68" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J69" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="K69" s="62"/>
+      <c r="L69" s="62"/>
+    </row>
+    <row r="73" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A7:A39"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:L12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:L21"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:L29"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="C30:L39"/>
+    <mergeCell ref="D50:L52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C53:L58"/>
+    <mergeCell ref="A59:B62"/>
+    <mergeCell ref="C59:L62"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:L43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:L46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:L49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:L64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:L66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:L67"/>
+    <mergeCell ref="J69:L69"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.23622047244094491" header="0.27559055118110237" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D54777-8A62-43DA-B9D1-ADF02DB7DD33}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1579,44 +6234,48 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.90625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.6328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.6328125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.36328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="4" customWidth="1"/>
     <col min="10" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="11.08984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="4" customWidth="1"/>
     <col min="13" max="13" width="5" style="4" customWidth="1"/>
     <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="C1" s="56" t="s">
+    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="200"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="202"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="243" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="243"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="H3" s="8"/>
@@ -1625,1027 +6284,1027 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="57" t="s">
+    <row r="4" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-    </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-    </row>
-    <row r="6" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="203"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="199"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="163"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C6" s="13"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-    </row>
-    <row r="7" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="204" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="88"/>
-    </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70" t="s">
+      <c r="C7" s="221"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="222"/>
+      <c r="L7" s="223"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="204"/>
+      <c r="B8" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
-    </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="44"/>
-    </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="44"/>
-    </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="44"/>
-    </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="44"/>
-    </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="44"/>
-    </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="69"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="44"/>
-    </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="44"/>
-    </row>
-    <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="44"/>
-    </row>
-    <row r="17" spans="1:12" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="47"/>
-    </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
-      <c r="B18" s="73" t="s">
+      <c r="C8" s="182"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="184"/>
+    </row>
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="204"/>
+      <c r="B9" s="206"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="186"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="204"/>
+      <c r="B10" s="206"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="186"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="204"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="186"/>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="204"/>
+      <c r="B12" s="206"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="186"/>
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="204"/>
+      <c r="B13" s="206"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="186"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="204"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="186"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="204"/>
+      <c r="B15" s="206"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="186"/>
+    </row>
+    <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="204"/>
+      <c r="B16" s="206"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="186"/>
+    </row>
+    <row r="17" spans="1:12" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="204"/>
+      <c r="B17" s="207"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="188"/>
+      <c r="L17" s="189"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="204"/>
+      <c r="B18" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="74" t="s">
+      <c r="D18" s="210"/>
+      <c r="E18" s="209" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="74" t="s">
+      <c r="F18" s="210"/>
+      <c r="G18" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="74" t="s">
+      <c r="H18" s="211"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="76"/>
-      <c r="L18" s="75"/>
-    </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="69"/>
-      <c r="B20" s="77" t="s">
+      <c r="K18" s="211"/>
+      <c r="L18" s="210"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="204"/>
+      <c r="B19" s="207"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="225"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="180"/>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="204"/>
+      <c r="B20" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
-    </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="69"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="44"/>
-    </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="69"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="44"/>
-    </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="69"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="44"/>
-    </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="69"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="44"/>
-    </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="69"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="44"/>
-    </row>
-    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="69"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="44"/>
-    </row>
-    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="69"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="44"/>
-    </row>
-    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="69"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="44"/>
-    </row>
-    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="69"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="44"/>
-    </row>
-    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="69"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-    </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="69"/>
-      <c r="B31" s="80" t="s">
+      <c r="C20" s="182"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="184"/>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="204"/>
+      <c r="B21" s="213"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="186"/>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="204"/>
+      <c r="B22" s="213"/>
+      <c r="C22" s="185"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="186"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="204"/>
+      <c r="B23" s="213"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="186"/>
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="204"/>
+      <c r="B24" s="213"/>
+      <c r="C24" s="185"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="186"/>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="204"/>
+      <c r="B25" s="213"/>
+      <c r="C25" s="185"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="186"/>
+    </row>
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="204"/>
+      <c r="B26" s="213"/>
+      <c r="C26" s="185"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="186"/>
+    </row>
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="204"/>
+      <c r="B27" s="213"/>
+      <c r="C27" s="185"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="164"/>
+      <c r="L27" s="186"/>
+    </row>
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="204"/>
+      <c r="B28" s="213"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="186"/>
+    </row>
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="204"/>
+      <c r="B29" s="213"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="186"/>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="204"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="188"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="188"/>
+      <c r="K30" s="188"/>
+      <c r="L30" s="189"/>
+    </row>
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="204"/>
+      <c r="B31" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="49"/>
-    </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="69"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="52"/>
-    </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="69"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="52"/>
-    </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="69"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="52"/>
-    </row>
-    <row r="35" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="69"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="52"/>
-    </row>
-    <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="69"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="52"/>
-    </row>
-    <row r="37" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="69"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="52"/>
-    </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="69"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="55"/>
-    </row>
-    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="69"/>
-      <c r="B39" s="83" t="s">
+      <c r="C31" s="164"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="190"/>
+      <c r="L31" s="191"/>
+    </row>
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="204"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="193"/>
+      <c r="K32" s="193"/>
+      <c r="L32" s="194"/>
+    </row>
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="204"/>
+      <c r="B33" s="216"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="193"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="193"/>
+      <c r="K33" s="193"/>
+      <c r="L33" s="194"/>
+    </row>
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="204"/>
+      <c r="B34" s="216"/>
+      <c r="C34" s="192"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="193"/>
+      <c r="K34" s="193"/>
+      <c r="L34" s="194"/>
+    </row>
+    <row r="35" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="204"/>
+      <c r="B35" s="216"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="193"/>
+      <c r="E35" s="193"/>
+      <c r="F35" s="193"/>
+      <c r="G35" s="193"/>
+      <c r="H35" s="193"/>
+      <c r="I35" s="193"/>
+      <c r="J35" s="193"/>
+      <c r="K35" s="193"/>
+      <c r="L35" s="194"/>
+    </row>
+    <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="204"/>
+      <c r="B36" s="216"/>
+      <c r="C36" s="192"/>
+      <c r="D36" s="193"/>
+      <c r="E36" s="193"/>
+      <c r="F36" s="193"/>
+      <c r="G36" s="193"/>
+      <c r="H36" s="193"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="193"/>
+      <c r="K36" s="193"/>
+      <c r="L36" s="194"/>
+    </row>
+    <row r="37" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="204"/>
+      <c r="B37" s="216"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="193"/>
+      <c r="E37" s="193"/>
+      <c r="F37" s="193"/>
+      <c r="G37" s="193"/>
+      <c r="H37" s="193"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="193"/>
+      <c r="K37" s="193"/>
+      <c r="L37" s="194"/>
+    </row>
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="204"/>
+      <c r="B38" s="217"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="196"/>
+      <c r="F38" s="196"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="196"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="196"/>
+      <c r="K38" s="196"/>
+      <c r="L38" s="197"/>
+    </row>
+    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="204"/>
+      <c r="B39" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="69"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="19"/>
-    </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="69"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="19"/>
-    </row>
-    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="69"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="19"/>
-    </row>
-    <row r="43" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="69"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="19"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="121"/>
+      <c r="K39" s="121"/>
+      <c r="L39" s="122"/>
+    </row>
+    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="204"/>
+      <c r="B40" s="219"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="125"/>
+    </row>
+    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="204"/>
+      <c r="B41" s="219"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="125"/>
+    </row>
+    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="204"/>
+      <c r="B42" s="219"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="124"/>
+      <c r="L42" s="125"/>
+    </row>
+    <row r="43" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="204"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="124"/>
+      <c r="H43" s="124"/>
+      <c r="I43" s="124"/>
+      <c r="J43" s="124"/>
+      <c r="K43" s="124"/>
+      <c r="L43" s="125"/>
       <c r="M43" s="9"/>
     </row>
-    <row r="44" spans="1:13" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="69"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="19"/>
+    <row r="44" spans="1:13" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="204"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="124"/>
+      <c r="L44" s="125"/>
       <c r="M44" s="9"/>
     </row>
-    <row r="45" spans="1:13" ht="5.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="69"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="19"/>
+    <row r="45" spans="1:13" ht="5.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="204"/>
+      <c r="B45" s="219"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="124"/>
+      <c r="L45" s="125"/>
       <c r="M45" s="9"/>
     </row>
-    <row r="46" spans="1:13" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="69"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="19"/>
+    <row r="46" spans="1:13" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="204"/>
+      <c r="B46" s="219"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="125"/>
       <c r="M46" s="9"/>
     </row>
-    <row r="47" spans="1:13" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="69"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="19"/>
+    <row r="47" spans="1:13" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="204"/>
+      <c r="B47" s="219"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="125"/>
       <c r="M47" s="9"/>
     </row>
-    <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="69"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="22"/>
+    <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="204"/>
+      <c r="B48" s="220"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="127"/>
+      <c r="G48" s="127"/>
+      <c r="H48" s="127"/>
+      <c r="I48" s="127"/>
+      <c r="J48" s="127"/>
+      <c r="K48" s="127"/>
+      <c r="L48" s="128"/>
       <c r="M48" s="9"/>
     </row>
-    <row r="49" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="111" t="s">
+    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="238" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="106" t="s">
+      <c r="B50" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
-    </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="112"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="27"/>
-    </row>
-    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="112"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="30"/>
-    </row>
-    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="112"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="34" t="s">
+      <c r="D50" s="164"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="165"/>
+      <c r="G50" s="165"/>
+      <c r="H50" s="165"/>
+      <c r="I50" s="165"/>
+      <c r="J50" s="165"/>
+      <c r="K50" s="165"/>
+      <c r="L50" s="166"/>
+    </row>
+    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="239"/>
+      <c r="B51" s="235"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="167"/>
+      <c r="E51" s="168"/>
+      <c r="F51" s="168"/>
+      <c r="G51" s="168"/>
+      <c r="H51" s="168"/>
+      <c r="I51" s="168"/>
+      <c r="J51" s="168"/>
+      <c r="K51" s="168"/>
+      <c r="L51" s="169"/>
+    </row>
+    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="239"/>
+      <c r="B52" s="235"/>
+      <c r="C52" s="175"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="171"/>
+      <c r="F52" s="171"/>
+      <c r="G52" s="171"/>
+      <c r="H52" s="171"/>
+      <c r="I52" s="171"/>
+      <c r="J52" s="171"/>
+      <c r="K52" s="171"/>
+      <c r="L52" s="172"/>
+    </row>
+    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="239"/>
+      <c r="B53" s="235"/>
+      <c r="C53" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
-    </row>
-    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="112"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="27"/>
-    </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="112"/>
-      <c r="B55" s="110"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="30"/>
-    </row>
-    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="112"/>
-      <c r="B56" s="83" t="s">
+      <c r="D53" s="164"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="165"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="165"/>
+      <c r="L53" s="166"/>
+    </row>
+    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="239"/>
+      <c r="B54" s="235"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="168"/>
+      <c r="E54" s="168"/>
+      <c r="F54" s="168"/>
+      <c r="G54" s="168"/>
+      <c r="H54" s="168"/>
+      <c r="I54" s="168"/>
+      <c r="J54" s="168"/>
+      <c r="K54" s="168"/>
+      <c r="L54" s="169"/>
+    </row>
+    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="239"/>
+      <c r="B55" s="237"/>
+      <c r="C55" s="178"/>
+      <c r="D55" s="171"/>
+      <c r="E55" s="171"/>
+      <c r="F55" s="171"/>
+      <c r="G55" s="171"/>
+      <c r="H55" s="171"/>
+      <c r="I55" s="171"/>
+      <c r="J55" s="171"/>
+      <c r="K55" s="171"/>
+      <c r="L55" s="172"/>
+    </row>
+    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="239"/>
+      <c r="B56" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
-    </row>
-    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="112"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="27"/>
-    </row>
-    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="112"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="30"/>
-    </row>
-    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="112"/>
-      <c r="B59" s="114"/>
-      <c r="C59" s="34" t="s">
+      <c r="D56" s="164"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="165"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="165"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="165"/>
+      <c r="L56" s="166"/>
+    </row>
+    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="239"/>
+      <c r="B57" s="241"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="168"/>
+      <c r="E57" s="168"/>
+      <c r="F57" s="168"/>
+      <c r="G57" s="168"/>
+      <c r="H57" s="168"/>
+      <c r="I57" s="168"/>
+      <c r="J57" s="168"/>
+      <c r="K57" s="168"/>
+      <c r="L57" s="169"/>
+    </row>
+    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="239"/>
+      <c r="B58" s="241"/>
+      <c r="C58" s="175"/>
+      <c r="D58" s="171"/>
+      <c r="E58" s="171"/>
+      <c r="F58" s="171"/>
+      <c r="G58" s="171"/>
+      <c r="H58" s="171"/>
+      <c r="I58" s="171"/>
+      <c r="J58" s="171"/>
+      <c r="K58" s="171"/>
+      <c r="L58" s="172"/>
+    </row>
+    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="239"/>
+      <c r="B59" s="241"/>
+      <c r="C59" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
-    </row>
-    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="112"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="27"/>
-    </row>
-    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="113"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="30"/>
-    </row>
-    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="111" t="s">
+      <c r="D59" s="164"/>
+      <c r="E59" s="165"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="165"/>
+      <c r="H59" s="165"/>
+      <c r="I59" s="165"/>
+      <c r="J59" s="165"/>
+      <c r="K59" s="165"/>
+      <c r="L59" s="166"/>
+    </row>
+    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="239"/>
+      <c r="B60" s="241"/>
+      <c r="C60" s="177"/>
+      <c r="D60" s="168"/>
+      <c r="E60" s="168"/>
+      <c r="F60" s="168"/>
+      <c r="G60" s="168"/>
+      <c r="H60" s="168"/>
+      <c r="I60" s="168"/>
+      <c r="J60" s="168"/>
+      <c r="K60" s="168"/>
+      <c r="L60" s="169"/>
+    </row>
+    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="240"/>
+      <c r="B61" s="242"/>
+      <c r="C61" s="178"/>
+      <c r="D61" s="171"/>
+      <c r="E61" s="171"/>
+      <c r="F61" s="171"/>
+      <c r="G61" s="171"/>
+      <c r="H61" s="171"/>
+      <c r="I61" s="171"/>
+      <c r="J61" s="171"/>
+      <c r="K61" s="171"/>
+      <c r="L61" s="172"/>
+    </row>
+    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="83" t="s">
+      <c r="B62" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="49"/>
-    </row>
-    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="112"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="52"/>
-    </row>
-    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="112"/>
-      <c r="B64" s="114"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="52"/>
-    </row>
-    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="112"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="52"/>
-    </row>
-    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="112"/>
-      <c r="B66" s="114"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="52"/>
-    </row>
-    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="113"/>
-      <c r="B67" s="115"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="55"/>
-    </row>
-    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="105" t="s">
+      <c r="C62" s="182"/>
+      <c r="D62" s="190"/>
+      <c r="E62" s="190"/>
+      <c r="F62" s="190"/>
+      <c r="G62" s="190"/>
+      <c r="H62" s="190"/>
+      <c r="I62" s="190"/>
+      <c r="J62" s="190"/>
+      <c r="K62" s="190"/>
+      <c r="L62" s="191"/>
+    </row>
+    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="239"/>
+      <c r="B63" s="241"/>
+      <c r="C63" s="192"/>
+      <c r="D63" s="193"/>
+      <c r="E63" s="193"/>
+      <c r="F63" s="193"/>
+      <c r="G63" s="193"/>
+      <c r="H63" s="193"/>
+      <c r="I63" s="193"/>
+      <c r="J63" s="193"/>
+      <c r="K63" s="193"/>
+      <c r="L63" s="194"/>
+    </row>
+    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="239"/>
+      <c r="B64" s="241"/>
+      <c r="C64" s="192"/>
+      <c r="D64" s="193"/>
+      <c r="E64" s="193"/>
+      <c r="F64" s="193"/>
+      <c r="G64" s="193"/>
+      <c r="H64" s="193"/>
+      <c r="I64" s="193"/>
+      <c r="J64" s="193"/>
+      <c r="K64" s="193"/>
+      <c r="L64" s="194"/>
+    </row>
+    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="239"/>
+      <c r="B65" s="241"/>
+      <c r="C65" s="192"/>
+      <c r="D65" s="193"/>
+      <c r="E65" s="193"/>
+      <c r="F65" s="193"/>
+      <c r="G65" s="193"/>
+      <c r="H65" s="193"/>
+      <c r="I65" s="193"/>
+      <c r="J65" s="193"/>
+      <c r="K65" s="193"/>
+      <c r="L65" s="194"/>
+    </row>
+    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="239"/>
+      <c r="B66" s="241"/>
+      <c r="C66" s="192"/>
+      <c r="D66" s="193"/>
+      <c r="E66" s="193"/>
+      <c r="F66" s="193"/>
+      <c r="G66" s="193"/>
+      <c r="H66" s="193"/>
+      <c r="I66" s="193"/>
+      <c r="J66" s="193"/>
+      <c r="K66" s="193"/>
+      <c r="L66" s="194"/>
+    </row>
+    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="240"/>
+      <c r="B67" s="242"/>
+      <c r="C67" s="195"/>
+      <c r="D67" s="196"/>
+      <c r="E67" s="196"/>
+      <c r="F67" s="196"/>
+      <c r="G67" s="196"/>
+      <c r="H67" s="196"/>
+      <c r="I67" s="196"/>
+      <c r="J67" s="196"/>
+      <c r="K67" s="196"/>
+      <c r="L67" s="197"/>
+    </row>
+    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="106"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="51"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="52"/>
-    </row>
-    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="107"/>
-      <c r="B69" s="108"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="52"/>
-    </row>
-    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="107"/>
-      <c r="B70" s="108"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="52"/>
-    </row>
-    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="109"/>
-      <c r="B71" s="110"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="55"/>
-    </row>
-    <row r="72" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="91" t="s">
+      <c r="B68" s="233"/>
+      <c r="C68" s="164"/>
+      <c r="D68" s="193"/>
+      <c r="E68" s="193"/>
+      <c r="F68" s="193"/>
+      <c r="G68" s="193"/>
+      <c r="H68" s="193"/>
+      <c r="I68" s="193"/>
+      <c r="J68" s="193"/>
+      <c r="K68" s="193"/>
+      <c r="L68" s="194"/>
+    </row>
+    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="234"/>
+      <c r="B69" s="235"/>
+      <c r="C69" s="192"/>
+      <c r="D69" s="193"/>
+      <c r="E69" s="193"/>
+      <c r="F69" s="193"/>
+      <c r="G69" s="193"/>
+      <c r="H69" s="193"/>
+      <c r="I69" s="193"/>
+      <c r="J69" s="193"/>
+      <c r="K69" s="193"/>
+      <c r="L69" s="194"/>
+    </row>
+    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="234"/>
+      <c r="B70" s="235"/>
+      <c r="C70" s="192"/>
+      <c r="D70" s="193"/>
+      <c r="E70" s="193"/>
+      <c r="F70" s="193"/>
+      <c r="G70" s="193"/>
+      <c r="H70" s="193"/>
+      <c r="I70" s="193"/>
+      <c r="J70" s="193"/>
+      <c r="K70" s="193"/>
+      <c r="L70" s="194"/>
+    </row>
+    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="236"/>
+      <c r="B71" s="237"/>
+      <c r="C71" s="195"/>
+      <c r="D71" s="196"/>
+      <c r="E71" s="196"/>
+      <c r="F71" s="196"/>
+      <c r="G71" s="196"/>
+      <c r="H71" s="196"/>
+      <c r="I71" s="196"/>
+      <c r="J71" s="196"/>
+      <c r="K71" s="196"/>
+      <c r="L71" s="197"/>
+    </row>
+    <row r="72" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="92"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="92"/>
-      <c r="H72" s="92"/>
-      <c r="I72" s="92"/>
-      <c r="J72" s="92"/>
-      <c r="K72" s="92"/>
-      <c r="L72" s="93"/>
-    </row>
-    <row r="73" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="94" t="s">
+      <c r="B72" s="227"/>
+      <c r="C72" s="227"/>
+      <c r="D72" s="227"/>
+      <c r="E72" s="227"/>
+      <c r="F72" s="227"/>
+      <c r="G72" s="227"/>
+      <c r="H72" s="227"/>
+      <c r="I72" s="227"/>
+      <c r="J72" s="227"/>
+      <c r="K72" s="227"/>
+      <c r="L72" s="228"/>
+    </row>
+    <row r="73" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="229" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="95"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="97"/>
-      <c r="E73" s="97"/>
-      <c r="F73" s="97"/>
-      <c r="G73" s="97"/>
-      <c r="H73" s="97"/>
-      <c r="I73" s="97"/>
-      <c r="J73" s="97"/>
-      <c r="K73" s="97"/>
-      <c r="L73" s="98"/>
-    </row>
-    <row r="74" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="94" t="s">
+      <c r="B73" s="230"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="68"/>
+    </row>
+    <row r="74" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="95"/>
+      <c r="B74" s="230"/>
       <c r="C74" s="11">
         <v>1</v>
       </c>
-      <c r="D74" s="99"/>
-      <c r="E74" s="100"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="70"/>
       <c r="F74" s="11">
         <v>2</v>
       </c>
@@ -2653,65 +7312,66 @@
       <c r="H74" s="11">
         <v>3</v>
       </c>
-      <c r="I74" s="99"/>
-      <c r="J74" s="100"/>
-      <c r="K74" s="100"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="70"/>
+      <c r="K74" s="70"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="94" t="s">
+    <row r="75" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="229" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="95"/>
-      <c r="C75" s="101" t="s">
+      <c r="B75" s="230"/>
+      <c r="C75" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="102"/>
-      <c r="E75" s="102"/>
-      <c r="F75" s="102"/>
-      <c r="G75" s="102"/>
-      <c r="H75" s="102"/>
-      <c r="I75" s="102"/>
-      <c r="J75" s="102"/>
-      <c r="K75" s="102"/>
-      <c r="L75" s="103"/>
-    </row>
-    <row r="76" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="104" t="s">
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="60"/>
+    </row>
+    <row r="76" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="231" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="104"/>
-      <c r="C76" s="101" t="s">
+      <c r="B76" s="231"/>
+      <c r="C76" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="102"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="102"/>
-      <c r="G76" s="102"/>
-      <c r="H76" s="102"/>
-      <c r="I76" s="102"/>
-      <c r="J76" s="102"/>
-      <c r="K76" s="102"/>
-      <c r="L76" s="103"/>
-    </row>
-    <row r="77" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="60"/>
+    </row>
+    <row r="77" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J78" s="68" t="s">
+    <row r="78" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J78" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="K78" s="68"/>
-      <c r="L78" s="68"/>
-    </row>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="K78" s="62"/>
+      <c r="L78" s="62"/>
+    </row>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="57">
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="A68:B71"/>
     <mergeCell ref="A50:A61"/>
     <mergeCell ref="B50:B55"/>
@@ -2774,7 +7434,6 @@
   <pageMargins left="0.20902777777777801" right="0.196527777777778" top="0.39305555555555599" bottom="0.23888888888888901" header="0.27500000000000002" footer="0.196527777777778"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template_report.xlsx
+++ b/src/main/resources/template_report.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5B4968-320A-4FD0-86C1-526023A77F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E58EB9B-5335-4F97-9514-453B2CAD980A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="623" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="623" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="80" r:id="rId1"/>
     <sheet name="説明" sheetId="81" r:id="rId2"/>
     <sheet name="業務報告（共通) サンプル" sheetId="82" r:id="rId3"/>
-    <sheet name="業務報告" sheetId="79" r:id="rId4"/>
+    <sheet name="202507業務報告" sheetId="79" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -168,7 +168,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{05E2C11D-1DE0-4EAC-A9B0-35C052798C9A}">
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{05E2C11D-1DE0-4EAC-A9B0-35C052798C9A}">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{E67F3B79-65F9-46C5-BB84-B94C7532395F}">
+    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{E67F3B79-65F9-46C5-BB84-B94C7532395F}">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{57893388-DE50-4DD7-BFFD-15EF2A554D0C}">
+    <comment ref="G39" authorId="0" shapeId="0" xr:uid="{57893388-DE50-4DD7-BFFD-15EF2A554D0C}">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{3E8183D5-DC01-4B23-A256-32863A22A21A}">
+    <comment ref="J39" authorId="0" shapeId="0" xr:uid="{3E8183D5-DC01-4B23-A256-32863A22A21A}">
       <text>
         <r>
           <rPr>
@@ -323,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A74" authorId="0" shapeId="0" xr:uid="{B817F809-5D81-4F0B-9DD6-59BE3D407B03}">
+    <comment ref="A103" authorId="0" shapeId="0" xr:uid="{B817F809-5D81-4F0B-9DD6-59BE3D407B03}">
       <text>
         <r>
           <rPr>
@@ -347,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A75" authorId="0" shapeId="0" xr:uid="{D2D5F695-451D-4326-A2C2-5D276DE57653}">
+    <comment ref="A104" authorId="0" shapeId="0" xr:uid="{D2D5F695-451D-4326-A2C2-5D276DE57653}">
       <text>
         <r>
           <rPr>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
   <si>
     <t>勤務時間</t>
     <phoneticPr fontId="1"/>
@@ -1929,6 +1929,9 @@
       <t>シャガイヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -2140,7 +2143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2494,6 +2497,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2510,7 +2533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2884,15 +2907,69 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2905,60 +2982,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3034,7 +3057,79 @@
     <xf numFmtId="9" fontId="14" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3043,30 +3138,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3091,23 +3162,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -3118,116 +3240,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4149,15 +4166,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="34" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="57.25" style="34" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="57.26953125" style="34" customWidth="1"/>
     <col min="4" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -4170,7 +4187,7 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>30</v>
       </c>
@@ -4184,7 +4201,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>42543</v>
       </c>
@@ -4198,7 +4215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="49">
         <v>42545</v>
       </c>
@@ -4212,7 +4229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="50"/>
       <c r="B6" s="52"/>
       <c r="C6" s="22" t="s">
@@ -4220,7 +4237,7 @@
       </c>
       <c r="D6" s="54"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
         <v>42566</v>
       </c>
@@ -4234,7 +4251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="52"/>
       <c r="C8" s="23" t="s">
@@ -4242,7 +4259,7 @@
       </c>
       <c r="D8" s="54"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>42573</v>
       </c>
@@ -4256,7 +4273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="49">
         <v>42600</v>
       </c>
@@ -4270,7 +4287,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="52"/>
       <c r="C11" s="25" t="s">
@@ -4280,7 +4297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>42711</v>
       </c>
@@ -4294,7 +4311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>42725</v>
       </c>
@@ -4308,87 +4325,87 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="30"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="30"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="30"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="30"/>
       <c r="C22" s="28"/>
       <c r="D22" s="29"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="30"/>
       <c r="C23" s="28"/>
       <c r="D23" s="29"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="30"/>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="30"/>
       <c r="C25" s="28"/>
       <c r="D25" s="29"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="30"/>
       <c r="C26" s="28"/>
       <c r="D26" s="29"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="30"/>
       <c r="C27" s="28"/>
       <c r="D27" s="29"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
       <c r="C28" s="28"/>
       <c r="D28" s="29"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="30"/>
       <c r="C29" s="28"/>
       <c r="D29" s="29"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
@@ -4422,12 +4439,12 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>52</v>
       </c>
@@ -4440,62 +4457,62 @@
       <c r="H1" s="55"/>
       <c r="I1" s="55"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -4506,71 +4523,71 @@
       <c r="H19" s="37"/>
       <c r="I19" s="38"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
         <v>64</v>
       </c>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
         <v>65</v>
       </c>
       <c r="I22" s="40"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="s">
         <v>66</v>
       </c>
       <c r="I23" s="40"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
         <v>67</v>
       </c>
       <c r="I24" s="40"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="s">
         <v>68</v>
       </c>
       <c r="I25" s="40"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="s">
         <v>67</v>
       </c>
       <c r="I26" s="40"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
         <v>69</v>
       </c>
       <c r="I27" s="40"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="s">
         <v>67</v>
       </c>
       <c r="I28" s="40"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="s">
         <v>70</v>
       </c>
       <c r="I29" s="40"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="s">
         <v>67</v>
       </c>
       <c r="I30" s="40"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="41" t="s">
         <v>71</v>
       </c>
@@ -4583,7 +4600,7 @@
       <c r="H31" s="42"/>
       <c r="I31" s="43"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="36"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -4594,41 +4611,41 @@
       <c r="H33" s="37"/>
       <c r="I33" s="38"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="s">
         <v>72</v>
       </c>
       <c r="I34" s="40"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="39"/>
       <c r="I35" s="40"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="s">
         <v>65</v>
       </c>
       <c r="I36" s="40"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="s">
         <v>73</v>
       </c>
       <c r="I37" s="40"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="s">
         <v>67</v>
       </c>
       <c r="I38" s="40"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="s">
         <v>74</v>
       </c>
       <c r="I39" s="40"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="41"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -4639,7 +4656,7 @@
       <c r="H40" s="42"/>
       <c r="I40" s="43"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="36"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -4650,41 +4667,41 @@
       <c r="H42" s="37"/>
       <c r="I42" s="38"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="s">
         <v>75</v>
       </c>
       <c r="I43" s="40"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="I44" s="40"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="s">
         <v>76</v>
       </c>
       <c r="I45" s="40"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="s">
         <v>77</v>
       </c>
       <c r="I46" s="40"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="s">
         <v>67</v>
       </c>
       <c r="I47" s="40"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="s">
         <v>78</v>
       </c>
       <c r="I48" s="40"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="41"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
@@ -4695,42 +4712,42 @@
       <c r="H49" s="42"/>
       <c r="I49" s="43"/>
     </row>
-    <row r="52" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="35" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="36"/>
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
@@ -4741,163 +4758,163 @@
       <c r="H60" s="37"/>
       <c r="I60" s="38"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="s">
         <v>86</v>
       </c>
       <c r="I61" s="40"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="39"/>
       <c r="I62" s="40"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="s">
         <v>87</v>
       </c>
       <c r="I63" s="40"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="39"/>
       <c r="I64" s="40"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="s">
         <v>88</v>
       </c>
       <c r="I65" s="40"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="s">
         <v>89</v>
       </c>
       <c r="I66" s="40"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="39"/>
       <c r="I67" s="40"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="s">
         <v>90</v>
       </c>
       <c r="I68" s="40"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="s">
         <v>91</v>
       </c>
       <c r="I69" s="40"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="39"/>
       <c r="I70" s="40"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="s">
         <v>92</v>
       </c>
       <c r="I71" s="40"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="39"/>
       <c r="I72" s="40"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="s">
         <v>93</v>
       </c>
       <c r="I73" s="40"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="39"/>
       <c r="I74" s="40"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="s">
         <v>94</v>
       </c>
       <c r="I75" s="40"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="s">
         <v>95</v>
       </c>
       <c r="I76" s="40"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="s">
         <v>96</v>
       </c>
       <c r="I77" s="40"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="39"/>
       <c r="I78" s="40"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="s">
         <v>94</v>
       </c>
       <c r="I79" s="40"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="s">
         <v>95</v>
       </c>
       <c r="I80" s="40"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="s">
         <v>96</v>
       </c>
       <c r="I81" s="40"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="39"/>
       <c r="I82" s="40"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="s">
         <v>94</v>
       </c>
       <c r="I83" s="40"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="s">
         <v>95</v>
       </c>
       <c r="I84" s="40"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="s">
         <v>96</v>
       </c>
       <c r="I85" s="40"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="s">
         <v>97</v>
       </c>
       <c r="I86" s="40"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="s">
         <v>98</v>
       </c>
       <c r="I87" s="40"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="39"/>
       <c r="I88" s="40"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="s">
         <v>88</v>
       </c>
       <c r="I89" s="40"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="41"/>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
@@ -4908,7 +4925,7 @@
       <c r="H90" s="42"/>
       <c r="I90" s="43"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="36"/>
       <c r="B92" s="37"/>
       <c r="C92" s="37"/>
@@ -4919,159 +4936,159 @@
       <c r="H92" s="37"/>
       <c r="I92" s="38"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="s">
         <v>99</v>
       </c>
       <c r="I93" s="40"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="39"/>
       <c r="I94" s="40"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="s">
         <v>100</v>
       </c>
       <c r="I95" s="40"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="39"/>
       <c r="I96" s="40"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="s">
         <v>88</v>
       </c>
       <c r="I97" s="40"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="s">
         <v>89</v>
       </c>
       <c r="I98" s="40"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="39"/>
       <c r="I99" s="40"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="s">
         <v>90</v>
       </c>
       <c r="I100" s="40"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="s">
         <v>91</v>
       </c>
       <c r="I101" s="40"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="39"/>
       <c r="I102" s="40"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="s">
         <v>92</v>
       </c>
       <c r="I103" s="40"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="39"/>
       <c r="I104" s="40"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="39" t="s">
         <v>101</v>
       </c>
       <c r="I105" s="40"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="39"/>
       <c r="I106" s="40"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="39" t="s">
         <v>102</v>
       </c>
       <c r="I107" s="40"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I108" s="40"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="39"/>
       <c r="I109" s="40"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="39" t="s">
         <v>102</v>
       </c>
       <c r="I110" s="40"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I111" s="40"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="39"/>
       <c r="I112" s="40"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="39" t="s">
         <v>102</v>
       </c>
       <c r="I113" s="40"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I114" s="40"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="39"/>
       <c r="I115" s="40"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="39" t="s">
         <v>102</v>
       </c>
       <c r="I116" s="40"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I117" s="40"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="39"/>
       <c r="I118" s="40"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="39" t="s">
         <v>98</v>
       </c>
       <c r="I119" s="40"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="39"/>
       <c r="I120" s="40"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="39" t="s">
         <v>88</v>
       </c>
       <c r="I121" s="40"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="41"/>
       <c r="B122" s="42"/>
       <c r="C122" s="42"/>
@@ -5101,26 +5118,26 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.36328125" style="4" customWidth="1"/>
     <col min="10" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" style="4" customWidth="1"/>
     <col min="13" max="13" width="5" style="4" customWidth="1"/>
     <col min="14" max="15" width="9" style="4"/>
     <col min="16" max="16" width="7" style="4" customWidth="1"/>
     <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
       <c r="C1" s="154" t="s">
         <v>104</v>
       </c>
@@ -5132,7 +5149,7 @@
       <c r="I1" s="154"/>
       <c r="J1" s="154"/>
     </row>
-    <row r="2" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" s="155">
         <v>42547</v>
       </c>
@@ -5142,187 +5159,187 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B4" s="156" t="s">
         <v>105</v>
       </c>
       <c r="C4" s="158"/>
       <c r="D4" s="159"/>
       <c r="E4" s="160"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-    </row>
-    <row r="5" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+    </row>
+    <row r="5" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="157"/>
       <c r="C5" s="161"/>
       <c r="D5" s="162"/>
       <c r="E5" s="163"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-    </row>
-    <row r="6" spans="1:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+    </row>
+    <row r="6" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
       <c r="O6" s="45"/>
     </row>
-    <row r="7" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="138" t="s">
+    <row r="7" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="131" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="C7" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="141"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="134"/>
       <c r="O7" s="45"/>
     </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="138"/>
-      <c r="B8" s="142" t="s">
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="131"/>
+      <c r="B8" s="135" t="s">
         <v>109</v>
       </c>
       <c r="C8" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="146"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
       <c r="O8" s="45"/>
     </row>
-    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="138"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="149"/>
+    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="131"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="142"/>
       <c r="O9" s="45"/>
     </row>
-    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="138"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="149"/>
+    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="131"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="142"/>
       <c r="O10" s="45"/>
       <c r="P10" s="47"/>
     </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="138"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="149"/>
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="131"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="142"/>
       <c r="O11" s="45"/>
     </row>
-    <row r="12" spans="1:16" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="138"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="152"/>
+    <row r="12" spans="1:16" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="131"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="145"/>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="138"/>
-      <c r="B13" s="153" t="s">
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="131"/>
+      <c r="B13" s="146" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="129" t="s">
+      <c r="D13" s="148"/>
+      <c r="E13" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="131"/>
-      <c r="G13" s="129" t="s">
+      <c r="F13" s="148"/>
+      <c r="G13" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="129" t="s">
+      <c r="H13" s="149"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="130"/>
-      <c r="L13" s="131"/>
-    </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="138"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="132" t="s">
+      <c r="K13" s="149"/>
+      <c r="L13" s="148"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="131"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="135"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="133"/>
-    </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="138"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="151"/>
+    </row>
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="131"/>
       <c r="B15" s="104" t="s">
         <v>117</v>
       </c>
@@ -5339,8 +5356,8 @@
       <c r="K15" s="107"/>
       <c r="L15" s="108"/>
     </row>
-    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="138"/>
+    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="131"/>
       <c r="B16" s="105"/>
       <c r="C16" s="109"/>
       <c r="D16" s="110"/>
@@ -5353,8 +5370,8 @@
       <c r="K16" s="110"/>
       <c r="L16" s="111"/>
     </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="138"/>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="131"/>
       <c r="B17" s="105"/>
       <c r="C17" s="109"/>
       <c r="D17" s="110"/>
@@ -5367,8 +5384,8 @@
       <c r="K17" s="110"/>
       <c r="L17" s="111"/>
     </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="138"/>
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="131"/>
       <c r="B18" s="105"/>
       <c r="C18" s="109"/>
       <c r="D18" s="110"/>
@@ -5381,8 +5398,8 @@
       <c r="K18" s="110"/>
       <c r="L18" s="111"/>
     </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="138"/>
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="131"/>
       <c r="B19" s="105"/>
       <c r="C19" s="109"/>
       <c r="D19" s="110"/>
@@ -5395,8 +5412,8 @@
       <c r="K19" s="110"/>
       <c r="L19" s="111"/>
     </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="138"/>
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="131"/>
       <c r="B20" s="105"/>
       <c r="C20" s="109"/>
       <c r="D20" s="110"/>
@@ -5409,8 +5426,8 @@
       <c r="K20" s="110"/>
       <c r="L20" s="111"/>
     </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="138"/>
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="131"/>
       <c r="B21" s="106"/>
       <c r="C21" s="112"/>
       <c r="D21" s="113"/>
@@ -5423,8 +5440,8 @@
       <c r="K21" s="113"/>
       <c r="L21" s="114"/>
     </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="138"/>
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="131"/>
       <c r="B22" s="115" t="s">
         <v>119</v>
       </c>
@@ -5441,8 +5458,8 @@
       <c r="K22" s="107"/>
       <c r="L22" s="108"/>
     </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="138"/>
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="131"/>
       <c r="B23" s="116"/>
       <c r="C23" s="109"/>
       <c r="D23" s="110"/>
@@ -5455,8 +5472,8 @@
       <c r="K23" s="110"/>
       <c r="L23" s="111"/>
     </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="138"/>
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="131"/>
       <c r="B24" s="116"/>
       <c r="C24" s="109"/>
       <c r="D24" s="110"/>
@@ -5469,8 +5486,8 @@
       <c r="K24" s="110"/>
       <c r="L24" s="111"/>
     </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="138"/>
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="131"/>
       <c r="B25" s="116"/>
       <c r="C25" s="109"/>
       <c r="D25" s="110"/>
@@ -5483,8 +5500,8 @@
       <c r="K25" s="110"/>
       <c r="L25" s="111"/>
     </row>
-    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="138"/>
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="131"/>
       <c r="B26" s="116"/>
       <c r="C26" s="109"/>
       <c r="D26" s="110"/>
@@ -5497,8 +5514,8 @@
       <c r="K26" s="110"/>
       <c r="L26" s="111"/>
     </row>
-    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="138"/>
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="131"/>
       <c r="B27" s="116"/>
       <c r="C27" s="109"/>
       <c r="D27" s="110"/>
@@ -5511,8 +5528,8 @@
       <c r="K27" s="110"/>
       <c r="L27" s="111"/>
     </row>
-    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="138"/>
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="131"/>
       <c r="B28" s="116"/>
       <c r="C28" s="109"/>
       <c r="D28" s="110"/>
@@ -5525,8 +5542,8 @@
       <c r="K28" s="110"/>
       <c r="L28" s="111"/>
     </row>
-    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="138"/>
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="131"/>
       <c r="B29" s="117"/>
       <c r="C29" s="112"/>
       <c r="D29" s="113"/>
@@ -5539,8 +5556,8 @@
       <c r="K29" s="113"/>
       <c r="L29" s="114"/>
     </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="138"/>
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="131"/>
       <c r="B30" s="80" t="s">
         <v>121</v>
       </c>
@@ -5557,8 +5574,8 @@
       <c r="K30" s="121"/>
       <c r="L30" s="122"/>
     </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="138"/>
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="131"/>
       <c r="B31" s="118"/>
       <c r="C31" s="123"/>
       <c r="D31" s="124"/>
@@ -5571,8 +5588,8 @@
       <c r="K31" s="124"/>
       <c r="L31" s="125"/>
     </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="138"/>
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="131"/>
       <c r="B32" s="118"/>
       <c r="C32" s="123"/>
       <c r="D32" s="124"/>
@@ -5585,8 +5602,8 @@
       <c r="K32" s="124"/>
       <c r="L32" s="125"/>
     </row>
-    <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="138"/>
+    <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="131"/>
       <c r="B33" s="118"/>
       <c r="C33" s="123"/>
       <c r="D33" s="124"/>
@@ -5600,8 +5617,8 @@
       <c r="L33" s="125"/>
       <c r="O33" s="47"/>
     </row>
-    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="138"/>
+    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="131"/>
       <c r="B34" s="118"/>
       <c r="C34" s="123"/>
       <c r="D34" s="124"/>
@@ -5616,8 +5633,8 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="138"/>
+    <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="131"/>
       <c r="B35" s="118"/>
       <c r="C35" s="123"/>
       <c r="D35" s="124"/>
@@ -5632,8 +5649,8 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="138"/>
+    <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="131"/>
       <c r="B36" s="118"/>
       <c r="C36" s="123"/>
       <c r="D36" s="124"/>
@@ -5648,8 +5665,8 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="138"/>
+    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="131"/>
       <c r="B37" s="118"/>
       <c r="C37" s="123"/>
       <c r="D37" s="124"/>
@@ -5665,8 +5682,8 @@
       <c r="N37" s="9"/>
       <c r="O37" s="45"/>
     </row>
-    <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="138"/>
+    <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="131"/>
       <c r="B38" s="118"/>
       <c r="C38" s="123"/>
       <c r="D38" s="124"/>
@@ -5682,8 +5699,8 @@
       <c r="N38" s="9"/>
       <c r="O38" s="45"/>
     </row>
-    <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="138"/>
+    <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="131"/>
       <c r="B39" s="119"/>
       <c r="C39" s="126"/>
       <c r="D39" s="127"/>
@@ -5699,10 +5716,10 @@
       <c r="N39" s="9"/>
       <c r="O39" s="45"/>
     </row>
-    <row r="40" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="77" t="s">
         <v>123</v>
       </c>
@@ -5724,7 +5741,7 @@
       <c r="K41" s="71"/>
       <c r="L41" s="72"/>
     </row>
-    <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
       <c r="B42" s="92"/>
       <c r="C42" s="99"/>
@@ -5738,7 +5755,7 @@
       <c r="K42" s="73"/>
       <c r="L42" s="74"/>
     </row>
-    <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="78"/>
       <c r="B43" s="92"/>
       <c r="C43" s="100"/>
@@ -5752,7 +5769,7 @@
       <c r="K43" s="75"/>
       <c r="L43" s="76"/>
     </row>
-    <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="78"/>
       <c r="B44" s="92"/>
       <c r="C44" s="101" t="s">
@@ -5770,7 +5787,7 @@
       <c r="K44" s="71"/>
       <c r="L44" s="72"/>
     </row>
-    <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="78"/>
       <c r="B45" s="92"/>
       <c r="C45" s="102"/>
@@ -5784,7 +5801,7 @@
       <c r="K45" s="73"/>
       <c r="L45" s="74"/>
     </row>
-    <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="78"/>
       <c r="B46" s="94"/>
       <c r="C46" s="103"/>
@@ -5798,7 +5815,7 @@
       <c r="K46" s="75"/>
       <c r="L46" s="76"/>
     </row>
-    <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="78"/>
       <c r="B47" s="80" t="s">
         <v>129</v>
@@ -5818,7 +5835,7 @@
       <c r="K47" s="71"/>
       <c r="L47" s="72"/>
     </row>
-    <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="78"/>
       <c r="B48" s="81"/>
       <c r="C48" s="99"/>
@@ -5832,7 +5849,7 @@
       <c r="K48" s="73"/>
       <c r="L48" s="74"/>
     </row>
-    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="78"/>
       <c r="B49" s="81"/>
       <c r="C49" s="100"/>
@@ -5846,7 +5863,7 @@
       <c r="K49" s="75"/>
       <c r="L49" s="76"/>
     </row>
-    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="78"/>
       <c r="B50" s="81"/>
       <c r="C50" s="101" t="s">
@@ -5864,7 +5881,7 @@
       <c r="K50" s="71"/>
       <c r="L50" s="72"/>
     </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="78"/>
       <c r="B51" s="81"/>
       <c r="C51" s="102"/>
@@ -5878,7 +5895,7 @@
       <c r="K51" s="73"/>
       <c r="L51" s="74"/>
     </row>
-    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="79"/>
       <c r="B52" s="82"/>
       <c r="C52" s="103"/>
@@ -5892,7 +5909,7 @@
       <c r="K52" s="75"/>
       <c r="L52" s="76"/>
     </row>
-    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="77" t="s">
         <v>132</v>
       </c>
@@ -5912,7 +5929,7 @@
       <c r="K53" s="84"/>
       <c r="L53" s="85"/>
     </row>
-    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="78"/>
       <c r="B54" s="81"/>
       <c r="C54" s="86"/>
@@ -5926,7 +5943,7 @@
       <c r="K54" s="87"/>
       <c r="L54" s="88"/>
     </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="78"/>
       <c r="B55" s="81"/>
       <c r="C55" s="86"/>
@@ -5940,7 +5957,7 @@
       <c r="K55" s="87"/>
       <c r="L55" s="88"/>
     </row>
-    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="78"/>
       <c r="B56" s="81"/>
       <c r="C56" s="86"/>
@@ -5954,7 +5971,7 @@
       <c r="K56" s="87"/>
       <c r="L56" s="88"/>
     </row>
-    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="78"/>
       <c r="B57" s="81"/>
       <c r="C57" s="86"/>
@@ -5968,7 +5985,7 @@
       <c r="K57" s="87"/>
       <c r="L57" s="88"/>
     </row>
-    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="79"/>
       <c r="B58" s="82"/>
       <c r="C58" s="86"/>
@@ -5982,7 +5999,7 @@
       <c r="K58" s="87"/>
       <c r="L58" s="88"/>
     </row>
-    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="89" t="s">
         <v>135</v>
       </c>
@@ -6000,7 +6017,7 @@
       <c r="K59" s="84"/>
       <c r="L59" s="85"/>
     </row>
-    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="91"/>
       <c r="B60" s="92"/>
       <c r="C60" s="86"/>
@@ -6014,7 +6031,7 @@
       <c r="K60" s="87"/>
       <c r="L60" s="88"/>
     </row>
-    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="91"/>
       <c r="B61" s="92"/>
       <c r="C61" s="86"/>
@@ -6028,7 +6045,7 @@
       <c r="K61" s="87"/>
       <c r="L61" s="88"/>
     </row>
-    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="93"/>
       <c r="B62" s="94"/>
       <c r="C62" s="95"/>
@@ -6042,7 +6059,7 @@
       <c r="K62" s="96"/>
       <c r="L62" s="97"/>
     </row>
-    <row r="63" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="63" t="s">
         <v>137</v>
       </c>
@@ -6058,7 +6075,7 @@
       <c r="K63" s="64"/>
       <c r="L63" s="65"/>
     </row>
-    <row r="64" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="56" t="s">
         <v>138</v>
       </c>
@@ -6076,7 +6093,7 @@
       <c r="K64" s="67"/>
       <c r="L64" s="68"/>
     </row>
-    <row r="65" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="56" t="s">
         <v>140</v>
       </c>
@@ -6104,7 +6121,7 @@
       <c r="K65" s="70"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="56" t="s">
         <v>141</v>
       </c>
@@ -6122,7 +6139,7 @@
       <c r="K66" s="59"/>
       <c r="L66" s="60"/>
     </row>
-    <row r="67" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="61" t="s">
         <v>143</v>
       </c>
@@ -6140,22 +6157,22 @@
       <c r="K67" s="59"/>
       <c r="L67" s="60"/>
     </row>
-    <row r="68" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J69" s="62" t="s">
         <v>145</v>
       </c>
       <c r="K69" s="62"/>
       <c r="L69" s="62"/>
     </row>
-    <row r="73" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="56">
     <mergeCell ref="C1:J1"/>
@@ -6230,28 +6247,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.36328125" style="4" customWidth="1"/>
     <col min="10" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="11.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" style="4" customWidth="1"/>
     <col min="13" max="13" width="5" style="4" customWidth="1"/>
     <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
       <c r="C1" s="154" t="s">
         <v>1</v>
       </c>
@@ -6263,19 +6280,19 @@
       <c r="I1" s="154"/>
       <c r="J1" s="154"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="200"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="202"/>
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.3">
+      <c r="B2" s="181"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="K2" s="243" t="s">
+      <c r="K2" s="225" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="243"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="225"/>
+    </row>
+    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="H3" s="8"/>
@@ -6284,1131 +6301,1561 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="198" t="s">
+    <row r="4" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="203"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="159"/>
       <c r="E4" s="160"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-    </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="199"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="180"/>
       <c r="C5" s="162"/>
       <c r="D5" s="162"/>
       <c r="E5" s="163"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+    </row>
+    <row r="6" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C6" s="13"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="204" t="s">
+    <row r="7" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="237" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="221"/>
-      <c r="D7" s="222"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="222"/>
-      <c r="K7" s="222"/>
-      <c r="L7" s="223"/>
-    </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="204"/>
-      <c r="B8" s="205" t="s">
+      <c r="C7" s="181"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="194"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="237"/>
+      <c r="B8" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="182"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="184"/>
-    </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="204"/>
-      <c r="B9" s="206"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="186"/>
-    </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="204"/>
-      <c r="B10" s="206"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="186"/>
-    </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="204"/>
-      <c r="B11" s="206"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="186"/>
-    </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="204"/>
-      <c r="B12" s="206"/>
-      <c r="C12" s="185"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="186"/>
-    </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="204"/>
-      <c r="B13" s="206"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
-      <c r="L13" s="186"/>
-    </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="204"/>
-      <c r="B14" s="206"/>
-      <c r="C14" s="185"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="186"/>
-    </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="204"/>
-      <c r="B15" s="206"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="186"/>
-    </row>
-    <row r="16" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="204"/>
-      <c r="B16" s="206"/>
-      <c r="C16" s="185"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="186"/>
-    </row>
-    <row r="17" spans="1:12" ht="122.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="204"/>
-      <c r="B17" s="207"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="188"/>
-      <c r="K17" s="188"/>
-      <c r="L17" s="189"/>
-    </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="204"/>
-      <c r="B18" s="208" t="s">
+      <c r="C8" s="195" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="197"/>
+    </row>
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="237"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
+      <c r="G9" s="241"/>
+      <c r="H9" s="241"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="241"/>
+      <c r="K9" s="241"/>
+      <c r="L9" s="199"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="237"/>
+      <c r="B10" s="240"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
+      <c r="G10" s="241"/>
+      <c r="H10" s="241"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="241"/>
+      <c r="K10" s="241"/>
+      <c r="L10" s="199"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="237"/>
+      <c r="B11" s="240"/>
+      <c r="C11" s="241"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="241"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="241"/>
+      <c r="H11" s="241"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="241"/>
+      <c r="K11" s="241"/>
+      <c r="L11" s="199"/>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="237"/>
+      <c r="B12" s="240"/>
+      <c r="C12" s="241"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="241"/>
+      <c r="F12" s="241"/>
+      <c r="G12" s="241"/>
+      <c r="H12" s="241"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="241"/>
+      <c r="K12" s="241"/>
+      <c r="L12" s="199"/>
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="237"/>
+      <c r="B13" s="240"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="241"/>
+      <c r="K13" s="241"/>
+      <c r="L13" s="199"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="237"/>
+      <c r="B14" s="240"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="241"/>
+      <c r="F14" s="241"/>
+      <c r="G14" s="241"/>
+      <c r="H14" s="241"/>
+      <c r="I14" s="241"/>
+      <c r="J14" s="241"/>
+      <c r="K14" s="241"/>
+      <c r="L14" s="199"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="237"/>
+      <c r="B15" s="240"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="241"/>
+      <c r="G15" s="241"/>
+      <c r="H15" s="241"/>
+      <c r="I15" s="241"/>
+      <c r="J15" s="241"/>
+      <c r="K15" s="241"/>
+      <c r="L15" s="199"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="237"/>
+      <c r="B16" s="240"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="241"/>
+      <c r="K16" s="241"/>
+      <c r="L16" s="199"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="237"/>
+      <c r="B17" s="240"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="241"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="241"/>
+      <c r="I17" s="241"/>
+      <c r="J17" s="241"/>
+      <c r="K17" s="241"/>
+      <c r="L17" s="199"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="237"/>
+      <c r="B18" s="240"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="241"/>
+      <c r="F18" s="241"/>
+      <c r="G18" s="241"/>
+      <c r="H18" s="241"/>
+      <c r="I18" s="241"/>
+      <c r="J18" s="241"/>
+      <c r="K18" s="241"/>
+      <c r="L18" s="199"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="237"/>
+      <c r="B19" s="240"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="241"/>
+      <c r="F19" s="241"/>
+      <c r="G19" s="241"/>
+      <c r="H19" s="241"/>
+      <c r="I19" s="241"/>
+      <c r="J19" s="241"/>
+      <c r="K19" s="241"/>
+      <c r="L19" s="199"/>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="237"/>
+      <c r="B20" s="240"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="241"/>
+      <c r="F20" s="241"/>
+      <c r="G20" s="241"/>
+      <c r="H20" s="241"/>
+      <c r="I20" s="241"/>
+      <c r="J20" s="241"/>
+      <c r="K20" s="241"/>
+      <c r="L20" s="199"/>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="237"/>
+      <c r="B21" s="240"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="241"/>
+      <c r="F21" s="241"/>
+      <c r="G21" s="241"/>
+      <c r="H21" s="241"/>
+      <c r="I21" s="241"/>
+      <c r="J21" s="241"/>
+      <c r="K21" s="241"/>
+      <c r="L21" s="199"/>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="237"/>
+      <c r="B22" s="240"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="241"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="241"/>
+      <c r="H22" s="241"/>
+      <c r="I22" s="241"/>
+      <c r="J22" s="241"/>
+      <c r="K22" s="241"/>
+      <c r="L22" s="199"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="237"/>
+      <c r="B23" s="240"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="241"/>
+      <c r="F23" s="241"/>
+      <c r="G23" s="241"/>
+      <c r="H23" s="241"/>
+      <c r="I23" s="241"/>
+      <c r="J23" s="241"/>
+      <c r="K23" s="241"/>
+      <c r="L23" s="199"/>
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="237"/>
+      <c r="B24" s="240"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="241"/>
+      <c r="E24" s="241"/>
+      <c r="F24" s="241"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="241"/>
+      <c r="J24" s="241"/>
+      <c r="K24" s="241"/>
+      <c r="L24" s="199"/>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="237"/>
+      <c r="B25" s="240"/>
+      <c r="C25" s="241"/>
+      <c r="D25" s="241"/>
+      <c r="E25" s="241"/>
+      <c r="F25" s="241"/>
+      <c r="G25" s="241"/>
+      <c r="H25" s="241"/>
+      <c r="I25" s="241"/>
+      <c r="J25" s="241"/>
+      <c r="K25" s="241"/>
+      <c r="L25" s="199"/>
+    </row>
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="237"/>
+      <c r="B26" s="240"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="241"/>
+      <c r="F26" s="241"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="241"/>
+      <c r="I26" s="241"/>
+      <c r="J26" s="241"/>
+      <c r="K26" s="241"/>
+      <c r="L26" s="199"/>
+    </row>
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="237"/>
+      <c r="B27" s="240"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="241"/>
+      <c r="F27" s="241"/>
+      <c r="G27" s="241"/>
+      <c r="H27" s="241"/>
+      <c r="I27" s="241"/>
+      <c r="J27" s="241"/>
+      <c r="K27" s="241"/>
+      <c r="L27" s="199"/>
+    </row>
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="237"/>
+      <c r="B28" s="240"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="241"/>
+      <c r="F28" s="241"/>
+      <c r="G28" s="241"/>
+      <c r="H28" s="241"/>
+      <c r="I28" s="241"/>
+      <c r="J28" s="241"/>
+      <c r="K28" s="241"/>
+      <c r="L28" s="199"/>
+    </row>
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="237"/>
+      <c r="B29" s="240"/>
+      <c r="C29" s="241"/>
+      <c r="D29" s="241"/>
+      <c r="E29" s="241"/>
+      <c r="F29" s="241"/>
+      <c r="G29" s="241"/>
+      <c r="H29" s="241"/>
+      <c r="I29" s="241"/>
+      <c r="J29" s="241"/>
+      <c r="K29" s="241"/>
+      <c r="L29" s="199"/>
+    </row>
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="237"/>
+      <c r="B30" s="240"/>
+      <c r="C30" s="241"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="241"/>
+      <c r="F30" s="241"/>
+      <c r="G30" s="241"/>
+      <c r="H30" s="241"/>
+      <c r="I30" s="241"/>
+      <c r="J30" s="241"/>
+      <c r="K30" s="241"/>
+      <c r="L30" s="199"/>
+    </row>
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="237"/>
+      <c r="B31" s="239"/>
+      <c r="C31" s="198"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="199"/>
+    </row>
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="237"/>
+      <c r="B32" s="239"/>
+      <c r="C32" s="198"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="199"/>
+    </row>
+    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="237"/>
+      <c r="B33" s="239"/>
+      <c r="C33" s="198"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="199"/>
+    </row>
+    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="237"/>
+      <c r="B34" s="239"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="164"/>
+      <c r="L34" s="199"/>
+    </row>
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="237"/>
+      <c r="B35" s="239"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="199"/>
+    </row>
+    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="237"/>
+      <c r="B36" s="239"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="199"/>
+    </row>
+    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="237"/>
+      <c r="B37" s="239"/>
+      <c r="C37" s="198"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="164"/>
+      <c r="K37" s="164"/>
+      <c r="L37" s="199"/>
+    </row>
+    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="237"/>
+      <c r="B38" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="209" t="s">
+      <c r="C38" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="210"/>
-      <c r="E18" s="209" t="s">
+      <c r="D38" s="217"/>
+      <c r="E38" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="210"/>
-      <c r="G18" s="209" t="s">
+      <c r="F38" s="217"/>
+      <c r="G38" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="210"/>
-      <c r="J18" s="209" t="s">
+      <c r="H38" s="218"/>
+      <c r="I38" s="217"/>
+      <c r="J38" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="211"/>
-      <c r="L18" s="210"/>
-    </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="204"/>
-      <c r="B19" s="207"/>
-      <c r="C19" s="224"/>
-      <c r="D19" s="225"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="180"/>
-    </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="204"/>
-      <c r="B20" s="212" t="s">
+      <c r="K38" s="218"/>
+      <c r="L38" s="217"/>
+    </row>
+    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="237"/>
+      <c r="B39" s="215"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="204"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="205"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="181"/>
+      <c r="K39" s="205"/>
+      <c r="L39" s="204"/>
+    </row>
+    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="237"/>
+      <c r="B40" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="182"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="183"/>
-      <c r="L20" s="184"/>
-    </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="204"/>
-      <c r="B21" s="213"/>
-      <c r="C21" s="185"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="186"/>
-    </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="204"/>
-      <c r="B22" s="213"/>
-      <c r="C22" s="185"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="186"/>
-    </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="204"/>
-      <c r="B23" s="213"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="164"/>
-      <c r="L23" s="186"/>
-    </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="204"/>
-      <c r="B24" s="213"/>
-      <c r="C24" s="185"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="164"/>
-      <c r="L24" s="186"/>
-    </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="204"/>
-      <c r="B25" s="213"/>
-      <c r="C25" s="185"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="164"/>
-      <c r="L25" s="186"/>
-    </row>
-    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="204"/>
-      <c r="B26" s="213"/>
-      <c r="C26" s="185"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="186"/>
-    </row>
-    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="204"/>
-      <c r="B27" s="213"/>
-      <c r="C27" s="185"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="164"/>
-      <c r="L27" s="186"/>
-    </row>
-    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="204"/>
-      <c r="B28" s="213"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="164"/>
-      <c r="L28" s="186"/>
-    </row>
-    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="204"/>
-      <c r="B29" s="213"/>
-      <c r="C29" s="185"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="164"/>
-      <c r="L29" s="186"/>
-    </row>
-    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="204"/>
-      <c r="B30" s="214"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
-      <c r="G30" s="188"/>
-      <c r="H30" s="188"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="188"/>
-      <c r="K30" s="188"/>
-      <c r="L30" s="189"/>
-    </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="204"/>
-      <c r="B31" s="215" t="s">
+      <c r="C40" s="195" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="196"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="196"/>
+      <c r="G40" s="196"/>
+      <c r="H40" s="196"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="196"/>
+      <c r="K40" s="196"/>
+      <c r="L40" s="197"/>
+    </row>
+    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="237"/>
+      <c r="B41" s="185"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="164"/>
+      <c r="E41" s="164"/>
+      <c r="F41" s="164"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="164"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="164"/>
+      <c r="K41" s="164"/>
+      <c r="L41" s="199"/>
+    </row>
+    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="237"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="164"/>
+      <c r="F42" s="164"/>
+      <c r="G42" s="164"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="164"/>
+      <c r="K42" s="164"/>
+      <c r="L42" s="199"/>
+    </row>
+    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="237"/>
+      <c r="B43" s="185"/>
+      <c r="C43" s="198"/>
+      <c r="D43" s="164"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="164"/>
+      <c r="K43" s="164"/>
+      <c r="L43" s="199"/>
+    </row>
+    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="237"/>
+      <c r="B44" s="185"/>
+      <c r="C44" s="198"/>
+      <c r="D44" s="164"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="199"/>
+    </row>
+    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="237"/>
+      <c r="B45" s="185"/>
+      <c r="C45" s="198"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
+      <c r="G45" s="164"/>
+      <c r="H45" s="164"/>
+      <c r="I45" s="164"/>
+      <c r="J45" s="164"/>
+      <c r="K45" s="164"/>
+      <c r="L45" s="199"/>
+    </row>
+    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="237"/>
+      <c r="B46" s="185"/>
+      <c r="C46" s="198"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="164"/>
+      <c r="F46" s="164"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="164"/>
+      <c r="J46" s="164"/>
+      <c r="K46" s="164"/>
+      <c r="L46" s="199"/>
+    </row>
+    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="237"/>
+      <c r="B47" s="185"/>
+      <c r="C47" s="198"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="164"/>
+      <c r="I47" s="164"/>
+      <c r="J47" s="164"/>
+      <c r="K47" s="164"/>
+      <c r="L47" s="199"/>
+    </row>
+    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="237"/>
+      <c r="B48" s="185"/>
+      <c r="C48" s="198"/>
+      <c r="D48" s="164"/>
+      <c r="E48" s="164"/>
+      <c r="F48" s="164"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="164"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="164"/>
+      <c r="K48" s="164"/>
+      <c r="L48" s="199"/>
+    </row>
+    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="237"/>
+      <c r="B49" s="185"/>
+      <c r="C49" s="198"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="164"/>
+      <c r="F49" s="164"/>
+      <c r="G49" s="164"/>
+      <c r="H49" s="164"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="164"/>
+      <c r="K49" s="164"/>
+      <c r="L49" s="199"/>
+    </row>
+    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="237"/>
+      <c r="B50" s="185"/>
+      <c r="C50" s="198"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="164"/>
+      <c r="F50" s="164"/>
+      <c r="G50" s="164"/>
+      <c r="H50" s="164"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="164"/>
+      <c r="K50" s="164"/>
+      <c r="L50" s="199"/>
+    </row>
+    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="237"/>
+      <c r="B51" s="185"/>
+      <c r="C51" s="198"/>
+      <c r="D51" s="164"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="164"/>
+      <c r="G51" s="164"/>
+      <c r="H51" s="164"/>
+      <c r="I51" s="164"/>
+      <c r="J51" s="164"/>
+      <c r="K51" s="164"/>
+      <c r="L51" s="199"/>
+    </row>
+    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="237"/>
+      <c r="B52" s="185"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="164"/>
+      <c r="L52" s="199"/>
+    </row>
+    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="237"/>
+      <c r="B53" s="185"/>
+      <c r="C53" s="198"/>
+      <c r="D53" s="164"/>
+      <c r="E53" s="164"/>
+      <c r="F53" s="164"/>
+      <c r="G53" s="164"/>
+      <c r="H53" s="164"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="164"/>
+      <c r="K53" s="164"/>
+      <c r="L53" s="199"/>
+    </row>
+    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="237"/>
+      <c r="B54" s="185"/>
+      <c r="C54" s="198"/>
+      <c r="D54" s="164"/>
+      <c r="E54" s="164"/>
+      <c r="F54" s="164"/>
+      <c r="G54" s="164"/>
+      <c r="H54" s="164"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="164"/>
+      <c r="K54" s="164"/>
+      <c r="L54" s="199"/>
+    </row>
+    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="237"/>
+      <c r="B55" s="185"/>
+      <c r="C55" s="198"/>
+      <c r="D55" s="164"/>
+      <c r="E55" s="164"/>
+      <c r="F55" s="164"/>
+      <c r="G55" s="164"/>
+      <c r="H55" s="164"/>
+      <c r="I55" s="164"/>
+      <c r="J55" s="164"/>
+      <c r="K55" s="164"/>
+      <c r="L55" s="199"/>
+    </row>
+    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="237"/>
+      <c r="B56" s="185"/>
+      <c r="C56" s="198"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="164"/>
+      <c r="F56" s="164"/>
+      <c r="G56" s="164"/>
+      <c r="H56" s="164"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="164"/>
+      <c r="K56" s="164"/>
+      <c r="L56" s="199"/>
+    </row>
+    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="237"/>
+      <c r="B57" s="185"/>
+      <c r="C57" s="198"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="164"/>
+      <c r="F57" s="164"/>
+      <c r="G57" s="164"/>
+      <c r="H57" s="164"/>
+      <c r="I57" s="164"/>
+      <c r="J57" s="164"/>
+      <c r="K57" s="164"/>
+      <c r="L57" s="199"/>
+    </row>
+    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="237"/>
+      <c r="B58" s="185"/>
+      <c r="C58" s="198"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="164"/>
+      <c r="F58" s="164"/>
+      <c r="G58" s="164"/>
+      <c r="H58" s="164"/>
+      <c r="I58" s="164"/>
+      <c r="J58" s="164"/>
+      <c r="K58" s="164"/>
+      <c r="L58" s="199"/>
+    </row>
+    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="237"/>
+      <c r="B59" s="186"/>
+      <c r="C59" s="200"/>
+      <c r="D59" s="201"/>
+      <c r="E59" s="201"/>
+      <c r="F59" s="201"/>
+      <c r="G59" s="201"/>
+      <c r="H59" s="201"/>
+      <c r="I59" s="201"/>
+      <c r="J59" s="201"/>
+      <c r="K59" s="201"/>
+      <c r="L59" s="202"/>
+    </row>
+    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="237"/>
+      <c r="B60" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="164"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="190"/>
-      <c r="L31" s="191"/>
-    </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="204"/>
-      <c r="B32" s="216"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="193"/>
-      <c r="K32" s="193"/>
-      <c r="L32" s="194"/>
-    </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="204"/>
-      <c r="B33" s="216"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="193"/>
-      <c r="K33" s="193"/>
-      <c r="L33" s="194"/>
-    </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="204"/>
-      <c r="B34" s="216"/>
-      <c r="C34" s="192"/>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="193"/>
-      <c r="K34" s="193"/>
-      <c r="L34" s="194"/>
-    </row>
-    <row r="35" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="204"/>
-      <c r="B35" s="216"/>
-      <c r="C35" s="192"/>
-      <c r="D35" s="193"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="193"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="193"/>
-      <c r="K35" s="193"/>
-      <c r="L35" s="194"/>
-    </row>
-    <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="204"/>
-      <c r="B36" s="216"/>
-      <c r="C36" s="192"/>
-      <c r="D36" s="193"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="193"/>
-      <c r="K36" s="193"/>
-      <c r="L36" s="194"/>
-    </row>
-    <row r="37" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="204"/>
-      <c r="B37" s="216"/>
-      <c r="C37" s="192"/>
-      <c r="D37" s="193"/>
-      <c r="E37" s="193"/>
-      <c r="F37" s="193"/>
-      <c r="G37" s="193"/>
-      <c r="H37" s="193"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="193"/>
-      <c r="K37" s="193"/>
-      <c r="L37" s="194"/>
-    </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="204"/>
-      <c r="B38" s="217"/>
-      <c r="C38" s="195"/>
-      <c r="D38" s="196"/>
-      <c r="E38" s="196"/>
-      <c r="F38" s="196"/>
-      <c r="G38" s="196"/>
-      <c r="H38" s="196"/>
-      <c r="I38" s="196"/>
-      <c r="J38" s="196"/>
-      <c r="K38" s="196"/>
-      <c r="L38" s="197"/>
-    </row>
-    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="204"/>
-      <c r="B39" s="218" t="s">
+      <c r="C60" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="206"/>
+      <c r="E60" s="206"/>
+      <c r="F60" s="206"/>
+      <c r="G60" s="206"/>
+      <c r="H60" s="206"/>
+      <c r="I60" s="206"/>
+      <c r="J60" s="206"/>
+      <c r="K60" s="206"/>
+      <c r="L60" s="207"/>
+    </row>
+    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="237"/>
+      <c r="B61" s="188"/>
+      <c r="C61" s="208"/>
+      <c r="D61" s="209"/>
+      <c r="E61" s="209"/>
+      <c r="F61" s="209"/>
+      <c r="G61" s="209"/>
+      <c r="H61" s="209"/>
+      <c r="I61" s="209"/>
+      <c r="J61" s="209"/>
+      <c r="K61" s="209"/>
+      <c r="L61" s="210"/>
+    </row>
+    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="237"/>
+      <c r="B62" s="188"/>
+      <c r="C62" s="208"/>
+      <c r="D62" s="209"/>
+      <c r="E62" s="209"/>
+      <c r="F62" s="209"/>
+      <c r="G62" s="209"/>
+      <c r="H62" s="209"/>
+      <c r="I62" s="209"/>
+      <c r="J62" s="209"/>
+      <c r="K62" s="209"/>
+      <c r="L62" s="210"/>
+    </row>
+    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="237"/>
+      <c r="B63" s="188"/>
+      <c r="C63" s="208"/>
+      <c r="D63" s="209"/>
+      <c r="E63" s="209"/>
+      <c r="F63" s="209"/>
+      <c r="G63" s="209"/>
+      <c r="H63" s="209"/>
+      <c r="I63" s="209"/>
+      <c r="J63" s="209"/>
+      <c r="K63" s="209"/>
+      <c r="L63" s="210"/>
+    </row>
+    <row r="64" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="237"/>
+      <c r="B64" s="188"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="209"/>
+      <c r="E64" s="209"/>
+      <c r="F64" s="209"/>
+      <c r="G64" s="209"/>
+      <c r="H64" s="209"/>
+      <c r="I64" s="209"/>
+      <c r="J64" s="209"/>
+      <c r="K64" s="209"/>
+      <c r="L64" s="210"/>
+    </row>
+    <row r="65" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="237"/>
+      <c r="B65" s="188"/>
+      <c r="C65" s="208"/>
+      <c r="D65" s="209"/>
+      <c r="E65" s="209"/>
+      <c r="F65" s="209"/>
+      <c r="G65" s="209"/>
+      <c r="H65" s="209"/>
+      <c r="I65" s="209"/>
+      <c r="J65" s="209"/>
+      <c r="K65" s="209"/>
+      <c r="L65" s="210"/>
+    </row>
+    <row r="66" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="237"/>
+      <c r="B66" s="188"/>
+      <c r="C66" s="208"/>
+      <c r="D66" s="209"/>
+      <c r="E66" s="209"/>
+      <c r="F66" s="209"/>
+      <c r="G66" s="209"/>
+      <c r="H66" s="209"/>
+      <c r="I66" s="209"/>
+      <c r="J66" s="209"/>
+      <c r="K66" s="209"/>
+      <c r="L66" s="210"/>
+    </row>
+    <row r="67" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="237"/>
+      <c r="B67" s="189"/>
+      <c r="C67" s="211"/>
+      <c r="D67" s="212"/>
+      <c r="E67" s="212"/>
+      <c r="F67" s="212"/>
+      <c r="G67" s="212"/>
+      <c r="H67" s="212"/>
+      <c r="I67" s="212"/>
+      <c r="J67" s="212"/>
+      <c r="K67" s="212"/>
+      <c r="L67" s="213"/>
+    </row>
+    <row r="68" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="237"/>
+      <c r="B68" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="164"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="121"/>
-      <c r="K39" s="121"/>
-      <c r="L39" s="122"/>
-    </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="204"/>
-      <c r="B40" s="219"/>
-      <c r="C40" s="123"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="125"/>
-    </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="204"/>
-      <c r="B41" s="219"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="125"/>
-    </row>
-    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="204"/>
-      <c r="B42" s="219"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="125"/>
-    </row>
-    <row r="43" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="204"/>
-      <c r="B43" s="219"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="124"/>
-      <c r="H43" s="124"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="124"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="125"/>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="1:13" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="204"/>
-      <c r="B44" s="219"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="9"/>
-    </row>
-    <row r="45" spans="1:13" ht="5.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="204"/>
-      <c r="B45" s="219"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="1:13" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="204"/>
-      <c r="B46" s="219"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="1:13" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="204"/>
-      <c r="B47" s="219"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="125"/>
-      <c r="M47" s="9"/>
-    </row>
-    <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="204"/>
-      <c r="B48" s="220"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
-      <c r="G48" s="127"/>
-      <c r="H48" s="127"/>
-      <c r="I48" s="127"/>
-      <c r="J48" s="127"/>
-      <c r="K48" s="127"/>
-      <c r="L48" s="128"/>
-      <c r="M48" s="9"/>
-    </row>
-    <row r="49" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="238" t="s">
+      <c r="C68" s="164"/>
+      <c r="D68" s="121"/>
+      <c r="E68" s="121"/>
+      <c r="F68" s="121"/>
+      <c r="G68" s="121"/>
+      <c r="H68" s="121"/>
+      <c r="I68" s="121"/>
+      <c r="J68" s="121"/>
+      <c r="K68" s="121"/>
+      <c r="L68" s="122"/>
+    </row>
+    <row r="69" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="237"/>
+      <c r="B69" s="191"/>
+      <c r="C69" s="123"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="124"/>
+      <c r="F69" s="124"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="124"/>
+      <c r="J69" s="124"/>
+      <c r="K69" s="124"/>
+      <c r="L69" s="125"/>
+    </row>
+    <row r="70" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="237"/>
+      <c r="B70" s="191"/>
+      <c r="C70" s="123"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="124"/>
+      <c r="J70" s="124"/>
+      <c r="K70" s="124"/>
+      <c r="L70" s="125"/>
+    </row>
+    <row r="71" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="237"/>
+      <c r="B71" s="191"/>
+      <c r="C71" s="123"/>
+      <c r="D71" s="124"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="124"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="124"/>
+      <c r="I71" s="124"/>
+      <c r="J71" s="124"/>
+      <c r="K71" s="124"/>
+      <c r="L71" s="125"/>
+    </row>
+    <row r="72" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="237"/>
+      <c r="B72" s="191"/>
+      <c r="C72" s="123"/>
+      <c r="D72" s="124"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="124"/>
+      <c r="G72" s="124"/>
+      <c r="H72" s="124"/>
+      <c r="I72" s="124"/>
+      <c r="J72" s="124"/>
+      <c r="K72" s="124"/>
+      <c r="L72" s="125"/>
+      <c r="M72" s="9"/>
+    </row>
+    <row r="73" spans="1:13" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="237"/>
+      <c r="B73" s="191"/>
+      <c r="C73" s="123"/>
+      <c r="D73" s="124"/>
+      <c r="E73" s="124"/>
+      <c r="F73" s="124"/>
+      <c r="G73" s="124"/>
+      <c r="H73" s="124"/>
+      <c r="I73" s="124"/>
+      <c r="J73" s="124"/>
+      <c r="K73" s="124"/>
+      <c r="L73" s="125"/>
+      <c r="M73" s="9"/>
+    </row>
+    <row r="74" spans="1:13" ht="5.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="237"/>
+      <c r="B74" s="191"/>
+      <c r="C74" s="123"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="124"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="124"/>
+      <c r="J74" s="124"/>
+      <c r="K74" s="124"/>
+      <c r="L74" s="125"/>
+      <c r="M74" s="9"/>
+    </row>
+    <row r="75" spans="1:13" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="237"/>
+      <c r="B75" s="191"/>
+      <c r="C75" s="123"/>
+      <c r="D75" s="124"/>
+      <c r="E75" s="124"/>
+      <c r="F75" s="124"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="124"/>
+      <c r="I75" s="124"/>
+      <c r="J75" s="124"/>
+      <c r="K75" s="124"/>
+      <c r="L75" s="125"/>
+      <c r="M75" s="9"/>
+    </row>
+    <row r="76" spans="1:13" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="237"/>
+      <c r="B76" s="191"/>
+      <c r="C76" s="123"/>
+      <c r="D76" s="124"/>
+      <c r="E76" s="124"/>
+      <c r="F76" s="124"/>
+      <c r="G76" s="124"/>
+      <c r="H76" s="124"/>
+      <c r="I76" s="124"/>
+      <c r="J76" s="124"/>
+      <c r="K76" s="124"/>
+      <c r="L76" s="125"/>
+      <c r="M76" s="9"/>
+    </row>
+    <row r="77" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="237"/>
+      <c r="B77" s="192"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="127"/>
+      <c r="E77" s="127"/>
+      <c r="F77" s="127"/>
+      <c r="G77" s="127"/>
+      <c r="H77" s="127"/>
+      <c r="I77" s="127"/>
+      <c r="J77" s="127"/>
+      <c r="K77" s="127"/>
+      <c r="L77" s="128"/>
+      <c r="M77" s="9"/>
+    </row>
+    <row r="78" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="232" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="233" t="s">
+      <c r="B79" s="227" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="173" t="s">
+      <c r="C79" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="164"/>
-      <c r="E50" s="165"/>
-      <c r="F50" s="165"/>
-      <c r="G50" s="165"/>
-      <c r="H50" s="165"/>
-      <c r="I50" s="165"/>
-      <c r="J50" s="165"/>
-      <c r="K50" s="165"/>
-      <c r="L50" s="166"/>
-    </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="239"/>
-      <c r="B51" s="235"/>
-      <c r="C51" s="174"/>
-      <c r="D51" s="167"/>
-      <c r="E51" s="168"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="168"/>
-      <c r="I51" s="168"/>
-      <c r="J51" s="168"/>
-      <c r="K51" s="168"/>
-      <c r="L51" s="169"/>
-    </row>
-    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="239"/>
-      <c r="B52" s="235"/>
-      <c r="C52" s="175"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="171"/>
-      <c r="G52" s="171"/>
-      <c r="H52" s="171"/>
-      <c r="I52" s="171"/>
-      <c r="J52" s="171"/>
-      <c r="K52" s="171"/>
-      <c r="L52" s="172"/>
-    </row>
-    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="239"/>
-      <c r="B53" s="235"/>
-      <c r="C53" s="176" t="s">
+      <c r="D79" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="E79" s="165"/>
+      <c r="F79" s="165"/>
+      <c r="G79" s="165"/>
+      <c r="H79" s="165"/>
+      <c r="I79" s="165"/>
+      <c r="J79" s="165"/>
+      <c r="K79" s="165"/>
+      <c r="L79" s="166"/>
+    </row>
+    <row r="80" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="233"/>
+      <c r="B80" s="229"/>
+      <c r="C80" s="174"/>
+      <c r="D80" s="167"/>
+      <c r="E80" s="168"/>
+      <c r="F80" s="168"/>
+      <c r="G80" s="168"/>
+      <c r="H80" s="168"/>
+      <c r="I80" s="168"/>
+      <c r="J80" s="168"/>
+      <c r="K80" s="168"/>
+      <c r="L80" s="169"/>
+    </row>
+    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="233"/>
+      <c r="B81" s="229"/>
+      <c r="C81" s="175"/>
+      <c r="D81" s="170"/>
+      <c r="E81" s="171"/>
+      <c r="F81" s="171"/>
+      <c r="G81" s="171"/>
+      <c r="H81" s="171"/>
+      <c r="I81" s="171"/>
+      <c r="J81" s="171"/>
+      <c r="K81" s="171"/>
+      <c r="L81" s="172"/>
+    </row>
+    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="233"/>
+      <c r="B82" s="229"/>
+      <c r="C82" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="164"/>
-      <c r="E53" s="165"/>
-      <c r="F53" s="165"/>
-      <c r="G53" s="165"/>
-      <c r="H53" s="165"/>
-      <c r="I53" s="165"/>
-      <c r="J53" s="165"/>
-      <c r="K53" s="165"/>
-      <c r="L53" s="166"/>
-    </row>
-    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="239"/>
-      <c r="B54" s="235"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="168"/>
-      <c r="E54" s="168"/>
-      <c r="F54" s="168"/>
-      <c r="G54" s="168"/>
-      <c r="H54" s="168"/>
-      <c r="I54" s="168"/>
-      <c r="J54" s="168"/>
-      <c r="K54" s="168"/>
-      <c r="L54" s="169"/>
-    </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="239"/>
-      <c r="B55" s="237"/>
-      <c r="C55" s="178"/>
-      <c r="D55" s="171"/>
-      <c r="E55" s="171"/>
-      <c r="F55" s="171"/>
-      <c r="G55" s="171"/>
-      <c r="H55" s="171"/>
-      <c r="I55" s="171"/>
-      <c r="J55" s="171"/>
-      <c r="K55" s="171"/>
-      <c r="L55" s="172"/>
-    </row>
-    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="239"/>
-      <c r="B56" s="218" t="s">
+      <c r="D82" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="E82" s="165"/>
+      <c r="F82" s="165"/>
+      <c r="G82" s="165"/>
+      <c r="H82" s="165"/>
+      <c r="I82" s="165"/>
+      <c r="J82" s="165"/>
+      <c r="K82" s="165"/>
+      <c r="L82" s="166"/>
+    </row>
+    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="233"/>
+      <c r="B83" s="229"/>
+      <c r="C83" s="177"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="168"/>
+      <c r="F83" s="168"/>
+      <c r="G83" s="168"/>
+      <c r="H83" s="168"/>
+      <c r="I83" s="168"/>
+      <c r="J83" s="168"/>
+      <c r="K83" s="168"/>
+      <c r="L83" s="169"/>
+    </row>
+    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="233"/>
+      <c r="B84" s="231"/>
+      <c r="C84" s="178"/>
+      <c r="D84" s="171"/>
+      <c r="E84" s="171"/>
+      <c r="F84" s="171"/>
+      <c r="G84" s="171"/>
+      <c r="H84" s="171"/>
+      <c r="I84" s="171"/>
+      <c r="J84" s="171"/>
+      <c r="K84" s="171"/>
+      <c r="L84" s="172"/>
+    </row>
+    <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="233"/>
+      <c r="B85" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="173" t="s">
+      <c r="C85" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="164"/>
-      <c r="E56" s="165"/>
-      <c r="F56" s="165"/>
-      <c r="G56" s="165"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="165"/>
-      <c r="K56" s="165"/>
-      <c r="L56" s="166"/>
-    </row>
-    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="239"/>
-      <c r="B57" s="241"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="168"/>
-      <c r="E57" s="168"/>
-      <c r="F57" s="168"/>
-      <c r="G57" s="168"/>
-      <c r="H57" s="168"/>
-      <c r="I57" s="168"/>
-      <c r="J57" s="168"/>
-      <c r="K57" s="168"/>
-      <c r="L57" s="169"/>
-    </row>
-    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="239"/>
-      <c r="B58" s="241"/>
-      <c r="C58" s="175"/>
-      <c r="D58" s="171"/>
-      <c r="E58" s="171"/>
-      <c r="F58" s="171"/>
-      <c r="G58" s="171"/>
-      <c r="H58" s="171"/>
-      <c r="I58" s="171"/>
-      <c r="J58" s="171"/>
-      <c r="K58" s="171"/>
-      <c r="L58" s="172"/>
-    </row>
-    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="239"/>
-      <c r="B59" s="241"/>
-      <c r="C59" s="176" t="s">
+      <c r="D85" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="E85" s="165"/>
+      <c r="F85" s="165"/>
+      <c r="G85" s="165"/>
+      <c r="H85" s="165"/>
+      <c r="I85" s="165"/>
+      <c r="J85" s="165"/>
+      <c r="K85" s="165"/>
+      <c r="L85" s="166"/>
+    </row>
+    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="233"/>
+      <c r="B86" s="235"/>
+      <c r="C86" s="174"/>
+      <c r="D86" s="168"/>
+      <c r="E86" s="168"/>
+      <c r="F86" s="168"/>
+      <c r="G86" s="168"/>
+      <c r="H86" s="168"/>
+      <c r="I86" s="168"/>
+      <c r="J86" s="168"/>
+      <c r="K86" s="168"/>
+      <c r="L86" s="169"/>
+    </row>
+    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="233"/>
+      <c r="B87" s="235"/>
+      <c r="C87" s="175"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="171"/>
+      <c r="F87" s="171"/>
+      <c r="G87" s="171"/>
+      <c r="H87" s="171"/>
+      <c r="I87" s="171"/>
+      <c r="J87" s="171"/>
+      <c r="K87" s="171"/>
+      <c r="L87" s="172"/>
+    </row>
+    <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="233"/>
+      <c r="B88" s="235"/>
+      <c r="C88" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="164"/>
-      <c r="E59" s="165"/>
-      <c r="F59" s="165"/>
-      <c r="G59" s="165"/>
-      <c r="H59" s="165"/>
-      <c r="I59" s="165"/>
-      <c r="J59" s="165"/>
-      <c r="K59" s="165"/>
-      <c r="L59" s="166"/>
-    </row>
-    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="239"/>
-      <c r="B60" s="241"/>
-      <c r="C60" s="177"/>
-      <c r="D60" s="168"/>
-      <c r="E60" s="168"/>
-      <c r="F60" s="168"/>
-      <c r="G60" s="168"/>
-      <c r="H60" s="168"/>
-      <c r="I60" s="168"/>
-      <c r="J60" s="168"/>
-      <c r="K60" s="168"/>
-      <c r="L60" s="169"/>
-    </row>
-    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="240"/>
-      <c r="B61" s="242"/>
-      <c r="C61" s="178"/>
-      <c r="D61" s="171"/>
-      <c r="E61" s="171"/>
-      <c r="F61" s="171"/>
-      <c r="G61" s="171"/>
-      <c r="H61" s="171"/>
-      <c r="I61" s="171"/>
-      <c r="J61" s="171"/>
-      <c r="K61" s="171"/>
-      <c r="L61" s="172"/>
-    </row>
-    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="238" t="s">
+      <c r="D88" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="E88" s="165"/>
+      <c r="F88" s="165"/>
+      <c r="G88" s="165"/>
+      <c r="H88" s="165"/>
+      <c r="I88" s="165"/>
+      <c r="J88" s="165"/>
+      <c r="K88" s="165"/>
+      <c r="L88" s="166"/>
+    </row>
+    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="233"/>
+      <c r="B89" s="235"/>
+      <c r="C89" s="177"/>
+      <c r="D89" s="168"/>
+      <c r="E89" s="168"/>
+      <c r="F89" s="168"/>
+      <c r="G89" s="168"/>
+      <c r="H89" s="168"/>
+      <c r="I89" s="168"/>
+      <c r="J89" s="168"/>
+      <c r="K89" s="168"/>
+      <c r="L89" s="169"/>
+    </row>
+    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="234"/>
+      <c r="B90" s="236"/>
+      <c r="C90" s="178"/>
+      <c r="D90" s="171"/>
+      <c r="E90" s="171"/>
+      <c r="F90" s="171"/>
+      <c r="G90" s="171"/>
+      <c r="H90" s="171"/>
+      <c r="I90" s="171"/>
+      <c r="J90" s="171"/>
+      <c r="K90" s="171"/>
+      <c r="L90" s="172"/>
+    </row>
+    <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="232" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="218" t="s">
+      <c r="B91" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="182"/>
-      <c r="D62" s="190"/>
-      <c r="E62" s="190"/>
-      <c r="F62" s="190"/>
-      <c r="G62" s="190"/>
-      <c r="H62" s="190"/>
-      <c r="I62" s="190"/>
-      <c r="J62" s="190"/>
-      <c r="K62" s="190"/>
-      <c r="L62" s="191"/>
-    </row>
-    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="239"/>
-      <c r="B63" s="241"/>
-      <c r="C63" s="192"/>
-      <c r="D63" s="193"/>
-      <c r="E63" s="193"/>
-      <c r="F63" s="193"/>
-      <c r="G63" s="193"/>
-      <c r="H63" s="193"/>
-      <c r="I63" s="193"/>
-      <c r="J63" s="193"/>
-      <c r="K63" s="193"/>
-      <c r="L63" s="194"/>
-    </row>
-    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="239"/>
-      <c r="B64" s="241"/>
-      <c r="C64" s="192"/>
-      <c r="D64" s="193"/>
-      <c r="E64" s="193"/>
-      <c r="F64" s="193"/>
-      <c r="G64" s="193"/>
-      <c r="H64" s="193"/>
-      <c r="I64" s="193"/>
-      <c r="J64" s="193"/>
-      <c r="K64" s="193"/>
-      <c r="L64" s="194"/>
-    </row>
-    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="239"/>
-      <c r="B65" s="241"/>
-      <c r="C65" s="192"/>
-      <c r="D65" s="193"/>
-      <c r="E65" s="193"/>
-      <c r="F65" s="193"/>
-      <c r="G65" s="193"/>
-      <c r="H65" s="193"/>
-      <c r="I65" s="193"/>
-      <c r="J65" s="193"/>
-      <c r="K65" s="193"/>
-      <c r="L65" s="194"/>
-    </row>
-    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="239"/>
-      <c r="B66" s="241"/>
-      <c r="C66" s="192"/>
-      <c r="D66" s="193"/>
-      <c r="E66" s="193"/>
-      <c r="F66" s="193"/>
-      <c r="G66" s="193"/>
-      <c r="H66" s="193"/>
-      <c r="I66" s="193"/>
-      <c r="J66" s="193"/>
-      <c r="K66" s="193"/>
-      <c r="L66" s="194"/>
-    </row>
-    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="240"/>
-      <c r="B67" s="242"/>
-      <c r="C67" s="195"/>
-      <c r="D67" s="196"/>
-      <c r="E67" s="196"/>
-      <c r="F67" s="196"/>
-      <c r="G67" s="196"/>
-      <c r="H67" s="196"/>
-      <c r="I67" s="196"/>
-      <c r="J67" s="196"/>
-      <c r="K67" s="196"/>
-      <c r="L67" s="197"/>
-    </row>
-    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="232" t="s">
+      <c r="C91" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="D91" s="206"/>
+      <c r="E91" s="206"/>
+      <c r="F91" s="206"/>
+      <c r="G91" s="206"/>
+      <c r="H91" s="206"/>
+      <c r="I91" s="206"/>
+      <c r="J91" s="206"/>
+      <c r="K91" s="206"/>
+      <c r="L91" s="207"/>
+    </row>
+    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="233"/>
+      <c r="B92" s="235"/>
+      <c r="C92" s="208"/>
+      <c r="D92" s="209"/>
+      <c r="E92" s="209"/>
+      <c r="F92" s="209"/>
+      <c r="G92" s="209"/>
+      <c r="H92" s="209"/>
+      <c r="I92" s="209"/>
+      <c r="J92" s="209"/>
+      <c r="K92" s="209"/>
+      <c r="L92" s="210"/>
+    </row>
+    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="233"/>
+      <c r="B93" s="235"/>
+      <c r="C93" s="208"/>
+      <c r="D93" s="209"/>
+      <c r="E93" s="209"/>
+      <c r="F93" s="209"/>
+      <c r="G93" s="209"/>
+      <c r="H93" s="209"/>
+      <c r="I93" s="209"/>
+      <c r="J93" s="209"/>
+      <c r="K93" s="209"/>
+      <c r="L93" s="210"/>
+    </row>
+    <row r="94" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="233"/>
+      <c r="B94" s="235"/>
+      <c r="C94" s="208"/>
+      <c r="D94" s="209"/>
+      <c r="E94" s="209"/>
+      <c r="F94" s="209"/>
+      <c r="G94" s="209"/>
+      <c r="H94" s="209"/>
+      <c r="I94" s="209"/>
+      <c r="J94" s="209"/>
+      <c r="K94" s="209"/>
+      <c r="L94" s="210"/>
+    </row>
+    <row r="95" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="233"/>
+      <c r="B95" s="235"/>
+      <c r="C95" s="208"/>
+      <c r="D95" s="209"/>
+      <c r="E95" s="209"/>
+      <c r="F95" s="209"/>
+      <c r="G95" s="209"/>
+      <c r="H95" s="209"/>
+      <c r="I95" s="209"/>
+      <c r="J95" s="209"/>
+      <c r="K95" s="209"/>
+      <c r="L95" s="210"/>
+    </row>
+    <row r="96" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="234"/>
+      <c r="B96" s="236"/>
+      <c r="C96" s="211"/>
+      <c r="D96" s="212"/>
+      <c r="E96" s="212"/>
+      <c r="F96" s="212"/>
+      <c r="G96" s="212"/>
+      <c r="H96" s="212"/>
+      <c r="I96" s="212"/>
+      <c r="J96" s="212"/>
+      <c r="K96" s="212"/>
+      <c r="L96" s="213"/>
+    </row>
+    <row r="97" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="226" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="233"/>
-      <c r="C68" s="164"/>
-      <c r="D68" s="193"/>
-      <c r="E68" s="193"/>
-      <c r="F68" s="193"/>
-      <c r="G68" s="193"/>
-      <c r="H68" s="193"/>
-      <c r="I68" s="193"/>
-      <c r="J68" s="193"/>
-      <c r="K68" s="193"/>
-      <c r="L68" s="194"/>
-    </row>
-    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="234"/>
-      <c r="B69" s="235"/>
-      <c r="C69" s="192"/>
-      <c r="D69" s="193"/>
-      <c r="E69" s="193"/>
-      <c r="F69" s="193"/>
-      <c r="G69" s="193"/>
-      <c r="H69" s="193"/>
-      <c r="I69" s="193"/>
-      <c r="J69" s="193"/>
-      <c r="K69" s="193"/>
-      <c r="L69" s="194"/>
-    </row>
-    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="234"/>
-      <c r="B70" s="235"/>
-      <c r="C70" s="192"/>
-      <c r="D70" s="193"/>
-      <c r="E70" s="193"/>
-      <c r="F70" s="193"/>
-      <c r="G70" s="193"/>
-      <c r="H70" s="193"/>
-      <c r="I70" s="193"/>
-      <c r="J70" s="193"/>
-      <c r="K70" s="193"/>
-      <c r="L70" s="194"/>
-    </row>
-    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="236"/>
-      <c r="B71" s="237"/>
-      <c r="C71" s="195"/>
-      <c r="D71" s="196"/>
-      <c r="E71" s="196"/>
-      <c r="F71" s="196"/>
-      <c r="G71" s="196"/>
-      <c r="H71" s="196"/>
-      <c r="I71" s="196"/>
-      <c r="J71" s="196"/>
-      <c r="K71" s="196"/>
-      <c r="L71" s="197"/>
-    </row>
-    <row r="72" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="226" t="s">
+      <c r="B97" s="227"/>
+      <c r="C97" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" s="209"/>
+      <c r="E97" s="209"/>
+      <c r="F97" s="209"/>
+      <c r="G97" s="209"/>
+      <c r="H97" s="209"/>
+      <c r="I97" s="209"/>
+      <c r="J97" s="209"/>
+      <c r="K97" s="209"/>
+      <c r="L97" s="210"/>
+    </row>
+    <row r="98" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="228"/>
+      <c r="B98" s="229"/>
+      <c r="C98" s="208"/>
+      <c r="D98" s="209"/>
+      <c r="E98" s="209"/>
+      <c r="F98" s="209"/>
+      <c r="G98" s="209"/>
+      <c r="H98" s="209"/>
+      <c r="I98" s="209"/>
+      <c r="J98" s="209"/>
+      <c r="K98" s="209"/>
+      <c r="L98" s="210"/>
+    </row>
+    <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="228"/>
+      <c r="B99" s="229"/>
+      <c r="C99" s="208"/>
+      <c r="D99" s="209"/>
+      <c r="E99" s="209"/>
+      <c r="F99" s="209"/>
+      <c r="G99" s="209"/>
+      <c r="H99" s="209"/>
+      <c r="I99" s="209"/>
+      <c r="J99" s="209"/>
+      <c r="K99" s="209"/>
+      <c r="L99" s="210"/>
+    </row>
+    <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="230"/>
+      <c r="B100" s="231"/>
+      <c r="C100" s="211"/>
+      <c r="D100" s="212"/>
+      <c r="E100" s="212"/>
+      <c r="F100" s="212"/>
+      <c r="G100" s="212"/>
+      <c r="H100" s="212"/>
+      <c r="I100" s="212"/>
+      <c r="J100" s="212"/>
+      <c r="K100" s="212"/>
+      <c r="L100" s="213"/>
+    </row>
+    <row r="101" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="227"/>
-      <c r="C72" s="227"/>
-      <c r="D72" s="227"/>
-      <c r="E72" s="227"/>
-      <c r="F72" s="227"/>
-      <c r="G72" s="227"/>
-      <c r="H72" s="227"/>
-      <c r="I72" s="227"/>
-      <c r="J72" s="227"/>
-      <c r="K72" s="227"/>
-      <c r="L72" s="228"/>
-    </row>
-    <row r="73" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="229" t="s">
+      <c r="B101" s="220"/>
+      <c r="C101" s="220"/>
+      <c r="D101" s="220"/>
+      <c r="E101" s="220"/>
+      <c r="F101" s="220"/>
+      <c r="G101" s="220"/>
+      <c r="H101" s="220"/>
+      <c r="I101" s="220"/>
+      <c r="J101" s="220"/>
+      <c r="K101" s="220"/>
+      <c r="L101" s="221"/>
+    </row>
+    <row r="102" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="230"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="67"/>
-      <c r="K73" s="67"/>
-      <c r="L73" s="68"/>
-    </row>
-    <row r="74" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="229" t="s">
+      <c r="B102" s="223"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="67"/>
+      <c r="L102" s="68"/>
+    </row>
+    <row r="103" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="230"/>
-      <c r="C74" s="11">
+      <c r="B103" s="223"/>
+      <c r="C103" s="11">
         <v>1</v>
       </c>
-      <c r="D74" s="69"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="11">
+      <c r="D103" s="69"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="11">
         <v>2</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="11">
+      <c r="G103" s="7"/>
+      <c r="H103" s="11">
         <v>3</v>
       </c>
-      <c r="I74" s="69"/>
-      <c r="J74" s="70"/>
-      <c r="K74" s="70"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="229" t="s">
+      <c r="I103" s="69"/>
+      <c r="J103" s="70"/>
+      <c r="K103" s="70"/>
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="230"/>
-      <c r="C75" s="58" t="s">
+      <c r="B104" s="223"/>
+      <c r="C104" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="60"/>
-    </row>
-    <row r="76" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="231" t="s">
+      <c r="D104" s="59"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="59"/>
+      <c r="K104" s="59"/>
+      <c r="L104" s="60"/>
+    </row>
+    <row r="105" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="224" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="231"/>
-      <c r="C76" s="58" t="s">
+      <c r="B105" s="224"/>
+      <c r="C105" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="60"/>
-    </row>
-    <row r="77" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J78" s="62" t="s">
+      <c r="D105" s="59"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="59"/>
+      <c r="K105" s="59"/>
+      <c r="L105" s="60"/>
+    </row>
+    <row r="106" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J107" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="K78" s="62"/>
-      <c r="L78" s="62"/>
-    </row>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="K107" s="62"/>
+      <c r="L107" s="62"/>
+    </row>
+    <row r="111" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="57">
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A68:B71"/>
-    <mergeCell ref="A50:A61"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="C62:L67"/>
-    <mergeCell ref="C68:L71"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="A72:L72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:L73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:L75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:L76"/>
+    <mergeCell ref="A97:B100"/>
+    <mergeCell ref="A79:A90"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="C91:L96"/>
+    <mergeCell ref="C97:L100"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A7:A48"/>
-    <mergeCell ref="B8:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B20:B30"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="A7:A77"/>
+    <mergeCell ref="B8:B37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="A101:L101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:L102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="I103:K103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:L104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:L105"/>
+    <mergeCell ref="B40:B59"/>
+    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="B68:B77"/>
     <mergeCell ref="C7:L7"/>
-    <mergeCell ref="C8:L17"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:L37"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="C40:L59"/>
+    <mergeCell ref="C60:L67"/>
+    <mergeCell ref="C68:L77"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="H4:H5"/>
@@ -7416,18 +7863,12 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C4:E5"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="C20:L30"/>
-    <mergeCell ref="C31:L38"/>
-    <mergeCell ref="C39:L48"/>
-    <mergeCell ref="D50:L52"/>
-    <mergeCell ref="D53:L55"/>
-    <mergeCell ref="D56:L58"/>
-    <mergeCell ref="D59:L61"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D79:L81"/>
+    <mergeCell ref="D82:L84"/>
+    <mergeCell ref="D85:L87"/>
+    <mergeCell ref="D88:L90"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="C82:C84"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7436,4 +7877,10 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{eca21d4a-bfc0-41bc-9225-6bae3d27aab8}" enabled="1" method="Privileged" siteId="{a54b00a2-87e8-4e92-a76d-de53269b7ddd}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/src/main/resources/template_report.xlsx
+++ b/src/main/resources/template_report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E58EB9B-5335-4F97-9514-453B2CAD980A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A154CE-27BC-4F87-8ECC-B6083D6F0E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="623" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{05E2C11D-1DE0-4EAC-A9B0-35C052798C9A}">
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{05E2C11D-1DE0-4EAC-A9B0-35C052798C9A}">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{E67F3B79-65F9-46C5-BB84-B94C7532395F}">
+    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{E67F3B79-65F9-46C5-BB84-B94C7532395F}">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G39" authorId="0" shapeId="0" xr:uid="{57893388-DE50-4DD7-BFFD-15EF2A554D0C}">
+    <comment ref="G40" authorId="0" shapeId="0" xr:uid="{57893388-DE50-4DD7-BFFD-15EF2A554D0C}">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J39" authorId="0" shapeId="0" xr:uid="{3E8183D5-DC01-4B23-A256-32863A22A21A}">
+    <comment ref="J40" authorId="0" shapeId="0" xr:uid="{3E8183D5-DC01-4B23-A256-32863A22A21A}">
       <text>
         <r>
           <rPr>
@@ -323,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A103" authorId="0" shapeId="0" xr:uid="{B817F809-5D81-4F0B-9DD6-59BE3D407B03}">
+    <comment ref="A105" authorId="0" shapeId="0" xr:uid="{B817F809-5D81-4F0B-9DD6-59BE3D407B03}">
       <text>
         <r>
           <rPr>
@@ -347,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A104" authorId="0" shapeId="0" xr:uid="{D2D5F695-451D-4326-A2C2-5D276DE57653}">
+    <comment ref="A106" authorId="0" shapeId="0" xr:uid="{D2D5F695-451D-4326-A2C2-5D276DE57653}">
       <text>
         <r>
           <rPr>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="149">
   <si>
     <t>勤務時間</t>
     <phoneticPr fontId="1"/>
@@ -1932,6 +1932,11 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>【問題点】
+【解決策】
+【ヒヤリハット】</t>
   </si>
 </sst>
 </file>
@@ -2688,6 +2693,294 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2695,6 +2988,21 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2709,312 +3017,210 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3039,209 +3245,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5138,23 +5143,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="155">
+      <c r="B2" s="57">
         <v>42547</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -5167,551 +5172,551 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:16" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="160"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="157"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="163"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
     </row>
     <row r="6" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="68" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="134"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="71"/>
       <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131"/>
-      <c r="B8" s="135" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="77"/>
       <c r="O8" s="45"/>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="142"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="80"/>
       <c r="O9" s="45"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="131"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="142"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="80"/>
       <c r="O10" s="45"/>
       <c r="P10" s="47"/>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="131"/>
-      <c r="B11" s="136"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="142"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="80"/>
       <c r="O11" s="45"/>
     </row>
     <row r="12" spans="1:16" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="131"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="145"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
       <c r="O12" s="47"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="131"/>
-      <c r="B13" s="146" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="147" t="s">
+      <c r="C13" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="148"/>
-      <c r="E13" s="147" t="s">
+      <c r="D13" s="86"/>
+      <c r="E13" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="148"/>
-      <c r="G13" s="147" t="s">
+      <c r="F13" s="86"/>
+      <c r="G13" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="149"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="147" t="s">
+      <c r="H13" s="87"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="149"/>
-      <c r="L13" s="148"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="131"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="150" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="153"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="151"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="89"/>
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="131"/>
-      <c r="B15" s="104" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="108"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="131"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="111"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="99"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="131"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="111"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="99"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="131"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="111"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="99"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="131"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="111"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="131"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="111"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="99"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="131"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="114"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="102"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="131"/>
-      <c r="B22" s="115" t="s">
+      <c r="A22" s="68"/>
+      <c r="B22" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="108"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="96"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="131"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="111"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="99"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="131"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="111"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="99"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="131"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="111"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="99"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="131"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="111"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="99"/>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="131"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="111"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="99"/>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="131"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="111"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="99"/>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="131"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="114"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="102"/>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="131"/>
-      <c r="B30" s="80" t="s">
+      <c r="A30" s="68"/>
+      <c r="B30" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="122"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="111"/>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="131"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="125"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="114"/>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="131"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="125"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="114"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="131"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="124"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="125"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="114"/>
       <c r="O33" s="47"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="131"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="124"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="125"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="114"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="131"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="125"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="114"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="131"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="125"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="114"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="131"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="125"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="114"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="45"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="131"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="124"/>
-      <c r="L38" s="125"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="114"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="45"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="131"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="127"/>
-      <c r="L39" s="128"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="117"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="45"/>
@@ -5720,391 +5725,391 @@
       <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="98" t="s">
+      <c r="C41" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="72"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="118"/>
+      <c r="L41" s="119"/>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="78"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="74"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="121"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="78"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="76"/>
+      <c r="A43" s="125"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="123"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="78"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="101" t="s">
+      <c r="A44" s="125"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="146" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="71" t="s">
+      <c r="D44" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="72"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
+      <c r="K44" s="118"/>
+      <c r="L44" s="119"/>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="78"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="74"/>
+      <c r="A45" s="125"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="120"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="121"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="78"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="76"/>
+      <c r="A46" s="125"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="148"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="123"/>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="78"/>
-      <c r="B47" s="80" t="s">
+      <c r="A47" s="125"/>
+      <c r="B47" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="98" t="s">
+      <c r="C47" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="71" t="s">
+      <c r="D47" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="72"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="119"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="78"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="74"/>
+      <c r="A48" s="125"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="121"/>
     </row>
     <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="78"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="76"/>
+      <c r="A49" s="125"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
+      <c r="J49" s="122"/>
+      <c r="K49" s="122"/>
+      <c r="L49" s="123"/>
     </row>
     <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="78"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="101" t="s">
+      <c r="A50" s="125"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="146" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="71" t="s">
+      <c r="D50" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="72"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="118"/>
+      <c r="K50" s="118"/>
+      <c r="L50" s="119"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="78"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="74"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
+      <c r="K51" s="120"/>
+      <c r="L51" s="121"/>
     </row>
     <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="79"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="76"/>
+      <c r="A52" s="126"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="148"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="123"/>
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="83" t="s">
+      <c r="C53" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="85"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="129"/>
+      <c r="L53" s="130"/>
     </row>
     <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="78"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="87"/>
-      <c r="L54" s="88"/>
+      <c r="A54" s="125"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="132"/>
+      <c r="J54" s="132"/>
+      <c r="K54" s="132"/>
+      <c r="L54" s="133"/>
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="78"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="88"/>
+      <c r="A55" s="125"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="132"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="132"/>
+      <c r="L55" s="133"/>
     </row>
     <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="78"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="88"/>
+      <c r="A56" s="125"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="132"/>
+      <c r="L56" s="133"/>
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="78"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="88"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="132"/>
+      <c r="L57" s="133"/>
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="79"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="88"/>
+      <c r="A58" s="126"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="132"/>
+      <c r="F58" s="132"/>
+      <c r="G58" s="132"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="132"/>
+      <c r="L58" s="133"/>
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="89" t="s">
+      <c r="A59" s="134" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="90"/>
-      <c r="C59" s="83" t="s">
+      <c r="B59" s="135"/>
+      <c r="C59" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="84"/>
-      <c r="L59" s="85"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="129"/>
+      <c r="F59" s="129"/>
+      <c r="G59" s="129"/>
+      <c r="H59" s="129"/>
+      <c r="I59" s="129"/>
+      <c r="J59" s="129"/>
+      <c r="K59" s="129"/>
+      <c r="L59" s="130"/>
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="91"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="87"/>
-      <c r="H60" s="87"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="88"/>
+      <c r="A60" s="136"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="132"/>
+      <c r="F60" s="132"/>
+      <c r="G60" s="132"/>
+      <c r="H60" s="132"/>
+      <c r="I60" s="132"/>
+      <c r="J60" s="132"/>
+      <c r="K60" s="132"/>
+      <c r="L60" s="133"/>
     </row>
     <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="91"/>
-      <c r="B61" s="92"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="87"/>
-      <c r="K61" s="87"/>
-      <c r="L61" s="88"/>
+      <c r="A61" s="136"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="132"/>
+      <c r="G61" s="132"/>
+      <c r="H61" s="132"/>
+      <c r="I61" s="132"/>
+      <c r="J61" s="132"/>
+      <c r="K61" s="132"/>
+      <c r="L61" s="133"/>
     </row>
     <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="93"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="96"/>
-      <c r="H62" s="96"/>
-      <c r="I62" s="96"/>
-      <c r="J62" s="96"/>
-      <c r="K62" s="96"/>
-      <c r="L62" s="97"/>
+      <c r="A62" s="138"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="141"/>
+      <c r="E62" s="141"/>
+      <c r="F62" s="141"/>
+      <c r="G62" s="141"/>
+      <c r="H62" s="141"/>
+      <c r="I62" s="141"/>
+      <c r="J62" s="141"/>
+      <c r="K62" s="141"/>
+      <c r="L62" s="142"/>
     </row>
     <row r="63" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="63" t="s">
+      <c r="A63" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="65"/>
+      <c r="B63" s="150"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="150"/>
+      <c r="F63" s="150"/>
+      <c r="G63" s="150"/>
+      <c r="H63" s="150"/>
+      <c r="I63" s="150"/>
+      <c r="J63" s="150"/>
+      <c r="K63" s="150"/>
+      <c r="L63" s="151"/>
     </row>
     <row r="64" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="152" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="66" t="s">
+      <c r="B64" s="153"/>
+      <c r="C64" s="154" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="68"/>
+      <c r="D64" s="155"/>
+      <c r="E64" s="155"/>
+      <c r="F64" s="155"/>
+      <c r="G64" s="155"/>
+      <c r="H64" s="155"/>
+      <c r="I64" s="155"/>
+      <c r="J64" s="155"/>
+      <c r="K64" s="155"/>
+      <c r="L64" s="156"/>
     </row>
     <row r="65" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="56" t="s">
+      <c r="A65" s="152" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="57"/>
+      <c r="B65" s="153"/>
       <c r="C65" s="48">
         <v>1</v>
       </c>
-      <c r="D65" s="69">
+      <c r="D65" s="157">
         <v>41411</v>
       </c>
-      <c r="E65" s="70"/>
+      <c r="E65" s="158"/>
       <c r="F65" s="48">
         <v>2</v>
       </c>
@@ -6114,48 +6119,48 @@
       <c r="H65" s="48">
         <v>3</v>
       </c>
-      <c r="I65" s="69">
+      <c r="I65" s="157">
         <v>41424</v>
       </c>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
+      <c r="J65" s="158"/>
+      <c r="K65" s="158"/>
       <c r="L65" s="3"/>
     </row>
     <row r="66" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="56" t="s">
+      <c r="A66" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="57"/>
-      <c r="C66" s="58" t="s">
+      <c r="B66" s="153"/>
+      <c r="C66" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="60"/>
+      <c r="D66" s="160"/>
+      <c r="E66" s="160"/>
+      <c r="F66" s="160"/>
+      <c r="G66" s="160"/>
+      <c r="H66" s="160"/>
+      <c r="I66" s="160"/>
+      <c r="J66" s="160"/>
+      <c r="K66" s="160"/>
+      <c r="L66" s="161"/>
     </row>
     <row r="67" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="162" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="61"/>
-      <c r="C67" s="58" t="s">
+      <c r="B67" s="162"/>
+      <c r="C67" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="60"/>
+      <c r="D67" s="160"/>
+      <c r="E67" s="160"/>
+      <c r="F67" s="160"/>
+      <c r="G67" s="160"/>
+      <c r="H67" s="160"/>
+      <c r="I67" s="160"/>
+      <c r="J67" s="160"/>
+      <c r="K67" s="160"/>
+      <c r="L67" s="161"/>
     </row>
     <row r="68" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
@@ -6165,23 +6170,49 @@
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J69" s="62" t="s">
+      <c r="J69" s="163" t="s">
         <v>145</v>
       </c>
-      <c r="K69" s="62"/>
-      <c r="L69" s="62"/>
+      <c r="K69" s="163"/>
+      <c r="L69" s="163"/>
     </row>
     <row r="73" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:L66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:L67"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:L64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="D50:L52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C53:L58"/>
+    <mergeCell ref="A59:B62"/>
+    <mergeCell ref="C59:L62"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:L43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:L46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:L49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:L21"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:L29"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="C30:L39"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="I6:L6"/>
@@ -6198,39 +6229,13 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:L21"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:L29"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="C30:L39"/>
-    <mergeCell ref="D50:L52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C53:L58"/>
-    <mergeCell ref="A59:B62"/>
-    <mergeCell ref="C59:L62"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:L43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:L46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:L49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="A63:L63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:L64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:L66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:L67"/>
-    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -6247,7 +6252,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -6269,28 +6274,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.3">
-      <c r="B2" s="181"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="231"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="K2" s="225" t="s">
+      <c r="K2" s="164" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="225"/>
+      <c r="L2" s="164"/>
     </row>
     <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -6302,1560 +6307,1552 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="160"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="180"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="163"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
+      <c r="B5" s="229"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C6" s="13"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
     </row>
     <row r="7" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="237" t="s">
+      <c r="A7" s="192" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="181"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="194"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="215"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="237"/>
-      <c r="B8" s="238" t="s">
+      <c r="A8" s="192"/>
+      <c r="B8" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="195" t="s">
+      <c r="C8" s="216" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="197"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="217"/>
+      <c r="H8" s="217"/>
+      <c r="I8" s="217"/>
+      <c r="J8" s="217"/>
+      <c r="K8" s="217"/>
+      <c r="L8" s="218"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="237"/>
-      <c r="B9" s="240"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="241"/>
-      <c r="I9" s="241"/>
-      <c r="J9" s="241"/>
-      <c r="K9" s="241"/>
-      <c r="L9" s="199"/>
+      <c r="A9" s="192"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="220"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="237"/>
-      <c r="B10" s="240"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
-      <c r="G10" s="241"/>
-      <c r="H10" s="241"/>
-      <c r="I10" s="241"/>
-      <c r="J10" s="241"/>
-      <c r="K10" s="241"/>
-      <c r="L10" s="199"/>
+      <c r="A10" s="192"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="220"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="237"/>
-      <c r="B11" s="240"/>
-      <c r="C11" s="241"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="241"/>
-      <c r="F11" s="241"/>
-      <c r="G11" s="241"/>
-      <c r="H11" s="241"/>
-      <c r="I11" s="241"/>
-      <c r="J11" s="241"/>
-      <c r="K11" s="241"/>
-      <c r="L11" s="199"/>
+      <c r="A11" s="192"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="220"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="237"/>
-      <c r="B12" s="240"/>
-      <c r="C12" s="241"/>
-      <c r="D12" s="241"/>
-      <c r="E12" s="241"/>
-      <c r="F12" s="241"/>
-      <c r="G12" s="241"/>
-      <c r="H12" s="241"/>
-      <c r="I12" s="241"/>
-      <c r="J12" s="241"/>
-      <c r="K12" s="241"/>
-      <c r="L12" s="199"/>
+      <c r="A12" s="192"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="220"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="237"/>
-      <c r="B13" s="240"/>
-      <c r="C13" s="241"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="241"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="241"/>
-      <c r="I13" s="241"/>
-      <c r="J13" s="241"/>
-      <c r="K13" s="241"/>
-      <c r="L13" s="199"/>
+      <c r="A13" s="192"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="220"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="237"/>
-      <c r="B14" s="240"/>
-      <c r="C14" s="241"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="241"/>
-      <c r="F14" s="241"/>
-      <c r="G14" s="241"/>
-      <c r="H14" s="241"/>
-      <c r="I14" s="241"/>
-      <c r="J14" s="241"/>
-      <c r="K14" s="241"/>
-      <c r="L14" s="199"/>
+      <c r="A14" s="192"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="220"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="237"/>
-      <c r="B15" s="240"/>
-      <c r="C15" s="241"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="241"/>
-      <c r="F15" s="241"/>
-      <c r="G15" s="241"/>
-      <c r="H15" s="241"/>
-      <c r="I15" s="241"/>
-      <c r="J15" s="241"/>
-      <c r="K15" s="241"/>
-      <c r="L15" s="199"/>
+      <c r="A15" s="192"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="220"/>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="237"/>
-      <c r="B16" s="240"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="241"/>
-      <c r="H16" s="241"/>
-      <c r="I16" s="241"/>
-      <c r="J16" s="241"/>
-      <c r="K16" s="241"/>
-      <c r="L16" s="199"/>
+      <c r="A16" s="192"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="220"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="237"/>
-      <c r="B17" s="240"/>
-      <c r="C17" s="241"/>
-      <c r="D17" s="241"/>
-      <c r="E17" s="241"/>
-      <c r="F17" s="241"/>
-      <c r="G17" s="241"/>
-      <c r="H17" s="241"/>
-      <c r="I17" s="241"/>
-      <c r="J17" s="241"/>
-      <c r="K17" s="241"/>
-      <c r="L17" s="199"/>
+      <c r="A17" s="192"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="220"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="237"/>
-      <c r="B18" s="240"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="241"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="241"/>
-      <c r="H18" s="241"/>
-      <c r="I18" s="241"/>
-      <c r="J18" s="241"/>
-      <c r="K18" s="241"/>
-      <c r="L18" s="199"/>
+      <c r="A18" s="192"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="220"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="237"/>
-      <c r="B19" s="240"/>
-      <c r="C19" s="241"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="241"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="241"/>
-      <c r="I19" s="241"/>
-      <c r="J19" s="241"/>
-      <c r="K19" s="241"/>
-      <c r="L19" s="199"/>
+      <c r="A19" s="192"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="220"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="237"/>
-      <c r="B20" s="240"/>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="241"/>
-      <c r="G20" s="241"/>
-      <c r="H20" s="241"/>
-      <c r="I20" s="241"/>
-      <c r="J20" s="241"/>
-      <c r="K20" s="241"/>
-      <c r="L20" s="199"/>
+      <c r="A20" s="192"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="174"/>
+      <c r="L20" s="220"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="237"/>
-      <c r="B21" s="240"/>
-      <c r="C21" s="241"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="241"/>
-      <c r="F21" s="241"/>
-      <c r="G21" s="241"/>
-      <c r="H21" s="241"/>
-      <c r="I21" s="241"/>
-      <c r="J21" s="241"/>
-      <c r="K21" s="241"/>
-      <c r="L21" s="199"/>
+      <c r="A21" s="192"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="174"/>
+      <c r="K21" s="174"/>
+      <c r="L21" s="220"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="237"/>
-      <c r="B22" s="240"/>
-      <c r="C22" s="241"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="241"/>
-      <c r="F22" s="241"/>
-      <c r="G22" s="241"/>
-      <c r="H22" s="241"/>
-      <c r="I22" s="241"/>
-      <c r="J22" s="241"/>
-      <c r="K22" s="241"/>
-      <c r="L22" s="199"/>
+      <c r="A22" s="192"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="219"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="174"/>
+      <c r="L22" s="220"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="237"/>
-      <c r="B23" s="240"/>
-      <c r="C23" s="241"/>
-      <c r="D23" s="241"/>
-      <c r="E23" s="241"/>
-      <c r="F23" s="241"/>
-      <c r="G23" s="241"/>
-      <c r="H23" s="241"/>
-      <c r="I23" s="241"/>
-      <c r="J23" s="241"/>
-      <c r="K23" s="241"/>
-      <c r="L23" s="199"/>
+      <c r="A23" s="192"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="174"/>
+      <c r="K23" s="174"/>
+      <c r="L23" s="220"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="237"/>
-      <c r="B24" s="240"/>
-      <c r="C24" s="241"/>
-      <c r="D24" s="241"/>
-      <c r="E24" s="241"/>
-      <c r="F24" s="241"/>
-      <c r="G24" s="241"/>
-      <c r="H24" s="241"/>
-      <c r="I24" s="241"/>
-      <c r="J24" s="241"/>
-      <c r="K24" s="241"/>
-      <c r="L24" s="199"/>
+      <c r="A24" s="192"/>
+      <c r="B24" s="194"/>
+      <c r="C24" s="219"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="220"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="237"/>
-      <c r="B25" s="240"/>
-      <c r="C25" s="241"/>
-      <c r="D25" s="241"/>
-      <c r="E25" s="241"/>
-      <c r="F25" s="241"/>
-      <c r="G25" s="241"/>
-      <c r="H25" s="241"/>
-      <c r="I25" s="241"/>
-      <c r="J25" s="241"/>
-      <c r="K25" s="241"/>
-      <c r="L25" s="199"/>
+      <c r="A25" s="192"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="219"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="174"/>
+      <c r="L25" s="220"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="237"/>
-      <c r="B26" s="240"/>
-      <c r="C26" s="241"/>
-      <c r="D26" s="241"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="241"/>
-      <c r="G26" s="241"/>
-      <c r="H26" s="241"/>
-      <c r="I26" s="241"/>
-      <c r="J26" s="241"/>
-      <c r="K26" s="241"/>
-      <c r="L26" s="199"/>
+      <c r="A26" s="192"/>
+      <c r="B26" s="194"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="220"/>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="237"/>
-      <c r="B27" s="240"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="241"/>
-      <c r="G27" s="241"/>
-      <c r="H27" s="241"/>
-      <c r="I27" s="241"/>
-      <c r="J27" s="241"/>
-      <c r="K27" s="241"/>
-      <c r="L27" s="199"/>
+      <c r="A27" s="192"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="219"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="174"/>
+      <c r="L27" s="220"/>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="237"/>
-      <c r="B28" s="240"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="241"/>
-      <c r="F28" s="241"/>
-      <c r="G28" s="241"/>
-      <c r="H28" s="241"/>
-      <c r="I28" s="241"/>
-      <c r="J28" s="241"/>
-      <c r="K28" s="241"/>
-      <c r="L28" s="199"/>
+      <c r="A28" s="192"/>
+      <c r="B28" s="194"/>
+      <c r="C28" s="219"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="174"/>
+      <c r="L28" s="220"/>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="237"/>
-      <c r="B29" s="240"/>
-      <c r="C29" s="241"/>
-      <c r="D29" s="241"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="241"/>
-      <c r="G29" s="241"/>
-      <c r="H29" s="241"/>
-      <c r="I29" s="241"/>
-      <c r="J29" s="241"/>
-      <c r="K29" s="241"/>
-      <c r="L29" s="199"/>
+      <c r="A29" s="192"/>
+      <c r="B29" s="194"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="174"/>
+      <c r="L29" s="220"/>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="237"/>
-      <c r="B30" s="240"/>
-      <c r="C30" s="241"/>
-      <c r="D30" s="241"/>
-      <c r="E30" s="241"/>
-      <c r="F30" s="241"/>
-      <c r="G30" s="241"/>
-      <c r="H30" s="241"/>
-      <c r="I30" s="241"/>
-      <c r="J30" s="241"/>
-      <c r="K30" s="241"/>
-      <c r="L30" s="199"/>
+      <c r="A30" s="192"/>
+      <c r="B30" s="194"/>
+      <c r="C30" s="219"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="174"/>
+      <c r="L30" s="220"/>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="237"/>
-      <c r="B31" s="239"/>
-      <c r="C31" s="198"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="164"/>
-      <c r="L31" s="199"/>
+      <c r="A31" s="192"/>
+      <c r="B31" s="194"/>
+      <c r="C31" s="219"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="174"/>
+      <c r="L31" s="220"/>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="237"/>
-      <c r="B32" s="239"/>
-      <c r="C32" s="198"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="164"/>
-      <c r="K32" s="164"/>
-      <c r="L32" s="199"/>
+      <c r="A32" s="192"/>
+      <c r="B32" s="194"/>
+      <c r="C32" s="219"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="220"/>
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="237"/>
-      <c r="B33" s="239"/>
-      <c r="C33" s="198"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="164"/>
-      <c r="L33" s="199"/>
+      <c r="A33" s="192"/>
+      <c r="B33" s="194"/>
+      <c r="C33" s="219"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="174"/>
+      <c r="L33" s="220"/>
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="237"/>
-      <c r="B34" s="239"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="164"/>
-      <c r="K34" s="164"/>
-      <c r="L34" s="199"/>
+      <c r="A34" s="192"/>
+      <c r="B34" s="194"/>
+      <c r="C34" s="219"/>
+      <c r="D34" s="174"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="174"/>
+      <c r="K34" s="174"/>
+      <c r="L34" s="220"/>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="237"/>
-      <c r="B35" s="239"/>
-      <c r="C35" s="198"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="164"/>
-      <c r="L35" s="199"/>
+      <c r="A35" s="192"/>
+      <c r="B35" s="194"/>
+      <c r="C35" s="219"/>
+      <c r="D35" s="174"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="174"/>
+      <c r="K35" s="174"/>
+      <c r="L35" s="220"/>
     </row>
     <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="237"/>
-      <c r="B36" s="239"/>
-      <c r="C36" s="198"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="164"/>
-      <c r="L36" s="199"/>
+      <c r="A36" s="192"/>
+      <c r="B36" s="194"/>
+      <c r="C36" s="219"/>
+      <c r="D36" s="174"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="174"/>
+      <c r="K36" s="174"/>
+      <c r="L36" s="220"/>
     </row>
     <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="237"/>
-      <c r="B37" s="239"/>
-      <c r="C37" s="198"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="164"/>
-      <c r="L37" s="199"/>
+      <c r="A37" s="192"/>
+      <c r="B37" s="194"/>
+      <c r="C37" s="219"/>
+      <c r="D37" s="174"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="174"/>
+      <c r="K37" s="174"/>
+      <c r="L37" s="220"/>
     </row>
     <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="237"/>
-      <c r="B38" s="214" t="s">
+      <c r="A38" s="192"/>
+      <c r="B38" s="194"/>
+      <c r="C38" s="219"/>
+      <c r="D38" s="174"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="174"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="174"/>
+      <c r="K38" s="174"/>
+      <c r="L38" s="220"/>
+    </row>
+    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="192"/>
+      <c r="B39" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="216" t="s">
+      <c r="C39" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="217"/>
-      <c r="E38" s="216" t="s">
+      <c r="D39" s="198"/>
+      <c r="E39" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="217"/>
-      <c r="G38" s="216" t="s">
+      <c r="F39" s="198"/>
+      <c r="G39" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="218"/>
-      <c r="I38" s="217"/>
-      <c r="J38" s="216" t="s">
+      <c r="H39" s="197"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="218"/>
-      <c r="L38" s="217"/>
-    </row>
-    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="237"/>
-      <c r="B39" s="215"/>
-      <c r="C39" s="181"/>
-      <c r="D39" s="203"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="181"/>
-      <c r="H39" s="205"/>
-      <c r="I39" s="204"/>
-      <c r="J39" s="181"/>
-      <c r="K39" s="205"/>
-      <c r="L39" s="204"/>
+      <c r="K39" s="197"/>
+      <c r="L39" s="198"/>
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="237"/>
-      <c r="B40" s="184" t="s">
+      <c r="A40" s="192"/>
+      <c r="B40" s="195"/>
+      <c r="C40" s="213"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="213"/>
+      <c r="F40" s="225"/>
+      <c r="G40" s="213"/>
+      <c r="H40" s="226"/>
+      <c r="I40" s="225"/>
+      <c r="J40" s="213"/>
+      <c r="K40" s="226"/>
+      <c r="L40" s="225"/>
+    </row>
+    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="192"/>
+      <c r="B41" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="195" t="s">
+      <c r="C41" s="216" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="196"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="196"/>
-      <c r="G40" s="196"/>
-      <c r="H40" s="196"/>
-      <c r="I40" s="196"/>
-      <c r="J40" s="196"/>
-      <c r="K40" s="196"/>
-      <c r="L40" s="197"/>
-    </row>
-    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="237"/>
-      <c r="B41" s="185"/>
-      <c r="C41" s="198"/>
-      <c r="D41" s="164"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="164"/>
-      <c r="G41" s="164"/>
-      <c r="H41" s="164"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="164"/>
-      <c r="K41" s="164"/>
-      <c r="L41" s="199"/>
+      <c r="D41" s="217"/>
+      <c r="E41" s="217"/>
+      <c r="F41" s="217"/>
+      <c r="G41" s="217"/>
+      <c r="H41" s="217"/>
+      <c r="I41" s="217"/>
+      <c r="J41" s="217"/>
+      <c r="K41" s="217"/>
+      <c r="L41" s="218"/>
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="237"/>
-      <c r="B42" s="185"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="164"/>
-      <c r="E42" s="164"/>
-      <c r="F42" s="164"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="164"/>
-      <c r="K42" s="164"/>
-      <c r="L42" s="199"/>
+      <c r="A42" s="192"/>
+      <c r="B42" s="240"/>
+      <c r="C42" s="241"/>
+      <c r="D42" s="241"/>
+      <c r="E42" s="241"/>
+      <c r="F42" s="241"/>
+      <c r="G42" s="241"/>
+      <c r="H42" s="241"/>
+      <c r="I42" s="241"/>
+      <c r="J42" s="241"/>
+      <c r="K42" s="241"/>
+      <c r="L42" s="220"/>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="237"/>
-      <c r="B43" s="185"/>
-      <c r="C43" s="198"/>
-      <c r="D43" s="164"/>
-      <c r="E43" s="164"/>
-      <c r="F43" s="164"/>
-      <c r="G43" s="164"/>
-      <c r="H43" s="164"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="164"/>
-      <c r="K43" s="164"/>
-      <c r="L43" s="199"/>
+      <c r="A43" s="192"/>
+      <c r="B43" s="240"/>
+      <c r="C43" s="241"/>
+      <c r="D43" s="241"/>
+      <c r="E43" s="241"/>
+      <c r="F43" s="241"/>
+      <c r="G43" s="241"/>
+      <c r="H43" s="241"/>
+      <c r="I43" s="241"/>
+      <c r="J43" s="241"/>
+      <c r="K43" s="241"/>
+      <c r="L43" s="220"/>
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="237"/>
-      <c r="B44" s="185"/>
-      <c r="C44" s="198"/>
-      <c r="D44" s="164"/>
-      <c r="E44" s="164"/>
-      <c r="F44" s="164"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="164"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="164"/>
-      <c r="K44" s="164"/>
-      <c r="L44" s="199"/>
+      <c r="A44" s="192"/>
+      <c r="B44" s="240"/>
+      <c r="C44" s="241"/>
+      <c r="D44" s="241"/>
+      <c r="E44" s="241"/>
+      <c r="F44" s="241"/>
+      <c r="G44" s="241"/>
+      <c r="H44" s="241"/>
+      <c r="I44" s="241"/>
+      <c r="J44" s="241"/>
+      <c r="K44" s="241"/>
+      <c r="L44" s="220"/>
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="237"/>
-      <c r="B45" s="185"/>
-      <c r="C45" s="198"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="164"/>
-      <c r="G45" s="164"/>
-      <c r="H45" s="164"/>
-      <c r="I45" s="164"/>
-      <c r="J45" s="164"/>
-      <c r="K45" s="164"/>
-      <c r="L45" s="199"/>
+      <c r="A45" s="192"/>
+      <c r="B45" s="240"/>
+      <c r="C45" s="241"/>
+      <c r="D45" s="241"/>
+      <c r="E45" s="241"/>
+      <c r="F45" s="241"/>
+      <c r="G45" s="241"/>
+      <c r="H45" s="241"/>
+      <c r="I45" s="241"/>
+      <c r="J45" s="241"/>
+      <c r="K45" s="241"/>
+      <c r="L45" s="220"/>
     </row>
     <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="237"/>
-      <c r="B46" s="185"/>
-      <c r="C46" s="198"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="164"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="164"/>
-      <c r="K46" s="164"/>
-      <c r="L46" s="199"/>
+      <c r="A46" s="192"/>
+      <c r="B46" s="240"/>
+      <c r="C46" s="241"/>
+      <c r="D46" s="241"/>
+      <c r="E46" s="241"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="241"/>
+      <c r="H46" s="241"/>
+      <c r="I46" s="241"/>
+      <c r="J46" s="241"/>
+      <c r="K46" s="241"/>
+      <c r="L46" s="220"/>
     </row>
     <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="237"/>
-      <c r="B47" s="185"/>
-      <c r="C47" s="198"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="164"/>
-      <c r="G47" s="164"/>
-      <c r="H47" s="164"/>
-      <c r="I47" s="164"/>
-      <c r="J47" s="164"/>
-      <c r="K47" s="164"/>
-      <c r="L47" s="199"/>
+      <c r="A47" s="192"/>
+      <c r="B47" s="240"/>
+      <c r="C47" s="241"/>
+      <c r="D47" s="241"/>
+      <c r="E47" s="241"/>
+      <c r="F47" s="241"/>
+      <c r="G47" s="241"/>
+      <c r="H47" s="241"/>
+      <c r="I47" s="241"/>
+      <c r="J47" s="241"/>
+      <c r="K47" s="241"/>
+      <c r="L47" s="220"/>
     </row>
     <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="237"/>
-      <c r="B48" s="185"/>
-      <c r="C48" s="198"/>
-      <c r="D48" s="164"/>
-      <c r="E48" s="164"/>
-      <c r="F48" s="164"/>
-      <c r="G48" s="164"/>
-      <c r="H48" s="164"/>
-      <c r="I48" s="164"/>
-      <c r="J48" s="164"/>
-      <c r="K48" s="164"/>
-      <c r="L48" s="199"/>
+      <c r="A48" s="192"/>
+      <c r="B48" s="240"/>
+      <c r="C48" s="241"/>
+      <c r="D48" s="241"/>
+      <c r="E48" s="241"/>
+      <c r="F48" s="241"/>
+      <c r="G48" s="241"/>
+      <c r="H48" s="241"/>
+      <c r="I48" s="241"/>
+      <c r="J48" s="241"/>
+      <c r="K48" s="241"/>
+      <c r="L48" s="220"/>
     </row>
     <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="237"/>
-      <c r="B49" s="185"/>
-      <c r="C49" s="198"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="164"/>
-      <c r="F49" s="164"/>
-      <c r="G49" s="164"/>
-      <c r="H49" s="164"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="164"/>
-      <c r="K49" s="164"/>
-      <c r="L49" s="199"/>
+      <c r="A49" s="192"/>
+      <c r="B49" s="240"/>
+      <c r="C49" s="241"/>
+      <c r="D49" s="241"/>
+      <c r="E49" s="241"/>
+      <c r="F49" s="241"/>
+      <c r="G49" s="241"/>
+      <c r="H49" s="241"/>
+      <c r="I49" s="241"/>
+      <c r="J49" s="241"/>
+      <c r="K49" s="241"/>
+      <c r="L49" s="220"/>
     </row>
     <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="237"/>
-      <c r="B50" s="185"/>
-      <c r="C50" s="198"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="164"/>
-      <c r="F50" s="164"/>
-      <c r="G50" s="164"/>
-      <c r="H50" s="164"/>
-      <c r="I50" s="164"/>
-      <c r="J50" s="164"/>
-      <c r="K50" s="164"/>
-      <c r="L50" s="199"/>
+      <c r="A50" s="192"/>
+      <c r="B50" s="240"/>
+      <c r="C50" s="241"/>
+      <c r="D50" s="241"/>
+      <c r="E50" s="241"/>
+      <c r="F50" s="241"/>
+      <c r="G50" s="241"/>
+      <c r="H50" s="241"/>
+      <c r="I50" s="241"/>
+      <c r="J50" s="241"/>
+      <c r="K50" s="241"/>
+      <c r="L50" s="220"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="237"/>
-      <c r="B51" s="185"/>
-      <c r="C51" s="198"/>
-      <c r="D51" s="164"/>
-      <c r="E51" s="164"/>
-      <c r="F51" s="164"/>
-      <c r="G51" s="164"/>
-      <c r="H51" s="164"/>
-      <c r="I51" s="164"/>
-      <c r="J51" s="164"/>
-      <c r="K51" s="164"/>
-      <c r="L51" s="199"/>
+      <c r="A51" s="192"/>
+      <c r="B51" s="240"/>
+      <c r="C51" s="241"/>
+      <c r="D51" s="241"/>
+      <c r="E51" s="241"/>
+      <c r="F51" s="241"/>
+      <c r="G51" s="241"/>
+      <c r="H51" s="241"/>
+      <c r="I51" s="241"/>
+      <c r="J51" s="241"/>
+      <c r="K51" s="241"/>
+      <c r="L51" s="220"/>
     </row>
     <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="237"/>
-      <c r="B52" s="185"/>
-      <c r="C52" s="198"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="164"/>
-      <c r="F52" s="164"/>
-      <c r="G52" s="164"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="164"/>
-      <c r="J52" s="164"/>
-      <c r="K52" s="164"/>
-      <c r="L52" s="199"/>
+      <c r="A52" s="192"/>
+      <c r="B52" s="206"/>
+      <c r="C52" s="219"/>
+      <c r="D52" s="174"/>
+      <c r="E52" s="174"/>
+      <c r="F52" s="174"/>
+      <c r="G52" s="174"/>
+      <c r="H52" s="174"/>
+      <c r="I52" s="174"/>
+      <c r="J52" s="174"/>
+      <c r="K52" s="174"/>
+      <c r="L52" s="220"/>
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="237"/>
-      <c r="B53" s="185"/>
-      <c r="C53" s="198"/>
-      <c r="D53" s="164"/>
-      <c r="E53" s="164"/>
-      <c r="F53" s="164"/>
-      <c r="G53" s="164"/>
-      <c r="H53" s="164"/>
-      <c r="I53" s="164"/>
-      <c r="J53" s="164"/>
-      <c r="K53" s="164"/>
-      <c r="L53" s="199"/>
+      <c r="A53" s="192"/>
+      <c r="B53" s="206"/>
+      <c r="C53" s="219"/>
+      <c r="D53" s="174"/>
+      <c r="E53" s="174"/>
+      <c r="F53" s="174"/>
+      <c r="G53" s="174"/>
+      <c r="H53" s="174"/>
+      <c r="I53" s="174"/>
+      <c r="J53" s="174"/>
+      <c r="K53" s="174"/>
+      <c r="L53" s="220"/>
     </row>
     <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="237"/>
-      <c r="B54" s="185"/>
-      <c r="C54" s="198"/>
-      <c r="D54" s="164"/>
-      <c r="E54" s="164"/>
-      <c r="F54" s="164"/>
-      <c r="G54" s="164"/>
-      <c r="H54" s="164"/>
-      <c r="I54" s="164"/>
-      <c r="J54" s="164"/>
-      <c r="K54" s="164"/>
-      <c r="L54" s="199"/>
+      <c r="A54" s="192"/>
+      <c r="B54" s="206"/>
+      <c r="C54" s="219"/>
+      <c r="D54" s="174"/>
+      <c r="E54" s="174"/>
+      <c r="F54" s="174"/>
+      <c r="G54" s="174"/>
+      <c r="H54" s="174"/>
+      <c r="I54" s="174"/>
+      <c r="J54" s="174"/>
+      <c r="K54" s="174"/>
+      <c r="L54" s="220"/>
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="237"/>
-      <c r="B55" s="185"/>
-      <c r="C55" s="198"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="164"/>
-      <c r="F55" s="164"/>
-      <c r="G55" s="164"/>
-      <c r="H55" s="164"/>
-      <c r="I55" s="164"/>
-      <c r="J55" s="164"/>
-      <c r="K55" s="164"/>
-      <c r="L55" s="199"/>
+      <c r="A55" s="192"/>
+      <c r="B55" s="206"/>
+      <c r="C55" s="219"/>
+      <c r="D55" s="174"/>
+      <c r="E55" s="174"/>
+      <c r="F55" s="174"/>
+      <c r="G55" s="174"/>
+      <c r="H55" s="174"/>
+      <c r="I55" s="174"/>
+      <c r="J55" s="174"/>
+      <c r="K55" s="174"/>
+      <c r="L55" s="220"/>
     </row>
     <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="237"/>
-      <c r="B56" s="185"/>
-      <c r="C56" s="198"/>
-      <c r="D56" s="164"/>
-      <c r="E56" s="164"/>
-      <c r="F56" s="164"/>
-      <c r="G56" s="164"/>
-      <c r="H56" s="164"/>
-      <c r="I56" s="164"/>
-      <c r="J56" s="164"/>
-      <c r="K56" s="164"/>
-      <c r="L56" s="199"/>
+      <c r="A56" s="192"/>
+      <c r="B56" s="206"/>
+      <c r="C56" s="219"/>
+      <c r="D56" s="174"/>
+      <c r="E56" s="174"/>
+      <c r="F56" s="174"/>
+      <c r="G56" s="174"/>
+      <c r="H56" s="174"/>
+      <c r="I56" s="174"/>
+      <c r="J56" s="174"/>
+      <c r="K56" s="174"/>
+      <c r="L56" s="220"/>
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="237"/>
-      <c r="B57" s="185"/>
-      <c r="C57" s="198"/>
-      <c r="D57" s="164"/>
-      <c r="E57" s="164"/>
-      <c r="F57" s="164"/>
-      <c r="G57" s="164"/>
-      <c r="H57" s="164"/>
-      <c r="I57" s="164"/>
-      <c r="J57" s="164"/>
-      <c r="K57" s="164"/>
-      <c r="L57" s="199"/>
+      <c r="A57" s="192"/>
+      <c r="B57" s="206"/>
+      <c r="C57" s="219"/>
+      <c r="D57" s="174"/>
+      <c r="E57" s="174"/>
+      <c r="F57" s="174"/>
+      <c r="G57" s="174"/>
+      <c r="H57" s="174"/>
+      <c r="I57" s="174"/>
+      <c r="J57" s="174"/>
+      <c r="K57" s="174"/>
+      <c r="L57" s="220"/>
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="237"/>
-      <c r="B58" s="185"/>
-      <c r="C58" s="198"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="164"/>
-      <c r="F58" s="164"/>
-      <c r="G58" s="164"/>
-      <c r="H58" s="164"/>
-      <c r="I58" s="164"/>
-      <c r="J58" s="164"/>
-      <c r="K58" s="164"/>
-      <c r="L58" s="199"/>
-    </row>
-    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="237"/>
-      <c r="B59" s="186"/>
-      <c r="C59" s="200"/>
-      <c r="D59" s="201"/>
-      <c r="E59" s="201"/>
-      <c r="F59" s="201"/>
-      <c r="G59" s="201"/>
-      <c r="H59" s="201"/>
-      <c r="I59" s="201"/>
-      <c r="J59" s="201"/>
-      <c r="K59" s="201"/>
-      <c r="L59" s="202"/>
+      <c r="A58" s="192"/>
+      <c r="B58" s="206"/>
+      <c r="C58" s="219"/>
+      <c r="D58" s="174"/>
+      <c r="E58" s="174"/>
+      <c r="F58" s="174"/>
+      <c r="G58" s="174"/>
+      <c r="H58" s="174"/>
+      <c r="I58" s="174"/>
+      <c r="J58" s="174"/>
+      <c r="K58" s="174"/>
+      <c r="L58" s="220"/>
+    </row>
+    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="192"/>
+      <c r="B59" s="206"/>
+      <c r="C59" s="219"/>
+      <c r="D59" s="174"/>
+      <c r="E59" s="174"/>
+      <c r="F59" s="174"/>
+      <c r="G59" s="174"/>
+      <c r="H59" s="174"/>
+      <c r="I59" s="174"/>
+      <c r="J59" s="174"/>
+      <c r="K59" s="174"/>
+      <c r="L59" s="220"/>
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="237"/>
-      <c r="B60" s="187" t="s">
+      <c r="A60" s="192"/>
+      <c r="B60" s="206"/>
+      <c r="C60" s="219"/>
+      <c r="D60" s="174"/>
+      <c r="E60" s="174"/>
+      <c r="F60" s="174"/>
+      <c r="G60" s="174"/>
+      <c r="H60" s="174"/>
+      <c r="I60" s="174"/>
+      <c r="J60" s="174"/>
+      <c r="K60" s="174"/>
+      <c r="L60" s="220"/>
+    </row>
+    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="192"/>
+      <c r="B61" s="207"/>
+      <c r="C61" s="221"/>
+      <c r="D61" s="222"/>
+      <c r="E61" s="222"/>
+      <c r="F61" s="222"/>
+      <c r="G61" s="222"/>
+      <c r="H61" s="222"/>
+      <c r="I61" s="222"/>
+      <c r="J61" s="222"/>
+      <c r="K61" s="222"/>
+      <c r="L61" s="223"/>
+    </row>
+    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="192"/>
+      <c r="B62" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C62" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="206"/>
-      <c r="E60" s="206"/>
-      <c r="F60" s="206"/>
-      <c r="G60" s="206"/>
-      <c r="H60" s="206"/>
-      <c r="I60" s="206"/>
-      <c r="J60" s="206"/>
-      <c r="K60" s="206"/>
-      <c r="L60" s="207"/>
-    </row>
-    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="237"/>
-      <c r="B61" s="188"/>
-      <c r="C61" s="208"/>
-      <c r="D61" s="209"/>
-      <c r="E61" s="209"/>
-      <c r="F61" s="209"/>
-      <c r="G61" s="209"/>
-      <c r="H61" s="209"/>
-      <c r="I61" s="209"/>
-      <c r="J61" s="209"/>
-      <c r="K61" s="209"/>
-      <c r="L61" s="210"/>
-    </row>
-    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="237"/>
-      <c r="B62" s="188"/>
-      <c r="C62" s="208"/>
-      <c r="D62" s="209"/>
-      <c r="E62" s="209"/>
-      <c r="F62" s="209"/>
-      <c r="G62" s="209"/>
-      <c r="H62" s="209"/>
-      <c r="I62" s="209"/>
-      <c r="J62" s="209"/>
-      <c r="K62" s="209"/>
-      <c r="L62" s="210"/>
+      <c r="D62" s="175"/>
+      <c r="E62" s="175"/>
+      <c r="F62" s="175"/>
+      <c r="G62" s="175"/>
+      <c r="H62" s="175"/>
+      <c r="I62" s="175"/>
+      <c r="J62" s="175"/>
+      <c r="K62" s="175"/>
+      <c r="L62" s="176"/>
     </row>
     <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="237"/>
-      <c r="B63" s="188"/>
-      <c r="C63" s="208"/>
-      <c r="D63" s="209"/>
-      <c r="E63" s="209"/>
-      <c r="F63" s="209"/>
-      <c r="G63" s="209"/>
-      <c r="H63" s="209"/>
-      <c r="I63" s="209"/>
-      <c r="J63" s="209"/>
-      <c r="K63" s="209"/>
-      <c r="L63" s="210"/>
-    </row>
-    <row r="64" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="237"/>
-      <c r="B64" s="188"/>
-      <c r="C64" s="208"/>
-      <c r="D64" s="209"/>
-      <c r="E64" s="209"/>
-      <c r="F64" s="209"/>
-      <c r="G64" s="209"/>
-      <c r="H64" s="209"/>
-      <c r="I64" s="209"/>
-      <c r="J64" s="209"/>
-      <c r="K64" s="209"/>
-      <c r="L64" s="210"/>
-    </row>
-    <row r="65" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="237"/>
-      <c r="B65" s="188"/>
-      <c r="C65" s="208"/>
-      <c r="D65" s="209"/>
-      <c r="E65" s="209"/>
-      <c r="F65" s="209"/>
-      <c r="G65" s="209"/>
-      <c r="H65" s="209"/>
-      <c r="I65" s="209"/>
-      <c r="J65" s="209"/>
-      <c r="K65" s="209"/>
-      <c r="L65" s="210"/>
-    </row>
-    <row r="66" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="237"/>
-      <c r="B66" s="188"/>
-      <c r="C66" s="208"/>
-      <c r="D66" s="209"/>
-      <c r="E66" s="209"/>
-      <c r="F66" s="209"/>
-      <c r="G66" s="209"/>
-      <c r="H66" s="209"/>
-      <c r="I66" s="209"/>
-      <c r="J66" s="209"/>
-      <c r="K66" s="209"/>
-      <c r="L66" s="210"/>
-    </row>
-    <row r="67" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="237"/>
-      <c r="B67" s="189"/>
-      <c r="C67" s="211"/>
-      <c r="D67" s="212"/>
-      <c r="E67" s="212"/>
-      <c r="F67" s="212"/>
-      <c r="G67" s="212"/>
-      <c r="H67" s="212"/>
-      <c r="I67" s="212"/>
-      <c r="J67" s="212"/>
-      <c r="K67" s="212"/>
-      <c r="L67" s="213"/>
-    </row>
-    <row r="68" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="237"/>
-      <c r="B68" s="190" t="s">
+      <c r="A63" s="192"/>
+      <c r="B63" s="209"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="178"/>
+      <c r="E63" s="178"/>
+      <c r="F63" s="178"/>
+      <c r="G63" s="178"/>
+      <c r="H63" s="178"/>
+      <c r="I63" s="178"/>
+      <c r="J63" s="178"/>
+      <c r="K63" s="178"/>
+      <c r="L63" s="179"/>
+    </row>
+    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="192"/>
+      <c r="B64" s="209"/>
+      <c r="C64" s="177"/>
+      <c r="D64" s="178"/>
+      <c r="E64" s="178"/>
+      <c r="F64" s="178"/>
+      <c r="G64" s="178"/>
+      <c r="H64" s="178"/>
+      <c r="I64" s="178"/>
+      <c r="J64" s="178"/>
+      <c r="K64" s="178"/>
+      <c r="L64" s="179"/>
+    </row>
+    <row r="65" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="192"/>
+      <c r="B65" s="209"/>
+      <c r="C65" s="177"/>
+      <c r="D65" s="178"/>
+      <c r="E65" s="178"/>
+      <c r="F65" s="178"/>
+      <c r="G65" s="178"/>
+      <c r="H65" s="178"/>
+      <c r="I65" s="178"/>
+      <c r="J65" s="178"/>
+      <c r="K65" s="178"/>
+      <c r="L65" s="179"/>
+    </row>
+    <row r="66" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="192"/>
+      <c r="B66" s="209"/>
+      <c r="C66" s="177"/>
+      <c r="D66" s="178"/>
+      <c r="E66" s="178"/>
+      <c r="F66" s="178"/>
+      <c r="G66" s="178"/>
+      <c r="H66" s="178"/>
+      <c r="I66" s="178"/>
+      <c r="J66" s="178"/>
+      <c r="K66" s="178"/>
+      <c r="L66" s="179"/>
+    </row>
+    <row r="67" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="192"/>
+      <c r="B67" s="209"/>
+      <c r="C67" s="177"/>
+      <c r="D67" s="178"/>
+      <c r="E67" s="178"/>
+      <c r="F67" s="178"/>
+      <c r="G67" s="178"/>
+      <c r="H67" s="178"/>
+      <c r="I67" s="178"/>
+      <c r="J67" s="178"/>
+      <c r="K67" s="178"/>
+      <c r="L67" s="179"/>
+    </row>
+    <row r="68" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="192"/>
+      <c r="B68" s="209"/>
+      <c r="C68" s="177"/>
+      <c r="D68" s="178"/>
+      <c r="E68" s="178"/>
+      <c r="F68" s="178"/>
+      <c r="G68" s="178"/>
+      <c r="H68" s="178"/>
+      <c r="I68" s="178"/>
+      <c r="J68" s="178"/>
+      <c r="K68" s="178"/>
+      <c r="L68" s="179"/>
+    </row>
+    <row r="69" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="192"/>
+      <c r="B69" s="210"/>
+      <c r="C69" s="180"/>
+      <c r="D69" s="181"/>
+      <c r="E69" s="181"/>
+      <c r="F69" s="181"/>
+      <c r="G69" s="181"/>
+      <c r="H69" s="181"/>
+      <c r="I69" s="181"/>
+      <c r="J69" s="181"/>
+      <c r="K69" s="181"/>
+      <c r="L69" s="182"/>
+    </row>
+    <row r="70" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="192"/>
+      <c r="B70" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="164"/>
-      <c r="D68" s="121"/>
-      <c r="E68" s="121"/>
-      <c r="F68" s="121"/>
-      <c r="G68" s="121"/>
-      <c r="H68" s="121"/>
-      <c r="I68" s="121"/>
-      <c r="J68" s="121"/>
-      <c r="K68" s="121"/>
-      <c r="L68" s="122"/>
-    </row>
-    <row r="69" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="237"/>
-      <c r="B69" s="191"/>
-      <c r="C69" s="123"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="124"/>
-      <c r="F69" s="124"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="124"/>
-      <c r="J69" s="124"/>
-      <c r="K69" s="124"/>
-      <c r="L69" s="125"/>
-    </row>
-    <row r="70" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="237"/>
-      <c r="B70" s="191"/>
-      <c r="C70" s="123"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="124"/>
-      <c r="G70" s="124"/>
-      <c r="H70" s="124"/>
-      <c r="I70" s="124"/>
-      <c r="J70" s="124"/>
-      <c r="K70" s="124"/>
-      <c r="L70" s="125"/>
+      <c r="C70" s="174" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="110"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="110"/>
+      <c r="G70" s="110"/>
+      <c r="H70" s="110"/>
+      <c r="I70" s="110"/>
+      <c r="J70" s="110"/>
+      <c r="K70" s="110"/>
+      <c r="L70" s="111"/>
     </row>
     <row r="71" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="237"/>
-      <c r="B71" s="191"/>
-      <c r="C71" s="123"/>
-      <c r="D71" s="124"/>
-      <c r="E71" s="124"/>
-      <c r="F71" s="124"/>
-      <c r="G71" s="124"/>
-      <c r="H71" s="124"/>
-      <c r="I71" s="124"/>
-      <c r="J71" s="124"/>
-      <c r="K71" s="124"/>
-      <c r="L71" s="125"/>
-    </row>
-    <row r="72" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="237"/>
-      <c r="B72" s="191"/>
-      <c r="C72" s="123"/>
-      <c r="D72" s="124"/>
-      <c r="E72" s="124"/>
-      <c r="F72" s="124"/>
-      <c r="G72" s="124"/>
-      <c r="H72" s="124"/>
-      <c r="I72" s="124"/>
-      <c r="J72" s="124"/>
-      <c r="K72" s="124"/>
-      <c r="L72" s="125"/>
-      <c r="M72" s="9"/>
-    </row>
-    <row r="73" spans="1:13" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="237"/>
-      <c r="B73" s="191"/>
-      <c r="C73" s="123"/>
-      <c r="D73" s="124"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="124"/>
-      <c r="G73" s="124"/>
-      <c r="H73" s="124"/>
-      <c r="I73" s="124"/>
-      <c r="J73" s="124"/>
-      <c r="K73" s="124"/>
-      <c r="L73" s="125"/>
-      <c r="M73" s="9"/>
-    </row>
-    <row r="74" spans="1:13" ht="5.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="237"/>
-      <c r="B74" s="191"/>
-      <c r="C74" s="123"/>
-      <c r="D74" s="124"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="124"/>
-      <c r="G74" s="124"/>
-      <c r="H74" s="124"/>
-      <c r="I74" s="124"/>
-      <c r="J74" s="124"/>
-      <c r="K74" s="124"/>
-      <c r="L74" s="125"/>
+      <c r="A71" s="192"/>
+      <c r="B71" s="211"/>
+      <c r="C71" s="112"/>
+      <c r="D71" s="113"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="113"/>
+      <c r="H71" s="113"/>
+      <c r="I71" s="113"/>
+      <c r="J71" s="113"/>
+      <c r="K71" s="113"/>
+      <c r="L71" s="114"/>
+    </row>
+    <row r="72" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="192"/>
+      <c r="B72" s="211"/>
+      <c r="C72" s="112"/>
+      <c r="D72" s="113"/>
+      <c r="E72" s="113"/>
+      <c r="F72" s="113"/>
+      <c r="G72" s="113"/>
+      <c r="H72" s="113"/>
+      <c r="I72" s="113"/>
+      <c r="J72" s="113"/>
+      <c r="K72" s="113"/>
+      <c r="L72" s="114"/>
+    </row>
+    <row r="73" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="192"/>
+      <c r="B73" s="211"/>
+      <c r="C73" s="112"/>
+      <c r="D73" s="113"/>
+      <c r="E73" s="113"/>
+      <c r="F73" s="113"/>
+      <c r="G73" s="113"/>
+      <c r="H73" s="113"/>
+      <c r="I73" s="113"/>
+      <c r="J73" s="113"/>
+      <c r="K73" s="113"/>
+      <c r="L73" s="114"/>
+    </row>
+    <row r="74" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="192"/>
+      <c r="B74" s="211"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="113"/>
+      <c r="E74" s="113"/>
+      <c r="F74" s="113"/>
+      <c r="G74" s="113"/>
+      <c r="H74" s="113"/>
+      <c r="I74" s="113"/>
+      <c r="J74" s="113"/>
+      <c r="K74" s="113"/>
+      <c r="L74" s="114"/>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" spans="1:13" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="237"/>
-      <c r="B75" s="191"/>
-      <c r="C75" s="123"/>
-      <c r="D75" s="124"/>
-      <c r="E75" s="124"/>
-      <c r="F75" s="124"/>
-      <c r="G75" s="124"/>
-      <c r="H75" s="124"/>
-      <c r="I75" s="124"/>
-      <c r="J75" s="124"/>
-      <c r="K75" s="124"/>
-      <c r="L75" s="125"/>
+    <row r="75" spans="1:13" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="192"/>
+      <c r="B75" s="211"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="113"/>
+      <c r="E75" s="113"/>
+      <c r="F75" s="113"/>
+      <c r="G75" s="113"/>
+      <c r="H75" s="113"/>
+      <c r="I75" s="113"/>
+      <c r="J75" s="113"/>
+      <c r="K75" s="113"/>
+      <c r="L75" s="114"/>
       <c r="M75" s="9"/>
     </row>
-    <row r="76" spans="1:13" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="237"/>
-      <c r="B76" s="191"/>
-      <c r="C76" s="123"/>
-      <c r="D76" s="124"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="124"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="124"/>
-      <c r="I76" s="124"/>
-      <c r="J76" s="124"/>
-      <c r="K76" s="124"/>
-      <c r="L76" s="125"/>
+    <row r="76" spans="1:13" ht="5.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="192"/>
+      <c r="B76" s="211"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="113"/>
+      <c r="E76" s="113"/>
+      <c r="F76" s="113"/>
+      <c r="G76" s="113"/>
+      <c r="H76" s="113"/>
+      <c r="I76" s="113"/>
+      <c r="J76" s="113"/>
+      <c r="K76" s="113"/>
+      <c r="L76" s="114"/>
       <c r="M76" s="9"/>
     </row>
-    <row r="77" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="237"/>
-      <c r="B77" s="192"/>
-      <c r="C77" s="126"/>
-      <c r="D77" s="127"/>
-      <c r="E77" s="127"/>
-      <c r="F77" s="127"/>
-      <c r="G77" s="127"/>
-      <c r="H77" s="127"/>
-      <c r="I77" s="127"/>
-      <c r="J77" s="127"/>
-      <c r="K77" s="127"/>
-      <c r="L77" s="128"/>
+    <row r="77" spans="1:13" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="192"/>
+      <c r="B77" s="211"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="113"/>
+      <c r="E77" s="113"/>
+      <c r="F77" s="113"/>
+      <c r="G77" s="113"/>
+      <c r="H77" s="113"/>
+      <c r="I77" s="113"/>
+      <c r="J77" s="113"/>
+      <c r="K77" s="113"/>
+      <c r="L77" s="114"/>
       <c r="M77" s="9"/>
     </row>
-    <row r="78" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="232" t="s">
+    <row r="78" spans="1:13" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="192"/>
+      <c r="B78" s="211"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="113"/>
+      <c r="E78" s="113"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="113"/>
+      <c r="H78" s="113"/>
+      <c r="I78" s="113"/>
+      <c r="J78" s="113"/>
+      <c r="K78" s="113"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="9"/>
+    </row>
+    <row r="79" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="192"/>
+      <c r="B79" s="212"/>
+      <c r="C79" s="115"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="116"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="116"/>
+      <c r="K79" s="116"/>
+      <c r="L79" s="117"/>
+      <c r="M79" s="9"/>
+    </row>
+    <row r="80" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="B79" s="227" t="s">
+      <c r="B81" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="173" t="s">
+      <c r="C81" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="164" t="s">
+      <c r="D81" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="E79" s="165"/>
-      <c r="F79" s="165"/>
-      <c r="G79" s="165"/>
-      <c r="H79" s="165"/>
-      <c r="I79" s="165"/>
-      <c r="J79" s="165"/>
-      <c r="K79" s="165"/>
-      <c r="L79" s="166"/>
-    </row>
-    <row r="80" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="233"/>
-      <c r="B80" s="229"/>
-      <c r="C80" s="174"/>
-      <c r="D80" s="167"/>
-      <c r="E80" s="168"/>
-      <c r="F80" s="168"/>
-      <c r="G80" s="168"/>
-      <c r="H80" s="168"/>
-      <c r="I80" s="168"/>
-      <c r="J80" s="168"/>
-      <c r="K80" s="168"/>
-      <c r="L80" s="169"/>
-    </row>
-    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="233"/>
-      <c r="B81" s="229"/>
-      <c r="C81" s="175"/>
-      <c r="D81" s="170"/>
-      <c r="E81" s="171"/>
-      <c r="F81" s="171"/>
-      <c r="G81" s="171"/>
-      <c r="H81" s="171"/>
-      <c r="I81" s="171"/>
-      <c r="J81" s="171"/>
-      <c r="K81" s="171"/>
-      <c r="L81" s="172"/>
+      <c r="E81" s="232"/>
+      <c r="F81" s="232"/>
+      <c r="G81" s="232"/>
+      <c r="H81" s="232"/>
+      <c r="I81" s="232"/>
+      <c r="J81" s="232"/>
+      <c r="K81" s="232"/>
+      <c r="L81" s="233"/>
     </row>
     <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="233"/>
-      <c r="B82" s="229"/>
-      <c r="C82" s="176" t="s">
+      <c r="A82" s="172"/>
+      <c r="B82" s="168"/>
+      <c r="C82" s="187"/>
+      <c r="D82" s="234"/>
+      <c r="E82" s="235"/>
+      <c r="F82" s="235"/>
+      <c r="G82" s="235"/>
+      <c r="H82" s="235"/>
+      <c r="I82" s="235"/>
+      <c r="J82" s="235"/>
+      <c r="K82" s="235"/>
+      <c r="L82" s="236"/>
+    </row>
+    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="172"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="188"/>
+      <c r="D83" s="237"/>
+      <c r="E83" s="238"/>
+      <c r="F83" s="238"/>
+      <c r="G83" s="238"/>
+      <c r="H83" s="238"/>
+      <c r="I83" s="238"/>
+      <c r="J83" s="238"/>
+      <c r="K83" s="238"/>
+      <c r="L83" s="239"/>
+    </row>
+    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="172"/>
+      <c r="B84" s="168"/>
+      <c r="C84" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="164" t="s">
+      <c r="D84" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="E82" s="165"/>
-      <c r="F82" s="165"/>
-      <c r="G82" s="165"/>
-      <c r="H82" s="165"/>
-      <c r="I82" s="165"/>
-      <c r="J82" s="165"/>
-      <c r="K82" s="165"/>
-      <c r="L82" s="166"/>
-    </row>
-    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="233"/>
-      <c r="B83" s="229"/>
-      <c r="C83" s="177"/>
-      <c r="D83" s="168"/>
-      <c r="E83" s="168"/>
-      <c r="F83" s="168"/>
-      <c r="G83" s="168"/>
-      <c r="H83" s="168"/>
-      <c r="I83" s="168"/>
-      <c r="J83" s="168"/>
-      <c r="K83" s="168"/>
-      <c r="L83" s="169"/>
-    </row>
-    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="233"/>
-      <c r="B84" s="231"/>
-      <c r="C84" s="178"/>
-      <c r="D84" s="171"/>
-      <c r="E84" s="171"/>
-      <c r="F84" s="171"/>
-      <c r="G84" s="171"/>
-      <c r="H84" s="171"/>
-      <c r="I84" s="171"/>
-      <c r="J84" s="171"/>
-      <c r="K84" s="171"/>
-      <c r="L84" s="172"/>
+      <c r="E84" s="232"/>
+      <c r="F84" s="232"/>
+      <c r="G84" s="232"/>
+      <c r="H84" s="232"/>
+      <c r="I84" s="232"/>
+      <c r="J84" s="232"/>
+      <c r="K84" s="232"/>
+      <c r="L84" s="233"/>
     </row>
     <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="233"/>
-      <c r="B85" s="190" t="s">
+      <c r="A85" s="172"/>
+      <c r="B85" s="168"/>
+      <c r="C85" s="190"/>
+      <c r="D85" s="235"/>
+      <c r="E85" s="235"/>
+      <c r="F85" s="235"/>
+      <c r="G85" s="235"/>
+      <c r="H85" s="235"/>
+      <c r="I85" s="235"/>
+      <c r="J85" s="235"/>
+      <c r="K85" s="235"/>
+      <c r="L85" s="236"/>
+    </row>
+    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="172"/>
+      <c r="B86" s="170"/>
+      <c r="C86" s="191"/>
+      <c r="D86" s="238"/>
+      <c r="E86" s="238"/>
+      <c r="F86" s="238"/>
+      <c r="G86" s="238"/>
+      <c r="H86" s="238"/>
+      <c r="I86" s="238"/>
+      <c r="J86" s="238"/>
+      <c r="K86" s="238"/>
+      <c r="L86" s="239"/>
+    </row>
+    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="172"/>
+      <c r="B87" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="173" t="s">
+      <c r="C87" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="164" t="s">
+      <c r="D87" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="E85" s="165"/>
-      <c r="F85" s="165"/>
-      <c r="G85" s="165"/>
-      <c r="H85" s="165"/>
-      <c r="I85" s="165"/>
-      <c r="J85" s="165"/>
-      <c r="K85" s="165"/>
-      <c r="L85" s="166"/>
-    </row>
-    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="233"/>
-      <c r="B86" s="235"/>
-      <c r="C86" s="174"/>
-      <c r="D86" s="168"/>
-      <c r="E86" s="168"/>
-      <c r="F86" s="168"/>
-      <c r="G86" s="168"/>
-      <c r="H86" s="168"/>
-      <c r="I86" s="168"/>
-      <c r="J86" s="168"/>
-      <c r="K86" s="168"/>
-      <c r="L86" s="169"/>
-    </row>
-    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="233"/>
-      <c r="B87" s="235"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="171"/>
-      <c r="E87" s="171"/>
-      <c r="F87" s="171"/>
-      <c r="G87" s="171"/>
-      <c r="H87" s="171"/>
-      <c r="I87" s="171"/>
-      <c r="J87" s="171"/>
-      <c r="K87" s="171"/>
-      <c r="L87" s="172"/>
+      <c r="E87" s="232"/>
+      <c r="F87" s="232"/>
+      <c r="G87" s="232"/>
+      <c r="H87" s="232"/>
+      <c r="I87" s="232"/>
+      <c r="J87" s="232"/>
+      <c r="K87" s="232"/>
+      <c r="L87" s="233"/>
     </row>
     <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="233"/>
-      <c r="B88" s="235"/>
-      <c r="C88" s="176" t="s">
+      <c r="A88" s="172"/>
+      <c r="B88" s="184"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="235"/>
+      <c r="E88" s="235"/>
+      <c r="F88" s="235"/>
+      <c r="G88" s="235"/>
+      <c r="H88" s="235"/>
+      <c r="I88" s="235"/>
+      <c r="J88" s="235"/>
+      <c r="K88" s="235"/>
+      <c r="L88" s="236"/>
+    </row>
+    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="172"/>
+      <c r="B89" s="184"/>
+      <c r="C89" s="188"/>
+      <c r="D89" s="238"/>
+      <c r="E89" s="238"/>
+      <c r="F89" s="238"/>
+      <c r="G89" s="238"/>
+      <c r="H89" s="238"/>
+      <c r="I89" s="238"/>
+      <c r="J89" s="238"/>
+      <c r="K89" s="238"/>
+      <c r="L89" s="239"/>
+    </row>
+    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="172"/>
+      <c r="B90" s="184"/>
+      <c r="C90" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="164" t="s">
+      <c r="D90" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="E88" s="165"/>
-      <c r="F88" s="165"/>
-      <c r="G88" s="165"/>
-      <c r="H88" s="165"/>
-      <c r="I88" s="165"/>
-      <c r="J88" s="165"/>
-      <c r="K88" s="165"/>
-      <c r="L88" s="166"/>
-    </row>
-    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="233"/>
-      <c r="B89" s="235"/>
-      <c r="C89" s="177"/>
-      <c r="D89" s="168"/>
-      <c r="E89" s="168"/>
-      <c r="F89" s="168"/>
-      <c r="G89" s="168"/>
-      <c r="H89" s="168"/>
-      <c r="I89" s="168"/>
-      <c r="J89" s="168"/>
-      <c r="K89" s="168"/>
-      <c r="L89" s="169"/>
-    </row>
-    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="234"/>
-      <c r="B90" s="236"/>
-      <c r="C90" s="178"/>
-      <c r="D90" s="171"/>
-      <c r="E90" s="171"/>
-      <c r="F90" s="171"/>
-      <c r="G90" s="171"/>
-      <c r="H90" s="171"/>
-      <c r="I90" s="171"/>
-      <c r="J90" s="171"/>
-      <c r="K90" s="171"/>
-      <c r="L90" s="172"/>
+      <c r="E90" s="232"/>
+      <c r="F90" s="232"/>
+      <c r="G90" s="232"/>
+      <c r="H90" s="232"/>
+      <c r="I90" s="232"/>
+      <c r="J90" s="232"/>
+      <c r="K90" s="232"/>
+      <c r="L90" s="233"/>
     </row>
     <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="232" t="s">
+      <c r="A91" s="172"/>
+      <c r="B91" s="184"/>
+      <c r="C91" s="190"/>
+      <c r="D91" s="235"/>
+      <c r="E91" s="235"/>
+      <c r="F91" s="235"/>
+      <c r="G91" s="235"/>
+      <c r="H91" s="235"/>
+      <c r="I91" s="235"/>
+      <c r="J91" s="235"/>
+      <c r="K91" s="235"/>
+      <c r="L91" s="236"/>
+    </row>
+    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="173"/>
+      <c r="B92" s="185"/>
+      <c r="C92" s="191"/>
+      <c r="D92" s="238"/>
+      <c r="E92" s="238"/>
+      <c r="F92" s="238"/>
+      <c r="G92" s="238"/>
+      <c r="H92" s="238"/>
+      <c r="I92" s="238"/>
+      <c r="J92" s="238"/>
+      <c r="K92" s="238"/>
+      <c r="L92" s="239"/>
+    </row>
+    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="B91" s="190" t="s">
+      <c r="B93" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="164" t="s">
+      <c r="C93" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="206"/>
-      <c r="F91" s="206"/>
-      <c r="G91" s="206"/>
-      <c r="H91" s="206"/>
-      <c r="I91" s="206"/>
-      <c r="J91" s="206"/>
-      <c r="K91" s="206"/>
-      <c r="L91" s="207"/>
-    </row>
-    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="233"/>
-      <c r="B92" s="235"/>
-      <c r="C92" s="208"/>
-      <c r="D92" s="209"/>
-      <c r="E92" s="209"/>
-      <c r="F92" s="209"/>
-      <c r="G92" s="209"/>
-      <c r="H92" s="209"/>
-      <c r="I92" s="209"/>
-      <c r="J92" s="209"/>
-      <c r="K92" s="209"/>
-      <c r="L92" s="210"/>
-    </row>
-    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="233"/>
-      <c r="B93" s="235"/>
-      <c r="C93" s="208"/>
-      <c r="D93" s="209"/>
-      <c r="E93" s="209"/>
-      <c r="F93" s="209"/>
-      <c r="G93" s="209"/>
-      <c r="H93" s="209"/>
-      <c r="I93" s="209"/>
-      <c r="J93" s="209"/>
-      <c r="K93" s="209"/>
-      <c r="L93" s="210"/>
+      <c r="D93" s="175"/>
+      <c r="E93" s="175"/>
+      <c r="F93" s="175"/>
+      <c r="G93" s="175"/>
+      <c r="H93" s="175"/>
+      <c r="I93" s="175"/>
+      <c r="J93" s="175"/>
+      <c r="K93" s="175"/>
+      <c r="L93" s="176"/>
     </row>
     <row r="94" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="233"/>
-      <c r="B94" s="235"/>
-      <c r="C94" s="208"/>
-      <c r="D94" s="209"/>
-      <c r="E94" s="209"/>
-      <c r="F94" s="209"/>
-      <c r="G94" s="209"/>
-      <c r="H94" s="209"/>
-      <c r="I94" s="209"/>
-      <c r="J94" s="209"/>
-      <c r="K94" s="209"/>
-      <c r="L94" s="210"/>
+      <c r="A94" s="172"/>
+      <c r="B94" s="184"/>
+      <c r="C94" s="177"/>
+      <c r="D94" s="178"/>
+      <c r="E94" s="178"/>
+      <c r="F94" s="178"/>
+      <c r="G94" s="178"/>
+      <c r="H94" s="178"/>
+      <c r="I94" s="178"/>
+      <c r="J94" s="178"/>
+      <c r="K94" s="178"/>
+      <c r="L94" s="179"/>
     </row>
     <row r="95" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="233"/>
-      <c r="B95" s="235"/>
-      <c r="C95" s="208"/>
-      <c r="D95" s="209"/>
-      <c r="E95" s="209"/>
-      <c r="F95" s="209"/>
-      <c r="G95" s="209"/>
-      <c r="H95" s="209"/>
-      <c r="I95" s="209"/>
-      <c r="J95" s="209"/>
-      <c r="K95" s="209"/>
-      <c r="L95" s="210"/>
+      <c r="A95" s="172"/>
+      <c r="B95" s="184"/>
+      <c r="C95" s="177"/>
+      <c r="D95" s="178"/>
+      <c r="E95" s="178"/>
+      <c r="F95" s="178"/>
+      <c r="G95" s="178"/>
+      <c r="H95" s="178"/>
+      <c r="I95" s="178"/>
+      <c r="J95" s="178"/>
+      <c r="K95" s="178"/>
+      <c r="L95" s="179"/>
     </row>
     <row r="96" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="234"/>
-      <c r="B96" s="236"/>
-      <c r="C96" s="211"/>
-      <c r="D96" s="212"/>
-      <c r="E96" s="212"/>
-      <c r="F96" s="212"/>
-      <c r="G96" s="212"/>
-      <c r="H96" s="212"/>
-      <c r="I96" s="212"/>
-      <c r="J96" s="212"/>
-      <c r="K96" s="212"/>
-      <c r="L96" s="213"/>
+      <c r="A96" s="172"/>
+      <c r="B96" s="184"/>
+      <c r="C96" s="177"/>
+      <c r="D96" s="178"/>
+      <c r="E96" s="178"/>
+      <c r="F96" s="178"/>
+      <c r="G96" s="178"/>
+      <c r="H96" s="178"/>
+      <c r="I96" s="178"/>
+      <c r="J96" s="178"/>
+      <c r="K96" s="178"/>
+      <c r="L96" s="179"/>
     </row>
     <row r="97" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="226" t="s">
+      <c r="A97" s="172"/>
+      <c r="B97" s="184"/>
+      <c r="C97" s="177"/>
+      <c r="D97" s="178"/>
+      <c r="E97" s="178"/>
+      <c r="F97" s="178"/>
+      <c r="G97" s="178"/>
+      <c r="H97" s="178"/>
+      <c r="I97" s="178"/>
+      <c r="J97" s="178"/>
+      <c r="K97" s="178"/>
+      <c r="L97" s="179"/>
+    </row>
+    <row r="98" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="173"/>
+      <c r="B98" s="185"/>
+      <c r="C98" s="180"/>
+      <c r="D98" s="181"/>
+      <c r="E98" s="181"/>
+      <c r="F98" s="181"/>
+      <c r="G98" s="181"/>
+      <c r="H98" s="181"/>
+      <c r="I98" s="181"/>
+      <c r="J98" s="181"/>
+      <c r="K98" s="181"/>
+      <c r="L98" s="182"/>
+    </row>
+    <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="B97" s="227"/>
-      <c r="C97" s="164" t="s">
+      <c r="B99" s="166"/>
+      <c r="C99" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="D97" s="209"/>
-      <c r="E97" s="209"/>
-      <c r="F97" s="209"/>
-      <c r="G97" s="209"/>
-      <c r="H97" s="209"/>
-      <c r="I97" s="209"/>
-      <c r="J97" s="209"/>
-      <c r="K97" s="209"/>
-      <c r="L97" s="210"/>
-    </row>
-    <row r="98" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="228"/>
-      <c r="B98" s="229"/>
-      <c r="C98" s="208"/>
-      <c r="D98" s="209"/>
-      <c r="E98" s="209"/>
-      <c r="F98" s="209"/>
-      <c r="G98" s="209"/>
-      <c r="H98" s="209"/>
-      <c r="I98" s="209"/>
-      <c r="J98" s="209"/>
-      <c r="K98" s="209"/>
-      <c r="L98" s="210"/>
-    </row>
-    <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="228"/>
-      <c r="B99" s="229"/>
-      <c r="C99" s="208"/>
-      <c r="D99" s="209"/>
-      <c r="E99" s="209"/>
-      <c r="F99" s="209"/>
-      <c r="G99" s="209"/>
-      <c r="H99" s="209"/>
-      <c r="I99" s="209"/>
-      <c r="J99" s="209"/>
-      <c r="K99" s="209"/>
-      <c r="L99" s="210"/>
+      <c r="D99" s="178"/>
+      <c r="E99" s="178"/>
+      <c r="F99" s="178"/>
+      <c r="G99" s="178"/>
+      <c r="H99" s="178"/>
+      <c r="I99" s="178"/>
+      <c r="J99" s="178"/>
+      <c r="K99" s="178"/>
+      <c r="L99" s="179"/>
     </row>
     <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="230"/>
-      <c r="B100" s="231"/>
-      <c r="C100" s="211"/>
-      <c r="D100" s="212"/>
-      <c r="E100" s="212"/>
-      <c r="F100" s="212"/>
-      <c r="G100" s="212"/>
-      <c r="H100" s="212"/>
-      <c r="I100" s="212"/>
-      <c r="J100" s="212"/>
-      <c r="K100" s="212"/>
-      <c r="L100" s="213"/>
-    </row>
-    <row r="101" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="219" t="s">
+      <c r="A100" s="167"/>
+      <c r="B100" s="168"/>
+      <c r="C100" s="177"/>
+      <c r="D100" s="178"/>
+      <c r="E100" s="178"/>
+      <c r="F100" s="178"/>
+      <c r="G100" s="178"/>
+      <c r="H100" s="178"/>
+      <c r="I100" s="178"/>
+      <c r="J100" s="178"/>
+      <c r="K100" s="178"/>
+      <c r="L100" s="179"/>
+    </row>
+    <row r="101" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="167"/>
+      <c r="B101" s="168"/>
+      <c r="C101" s="177"/>
+      <c r="D101" s="178"/>
+      <c r="E101" s="178"/>
+      <c r="F101" s="178"/>
+      <c r="G101" s="178"/>
+      <c r="H101" s="178"/>
+      <c r="I101" s="178"/>
+      <c r="J101" s="178"/>
+      <c r="K101" s="178"/>
+      <c r="L101" s="179"/>
+    </row>
+    <row r="102" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="169"/>
+      <c r="B102" s="170"/>
+      <c r="C102" s="180"/>
+      <c r="D102" s="181"/>
+      <c r="E102" s="181"/>
+      <c r="F102" s="181"/>
+      <c r="G102" s="181"/>
+      <c r="H102" s="181"/>
+      <c r="I102" s="181"/>
+      <c r="J102" s="181"/>
+      <c r="K102" s="181"/>
+      <c r="L102" s="182"/>
+    </row>
+    <row r="103" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="B101" s="220"/>
-      <c r="C101" s="220"/>
-      <c r="D101" s="220"/>
-      <c r="E101" s="220"/>
-      <c r="F101" s="220"/>
-      <c r="G101" s="220"/>
-      <c r="H101" s="220"/>
-      <c r="I101" s="220"/>
-      <c r="J101" s="220"/>
-      <c r="K101" s="220"/>
-      <c r="L101" s="221"/>
-    </row>
-    <row r="102" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="222" t="s">
+      <c r="B103" s="200"/>
+      <c r="C103" s="200"/>
+      <c r="D103" s="200"/>
+      <c r="E103" s="200"/>
+      <c r="F103" s="200"/>
+      <c r="G103" s="200"/>
+      <c r="H103" s="200"/>
+      <c r="I103" s="200"/>
+      <c r="J103" s="200"/>
+      <c r="K103" s="200"/>
+      <c r="L103" s="201"/>
+    </row>
+    <row r="104" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="B102" s="223"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="67"/>
-      <c r="J102" s="67"/>
-      <c r="K102" s="67"/>
-      <c r="L102" s="68"/>
-    </row>
-    <row r="103" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="222" t="s">
+      <c r="B104" s="203"/>
+      <c r="C104" s="154"/>
+      <c r="D104" s="155"/>
+      <c r="E104" s="155"/>
+      <c r="F104" s="155"/>
+      <c r="G104" s="155"/>
+      <c r="H104" s="155"/>
+      <c r="I104" s="155"/>
+      <c r="J104" s="155"/>
+      <c r="K104" s="155"/>
+      <c r="L104" s="156"/>
+    </row>
+    <row r="105" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="B103" s="223"/>
-      <c r="C103" s="11">
+      <c r="B105" s="203"/>
+      <c r="C105" s="11">
         <v>1</v>
       </c>
-      <c r="D103" s="69"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="11">
+      <c r="D105" s="157"/>
+      <c r="E105" s="158"/>
+      <c r="F105" s="11">
         <v>2</v>
       </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="11">
+      <c r="G105" s="7"/>
+      <c r="H105" s="11">
         <v>3</v>
       </c>
-      <c r="I103" s="69"/>
-      <c r="J103" s="70"/>
-      <c r="K103" s="70"/>
-      <c r="L103" s="3"/>
-    </row>
-    <row r="104" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="222" t="s">
+      <c r="I105" s="157"/>
+      <c r="J105" s="158"/>
+      <c r="K105" s="158"/>
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="B104" s="223"/>
-      <c r="C104" s="58" t="s">
+      <c r="B106" s="203"/>
+      <c r="C106" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="D104" s="59"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="59"/>
-      <c r="G104" s="59"/>
-      <c r="H104" s="59"/>
-      <c r="I104" s="59"/>
-      <c r="J104" s="59"/>
-      <c r="K104" s="59"/>
-      <c r="L104" s="60"/>
-    </row>
-    <row r="105" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="224" t="s">
+      <c r="D106" s="160"/>
+      <c r="E106" s="160"/>
+      <c r="F106" s="160"/>
+      <c r="G106" s="160"/>
+      <c r="H106" s="160"/>
+      <c r="I106" s="160"/>
+      <c r="J106" s="160"/>
+      <c r="K106" s="160"/>
+      <c r="L106" s="161"/>
+    </row>
+    <row r="107" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="B105" s="224"/>
-      <c r="C105" s="58" t="s">
+      <c r="B107" s="204"/>
+      <c r="C107" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="59"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="59"/>
-      <c r="H105" s="59"/>
-      <c r="I105" s="59"/>
-      <c r="J105" s="59"/>
-      <c r="K105" s="59"/>
-      <c r="L105" s="60"/>
-    </row>
-    <row r="106" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J107" s="62" t="s">
+      <c r="D107" s="160"/>
+      <c r="E107" s="160"/>
+      <c r="F107" s="160"/>
+      <c r="G107" s="160"/>
+      <c r="H107" s="160"/>
+      <c r="I107" s="160"/>
+      <c r="J107" s="160"/>
+      <c r="K107" s="160"/>
+      <c r="L107" s="161"/>
+    </row>
+    <row r="108" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J109" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="K107" s="62"/>
-      <c r="L107" s="62"/>
-    </row>
-    <row r="111" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="K109" s="163"/>
+      <c r="L109" s="163"/>
+    </row>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A97:B100"/>
-    <mergeCell ref="A79:A90"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="C91:L96"/>
-    <mergeCell ref="C97:L100"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A7:A77"/>
-    <mergeCell ref="B8:B37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="A101:L101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:L102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="I103:K103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:L104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:L105"/>
-    <mergeCell ref="B40:B59"/>
-    <mergeCell ref="B60:B67"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="C8:L37"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="C40:L59"/>
-    <mergeCell ref="C60:L67"/>
-    <mergeCell ref="C68:L77"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D81:L83"/>
+    <mergeCell ref="D84:L86"/>
+    <mergeCell ref="D87:L89"/>
+    <mergeCell ref="D90:L92"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C84:C86"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="H4:H5"/>
@@ -7863,12 +7860,50 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C4:E5"/>
-    <mergeCell ref="D79:L81"/>
-    <mergeCell ref="D82:L84"/>
-    <mergeCell ref="D85:L87"/>
-    <mergeCell ref="D88:L90"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C62:L69"/>
+    <mergeCell ref="C70:L79"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="C8:L38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="A103:L103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:L104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="I105:K105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:L106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:L107"/>
+    <mergeCell ref="B41:B61"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="C41:L61"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A99:B102"/>
+    <mergeCell ref="A81:A92"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="C93:L98"/>
+    <mergeCell ref="C99:L102"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A7:A79"/>
+    <mergeCell ref="B8:B38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7881,6 +7916,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{eca21d4a-bfc0-41bc-9225-6bae3d27aab8}" enabled="1" method="Privileged" siteId="{a54b00a2-87e8-4e92-a76d-de53269b7ddd}" contentBits="0" removed="0"/>
+  <clbl:label id="{70b52105-1af2-486b-88e7-e8a14488c517}" enabled="1" method="Privileged" siteId="{a54b00a2-87e8-4e92-a76d-de53269b7ddd}" contentBits="0" removed="0"/>
 </clbl:labelList>
 </file>
--- a/src/main/resources/template_report.xlsx
+++ b/src/main/resources/template_report.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A154CE-27BC-4F87-8ECC-B6083D6F0E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F91B5BC-9396-42BD-B895-C661402C7165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="623" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-2290" windowWidth="19420" windowHeight="11500" tabRatio="623" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="80" r:id="rId1"/>
     <sheet name="説明" sheetId="81" r:id="rId2"/>
     <sheet name="業務報告（共通) サンプル" sheetId="82" r:id="rId3"/>
-    <sheet name="202507業務報告" sheetId="79" r:id="rId4"/>
+    <sheet name="業務報告" sheetId="79" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2538,7 +2538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2693,6 +2693,300 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2723,299 +3017,191 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3047,60 +3233,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -3109,147 +3247,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4171,15 +4168,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="57.26953125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="57.25" style="34" customWidth="1"/>
     <col min="4" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -4192,7 +4189,7 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>30</v>
       </c>
@@ -4206,7 +4203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="20">
         <v>42543</v>
       </c>
@@ -4220,7 +4217,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="49">
         <v>42545</v>
       </c>
@@ -4234,7 +4231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="50"/>
       <c r="B6" s="52"/>
       <c r="C6" s="22" t="s">
@@ -4242,7 +4239,7 @@
       </c>
       <c r="D6" s="54"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="49">
         <v>42566</v>
       </c>
@@ -4256,7 +4253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="50"/>
       <c r="B8" s="52"/>
       <c r="C8" s="23" t="s">
@@ -4264,7 +4261,7 @@
       </c>
       <c r="D8" s="54"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="20">
         <v>42573</v>
       </c>
@@ -4278,7 +4275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="49">
         <v>42600</v>
       </c>
@@ -4292,7 +4289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="50"/>
       <c r="B11" s="52"/>
       <c r="C11" s="25" t="s">
@@ -4302,7 +4299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="20">
         <v>42711</v>
       </c>
@@ -4316,7 +4313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="20">
         <v>42725</v>
       </c>
@@ -4330,87 +4327,87 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
       <c r="C22" s="28"/>
       <c r="D22" s="29"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
       <c r="C23" s="28"/>
       <c r="D23" s="29"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
       <c r="C25" s="28"/>
       <c r="D25" s="29"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="C26" s="28"/>
       <c r="D26" s="29"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="C27" s="28"/>
       <c r="D27" s="29"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="C28" s="28"/>
       <c r="D28" s="29"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="C29" s="28"/>
       <c r="D29" s="29"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
@@ -4444,12 +4441,12 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="55" t="s">
         <v>52</v>
       </c>
@@ -4462,62 +4459,62 @@
       <c r="H1" s="55"/>
       <c r="I1" s="55"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -4528,71 +4525,71 @@
       <c r="H19" s="37"/>
       <c r="I19" s="38"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
         <v>64</v>
       </c>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="39"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="39" t="s">
         <v>65</v>
       </c>
       <c r="I22" s="40"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="39" t="s">
         <v>66</v>
       </c>
       <c r="I23" s="40"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="39" t="s">
         <v>67</v>
       </c>
       <c r="I24" s="40"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="39" t="s">
         <v>68</v>
       </c>
       <c r="I25" s="40"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="39" t="s">
         <v>67</v>
       </c>
       <c r="I26" s="40"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="39" t="s">
         <v>69</v>
       </c>
       <c r="I27" s="40"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="39" t="s">
         <v>67</v>
       </c>
       <c r="I28" s="40"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="39" t="s">
         <v>70</v>
       </c>
       <c r="I29" s="40"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="39" t="s">
         <v>67</v>
       </c>
       <c r="I30" s="40"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="41" t="s">
         <v>71</v>
       </c>
@@ -4605,7 +4602,7 @@
       <c r="H31" s="42"/>
       <c r="I31" s="43"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -4616,41 +4613,41 @@
       <c r="H33" s="37"/>
       <c r="I33" s="38"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="39" t="s">
         <v>72</v>
       </c>
       <c r="I34" s="40"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="39"/>
       <c r="I35" s="40"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="39" t="s">
         <v>65</v>
       </c>
       <c r="I36" s="40"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="39" t="s">
         <v>73</v>
       </c>
       <c r="I37" s="40"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="39" t="s">
         <v>67</v>
       </c>
       <c r="I38" s="40"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="39" t="s">
         <v>74</v>
       </c>
       <c r="I39" s="40"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="41"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -4661,7 +4658,7 @@
       <c r="H40" s="42"/>
       <c r="I40" s="43"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -4672,41 +4669,41 @@
       <c r="H42" s="37"/>
       <c r="I42" s="38"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="39" t="s">
         <v>75</v>
       </c>
       <c r="I43" s="40"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="39"/>
       <c r="I44" s="40"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="39" t="s">
         <v>76</v>
       </c>
       <c r="I45" s="40"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="39" t="s">
         <v>77</v>
       </c>
       <c r="I46" s="40"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="39" t="s">
         <v>67</v>
       </c>
       <c r="I47" s="40"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="39" t="s">
         <v>78</v>
       </c>
       <c r="I48" s="40"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="41"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
@@ -4717,42 +4714,42 @@
       <c r="H49" s="42"/>
       <c r="I49" s="43"/>
     </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A52" s="35" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="36"/>
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
@@ -4763,163 +4760,163 @@
       <c r="H60" s="37"/>
       <c r="I60" s="38"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="39" t="s">
         <v>86</v>
       </c>
       <c r="I61" s="40"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="39"/>
       <c r="I62" s="40"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="39" t="s">
         <v>87</v>
       </c>
       <c r="I63" s="40"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="39"/>
       <c r="I64" s="40"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="39" t="s">
         <v>88</v>
       </c>
       <c r="I65" s="40"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="39" t="s">
         <v>89</v>
       </c>
       <c r="I66" s="40"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="39"/>
       <c r="I67" s="40"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="39" t="s">
         <v>90</v>
       </c>
       <c r="I68" s="40"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="39" t="s">
         <v>91</v>
       </c>
       <c r="I69" s="40"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="39"/>
       <c r="I70" s="40"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="39" t="s">
         <v>92</v>
       </c>
       <c r="I71" s="40"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="39"/>
       <c r="I72" s="40"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="39" t="s">
         <v>93</v>
       </c>
       <c r="I73" s="40"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="39"/>
       <c r="I74" s="40"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="39" t="s">
         <v>94</v>
       </c>
       <c r="I75" s="40"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="39" t="s">
         <v>95</v>
       </c>
       <c r="I76" s="40"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="39" t="s">
         <v>96</v>
       </c>
       <c r="I77" s="40"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="39"/>
       <c r="I78" s="40"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="39" t="s">
         <v>94</v>
       </c>
       <c r="I79" s="40"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="39" t="s">
         <v>95</v>
       </c>
       <c r="I80" s="40"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="39" t="s">
         <v>96</v>
       </c>
       <c r="I81" s="40"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="39"/>
       <c r="I82" s="40"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="39" t="s">
         <v>94</v>
       </c>
       <c r="I83" s="40"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="39" t="s">
         <v>95</v>
       </c>
       <c r="I84" s="40"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="39" t="s">
         <v>96</v>
       </c>
       <c r="I85" s="40"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="39" t="s">
         <v>97</v>
       </c>
       <c r="I86" s="40"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="39" t="s">
         <v>98</v>
       </c>
       <c r="I87" s="40"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="39"/>
       <c r="I88" s="40"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="39" t="s">
         <v>88</v>
       </c>
       <c r="I89" s="40"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="41"/>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
@@ -4930,7 +4927,7 @@
       <c r="H90" s="42"/>
       <c r="I90" s="43"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="36"/>
       <c r="B92" s="37"/>
       <c r="C92" s="37"/>
@@ -4941,159 +4938,159 @@
       <c r="H92" s="37"/>
       <c r="I92" s="38"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="39" t="s">
         <v>99</v>
       </c>
       <c r="I93" s="40"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="39"/>
       <c r="I94" s="40"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="39" t="s">
         <v>100</v>
       </c>
       <c r="I95" s="40"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="39"/>
       <c r="I96" s="40"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="39" t="s">
         <v>88</v>
       </c>
       <c r="I97" s="40"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="39" t="s">
         <v>89</v>
       </c>
       <c r="I98" s="40"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="39"/>
       <c r="I99" s="40"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="39" t="s">
         <v>90</v>
       </c>
       <c r="I100" s="40"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="39" t="s">
         <v>91</v>
       </c>
       <c r="I101" s="40"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="39"/>
       <c r="I102" s="40"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="39" t="s">
         <v>92</v>
       </c>
       <c r="I103" s="40"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="39"/>
       <c r="I104" s="40"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="39" t="s">
         <v>101</v>
       </c>
       <c r="I105" s="40"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="39"/>
       <c r="I106" s="40"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="39" t="s">
         <v>102</v>
       </c>
       <c r="I107" s="40"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I108" s="40"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="39"/>
       <c r="I109" s="40"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="39" t="s">
         <v>102</v>
       </c>
       <c r="I110" s="40"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I111" s="40"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="39"/>
       <c r="I112" s="40"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="39" t="s">
         <v>102</v>
       </c>
       <c r="I113" s="40"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I114" s="40"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" s="39"/>
       <c r="I115" s="40"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" s="39" t="s">
         <v>102</v>
       </c>
       <c r="I116" s="40"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I117" s="40"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" s="39"/>
       <c r="I118" s="40"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119" s="39" t="s">
         <v>98</v>
       </c>
       <c r="I119" s="40"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" s="39"/>
       <c r="I120" s="40"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121" s="39" t="s">
         <v>88</v>
       </c>
       <c r="I121" s="40"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" s="41"/>
       <c r="B122" s="42"/>
       <c r="C122" s="42"/>
@@ -5123,993 +5120,993 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.90625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.6328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.6328125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.36328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="4" customWidth="1"/>
     <col min="10" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="11.08984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="4" customWidth="1"/>
     <col min="13" max="13" width="5" style="4" customWidth="1"/>
     <col min="14" max="15" width="9" style="4"/>
     <col min="16" max="16" width="7" style="4" customWidth="1"/>
     <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="C1" s="56" t="s">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C1" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="57">
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+    </row>
+    <row r="2" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="155">
         <v>42547</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="58" t="s">
+    <row r="4" spans="1:16" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="156" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-    </row>
-    <row r="5" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="59"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-    </row>
-    <row r="6" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+    </row>
+    <row r="5" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="157"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="163"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
       <c r="O6" s="45"/>
     </row>
-    <row r="7" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="68" t="s">
+    <row r="7" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="131" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="71"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="134"/>
       <c r="O7" s="45"/>
     </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="72" t="s">
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="131"/>
+      <c r="B8" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="77"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
       <c r="O8" s="45"/>
     </row>
-    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="80"/>
+    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="131"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="142"/>
       <c r="O9" s="45"/>
     </row>
-    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="80"/>
+    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="131"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="142"/>
       <c r="O10" s="45"/>
       <c r="P10" s="47"/>
     </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="80"/>
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="131"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="142"/>
       <c r="O11" s="45"/>
     </row>
-    <row r="12" spans="1:16" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
+    <row r="12" spans="1:16" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="131"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="145"/>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
-      <c r="B13" s="84" t="s">
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="131"/>
+      <c r="B13" s="146" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="85" t="s">
+      <c r="D13" s="148"/>
+      <c r="E13" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="85" t="s">
+      <c r="F13" s="148"/>
+      <c r="G13" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="85" t="s">
+      <c r="H13" s="149"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="87"/>
-      <c r="L13" s="86"/>
-    </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="88" t="s">
+      <c r="K13" s="149"/>
+      <c r="L13" s="148"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="131"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="91"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="89"/>
-    </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
-      <c r="B15" s="92" t="s">
+      <c r="H14" s="153"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="151"/>
+    </row>
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="131"/>
+      <c r="B15" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96"/>
-    </row>
-    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="99"/>
-    </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="99"/>
-    </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="99"/>
-    </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="68"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="99"/>
-    </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="99"/>
-    </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="68"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="102"/>
-    </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="68"/>
-      <c r="B22" s="103" t="s">
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="108"/>
+    </row>
+    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="131"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="111"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="131"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="111"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="131"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="111"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="131"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="111"/>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="131"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="111"/>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="131"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="114"/>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="131"/>
+      <c r="B22" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="96"/>
-    </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="68"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="99"/>
-    </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="68"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="99"/>
-    </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="68"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="99"/>
-    </row>
-    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="68"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="99"/>
-    </row>
-    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="68"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="99"/>
-    </row>
-    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="68"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="99"/>
-    </row>
-    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="68"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="102"/>
-    </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="68"/>
-      <c r="B30" s="106" t="s">
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="108"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="131"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="111"/>
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="131"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="111"/>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="131"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="111"/>
+    </row>
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="131"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="111"/>
+    </row>
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="131"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="111"/>
+    </row>
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="131"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="111"/>
+    </row>
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="131"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="114"/>
+    </row>
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="131"/>
+      <c r="B30" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="109" t="s">
+      <c r="C30" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="111"/>
-    </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="114"/>
-    </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="68"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="114"/>
-    </row>
-    <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="68"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="114"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="122"/>
+    </row>
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="131"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="125"/>
+    </row>
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="131"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="125"/>
+    </row>
+    <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="131"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="125"/>
       <c r="O33" s="47"/>
     </row>
-    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="68"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="114"/>
+    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="131"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="125"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="68"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="114"/>
+    <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="131"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="125"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="68"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="114"/>
+    <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="131"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="125"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="68"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="114"/>
+    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="131"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="125"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="45"/>
     </row>
-    <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="68"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="114"/>
+    <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="131"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="125"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="45"/>
     </row>
-    <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="68"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="117"/>
+    <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="131"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="128"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="45"/>
     </row>
-    <row r="40" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="124" t="s">
+    <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="135" t="s">
+      <c r="B41" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="143" t="s">
+      <c r="C41" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="118" t="s">
+      <c r="D41" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="118"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="119"/>
-    </row>
-    <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="125"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="144"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="121"/>
-    </row>
-    <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="125"/>
-      <c r="B43" s="137"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="122"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="123"/>
-    </row>
-    <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="125"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="146" t="s">
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="72"/>
+    </row>
+    <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="78"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="74"/>
+    </row>
+    <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="78"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="76"/>
+    </row>
+    <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="78"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="118" t="s">
+      <c r="D44" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="118"/>
-      <c r="L44" s="119"/>
-    </row>
-    <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="125"/>
-      <c r="B45" s="137"/>
-      <c r="C45" s="147"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="120"/>
-      <c r="K45" s="120"/>
-      <c r="L45" s="121"/>
-    </row>
-    <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="125"/>
-      <c r="B46" s="139"/>
-      <c r="C46" s="148"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="122"/>
-      <c r="K46" s="122"/>
-      <c r="L46" s="123"/>
-    </row>
-    <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="125"/>
-      <c r="B47" s="106" t="s">
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="72"/>
+    </row>
+    <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="78"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="74"/>
+    </row>
+    <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="78"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="76"/>
+    </row>
+    <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="78"/>
+      <c r="B47" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="143" t="s">
+      <c r="C47" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="118" t="s">
+      <c r="D47" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="119"/>
-    </row>
-    <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="125"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="144"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="120"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="120"/>
-      <c r="J48" s="120"/>
-      <c r="K48" s="120"/>
-      <c r="L48" s="121"/>
-    </row>
-    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="125"/>
-      <c r="B49" s="127"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="122"/>
-      <c r="J49" s="122"/>
-      <c r="K49" s="122"/>
-      <c r="L49" s="123"/>
-    </row>
-    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="125"/>
-      <c r="B50" s="127"/>
-      <c r="C50" s="146" t="s">
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="72"/>
+    </row>
+    <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="78"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="74"/>
+    </row>
+    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="78"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="76"/>
+    </row>
+    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="78"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="118" t="s">
+      <c r="D50" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="118"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="118"/>
-      <c r="K50" s="118"/>
-      <c r="L50" s="119"/>
-    </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="125"/>
-      <c r="B51" s="127"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="120"/>
-      <c r="F51" s="120"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="120"/>
-      <c r="J51" s="120"/>
-      <c r="K51" s="120"/>
-      <c r="L51" s="121"/>
-    </row>
-    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="126"/>
-      <c r="B52" s="128"/>
-      <c r="C52" s="148"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="122"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="122"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="122"/>
-      <c r="L52" s="123"/>
-    </row>
-    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="124" t="s">
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="72"/>
+    </row>
+    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="78"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="74"/>
+    </row>
+    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="79"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="76"/>
+    </row>
+    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="106" t="s">
+      <c r="B53" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="75" t="s">
+      <c r="C53" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="129"/>
-      <c r="L53" s="130"/>
-    </row>
-    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="125"/>
-      <c r="B54" s="127"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="132"/>
-      <c r="F54" s="132"/>
-      <c r="G54" s="132"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="132"/>
-      <c r="K54" s="132"/>
-      <c r="L54" s="133"/>
-    </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="125"/>
-      <c r="B55" s="127"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="132"/>
-      <c r="F55" s="132"/>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="132"/>
-      <c r="K55" s="132"/>
-      <c r="L55" s="133"/>
-    </row>
-    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="125"/>
-      <c r="B56" s="127"/>
-      <c r="C56" s="131"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="132"/>
-      <c r="G56" s="132"/>
-      <c r="H56" s="132"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="132"/>
-      <c r="K56" s="132"/>
-      <c r="L56" s="133"/>
-    </row>
-    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="125"/>
-      <c r="B57" s="127"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="132"/>
-      <c r="L57" s="133"/>
-    </row>
-    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="126"/>
-      <c r="B58" s="128"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="132"/>
-      <c r="K58" s="132"/>
-      <c r="L58" s="133"/>
-    </row>
-    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="134" t="s">
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="85"/>
+    </row>
+    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="78"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="88"/>
+    </row>
+    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="78"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="88"/>
+    </row>
+    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="78"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="88"/>
+    </row>
+    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="78"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="88"/>
+    </row>
+    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="79"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="88"/>
+    </row>
+    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="135"/>
-      <c r="C59" s="75" t="s">
+      <c r="B59" s="90"/>
+      <c r="C59" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="D59" s="129"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="129"/>
-      <c r="G59" s="129"/>
-      <c r="H59" s="129"/>
-      <c r="I59" s="129"/>
-      <c r="J59" s="129"/>
-      <c r="K59" s="129"/>
-      <c r="L59" s="130"/>
-    </row>
-    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="136"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="132"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="132"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="132"/>
-      <c r="J60" s="132"/>
-      <c r="K60" s="132"/>
-      <c r="L60" s="133"/>
-    </row>
-    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="136"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="132"/>
-      <c r="E61" s="132"/>
-      <c r="F61" s="132"/>
-      <c r="G61" s="132"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="132"/>
-      <c r="K61" s="132"/>
-      <c r="L61" s="133"/>
-    </row>
-    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="138"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="141"/>
-      <c r="E62" s="141"/>
-      <c r="F62" s="141"/>
-      <c r="G62" s="141"/>
-      <c r="H62" s="141"/>
-      <c r="I62" s="141"/>
-      <c r="J62" s="141"/>
-      <c r="K62" s="141"/>
-      <c r="L62" s="142"/>
-    </row>
-    <row r="63" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="149" t="s">
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="85"/>
+    </row>
+    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="91"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="87"/>
+      <c r="I60" s="87"/>
+      <c r="J60" s="87"/>
+      <c r="K60" s="87"/>
+      <c r="L60" s="88"/>
+    </row>
+    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="91"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="87"/>
+      <c r="J61" s="87"/>
+      <c r="K61" s="87"/>
+      <c r="L61" s="88"/>
+    </row>
+    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="93"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="97"/>
+    </row>
+    <row r="63" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="B63" s="150"/>
-      <c r="C63" s="150"/>
-      <c r="D63" s="150"/>
-      <c r="E63" s="150"/>
-      <c r="F63" s="150"/>
-      <c r="G63" s="150"/>
-      <c r="H63" s="150"/>
-      <c r="I63" s="150"/>
-      <c r="J63" s="150"/>
-      <c r="K63" s="150"/>
-      <c r="L63" s="151"/>
-    </row>
-    <row r="64" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="152" t="s">
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="65"/>
+    </row>
+    <row r="64" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="153"/>
-      <c r="C64" s="154" t="s">
+      <c r="B64" s="57"/>
+      <c r="C64" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="155"/>
-      <c r="E64" s="155"/>
-      <c r="F64" s="155"/>
-      <c r="G64" s="155"/>
-      <c r="H64" s="155"/>
-      <c r="I64" s="155"/>
-      <c r="J64" s="155"/>
-      <c r="K64" s="155"/>
-      <c r="L64" s="156"/>
-    </row>
-    <row r="65" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="152" t="s">
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="68"/>
+    </row>
+    <row r="65" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="153"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="48">
         <v>1</v>
       </c>
-      <c r="D65" s="157">
+      <c r="D65" s="69">
         <v>41411</v>
       </c>
-      <c r="E65" s="158"/>
+      <c r="E65" s="70"/>
       <c r="F65" s="48">
         <v>2</v>
       </c>
@@ -6119,78 +6116,96 @@
       <c r="H65" s="48">
         <v>3</v>
       </c>
-      <c r="I65" s="157">
+      <c r="I65" s="69">
         <v>41424</v>
       </c>
-      <c r="J65" s="158"/>
-      <c r="K65" s="158"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="152" t="s">
+    <row r="66" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="153"/>
-      <c r="C66" s="159" t="s">
+      <c r="B66" s="57"/>
+      <c r="C66" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="160"/>
-      <c r="E66" s="160"/>
-      <c r="F66" s="160"/>
-      <c r="G66" s="160"/>
-      <c r="H66" s="160"/>
-      <c r="I66" s="160"/>
-      <c r="J66" s="160"/>
-      <c r="K66" s="160"/>
-      <c r="L66" s="161"/>
-    </row>
-    <row r="67" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="162" t="s">
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="60"/>
+    </row>
+    <row r="67" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="162"/>
-      <c r="C67" s="159" t="s">
+      <c r="B67" s="61"/>
+      <c r="C67" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="D67" s="160"/>
-      <c r="E67" s="160"/>
-      <c r="F67" s="160"/>
-      <c r="G67" s="160"/>
-      <c r="H67" s="160"/>
-      <c r="I67" s="160"/>
-      <c r="J67" s="160"/>
-      <c r="K67" s="160"/>
-      <c r="L67" s="161"/>
-    </row>
-    <row r="68" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="60"/>
+    </row>
+    <row r="68" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J69" s="163" t="s">
+    <row r="69" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J69" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="K69" s="163"/>
-      <c r="L69" s="163"/>
-    </row>
-    <row r="73" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="K69" s="62"/>
+      <c r="L69" s="62"/>
+    </row>
+    <row r="73" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:L66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:L67"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="A63:L63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:L64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A7:A39"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:L12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:L21"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:L29"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="C30:L39"/>
     <mergeCell ref="D50:L52"/>
     <mergeCell ref="A53:A58"/>
     <mergeCell ref="B53:B58"/>
@@ -6207,35 +6222,17 @@
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="D47:L49"/>
     <mergeCell ref="C50:C52"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:L21"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:L29"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="C30:L39"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A7:A39"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:L12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:L64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:L66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:L67"/>
+    <mergeCell ref="J69:L69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -6256,48 +6253,48 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.90625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.6328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.6328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.6328125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.36328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="4" customWidth="1"/>
     <col min="10" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="11.08984375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="4" customWidth="1"/>
     <col min="13" max="13" width="5" style="4" customWidth="1"/>
     <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="C1" s="56" t="s">
+    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-    </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.3">
-      <c r="B2" s="213"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="231"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="181"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="K2" s="164" t="s">
+      <c r="K2" s="226" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="164"/>
-    </row>
-    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="226"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="H3" s="8"/>
@@ -6306,1481 +6303,1481 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="228" t="s">
+    <row r="4" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-    </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="229"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-    </row>
-    <row r="6" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="181"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="180"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="163"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C6" s="13"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-    </row>
-    <row r="7" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="192" t="s">
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="238" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="213"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
-      <c r="L7" s="215"/>
-    </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="192"/>
-      <c r="B8" s="193" t="s">
+      <c r="C7" s="181"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="216"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="238"/>
+      <c r="B8" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="216" t="s">
+      <c r="C8" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="217"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="217"/>
-      <c r="H8" s="217"/>
-      <c r="I8" s="217"/>
-      <c r="J8" s="217"/>
-      <c r="K8" s="217"/>
-      <c r="L8" s="218"/>
-    </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="192"/>
-      <c r="B9" s="194"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="220"/>
-    </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="192"/>
-      <c r="B10" s="194"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="220"/>
-    </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="192"/>
-      <c r="B11" s="194"/>
-      <c r="C11" s="219"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="220"/>
-    </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="192"/>
-      <c r="B12" s="194"/>
-      <c r="C12" s="219"/>
-      <c r="D12" s="174"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="220"/>
-    </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="192"/>
-      <c r="B13" s="194"/>
-      <c r="C13" s="219"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="174"/>
-      <c r="L13" s="220"/>
-    </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="192"/>
-      <c r="B14" s="194"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="220"/>
-    </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="192"/>
-      <c r="B15" s="194"/>
-      <c r="C15" s="219"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="220"/>
-    </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="192"/>
-      <c r="B16" s="194"/>
-      <c r="C16" s="219"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="174"/>
-      <c r="K16" s="174"/>
-      <c r="L16" s="220"/>
-    </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="192"/>
-      <c r="B17" s="194"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="174"/>
-      <c r="L17" s="220"/>
-    </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="192"/>
-      <c r="B18" s="194"/>
-      <c r="C18" s="219"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
-      <c r="L18" s="220"/>
-    </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="192"/>
-      <c r="B19" s="194"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="174"/>
-      <c r="K19" s="174"/>
-      <c r="L19" s="220"/>
-    </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="192"/>
-      <c r="B20" s="194"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="174"/>
-      <c r="L20" s="220"/>
-    </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="192"/>
-      <c r="B21" s="194"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="174"/>
-      <c r="L21" s="220"/>
-    </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="192"/>
-      <c r="B22" s="194"/>
-      <c r="C22" s="219"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="174"/>
-      <c r="L22" s="220"/>
-    </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="192"/>
-      <c r="B23" s="194"/>
-      <c r="C23" s="219"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="174"/>
-      <c r="L23" s="220"/>
-    </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="192"/>
-      <c r="B24" s="194"/>
-      <c r="C24" s="219"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="174"/>
-      <c r="L24" s="220"/>
-    </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="192"/>
-      <c r="B25" s="194"/>
-      <c r="C25" s="219"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="174"/>
-      <c r="L25" s="220"/>
-    </row>
-    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="192"/>
-      <c r="B26" s="194"/>
-      <c r="C26" s="219"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="174"/>
-      <c r="L26" s="220"/>
-    </row>
-    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="192"/>
-      <c r="B27" s="194"/>
-      <c r="C27" s="219"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="174"/>
-      <c r="L27" s="220"/>
-    </row>
-    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="192"/>
-      <c r="B28" s="194"/>
-      <c r="C28" s="219"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="174"/>
-      <c r="L28" s="220"/>
-    </row>
-    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="192"/>
-      <c r="B29" s="194"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="174"/>
-      <c r="L29" s="220"/>
-    </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="192"/>
-      <c r="B30" s="194"/>
-      <c r="C30" s="219"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="220"/>
-    </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="192"/>
-      <c r="B31" s="194"/>
-      <c r="C31" s="219"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="174"/>
-      <c r="L31" s="220"/>
-    </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="192"/>
-      <c r="B32" s="194"/>
-      <c r="C32" s="219"/>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="174"/>
-      <c r="L32" s="220"/>
-    </row>
-    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="192"/>
-      <c r="B33" s="194"/>
-      <c r="C33" s="219"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="174"/>
-      <c r="L33" s="220"/>
-    </row>
-    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="192"/>
-      <c r="B34" s="194"/>
-      <c r="C34" s="219"/>
-      <c r="D34" s="174"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="174"/>
-      <c r="K34" s="174"/>
-      <c r="L34" s="220"/>
-    </row>
-    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="192"/>
-      <c r="B35" s="194"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="174"/>
-      <c r="L35" s="220"/>
-    </row>
-    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="192"/>
-      <c r="B36" s="194"/>
-      <c r="C36" s="219"/>
-      <c r="D36" s="174"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="174"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="174"/>
-      <c r="K36" s="174"/>
-      <c r="L36" s="220"/>
-    </row>
-    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="192"/>
-      <c r="B37" s="194"/>
-      <c r="C37" s="219"/>
-      <c r="D37" s="174"/>
-      <c r="E37" s="174"/>
-      <c r="F37" s="174"/>
-      <c r="G37" s="174"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="174"/>
-      <c r="K37" s="174"/>
-      <c r="L37" s="220"/>
-    </row>
-    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="192"/>
-      <c r="B38" s="194"/>
-      <c r="C38" s="219"/>
-      <c r="D38" s="174"/>
-      <c r="E38" s="174"/>
-      <c r="F38" s="174"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="174"/>
-      <c r="K38" s="174"/>
-      <c r="L38" s="220"/>
-    </row>
-    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="192"/>
-      <c r="B39" s="227" t="s">
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="209"/>
+    </row>
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="238"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="210"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="238"/>
+      <c r="B10" s="240"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="210"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="238"/>
+      <c r="B11" s="240"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="210"/>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="238"/>
+      <c r="B12" s="240"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="210"/>
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="238"/>
+      <c r="B13" s="240"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="210"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="238"/>
+      <c r="B14" s="240"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="210"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="238"/>
+      <c r="B15" s="240"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="210"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="238"/>
+      <c r="B16" s="240"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="210"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="238"/>
+      <c r="B17" s="240"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="210"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="238"/>
+      <c r="B18" s="240"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="210"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="238"/>
+      <c r="B19" s="240"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="210"/>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="238"/>
+      <c r="B20" s="240"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="210"/>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="238"/>
+      <c r="B21" s="240"/>
+      <c r="C21" s="211"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="210"/>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="238"/>
+      <c r="B22" s="240"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="210"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="238"/>
+      <c r="B23" s="240"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="210"/>
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="238"/>
+      <c r="B24" s="240"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="210"/>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="238"/>
+      <c r="B25" s="240"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="210"/>
+    </row>
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="238"/>
+      <c r="B26" s="240"/>
+      <c r="C26" s="211"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="210"/>
+    </row>
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="238"/>
+      <c r="B27" s="240"/>
+      <c r="C27" s="211"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="164"/>
+      <c r="L27" s="210"/>
+    </row>
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="238"/>
+      <c r="B28" s="240"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="210"/>
+    </row>
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="238"/>
+      <c r="B29" s="240"/>
+      <c r="C29" s="211"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="210"/>
+    </row>
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="238"/>
+      <c r="B30" s="240"/>
+      <c r="C30" s="211"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="210"/>
+    </row>
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="238"/>
+      <c r="B31" s="240"/>
+      <c r="C31" s="211"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="210"/>
+    </row>
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="238"/>
+      <c r="B32" s="240"/>
+      <c r="C32" s="211"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="210"/>
+    </row>
+    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="238"/>
+      <c r="B33" s="240"/>
+      <c r="C33" s="211"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="210"/>
+    </row>
+    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="238"/>
+      <c r="B34" s="240"/>
+      <c r="C34" s="211"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="164"/>
+      <c r="L34" s="210"/>
+    </row>
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="238"/>
+      <c r="B35" s="240"/>
+      <c r="C35" s="211"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="210"/>
+    </row>
+    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="238"/>
+      <c r="B36" s="240"/>
+      <c r="C36" s="211"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="210"/>
+    </row>
+    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="238"/>
+      <c r="B37" s="240"/>
+      <c r="C37" s="211"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="164"/>
+      <c r="K37" s="164"/>
+      <c r="L37" s="210"/>
+    </row>
+    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="238"/>
+      <c r="B38" s="240"/>
+      <c r="C38" s="211"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="164"/>
+      <c r="K38" s="164"/>
+      <c r="L38" s="210"/>
+    </row>
+    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="238"/>
+      <c r="B39" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="196" t="s">
+      <c r="C39" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="198"/>
-      <c r="E39" s="196" t="s">
+      <c r="D39" s="195"/>
+      <c r="E39" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="198"/>
-      <c r="G39" s="196" t="s">
+      <c r="F39" s="195"/>
+      <c r="G39" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="H39" s="197"/>
-      <c r="I39" s="198"/>
-      <c r="J39" s="196" t="s">
+      <c r="H39" s="196"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="197"/>
-      <c r="L39" s="198"/>
-    </row>
-    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="192"/>
-      <c r="B40" s="195"/>
-      <c r="C40" s="213"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="213"/>
-      <c r="F40" s="225"/>
-      <c r="G40" s="213"/>
-      <c r="H40" s="226"/>
-      <c r="I40" s="225"/>
-      <c r="J40" s="213"/>
-      <c r="K40" s="226"/>
-      <c r="L40" s="225"/>
-    </row>
-    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="192"/>
-      <c r="B41" s="205" t="s">
+      <c r="K39" s="196"/>
+      <c r="L39" s="195"/>
+    </row>
+    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="238"/>
+      <c r="B40" s="193"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="217"/>
+      <c r="E40" s="181"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="219"/>
+      <c r="I40" s="218"/>
+      <c r="J40" s="181"/>
+      <c r="K40" s="219"/>
+      <c r="L40" s="218"/>
+    </row>
+    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="238"/>
+      <c r="B41" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="216" t="s">
+      <c r="C41" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="217"/>
-      <c r="E41" s="217"/>
-      <c r="F41" s="217"/>
-      <c r="G41" s="217"/>
-      <c r="H41" s="217"/>
-      <c r="I41" s="217"/>
-      <c r="J41" s="217"/>
-      <c r="K41" s="217"/>
-      <c r="L41" s="218"/>
-    </row>
-    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="192"/>
-      <c r="B42" s="240"/>
-      <c r="C42" s="241"/>
-      <c r="D42" s="241"/>
-      <c r="E42" s="241"/>
-      <c r="F42" s="241"/>
-      <c r="G42" s="241"/>
-      <c r="H42" s="241"/>
-      <c r="I42" s="241"/>
-      <c r="J42" s="241"/>
-      <c r="K42" s="241"/>
-      <c r="L42" s="220"/>
-    </row>
-    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="192"/>
-      <c r="B43" s="240"/>
-      <c r="C43" s="241"/>
-      <c r="D43" s="241"/>
-      <c r="E43" s="241"/>
-      <c r="F43" s="241"/>
-      <c r="G43" s="241"/>
-      <c r="H43" s="241"/>
-      <c r="I43" s="241"/>
-      <c r="J43" s="241"/>
-      <c r="K43" s="241"/>
-      <c r="L43" s="220"/>
-    </row>
-    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="192"/>
-      <c r="B44" s="240"/>
-      <c r="C44" s="241"/>
-      <c r="D44" s="241"/>
-      <c r="E44" s="241"/>
-      <c r="F44" s="241"/>
-      <c r="G44" s="241"/>
-      <c r="H44" s="241"/>
-      <c r="I44" s="241"/>
-      <c r="J44" s="241"/>
-      <c r="K44" s="241"/>
-      <c r="L44" s="220"/>
-    </row>
-    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="192"/>
-      <c r="B45" s="240"/>
-      <c r="C45" s="241"/>
-      <c r="D45" s="241"/>
-      <c r="E45" s="241"/>
-      <c r="F45" s="241"/>
-      <c r="G45" s="241"/>
-      <c r="H45" s="241"/>
-      <c r="I45" s="241"/>
-      <c r="J45" s="241"/>
-      <c r="K45" s="241"/>
-      <c r="L45" s="220"/>
-    </row>
-    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="192"/>
-      <c r="B46" s="240"/>
-      <c r="C46" s="241"/>
-      <c r="D46" s="241"/>
-      <c r="E46" s="241"/>
-      <c r="F46" s="241"/>
-      <c r="G46" s="241"/>
-      <c r="H46" s="241"/>
-      <c r="I46" s="241"/>
-      <c r="J46" s="241"/>
-      <c r="K46" s="241"/>
-      <c r="L46" s="220"/>
-    </row>
-    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="192"/>
-      <c r="B47" s="240"/>
-      <c r="C47" s="241"/>
-      <c r="D47" s="241"/>
-      <c r="E47" s="241"/>
-      <c r="F47" s="241"/>
-      <c r="G47" s="241"/>
-      <c r="H47" s="241"/>
-      <c r="I47" s="241"/>
-      <c r="J47" s="241"/>
-      <c r="K47" s="241"/>
-      <c r="L47" s="220"/>
-    </row>
-    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="192"/>
-      <c r="B48" s="240"/>
-      <c r="C48" s="241"/>
-      <c r="D48" s="241"/>
-      <c r="E48" s="241"/>
-      <c r="F48" s="241"/>
-      <c r="G48" s="241"/>
-      <c r="H48" s="241"/>
-      <c r="I48" s="241"/>
-      <c r="J48" s="241"/>
-      <c r="K48" s="241"/>
-      <c r="L48" s="220"/>
-    </row>
-    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="192"/>
-      <c r="B49" s="240"/>
-      <c r="C49" s="241"/>
-      <c r="D49" s="241"/>
-      <c r="E49" s="241"/>
-      <c r="F49" s="241"/>
-      <c r="G49" s="241"/>
-      <c r="H49" s="241"/>
-      <c r="I49" s="241"/>
-      <c r="J49" s="241"/>
-      <c r="K49" s="241"/>
-      <c r="L49" s="220"/>
-    </row>
-    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="192"/>
-      <c r="B50" s="240"/>
-      <c r="C50" s="241"/>
-      <c r="D50" s="241"/>
-      <c r="E50" s="241"/>
-      <c r="F50" s="241"/>
-      <c r="G50" s="241"/>
-      <c r="H50" s="241"/>
-      <c r="I50" s="241"/>
-      <c r="J50" s="241"/>
-      <c r="K50" s="241"/>
-      <c r="L50" s="220"/>
-    </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="192"/>
-      <c r="B51" s="240"/>
-      <c r="C51" s="241"/>
-      <c r="D51" s="241"/>
-      <c r="E51" s="241"/>
-      <c r="F51" s="241"/>
-      <c r="G51" s="241"/>
-      <c r="H51" s="241"/>
-      <c r="I51" s="241"/>
-      <c r="J51" s="241"/>
-      <c r="K51" s="241"/>
-      <c r="L51" s="220"/>
-    </row>
-    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="192"/>
-      <c r="B52" s="206"/>
-      <c r="C52" s="219"/>
-      <c r="D52" s="174"/>
-      <c r="E52" s="174"/>
-      <c r="F52" s="174"/>
-      <c r="G52" s="174"/>
-      <c r="H52" s="174"/>
-      <c r="I52" s="174"/>
-      <c r="J52" s="174"/>
-      <c r="K52" s="174"/>
-      <c r="L52" s="220"/>
-    </row>
-    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="192"/>
-      <c r="B53" s="206"/>
-      <c r="C53" s="219"/>
-      <c r="D53" s="174"/>
-      <c r="E53" s="174"/>
-      <c r="F53" s="174"/>
-      <c r="G53" s="174"/>
-      <c r="H53" s="174"/>
-      <c r="I53" s="174"/>
-      <c r="J53" s="174"/>
-      <c r="K53" s="174"/>
-      <c r="L53" s="220"/>
-    </row>
-    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="192"/>
-      <c r="B54" s="206"/>
-      <c r="C54" s="219"/>
-      <c r="D54" s="174"/>
-      <c r="E54" s="174"/>
-      <c r="F54" s="174"/>
-      <c r="G54" s="174"/>
-      <c r="H54" s="174"/>
-      <c r="I54" s="174"/>
-      <c r="J54" s="174"/>
-      <c r="K54" s="174"/>
-      <c r="L54" s="220"/>
-    </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="192"/>
-      <c r="B55" s="206"/>
-      <c r="C55" s="219"/>
-      <c r="D55" s="174"/>
-      <c r="E55" s="174"/>
-      <c r="F55" s="174"/>
-      <c r="G55" s="174"/>
-      <c r="H55" s="174"/>
-      <c r="I55" s="174"/>
-      <c r="J55" s="174"/>
-      <c r="K55" s="174"/>
-      <c r="L55" s="220"/>
-    </row>
-    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="192"/>
-      <c r="B56" s="206"/>
-      <c r="C56" s="219"/>
-      <c r="D56" s="174"/>
-      <c r="E56" s="174"/>
-      <c r="F56" s="174"/>
-      <c r="G56" s="174"/>
-      <c r="H56" s="174"/>
-      <c r="I56" s="174"/>
-      <c r="J56" s="174"/>
-      <c r="K56" s="174"/>
-      <c r="L56" s="220"/>
-    </row>
-    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="192"/>
-      <c r="B57" s="206"/>
-      <c r="C57" s="219"/>
-      <c r="D57" s="174"/>
-      <c r="E57" s="174"/>
-      <c r="F57" s="174"/>
-      <c r="G57" s="174"/>
-      <c r="H57" s="174"/>
-      <c r="I57" s="174"/>
-      <c r="J57" s="174"/>
-      <c r="K57" s="174"/>
-      <c r="L57" s="220"/>
-    </row>
-    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="192"/>
-      <c r="B58" s="206"/>
-      <c r="C58" s="219"/>
-      <c r="D58" s="174"/>
-      <c r="E58" s="174"/>
-      <c r="F58" s="174"/>
-      <c r="G58" s="174"/>
-      <c r="H58" s="174"/>
-      <c r="I58" s="174"/>
-      <c r="J58" s="174"/>
-      <c r="K58" s="174"/>
-      <c r="L58" s="220"/>
-    </row>
-    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="192"/>
-      <c r="B59" s="206"/>
-      <c r="C59" s="219"/>
-      <c r="D59" s="174"/>
-      <c r="E59" s="174"/>
-      <c r="F59" s="174"/>
-      <c r="G59" s="174"/>
-      <c r="H59" s="174"/>
-      <c r="I59" s="174"/>
-      <c r="J59" s="174"/>
-      <c r="K59" s="174"/>
-      <c r="L59" s="220"/>
-    </row>
-    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="192"/>
-      <c r="B60" s="206"/>
-      <c r="C60" s="219"/>
-      <c r="D60" s="174"/>
-      <c r="E60" s="174"/>
-      <c r="F60" s="174"/>
-      <c r="G60" s="174"/>
-      <c r="H60" s="174"/>
-      <c r="I60" s="174"/>
-      <c r="J60" s="174"/>
-      <c r="K60" s="174"/>
-      <c r="L60" s="220"/>
-    </row>
-    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="192"/>
-      <c r="B61" s="207"/>
-      <c r="C61" s="221"/>
-      <c r="D61" s="222"/>
-      <c r="E61" s="222"/>
-      <c r="F61" s="222"/>
-      <c r="G61" s="222"/>
-      <c r="H61" s="222"/>
-      <c r="I61" s="222"/>
-      <c r="J61" s="222"/>
-      <c r="K61" s="222"/>
-      <c r="L61" s="223"/>
-    </row>
-    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="192"/>
-      <c r="B62" s="208" t="s">
+      <c r="D41" s="208"/>
+      <c r="E41" s="208"/>
+      <c r="F41" s="208"/>
+      <c r="G41" s="208"/>
+      <c r="H41" s="208"/>
+      <c r="I41" s="208"/>
+      <c r="J41" s="208"/>
+      <c r="K41" s="208"/>
+      <c r="L41" s="209"/>
+    </row>
+    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="238"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="164"/>
+      <c r="F42" s="164"/>
+      <c r="G42" s="164"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="164"/>
+      <c r="K42" s="164"/>
+      <c r="L42" s="210"/>
+    </row>
+    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="238"/>
+      <c r="B43" s="198"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="164"/>
+      <c r="K43" s="164"/>
+      <c r="L43" s="210"/>
+    </row>
+    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="238"/>
+      <c r="B44" s="198"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="210"/>
+    </row>
+    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="238"/>
+      <c r="B45" s="198"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
+      <c r="G45" s="164"/>
+      <c r="H45" s="164"/>
+      <c r="I45" s="164"/>
+      <c r="J45" s="164"/>
+      <c r="K45" s="164"/>
+      <c r="L45" s="210"/>
+    </row>
+    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="238"/>
+      <c r="B46" s="198"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="164"/>
+      <c r="F46" s="164"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="164"/>
+      <c r="J46" s="164"/>
+      <c r="K46" s="164"/>
+      <c r="L46" s="210"/>
+    </row>
+    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="238"/>
+      <c r="B47" s="198"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="164"/>
+      <c r="I47" s="164"/>
+      <c r="J47" s="164"/>
+      <c r="K47" s="164"/>
+      <c r="L47" s="210"/>
+    </row>
+    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="238"/>
+      <c r="B48" s="198"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
+      <c r="E48" s="164"/>
+      <c r="F48" s="164"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="164"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="164"/>
+      <c r="K48" s="164"/>
+      <c r="L48" s="210"/>
+    </row>
+    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="238"/>
+      <c r="B49" s="198"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="164"/>
+      <c r="F49" s="164"/>
+      <c r="G49" s="164"/>
+      <c r="H49" s="164"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="164"/>
+      <c r="K49" s="164"/>
+      <c r="L49" s="210"/>
+    </row>
+    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="238"/>
+      <c r="B50" s="198"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="164"/>
+      <c r="F50" s="164"/>
+      <c r="G50" s="164"/>
+      <c r="H50" s="164"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="164"/>
+      <c r="K50" s="164"/>
+      <c r="L50" s="210"/>
+    </row>
+    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="238"/>
+      <c r="B51" s="198"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="164"/>
+      <c r="G51" s="164"/>
+      <c r="H51" s="164"/>
+      <c r="I51" s="164"/>
+      <c r="J51" s="164"/>
+      <c r="K51" s="164"/>
+      <c r="L51" s="210"/>
+    </row>
+    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="238"/>
+      <c r="B52" s="199"/>
+      <c r="C52" s="211"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="164"/>
+      <c r="L52" s="210"/>
+    </row>
+    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="238"/>
+      <c r="B53" s="199"/>
+      <c r="C53" s="211"/>
+      <c r="D53" s="164"/>
+      <c r="E53" s="164"/>
+      <c r="F53" s="164"/>
+      <c r="G53" s="164"/>
+      <c r="H53" s="164"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="164"/>
+      <c r="K53" s="164"/>
+      <c r="L53" s="210"/>
+    </row>
+    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="238"/>
+      <c r="B54" s="199"/>
+      <c r="C54" s="211"/>
+      <c r="D54" s="164"/>
+      <c r="E54" s="164"/>
+      <c r="F54" s="164"/>
+      <c r="G54" s="164"/>
+      <c r="H54" s="164"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="164"/>
+      <c r="K54" s="164"/>
+      <c r="L54" s="210"/>
+    </row>
+    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="238"/>
+      <c r="B55" s="199"/>
+      <c r="C55" s="211"/>
+      <c r="D55" s="164"/>
+      <c r="E55" s="164"/>
+      <c r="F55" s="164"/>
+      <c r="G55" s="164"/>
+      <c r="H55" s="164"/>
+      <c r="I55" s="164"/>
+      <c r="J55" s="164"/>
+      <c r="K55" s="164"/>
+      <c r="L55" s="210"/>
+    </row>
+    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="238"/>
+      <c r="B56" s="199"/>
+      <c r="C56" s="211"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="164"/>
+      <c r="F56" s="164"/>
+      <c r="G56" s="164"/>
+      <c r="H56" s="164"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="164"/>
+      <c r="K56" s="164"/>
+      <c r="L56" s="210"/>
+    </row>
+    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="238"/>
+      <c r="B57" s="199"/>
+      <c r="C57" s="211"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="164"/>
+      <c r="F57" s="164"/>
+      <c r="G57" s="164"/>
+      <c r="H57" s="164"/>
+      <c r="I57" s="164"/>
+      <c r="J57" s="164"/>
+      <c r="K57" s="164"/>
+      <c r="L57" s="210"/>
+    </row>
+    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="238"/>
+      <c r="B58" s="199"/>
+      <c r="C58" s="211"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="164"/>
+      <c r="F58" s="164"/>
+      <c r="G58" s="164"/>
+      <c r="H58" s="164"/>
+      <c r="I58" s="164"/>
+      <c r="J58" s="164"/>
+      <c r="K58" s="164"/>
+      <c r="L58" s="210"/>
+    </row>
+    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="238"/>
+      <c r="B59" s="199"/>
+      <c r="C59" s="211"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="164"/>
+      <c r="G59" s="164"/>
+      <c r="H59" s="164"/>
+      <c r="I59" s="164"/>
+      <c r="J59" s="164"/>
+      <c r="K59" s="164"/>
+      <c r="L59" s="210"/>
+    </row>
+    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="238"/>
+      <c r="B60" s="199"/>
+      <c r="C60" s="211"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="164"/>
+      <c r="F60" s="164"/>
+      <c r="G60" s="164"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="164"/>
+      <c r="J60" s="164"/>
+      <c r="K60" s="164"/>
+      <c r="L60" s="210"/>
+    </row>
+    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="238"/>
+      <c r="B61" s="200"/>
+      <c r="C61" s="212"/>
+      <c r="D61" s="213"/>
+      <c r="E61" s="213"/>
+      <c r="F61" s="213"/>
+      <c r="G61" s="213"/>
+      <c r="H61" s="213"/>
+      <c r="I61" s="213"/>
+      <c r="J61" s="213"/>
+      <c r="K61" s="213"/>
+      <c r="L61" s="214"/>
+    </row>
+    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="238"/>
+      <c r="B62" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="174" t="s">
+      <c r="C62" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="D62" s="175"/>
-      <c r="E62" s="175"/>
-      <c r="F62" s="175"/>
-      <c r="G62" s="175"/>
-      <c r="H62" s="175"/>
-      <c r="I62" s="175"/>
-      <c r="J62" s="175"/>
-      <c r="K62" s="175"/>
-      <c r="L62" s="176"/>
-    </row>
-    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="192"/>
-      <c r="B63" s="209"/>
-      <c r="C63" s="177"/>
-      <c r="D63" s="178"/>
-      <c r="E63" s="178"/>
-      <c r="F63" s="178"/>
-      <c r="G63" s="178"/>
-      <c r="H63" s="178"/>
-      <c r="I63" s="178"/>
-      <c r="J63" s="178"/>
-      <c r="K63" s="178"/>
-      <c r="L63" s="179"/>
-    </row>
-    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="192"/>
-      <c r="B64" s="209"/>
-      <c r="C64" s="177"/>
-      <c r="D64" s="178"/>
-      <c r="E64" s="178"/>
-      <c r="F64" s="178"/>
-      <c r="G64" s="178"/>
-      <c r="H64" s="178"/>
-      <c r="I64" s="178"/>
-      <c r="J64" s="178"/>
-      <c r="K64" s="178"/>
-      <c r="L64" s="179"/>
-    </row>
-    <row r="65" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="192"/>
-      <c r="B65" s="209"/>
-      <c r="C65" s="177"/>
-      <c r="D65" s="178"/>
-      <c r="E65" s="178"/>
-      <c r="F65" s="178"/>
-      <c r="G65" s="178"/>
-      <c r="H65" s="178"/>
-      <c r="I65" s="178"/>
-      <c r="J65" s="178"/>
-      <c r="K65" s="178"/>
-      <c r="L65" s="179"/>
-    </row>
-    <row r="66" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="192"/>
-      <c r="B66" s="209"/>
-      <c r="C66" s="177"/>
-      <c r="D66" s="178"/>
-      <c r="E66" s="178"/>
-      <c r="F66" s="178"/>
-      <c r="G66" s="178"/>
-      <c r="H66" s="178"/>
-      <c r="I66" s="178"/>
-      <c r="J66" s="178"/>
-      <c r="K66" s="178"/>
-      <c r="L66" s="179"/>
-    </row>
-    <row r="67" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="192"/>
-      <c r="B67" s="209"/>
-      <c r="C67" s="177"/>
-      <c r="D67" s="178"/>
-      <c r="E67" s="178"/>
-      <c r="F67" s="178"/>
-      <c r="G67" s="178"/>
-      <c r="H67" s="178"/>
-      <c r="I67" s="178"/>
-      <c r="J67" s="178"/>
-      <c r="K67" s="178"/>
-      <c r="L67" s="179"/>
-    </row>
-    <row r="68" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="192"/>
-      <c r="B68" s="209"/>
-      <c r="C68" s="177"/>
-      <c r="D68" s="178"/>
-      <c r="E68" s="178"/>
-      <c r="F68" s="178"/>
-      <c r="G68" s="178"/>
-      <c r="H68" s="178"/>
-      <c r="I68" s="178"/>
-      <c r="J68" s="178"/>
-      <c r="K68" s="178"/>
-      <c r="L68" s="179"/>
-    </row>
-    <row r="69" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="192"/>
-      <c r="B69" s="210"/>
-      <c r="C69" s="180"/>
-      <c r="D69" s="181"/>
-      <c r="E69" s="181"/>
-      <c r="F69" s="181"/>
-      <c r="G69" s="181"/>
-      <c r="H69" s="181"/>
-      <c r="I69" s="181"/>
-      <c r="J69" s="181"/>
-      <c r="K69" s="181"/>
-      <c r="L69" s="182"/>
-    </row>
-    <row r="70" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="192"/>
-      <c r="B70" s="183" t="s">
+      <c r="D62" s="184"/>
+      <c r="E62" s="184"/>
+      <c r="F62" s="184"/>
+      <c r="G62" s="184"/>
+      <c r="H62" s="184"/>
+      <c r="I62" s="184"/>
+      <c r="J62" s="184"/>
+      <c r="K62" s="184"/>
+      <c r="L62" s="185"/>
+    </row>
+    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="238"/>
+      <c r="B63" s="202"/>
+      <c r="C63" s="186"/>
+      <c r="D63" s="187"/>
+      <c r="E63" s="187"/>
+      <c r="F63" s="187"/>
+      <c r="G63" s="187"/>
+      <c r="H63" s="187"/>
+      <c r="I63" s="187"/>
+      <c r="J63" s="187"/>
+      <c r="K63" s="187"/>
+      <c r="L63" s="188"/>
+    </row>
+    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="238"/>
+      <c r="B64" s="202"/>
+      <c r="C64" s="186"/>
+      <c r="D64" s="187"/>
+      <c r="E64" s="187"/>
+      <c r="F64" s="187"/>
+      <c r="G64" s="187"/>
+      <c r="H64" s="187"/>
+      <c r="I64" s="187"/>
+      <c r="J64" s="187"/>
+      <c r="K64" s="187"/>
+      <c r="L64" s="188"/>
+    </row>
+    <row r="65" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="238"/>
+      <c r="B65" s="202"/>
+      <c r="C65" s="186"/>
+      <c r="D65" s="187"/>
+      <c r="E65" s="187"/>
+      <c r="F65" s="187"/>
+      <c r="G65" s="187"/>
+      <c r="H65" s="187"/>
+      <c r="I65" s="187"/>
+      <c r="J65" s="187"/>
+      <c r="K65" s="187"/>
+      <c r="L65" s="188"/>
+    </row>
+    <row r="66" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="238"/>
+      <c r="B66" s="202"/>
+      <c r="C66" s="186"/>
+      <c r="D66" s="187"/>
+      <c r="E66" s="187"/>
+      <c r="F66" s="187"/>
+      <c r="G66" s="187"/>
+      <c r="H66" s="187"/>
+      <c r="I66" s="187"/>
+      <c r="J66" s="187"/>
+      <c r="K66" s="187"/>
+      <c r="L66" s="188"/>
+    </row>
+    <row r="67" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="238"/>
+      <c r="B67" s="202"/>
+      <c r="C67" s="186"/>
+      <c r="D67" s="187"/>
+      <c r="E67" s="187"/>
+      <c r="F67" s="187"/>
+      <c r="G67" s="187"/>
+      <c r="H67" s="187"/>
+      <c r="I67" s="187"/>
+      <c r="J67" s="187"/>
+      <c r="K67" s="187"/>
+      <c r="L67" s="188"/>
+    </row>
+    <row r="68" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="238"/>
+      <c r="B68" s="202"/>
+      <c r="C68" s="186"/>
+      <c r="D68" s="187"/>
+      <c r="E68" s="187"/>
+      <c r="F68" s="187"/>
+      <c r="G68" s="187"/>
+      <c r="H68" s="187"/>
+      <c r="I68" s="187"/>
+      <c r="J68" s="187"/>
+      <c r="K68" s="187"/>
+      <c r="L68" s="188"/>
+    </row>
+    <row r="69" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="238"/>
+      <c r="B69" s="203"/>
+      <c r="C69" s="189"/>
+      <c r="D69" s="190"/>
+      <c r="E69" s="190"/>
+      <c r="F69" s="190"/>
+      <c r="G69" s="190"/>
+      <c r="H69" s="190"/>
+      <c r="I69" s="190"/>
+      <c r="J69" s="190"/>
+      <c r="K69" s="190"/>
+      <c r="L69" s="191"/>
+    </row>
+    <row r="70" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="238"/>
+      <c r="B70" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="174" t="s">
+      <c r="C70" s="164" t="s">
         <v>148</v>
       </c>
-      <c r="D70" s="110"/>
-      <c r="E70" s="110"/>
-      <c r="F70" s="110"/>
-      <c r="G70" s="110"/>
-      <c r="H70" s="110"/>
-      <c r="I70" s="110"/>
-      <c r="J70" s="110"/>
-      <c r="K70" s="110"/>
-      <c r="L70" s="111"/>
-    </row>
-    <row r="71" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="192"/>
-      <c r="B71" s="211"/>
-      <c r="C71" s="112"/>
-      <c r="D71" s="113"/>
-      <c r="E71" s="113"/>
-      <c r="F71" s="113"/>
-      <c r="G71" s="113"/>
-      <c r="H71" s="113"/>
-      <c r="I71" s="113"/>
-      <c r="J71" s="113"/>
-      <c r="K71" s="113"/>
-      <c r="L71" s="114"/>
-    </row>
-    <row r="72" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="192"/>
-      <c r="B72" s="211"/>
-      <c r="C72" s="112"/>
-      <c r="D72" s="113"/>
-      <c r="E72" s="113"/>
-      <c r="F72" s="113"/>
-      <c r="G72" s="113"/>
-      <c r="H72" s="113"/>
-      <c r="I72" s="113"/>
-      <c r="J72" s="113"/>
-      <c r="K72" s="113"/>
-      <c r="L72" s="114"/>
-    </row>
-    <row r="73" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="192"/>
-      <c r="B73" s="211"/>
-      <c r="C73" s="112"/>
-      <c r="D73" s="113"/>
-      <c r="E73" s="113"/>
-      <c r="F73" s="113"/>
-      <c r="G73" s="113"/>
-      <c r="H73" s="113"/>
-      <c r="I73" s="113"/>
-      <c r="J73" s="113"/>
-      <c r="K73" s="113"/>
-      <c r="L73" s="114"/>
-    </row>
-    <row r="74" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="192"/>
-      <c r="B74" s="211"/>
-      <c r="C74" s="112"/>
-      <c r="D74" s="113"/>
-      <c r="E74" s="113"/>
-      <c r="F74" s="113"/>
-      <c r="G74" s="113"/>
-      <c r="H74" s="113"/>
-      <c r="I74" s="113"/>
-      <c r="J74" s="113"/>
-      <c r="K74" s="113"/>
-      <c r="L74" s="114"/>
+      <c r="D70" s="121"/>
+      <c r="E70" s="121"/>
+      <c r="F70" s="121"/>
+      <c r="G70" s="121"/>
+      <c r="H70" s="121"/>
+      <c r="I70" s="121"/>
+      <c r="J70" s="121"/>
+      <c r="K70" s="121"/>
+      <c r="L70" s="122"/>
+    </row>
+    <row r="71" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="238"/>
+      <c r="B71" s="205"/>
+      <c r="C71" s="123"/>
+      <c r="D71" s="124"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="124"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="124"/>
+      <c r="I71" s="124"/>
+      <c r="J71" s="124"/>
+      <c r="K71" s="124"/>
+      <c r="L71" s="125"/>
+    </row>
+    <row r="72" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="238"/>
+      <c r="B72" s="205"/>
+      <c r="C72" s="123"/>
+      <c r="D72" s="124"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="124"/>
+      <c r="G72" s="124"/>
+      <c r="H72" s="124"/>
+      <c r="I72" s="124"/>
+      <c r="J72" s="124"/>
+      <c r="K72" s="124"/>
+      <c r="L72" s="125"/>
+    </row>
+    <row r="73" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="238"/>
+      <c r="B73" s="205"/>
+      <c r="C73" s="123"/>
+      <c r="D73" s="124"/>
+      <c r="E73" s="124"/>
+      <c r="F73" s="124"/>
+      <c r="G73" s="124"/>
+      <c r="H73" s="124"/>
+      <c r="I73" s="124"/>
+      <c r="J73" s="124"/>
+      <c r="K73" s="124"/>
+      <c r="L73" s="125"/>
+    </row>
+    <row r="74" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="238"/>
+      <c r="B74" s="205"/>
+      <c r="C74" s="123"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="124"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="124"/>
+      <c r="J74" s="124"/>
+      <c r="K74" s="124"/>
+      <c r="L74" s="125"/>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" spans="1:13" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="192"/>
-      <c r="B75" s="211"/>
-      <c r="C75" s="112"/>
-      <c r="D75" s="113"/>
-      <c r="E75" s="113"/>
-      <c r="F75" s="113"/>
-      <c r="G75" s="113"/>
-      <c r="H75" s="113"/>
-      <c r="I75" s="113"/>
-      <c r="J75" s="113"/>
-      <c r="K75" s="113"/>
-      <c r="L75" s="114"/>
+    <row r="75" spans="1:13" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="238"/>
+      <c r="B75" s="205"/>
+      <c r="C75" s="123"/>
+      <c r="D75" s="124"/>
+      <c r="E75" s="124"/>
+      <c r="F75" s="124"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="124"/>
+      <c r="I75" s="124"/>
+      <c r="J75" s="124"/>
+      <c r="K75" s="124"/>
+      <c r="L75" s="125"/>
       <c r="M75" s="9"/>
     </row>
-    <row r="76" spans="1:13" ht="5.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="192"/>
-      <c r="B76" s="211"/>
-      <c r="C76" s="112"/>
-      <c r="D76" s="113"/>
-      <c r="E76" s="113"/>
-      <c r="F76" s="113"/>
-      <c r="G76" s="113"/>
-      <c r="H76" s="113"/>
-      <c r="I76" s="113"/>
-      <c r="J76" s="113"/>
-      <c r="K76" s="113"/>
-      <c r="L76" s="114"/>
+    <row r="76" spans="1:13" ht="5.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="238"/>
+      <c r="B76" s="205"/>
+      <c r="C76" s="123"/>
+      <c r="D76" s="124"/>
+      <c r="E76" s="124"/>
+      <c r="F76" s="124"/>
+      <c r="G76" s="124"/>
+      <c r="H76" s="124"/>
+      <c r="I76" s="124"/>
+      <c r="J76" s="124"/>
+      <c r="K76" s="124"/>
+      <c r="L76" s="125"/>
       <c r="M76" s="9"/>
     </row>
-    <row r="77" spans="1:13" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="192"/>
-      <c r="B77" s="211"/>
-      <c r="C77" s="112"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="113"/>
-      <c r="F77" s="113"/>
-      <c r="G77" s="113"/>
-      <c r="H77" s="113"/>
-      <c r="I77" s="113"/>
-      <c r="J77" s="113"/>
-      <c r="K77" s="113"/>
-      <c r="L77" s="114"/>
+    <row r="77" spans="1:13" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="238"/>
+      <c r="B77" s="205"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="124"/>
+      <c r="E77" s="124"/>
+      <c r="F77" s="124"/>
+      <c r="G77" s="124"/>
+      <c r="H77" s="124"/>
+      <c r="I77" s="124"/>
+      <c r="J77" s="124"/>
+      <c r="K77" s="124"/>
+      <c r="L77" s="125"/>
       <c r="M77" s="9"/>
     </row>
-    <row r="78" spans="1:13" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="192"/>
-      <c r="B78" s="211"/>
-      <c r="C78" s="112"/>
-      <c r="D78" s="113"/>
-      <c r="E78" s="113"/>
-      <c r="F78" s="113"/>
-      <c r="G78" s="113"/>
-      <c r="H78" s="113"/>
-      <c r="I78" s="113"/>
-      <c r="J78" s="113"/>
-      <c r="K78" s="113"/>
-      <c r="L78" s="114"/>
+    <row r="78" spans="1:13" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="238"/>
+      <c r="B78" s="205"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="124"/>
+      <c r="E78" s="124"/>
+      <c r="F78" s="124"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="124"/>
+      <c r="J78" s="124"/>
+      <c r="K78" s="124"/>
+      <c r="L78" s="125"/>
       <c r="M78" s="9"/>
     </row>
-    <row r="79" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="192"/>
-      <c r="B79" s="212"/>
-      <c r="C79" s="115"/>
-      <c r="D79" s="116"/>
-      <c r="E79" s="116"/>
-      <c r="F79" s="116"/>
-      <c r="G79" s="116"/>
-      <c r="H79" s="116"/>
-      <c r="I79" s="116"/>
-      <c r="J79" s="116"/>
-      <c r="K79" s="116"/>
-      <c r="L79" s="117"/>
+    <row r="79" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="238"/>
+      <c r="B79" s="206"/>
+      <c r="C79" s="126"/>
+      <c r="D79" s="127"/>
+      <c r="E79" s="127"/>
+      <c r="F79" s="127"/>
+      <c r="G79" s="127"/>
+      <c r="H79" s="127"/>
+      <c r="I79" s="127"/>
+      <c r="J79" s="127"/>
+      <c r="K79" s="127"/>
+      <c r="L79" s="128"/>
       <c r="M79" s="9"/>
     </row>
-    <row r="80" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="171" t="s">
+    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="166" t="s">
+      <c r="B81" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="186" t="s">
+      <c r="C81" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="174" t="s">
+      <c r="D81" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="E81" s="232"/>
-      <c r="F81" s="232"/>
-      <c r="G81" s="232"/>
-      <c r="H81" s="232"/>
-      <c r="I81" s="232"/>
-      <c r="J81" s="232"/>
-      <c r="K81" s="232"/>
-      <c r="L81" s="233"/>
-    </row>
-    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="172"/>
-      <c r="B82" s="168"/>
-      <c r="C82" s="187"/>
-      <c r="D82" s="234"/>
-      <c r="E82" s="235"/>
-      <c r="F82" s="235"/>
-      <c r="G82" s="235"/>
-      <c r="H82" s="235"/>
-      <c r="I82" s="235"/>
-      <c r="J82" s="235"/>
-      <c r="K82" s="235"/>
-      <c r="L82" s="236"/>
-    </row>
-    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="172"/>
-      <c r="B83" s="168"/>
-      <c r="C83" s="188"/>
-      <c r="D83" s="237"/>
-      <c r="E83" s="238"/>
-      <c r="F83" s="238"/>
-      <c r="G83" s="238"/>
-      <c r="H83" s="238"/>
-      <c r="I83" s="238"/>
-      <c r="J83" s="238"/>
-      <c r="K83" s="238"/>
-      <c r="L83" s="239"/>
-    </row>
-    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="172"/>
-      <c r="B84" s="168"/>
-      <c r="C84" s="189" t="s">
+      <c r="E81" s="165"/>
+      <c r="F81" s="165"/>
+      <c r="G81" s="165"/>
+      <c r="H81" s="165"/>
+      <c r="I81" s="165"/>
+      <c r="J81" s="165"/>
+      <c r="K81" s="165"/>
+      <c r="L81" s="166"/>
+    </row>
+    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="234"/>
+      <c r="B82" s="230"/>
+      <c r="C82" s="174"/>
+      <c r="D82" s="167"/>
+      <c r="E82" s="168"/>
+      <c r="F82" s="168"/>
+      <c r="G82" s="168"/>
+      <c r="H82" s="168"/>
+      <c r="I82" s="168"/>
+      <c r="J82" s="168"/>
+      <c r="K82" s="168"/>
+      <c r="L82" s="169"/>
+    </row>
+    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="234"/>
+      <c r="B83" s="230"/>
+      <c r="C83" s="175"/>
+      <c r="D83" s="170"/>
+      <c r="E83" s="171"/>
+      <c r="F83" s="171"/>
+      <c r="G83" s="171"/>
+      <c r="H83" s="171"/>
+      <c r="I83" s="171"/>
+      <c r="J83" s="171"/>
+      <c r="K83" s="171"/>
+      <c r="L83" s="172"/>
+    </row>
+    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="234"/>
+      <c r="B84" s="230"/>
+      <c r="C84" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="174" t="s">
+      <c r="D84" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="E84" s="232"/>
-      <c r="F84" s="232"/>
-      <c r="G84" s="232"/>
-      <c r="H84" s="232"/>
-      <c r="I84" s="232"/>
-      <c r="J84" s="232"/>
-      <c r="K84" s="232"/>
-      <c r="L84" s="233"/>
-    </row>
-    <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="172"/>
-      <c r="B85" s="168"/>
-      <c r="C85" s="190"/>
-      <c r="D85" s="235"/>
-      <c r="E85" s="235"/>
-      <c r="F85" s="235"/>
-      <c r="G85" s="235"/>
-      <c r="H85" s="235"/>
-      <c r="I85" s="235"/>
-      <c r="J85" s="235"/>
-      <c r="K85" s="235"/>
-      <c r="L85" s="236"/>
-    </row>
-    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="172"/>
-      <c r="B86" s="170"/>
-      <c r="C86" s="191"/>
-      <c r="D86" s="238"/>
-      <c r="E86" s="238"/>
-      <c r="F86" s="238"/>
-      <c r="G86" s="238"/>
-      <c r="H86" s="238"/>
-      <c r="I86" s="238"/>
-      <c r="J86" s="238"/>
-      <c r="K86" s="238"/>
-      <c r="L86" s="239"/>
-    </row>
-    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="172"/>
-      <c r="B87" s="183" t="s">
+      <c r="E84" s="165"/>
+      <c r="F84" s="165"/>
+      <c r="G84" s="165"/>
+      <c r="H84" s="165"/>
+      <c r="I84" s="165"/>
+      <c r="J84" s="165"/>
+      <c r="K84" s="165"/>
+      <c r="L84" s="166"/>
+    </row>
+    <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="234"/>
+      <c r="B85" s="230"/>
+      <c r="C85" s="177"/>
+      <c r="D85" s="168"/>
+      <c r="E85" s="168"/>
+      <c r="F85" s="168"/>
+      <c r="G85" s="168"/>
+      <c r="H85" s="168"/>
+      <c r="I85" s="168"/>
+      <c r="J85" s="168"/>
+      <c r="K85" s="168"/>
+      <c r="L85" s="169"/>
+    </row>
+    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="234"/>
+      <c r="B86" s="232"/>
+      <c r="C86" s="178"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
+      <c r="F86" s="171"/>
+      <c r="G86" s="171"/>
+      <c r="H86" s="171"/>
+      <c r="I86" s="171"/>
+      <c r="J86" s="171"/>
+      <c r="K86" s="171"/>
+      <c r="L86" s="172"/>
+    </row>
+    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="234"/>
+      <c r="B87" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="C87" s="186" t="s">
+      <c r="C87" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="174" t="s">
+      <c r="D87" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="E87" s="232"/>
-      <c r="F87" s="232"/>
-      <c r="G87" s="232"/>
-      <c r="H87" s="232"/>
-      <c r="I87" s="232"/>
-      <c r="J87" s="232"/>
-      <c r="K87" s="232"/>
-      <c r="L87" s="233"/>
-    </row>
-    <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="172"/>
-      <c r="B88" s="184"/>
-      <c r="C88" s="187"/>
-      <c r="D88" s="235"/>
-      <c r="E88" s="235"/>
-      <c r="F88" s="235"/>
-      <c r="G88" s="235"/>
-      <c r="H88" s="235"/>
-      <c r="I88" s="235"/>
-      <c r="J88" s="235"/>
-      <c r="K88" s="235"/>
-      <c r="L88" s="236"/>
-    </row>
-    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="172"/>
-      <c r="B89" s="184"/>
-      <c r="C89" s="188"/>
-      <c r="D89" s="238"/>
-      <c r="E89" s="238"/>
-      <c r="F89" s="238"/>
-      <c r="G89" s="238"/>
-      <c r="H89" s="238"/>
-      <c r="I89" s="238"/>
-      <c r="J89" s="238"/>
-      <c r="K89" s="238"/>
-      <c r="L89" s="239"/>
-    </row>
-    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="172"/>
-      <c r="B90" s="184"/>
-      <c r="C90" s="189" t="s">
+      <c r="E87" s="165"/>
+      <c r="F87" s="165"/>
+      <c r="G87" s="165"/>
+      <c r="H87" s="165"/>
+      <c r="I87" s="165"/>
+      <c r="J87" s="165"/>
+      <c r="K87" s="165"/>
+      <c r="L87" s="166"/>
+    </row>
+    <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="234"/>
+      <c r="B88" s="236"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="168"/>
+      <c r="E88" s="168"/>
+      <c r="F88" s="168"/>
+      <c r="G88" s="168"/>
+      <c r="H88" s="168"/>
+      <c r="I88" s="168"/>
+      <c r="J88" s="168"/>
+      <c r="K88" s="168"/>
+      <c r="L88" s="169"/>
+    </row>
+    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="234"/>
+      <c r="B89" s="236"/>
+      <c r="C89" s="175"/>
+      <c r="D89" s="171"/>
+      <c r="E89" s="171"/>
+      <c r="F89" s="171"/>
+      <c r="G89" s="171"/>
+      <c r="H89" s="171"/>
+      <c r="I89" s="171"/>
+      <c r="J89" s="171"/>
+      <c r="K89" s="171"/>
+      <c r="L89" s="172"/>
+    </row>
+    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="234"/>
+      <c r="B90" s="236"/>
+      <c r="C90" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="174" t="s">
+      <c r="D90" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="E90" s="232"/>
-      <c r="F90" s="232"/>
-      <c r="G90" s="232"/>
-      <c r="H90" s="232"/>
-      <c r="I90" s="232"/>
-      <c r="J90" s="232"/>
-      <c r="K90" s="232"/>
-      <c r="L90" s="233"/>
-    </row>
-    <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="172"/>
-      <c r="B91" s="184"/>
-      <c r="C91" s="190"/>
-      <c r="D91" s="235"/>
-      <c r="E91" s="235"/>
-      <c r="F91" s="235"/>
-      <c r="G91" s="235"/>
-      <c r="H91" s="235"/>
-      <c r="I91" s="235"/>
-      <c r="J91" s="235"/>
-      <c r="K91" s="235"/>
-      <c r="L91" s="236"/>
-    </row>
-    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="173"/>
-      <c r="B92" s="185"/>
-      <c r="C92" s="191"/>
-      <c r="D92" s="238"/>
-      <c r="E92" s="238"/>
-      <c r="F92" s="238"/>
-      <c r="G92" s="238"/>
-      <c r="H92" s="238"/>
-      <c r="I92" s="238"/>
-      <c r="J92" s="238"/>
-      <c r="K92" s="238"/>
-      <c r="L92" s="239"/>
-    </row>
-    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="171" t="s">
+      <c r="E90" s="165"/>
+      <c r="F90" s="165"/>
+      <c r="G90" s="165"/>
+      <c r="H90" s="165"/>
+      <c r="I90" s="165"/>
+      <c r="J90" s="165"/>
+      <c r="K90" s="165"/>
+      <c r="L90" s="166"/>
+    </row>
+    <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="234"/>
+      <c r="B91" s="236"/>
+      <c r="C91" s="177"/>
+      <c r="D91" s="168"/>
+      <c r="E91" s="168"/>
+      <c r="F91" s="168"/>
+      <c r="G91" s="168"/>
+      <c r="H91" s="168"/>
+      <c r="I91" s="168"/>
+      <c r="J91" s="168"/>
+      <c r="K91" s="168"/>
+      <c r="L91" s="169"/>
+    </row>
+    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="235"/>
+      <c r="B92" s="237"/>
+      <c r="C92" s="178"/>
+      <c r="D92" s="171"/>
+      <c r="E92" s="171"/>
+      <c r="F92" s="171"/>
+      <c r="G92" s="171"/>
+      <c r="H92" s="171"/>
+      <c r="I92" s="171"/>
+      <c r="J92" s="171"/>
+      <c r="K92" s="171"/>
+      <c r="L92" s="172"/>
+    </row>
+    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="183" t="s">
+      <c r="B93" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="174" t="s">
+      <c r="C93" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="D93" s="175"/>
-      <c r="E93" s="175"/>
-      <c r="F93" s="175"/>
-      <c r="G93" s="175"/>
-      <c r="H93" s="175"/>
-      <c r="I93" s="175"/>
-      <c r="J93" s="175"/>
-      <c r="K93" s="175"/>
-      <c r="L93" s="176"/>
-    </row>
-    <row r="94" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="172"/>
-      <c r="B94" s="184"/>
-      <c r="C94" s="177"/>
-      <c r="D94" s="178"/>
-      <c r="E94" s="178"/>
-      <c r="F94" s="178"/>
-      <c r="G94" s="178"/>
-      <c r="H94" s="178"/>
-      <c r="I94" s="178"/>
-      <c r="J94" s="178"/>
-      <c r="K94" s="178"/>
-      <c r="L94" s="179"/>
-    </row>
-    <row r="95" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="172"/>
-      <c r="B95" s="184"/>
-      <c r="C95" s="177"/>
-      <c r="D95" s="178"/>
-      <c r="E95" s="178"/>
-      <c r="F95" s="178"/>
-      <c r="G95" s="178"/>
-      <c r="H95" s="178"/>
-      <c r="I95" s="178"/>
-      <c r="J95" s="178"/>
-      <c r="K95" s="178"/>
-      <c r="L95" s="179"/>
-    </row>
-    <row r="96" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="172"/>
-      <c r="B96" s="184"/>
-      <c r="C96" s="177"/>
-      <c r="D96" s="178"/>
-      <c r="E96" s="178"/>
-      <c r="F96" s="178"/>
-      <c r="G96" s="178"/>
-      <c r="H96" s="178"/>
-      <c r="I96" s="178"/>
-      <c r="J96" s="178"/>
-      <c r="K96" s="178"/>
-      <c r="L96" s="179"/>
-    </row>
-    <row r="97" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="172"/>
-      <c r="B97" s="184"/>
-      <c r="C97" s="177"/>
-      <c r="D97" s="178"/>
-      <c r="E97" s="178"/>
-      <c r="F97" s="178"/>
-      <c r="G97" s="178"/>
-      <c r="H97" s="178"/>
-      <c r="I97" s="178"/>
-      <c r="J97" s="178"/>
-      <c r="K97" s="178"/>
-      <c r="L97" s="179"/>
-    </row>
-    <row r="98" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="173"/>
-      <c r="B98" s="185"/>
-      <c r="C98" s="180"/>
-      <c r="D98" s="181"/>
-      <c r="E98" s="181"/>
-      <c r="F98" s="181"/>
-      <c r="G98" s="181"/>
-      <c r="H98" s="181"/>
-      <c r="I98" s="181"/>
-      <c r="J98" s="181"/>
-      <c r="K98" s="181"/>
-      <c r="L98" s="182"/>
-    </row>
-    <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="165" t="s">
+      <c r="D93" s="184"/>
+      <c r="E93" s="184"/>
+      <c r="F93" s="184"/>
+      <c r="G93" s="184"/>
+      <c r="H93" s="184"/>
+      <c r="I93" s="184"/>
+      <c r="J93" s="184"/>
+      <c r="K93" s="184"/>
+      <c r="L93" s="185"/>
+    </row>
+    <row r="94" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="234"/>
+      <c r="B94" s="236"/>
+      <c r="C94" s="186"/>
+      <c r="D94" s="187"/>
+      <c r="E94" s="187"/>
+      <c r="F94" s="187"/>
+      <c r="G94" s="187"/>
+      <c r="H94" s="187"/>
+      <c r="I94" s="187"/>
+      <c r="J94" s="187"/>
+      <c r="K94" s="187"/>
+      <c r="L94" s="188"/>
+    </row>
+    <row r="95" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="234"/>
+      <c r="B95" s="236"/>
+      <c r="C95" s="186"/>
+      <c r="D95" s="187"/>
+      <c r="E95" s="187"/>
+      <c r="F95" s="187"/>
+      <c r="G95" s="187"/>
+      <c r="H95" s="187"/>
+      <c r="I95" s="187"/>
+      <c r="J95" s="187"/>
+      <c r="K95" s="187"/>
+      <c r="L95" s="188"/>
+    </row>
+    <row r="96" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="234"/>
+      <c r="B96" s="236"/>
+      <c r="C96" s="186"/>
+      <c r="D96" s="187"/>
+      <c r="E96" s="187"/>
+      <c r="F96" s="187"/>
+      <c r="G96" s="187"/>
+      <c r="H96" s="187"/>
+      <c r="I96" s="187"/>
+      <c r="J96" s="187"/>
+      <c r="K96" s="187"/>
+      <c r="L96" s="188"/>
+    </row>
+    <row r="97" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="234"/>
+      <c r="B97" s="236"/>
+      <c r="C97" s="186"/>
+      <c r="D97" s="187"/>
+      <c r="E97" s="187"/>
+      <c r="F97" s="187"/>
+      <c r="G97" s="187"/>
+      <c r="H97" s="187"/>
+      <c r="I97" s="187"/>
+      <c r="J97" s="187"/>
+      <c r="K97" s="187"/>
+      <c r="L97" s="188"/>
+    </row>
+    <row r="98" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="235"/>
+      <c r="B98" s="237"/>
+      <c r="C98" s="189"/>
+      <c r="D98" s="190"/>
+      <c r="E98" s="190"/>
+      <c r="F98" s="190"/>
+      <c r="G98" s="190"/>
+      <c r="H98" s="190"/>
+      <c r="I98" s="190"/>
+      <c r="J98" s="190"/>
+      <c r="K98" s="190"/>
+      <c r="L98" s="191"/>
+    </row>
+    <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="B99" s="166"/>
-      <c r="C99" s="174" t="s">
+      <c r="B99" s="228"/>
+      <c r="C99" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="D99" s="178"/>
-      <c r="E99" s="178"/>
-      <c r="F99" s="178"/>
-      <c r="G99" s="178"/>
-      <c r="H99" s="178"/>
-      <c r="I99" s="178"/>
-      <c r="J99" s="178"/>
-      <c r="K99" s="178"/>
-      <c r="L99" s="179"/>
-    </row>
-    <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="167"/>
-      <c r="B100" s="168"/>
-      <c r="C100" s="177"/>
-      <c r="D100" s="178"/>
-      <c r="E100" s="178"/>
-      <c r="F100" s="178"/>
-      <c r="G100" s="178"/>
-      <c r="H100" s="178"/>
-      <c r="I100" s="178"/>
-      <c r="J100" s="178"/>
-      <c r="K100" s="178"/>
-      <c r="L100" s="179"/>
-    </row>
-    <row r="101" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="167"/>
-      <c r="B101" s="168"/>
-      <c r="C101" s="177"/>
-      <c r="D101" s="178"/>
-      <c r="E101" s="178"/>
-      <c r="F101" s="178"/>
-      <c r="G101" s="178"/>
-      <c r="H101" s="178"/>
-      <c r="I101" s="178"/>
-      <c r="J101" s="178"/>
-      <c r="K101" s="178"/>
-      <c r="L101" s="179"/>
-    </row>
-    <row r="102" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="169"/>
-      <c r="B102" s="170"/>
-      <c r="C102" s="180"/>
-      <c r="D102" s="181"/>
-      <c r="E102" s="181"/>
-      <c r="F102" s="181"/>
-      <c r="G102" s="181"/>
-      <c r="H102" s="181"/>
-      <c r="I102" s="181"/>
-      <c r="J102" s="181"/>
-      <c r="K102" s="181"/>
-      <c r="L102" s="182"/>
-    </row>
-    <row r="103" spans="1:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="199" t="s">
+      <c r="D99" s="187"/>
+      <c r="E99" s="187"/>
+      <c r="F99" s="187"/>
+      <c r="G99" s="187"/>
+      <c r="H99" s="187"/>
+      <c r="I99" s="187"/>
+      <c r="J99" s="187"/>
+      <c r="K99" s="187"/>
+      <c r="L99" s="188"/>
+    </row>
+    <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="229"/>
+      <c r="B100" s="230"/>
+      <c r="C100" s="186"/>
+      <c r="D100" s="187"/>
+      <c r="E100" s="187"/>
+      <c r="F100" s="187"/>
+      <c r="G100" s="187"/>
+      <c r="H100" s="187"/>
+      <c r="I100" s="187"/>
+      <c r="J100" s="187"/>
+      <c r="K100" s="187"/>
+      <c r="L100" s="188"/>
+    </row>
+    <row r="101" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="229"/>
+      <c r="B101" s="230"/>
+      <c r="C101" s="186"/>
+      <c r="D101" s="187"/>
+      <c r="E101" s="187"/>
+      <c r="F101" s="187"/>
+      <c r="G101" s="187"/>
+      <c r="H101" s="187"/>
+      <c r="I101" s="187"/>
+      <c r="J101" s="187"/>
+      <c r="K101" s="187"/>
+      <c r="L101" s="188"/>
+    </row>
+    <row r="102" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="231"/>
+      <c r="B102" s="232"/>
+      <c r="C102" s="189"/>
+      <c r="D102" s="190"/>
+      <c r="E102" s="190"/>
+      <c r="F102" s="190"/>
+      <c r="G102" s="190"/>
+      <c r="H102" s="190"/>
+      <c r="I102" s="190"/>
+      <c r="J102" s="190"/>
+      <c r="K102" s="190"/>
+      <c r="L102" s="191"/>
+    </row>
+    <row r="103" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="B103" s="200"/>
-      <c r="C103" s="200"/>
-      <c r="D103" s="200"/>
-      <c r="E103" s="200"/>
-      <c r="F103" s="200"/>
-      <c r="G103" s="200"/>
-      <c r="H103" s="200"/>
-      <c r="I103" s="200"/>
-      <c r="J103" s="200"/>
-      <c r="K103" s="200"/>
-      <c r="L103" s="201"/>
-    </row>
-    <row r="104" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="202" t="s">
+      <c r="B103" s="221"/>
+      <c r="C103" s="221"/>
+      <c r="D103" s="221"/>
+      <c r="E103" s="221"/>
+      <c r="F103" s="221"/>
+      <c r="G103" s="221"/>
+      <c r="H103" s="221"/>
+      <c r="I103" s="221"/>
+      <c r="J103" s="221"/>
+      <c r="K103" s="221"/>
+      <c r="L103" s="222"/>
+    </row>
+    <row r="104" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="B104" s="203"/>
-      <c r="C104" s="154"/>
-      <c r="D104" s="155"/>
-      <c r="E104" s="155"/>
-      <c r="F104" s="155"/>
-      <c r="G104" s="155"/>
-      <c r="H104" s="155"/>
-      <c r="I104" s="155"/>
-      <c r="J104" s="155"/>
-      <c r="K104" s="155"/>
-      <c r="L104" s="156"/>
-    </row>
-    <row r="105" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="202" t="s">
+      <c r="B104" s="224"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="67"/>
+      <c r="J104" s="67"/>
+      <c r="K104" s="67"/>
+      <c r="L104" s="68"/>
+    </row>
+    <row r="105" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="223" t="s">
         <v>23</v>
       </c>
-      <c r="B105" s="203"/>
+      <c r="B105" s="224"/>
       <c r="C105" s="11">
         <v>1</v>
       </c>
-      <c r="D105" s="157"/>
-      <c r="E105" s="158"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="70"/>
       <c r="F105" s="11">
         <v>2</v>
       </c>
@@ -7788,106 +7785,65 @@
       <c r="H105" s="11">
         <v>3</v>
       </c>
-      <c r="I105" s="157"/>
-      <c r="J105" s="158"/>
-      <c r="K105" s="158"/>
+      <c r="I105" s="69"/>
+      <c r="J105" s="70"/>
+      <c r="K105" s="70"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="202" t="s">
+    <row r="106" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="B106" s="203"/>
-      <c r="C106" s="159" t="s">
+      <c r="B106" s="224"/>
+      <c r="C106" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D106" s="160"/>
-      <c r="E106" s="160"/>
-      <c r="F106" s="160"/>
-      <c r="G106" s="160"/>
-      <c r="H106" s="160"/>
-      <c r="I106" s="160"/>
-      <c r="J106" s="160"/>
-      <c r="K106" s="160"/>
-      <c r="L106" s="161"/>
-    </row>
-    <row r="107" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="204" t="s">
+      <c r="D106" s="59"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="59"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="59"/>
+      <c r="K106" s="59"/>
+      <c r="L106" s="60"/>
+    </row>
+    <row r="107" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="B107" s="204"/>
-      <c r="C107" s="159" t="s">
+      <c r="B107" s="225"/>
+      <c r="C107" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D107" s="160"/>
-      <c r="E107" s="160"/>
-      <c r="F107" s="160"/>
-      <c r="G107" s="160"/>
-      <c r="H107" s="160"/>
-      <c r="I107" s="160"/>
-      <c r="J107" s="160"/>
-      <c r="K107" s="160"/>
-      <c r="L107" s="161"/>
-    </row>
-    <row r="108" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D107" s="59"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="59"/>
+      <c r="K107" s="59"/>
+      <c r="L107" s="60"/>
+    </row>
+    <row r="108" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J109" s="163" t="s">
+    <row r="109" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J109" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="K109" s="163"/>
-      <c r="L109" s="163"/>
-    </row>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="K109" s="62"/>
+      <c r="L109" s="62"/>
+    </row>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="D81:L83"/>
-    <mergeCell ref="D84:L86"/>
-    <mergeCell ref="D87:L89"/>
-    <mergeCell ref="D90:L92"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="C62:L69"/>
-    <mergeCell ref="C70:L79"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="C8:L38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="A103:L103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:L104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="I105:K105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:L106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:L107"/>
-    <mergeCell ref="B41:B61"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="B70:B79"/>
-    <mergeCell ref="C41:L61"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="A99:B102"/>
     <mergeCell ref="A81:A92"/>
@@ -7904,6 +7860,47 @@
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="A7:A79"/>
     <mergeCell ref="B8:B38"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="A103:L103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:L104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="I105:K105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:L106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:L107"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="C8:L38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="C62:L69"/>
+    <mergeCell ref="C70:L79"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="B41:B61"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="C41:L61"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="D81:L83"/>
+    <mergeCell ref="D84:L86"/>
+    <mergeCell ref="D87:L89"/>
+    <mergeCell ref="D90:L92"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C84:C86"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/template_report.xlsx
+++ b/src/main/resources/template_report.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F91B5BC-9396-42BD-B895-C661402C7165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{0F91B5BC-9396-42BD-B895-C661402C7165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0689A62-EA4F-46E0-B8C2-E9EA3DCFA7D0}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-2290" windowWidth="19420" windowHeight="11500" tabRatio="623" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="623" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="80" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{05E2C11D-1DE0-4EAC-A9B0-35C052798C9A}">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{05E2C11D-1DE0-4EAC-A9B0-35C052798C9A}">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{E67F3B79-65F9-46C5-BB84-B94C7532395F}">
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{E67F3B79-65F9-46C5-BB84-B94C7532395F}">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G40" authorId="0" shapeId="0" xr:uid="{57893388-DE50-4DD7-BFFD-15EF2A554D0C}">
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{57893388-DE50-4DD7-BFFD-15EF2A554D0C}">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J40" authorId="0" shapeId="0" xr:uid="{3E8183D5-DC01-4B23-A256-32863A22A21A}">
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{3E8183D5-DC01-4B23-A256-32863A22A21A}">
       <text>
         <r>
           <rPr>
@@ -323,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A105" authorId="0" shapeId="0" xr:uid="{B817F809-5D81-4F0B-9DD6-59BE3D407B03}">
+    <comment ref="A83" authorId="0" shapeId="0" xr:uid="{B817F809-5D81-4F0B-9DD6-59BE3D407B03}">
       <text>
         <r>
           <rPr>
@@ -347,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A106" authorId="0" shapeId="0" xr:uid="{D2D5F695-451D-4326-A2C2-5D276DE57653}">
+    <comment ref="A84" authorId="0" shapeId="0" xr:uid="{D2D5F695-451D-4326-A2C2-5D276DE57653}">
       <text>
         <r>
           <rPr>
@@ -6249,7 +6249,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -6552,7 +6552,7 @@
       <c r="K21" s="164"/>
       <c r="L21" s="210"/>
     </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="284.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="238"/>
       <c r="B22" s="240"/>
       <c r="C22" s="211"/>
@@ -6568,50 +6568,64 @@
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="238"/>
-      <c r="B23" s="240"/>
-      <c r="C23" s="211"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="164"/>
-      <c r="L23" s="210"/>
+      <c r="B23" s="192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="194" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="195"/>
+      <c r="E23" s="194" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="195"/>
+      <c r="G23" s="194" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="196"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="194" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="196"/>
+      <c r="L23" s="195"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="238"/>
-      <c r="B24" s="240"/>
-      <c r="C24" s="211"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="164"/>
-      <c r="L24" s="210"/>
+      <c r="B24" s="193"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="218"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="219"/>
+      <c r="L24" s="218"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="238"/>
-      <c r="B25" s="240"/>
-      <c r="C25" s="211"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="164"/>
-      <c r="L25" s="210"/>
+      <c r="B25" s="197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="207" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="208"/>
+      <c r="E25" s="208"/>
+      <c r="F25" s="208"/>
+      <c r="G25" s="208"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="208"/>
+      <c r="K25" s="208"/>
+      <c r="L25" s="209"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="238"/>
-      <c r="B26" s="240"/>
-      <c r="C26" s="211"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="164"/>
       <c r="D26" s="164"/>
       <c r="E26" s="164"/>
       <c r="F26" s="164"/>
@@ -6624,8 +6638,8 @@
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="238"/>
-      <c r="B27" s="240"/>
-      <c r="C27" s="211"/>
+      <c r="B27" s="198"/>
+      <c r="C27" s="164"/>
       <c r="D27" s="164"/>
       <c r="E27" s="164"/>
       <c r="F27" s="164"/>
@@ -6638,8 +6652,8 @@
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="238"/>
-      <c r="B28" s="240"/>
-      <c r="C28" s="211"/>
+      <c r="B28" s="198"/>
+      <c r="C28" s="164"/>
       <c r="D28" s="164"/>
       <c r="E28" s="164"/>
       <c r="F28" s="164"/>
@@ -6652,8 +6666,8 @@
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="238"/>
-      <c r="B29" s="240"/>
-      <c r="C29" s="211"/>
+      <c r="B29" s="198"/>
+      <c r="C29" s="164"/>
       <c r="D29" s="164"/>
       <c r="E29" s="164"/>
       <c r="F29" s="164"/>
@@ -6666,8 +6680,8 @@
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="238"/>
-      <c r="B30" s="240"/>
-      <c r="C30" s="211"/>
+      <c r="B30" s="198"/>
+      <c r="C30" s="164"/>
       <c r="D30" s="164"/>
       <c r="E30" s="164"/>
       <c r="F30" s="164"/>
@@ -6680,8 +6694,8 @@
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="238"/>
-      <c r="B31" s="240"/>
-      <c r="C31" s="211"/>
+      <c r="B31" s="198"/>
+      <c r="C31" s="164"/>
       <c r="D31" s="164"/>
       <c r="E31" s="164"/>
       <c r="F31" s="164"/>
@@ -6694,8 +6708,8 @@
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="238"/>
-      <c r="B32" s="240"/>
-      <c r="C32" s="211"/>
+      <c r="B32" s="198"/>
+      <c r="C32" s="164"/>
       <c r="D32" s="164"/>
       <c r="E32" s="164"/>
       <c r="F32" s="164"/>
@@ -6708,8 +6722,8 @@
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="238"/>
-      <c r="B33" s="240"/>
-      <c r="C33" s="211"/>
+      <c r="B33" s="198"/>
+      <c r="C33" s="164"/>
       <c r="D33" s="164"/>
       <c r="E33" s="164"/>
       <c r="F33" s="164"/>
@@ -6722,8 +6736,8 @@
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="238"/>
-      <c r="B34" s="240"/>
-      <c r="C34" s="211"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="164"/>
       <c r="D34" s="164"/>
       <c r="E34" s="164"/>
       <c r="F34" s="164"/>
@@ -6736,8 +6750,8 @@
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="238"/>
-      <c r="B35" s="240"/>
-      <c r="C35" s="211"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="164"/>
       <c r="D35" s="164"/>
       <c r="E35" s="164"/>
       <c r="F35" s="164"/>
@@ -6750,7 +6764,7 @@
     </row>
     <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="238"/>
-      <c r="B36" s="240"/>
+      <c r="B36" s="199"/>
       <c r="C36" s="211"/>
       <c r="D36" s="164"/>
       <c r="E36" s="164"/>
@@ -6764,7 +6778,7 @@
     </row>
     <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="238"/>
-      <c r="B37" s="240"/>
+      <c r="B37" s="199"/>
       <c r="C37" s="211"/>
       <c r="D37" s="164"/>
       <c r="E37" s="164"/>
@@ -6778,7 +6792,7 @@
     </row>
     <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="238"/>
-      <c r="B38" s="240"/>
+      <c r="B38" s="199"/>
       <c r="C38" s="211"/>
       <c r="D38" s="164"/>
       <c r="E38" s="164"/>
@@ -6790,1104 +6804,782 @@
       <c r="K38" s="164"/>
       <c r="L38" s="210"/>
     </row>
-    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" ht="193.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="238"/>
-      <c r="B39" s="192" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="195"/>
-      <c r="E39" s="194" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="195"/>
-      <c r="G39" s="194" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="196"/>
-      <c r="I39" s="195"/>
-      <c r="J39" s="194" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39" s="196"/>
-      <c r="L39" s="195"/>
+      <c r="B39" s="200"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="213"/>
+      <c r="E39" s="213"/>
+      <c r="F39" s="213"/>
+      <c r="G39" s="213"/>
+      <c r="H39" s="213"/>
+      <c r="I39" s="213"/>
+      <c r="J39" s="213"/>
+      <c r="K39" s="213"/>
+      <c r="L39" s="214"/>
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="238"/>
-      <c r="B40" s="193"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="217"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="218"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="218"/>
-      <c r="J40" s="181"/>
-      <c r="K40" s="219"/>
-      <c r="L40" s="218"/>
+      <c r="B40" s="201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="184"/>
+      <c r="E40" s="184"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="184"/>
+      <c r="H40" s="184"/>
+      <c r="I40" s="184"/>
+      <c r="J40" s="184"/>
+      <c r="K40" s="184"/>
+      <c r="L40" s="185"/>
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="238"/>
-      <c r="B41" s="197" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="207" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="208"/>
-      <c r="E41" s="208"/>
-      <c r="F41" s="208"/>
-      <c r="G41" s="208"/>
-      <c r="H41" s="208"/>
-      <c r="I41" s="208"/>
-      <c r="J41" s="208"/>
-      <c r="K41" s="208"/>
-      <c r="L41" s="209"/>
+      <c r="B41" s="202"/>
+      <c r="C41" s="186"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="187"/>
+      <c r="K41" s="187"/>
+      <c r="L41" s="188"/>
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="238"/>
-      <c r="B42" s="198"/>
-      <c r="C42" s="164"/>
-      <c r="D42" s="164"/>
-      <c r="E42" s="164"/>
-      <c r="F42" s="164"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="164"/>
-      <c r="K42" s="164"/>
-      <c r="L42" s="210"/>
+      <c r="B42" s="202"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="187"/>
+      <c r="I42" s="187"/>
+      <c r="J42" s="187"/>
+      <c r="K42" s="187"/>
+      <c r="L42" s="188"/>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="238"/>
-      <c r="B43" s="198"/>
-      <c r="C43" s="164"/>
-      <c r="D43" s="164"/>
-      <c r="E43" s="164"/>
-      <c r="F43" s="164"/>
-      <c r="G43" s="164"/>
-      <c r="H43" s="164"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="164"/>
-      <c r="K43" s="164"/>
-      <c r="L43" s="210"/>
-    </row>
-    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="202"/>
+      <c r="C43" s="186"/>
+      <c r="D43" s="187"/>
+      <c r="E43" s="187"/>
+      <c r="F43" s="187"/>
+      <c r="G43" s="187"/>
+      <c r="H43" s="187"/>
+      <c r="I43" s="187"/>
+      <c r="J43" s="187"/>
+      <c r="K43" s="187"/>
+      <c r="L43" s="188"/>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="238"/>
-      <c r="B44" s="198"/>
-      <c r="C44" s="164"/>
-      <c r="D44" s="164"/>
-      <c r="E44" s="164"/>
-      <c r="F44" s="164"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="164"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="164"/>
-      <c r="K44" s="164"/>
-      <c r="L44" s="210"/>
-    </row>
-    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="202"/>
+      <c r="C44" s="186"/>
+      <c r="D44" s="187"/>
+      <c r="E44" s="187"/>
+      <c r="F44" s="187"/>
+      <c r="G44" s="187"/>
+      <c r="H44" s="187"/>
+      <c r="I44" s="187"/>
+      <c r="J44" s="187"/>
+      <c r="K44" s="187"/>
+      <c r="L44" s="188"/>
+    </row>
+    <row r="45" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="238"/>
-      <c r="B45" s="198"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="164"/>
-      <c r="G45" s="164"/>
-      <c r="H45" s="164"/>
-      <c r="I45" s="164"/>
-      <c r="J45" s="164"/>
-      <c r="K45" s="164"/>
-      <c r="L45" s="210"/>
-    </row>
-    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="202"/>
+      <c r="C45" s="186"/>
+      <c r="D45" s="187"/>
+      <c r="E45" s="187"/>
+      <c r="F45" s="187"/>
+      <c r="G45" s="187"/>
+      <c r="H45" s="187"/>
+      <c r="I45" s="187"/>
+      <c r="J45" s="187"/>
+      <c r="K45" s="187"/>
+      <c r="L45" s="188"/>
+    </row>
+    <row r="46" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="238"/>
-      <c r="B46" s="198"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="164"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="164"/>
-      <c r="K46" s="164"/>
-      <c r="L46" s="210"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="186"/>
+      <c r="D46" s="187"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="187"/>
+      <c r="G46" s="187"/>
+      <c r="H46" s="187"/>
+      <c r="I46" s="187"/>
+      <c r="J46" s="187"/>
+      <c r="K46" s="187"/>
+      <c r="L46" s="188"/>
     </row>
     <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="238"/>
-      <c r="B47" s="198"/>
-      <c r="C47" s="164"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="164"/>
-      <c r="G47" s="164"/>
-      <c r="H47" s="164"/>
-      <c r="I47" s="164"/>
-      <c r="J47" s="164"/>
-      <c r="K47" s="164"/>
-      <c r="L47" s="210"/>
+      <c r="B47" s="203"/>
+      <c r="C47" s="189"/>
+      <c r="D47" s="190"/>
+      <c r="E47" s="190"/>
+      <c r="F47" s="190"/>
+      <c r="G47" s="190"/>
+      <c r="H47" s="190"/>
+      <c r="I47" s="190"/>
+      <c r="J47" s="190"/>
+      <c r="K47" s="190"/>
+      <c r="L47" s="191"/>
     </row>
     <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="238"/>
-      <c r="B48" s="198"/>
-      <c r="C48" s="164"/>
-      <c r="D48" s="164"/>
-      <c r="E48" s="164"/>
-      <c r="F48" s="164"/>
-      <c r="G48" s="164"/>
-      <c r="H48" s="164"/>
-      <c r="I48" s="164"/>
-      <c r="J48" s="164"/>
-      <c r="K48" s="164"/>
-      <c r="L48" s="210"/>
-    </row>
-    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="164" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="121"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="122"/>
+    </row>
+    <row r="49" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="238"/>
-      <c r="B49" s="198"/>
-      <c r="C49" s="164"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="164"/>
-      <c r="F49" s="164"/>
-      <c r="G49" s="164"/>
-      <c r="H49" s="164"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="164"/>
-      <c r="K49" s="164"/>
-      <c r="L49" s="210"/>
-    </row>
-    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="205"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="125"/>
+    </row>
+    <row r="50" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="238"/>
-      <c r="B50" s="198"/>
-      <c r="C50" s="164"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="164"/>
-      <c r="F50" s="164"/>
-      <c r="G50" s="164"/>
-      <c r="H50" s="164"/>
-      <c r="I50" s="164"/>
-      <c r="J50" s="164"/>
-      <c r="K50" s="164"/>
-      <c r="L50" s="210"/>
-    </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="205"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="124"/>
+      <c r="L50" s="125"/>
+    </row>
+    <row r="51" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="238"/>
-      <c r="B51" s="198"/>
-      <c r="C51" s="164"/>
-      <c r="D51" s="164"/>
-      <c r="E51" s="164"/>
-      <c r="F51" s="164"/>
-      <c r="G51" s="164"/>
-      <c r="H51" s="164"/>
-      <c r="I51" s="164"/>
-      <c r="J51" s="164"/>
-      <c r="K51" s="164"/>
-      <c r="L51" s="210"/>
-    </row>
-    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="205"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="124"/>
+      <c r="L51" s="125"/>
+    </row>
+    <row r="52" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="238"/>
-      <c r="B52" s="199"/>
-      <c r="C52" s="211"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="164"/>
-      <c r="F52" s="164"/>
-      <c r="G52" s="164"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="164"/>
-      <c r="J52" s="164"/>
-      <c r="K52" s="164"/>
-      <c r="L52" s="210"/>
-    </row>
-    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="205"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="124"/>
+      <c r="L52" s="125"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="238"/>
-      <c r="B53" s="199"/>
-      <c r="C53" s="211"/>
-      <c r="D53" s="164"/>
-      <c r="E53" s="164"/>
-      <c r="F53" s="164"/>
-      <c r="G53" s="164"/>
-      <c r="H53" s="164"/>
-      <c r="I53" s="164"/>
-      <c r="J53" s="164"/>
-      <c r="K53" s="164"/>
-      <c r="L53" s="210"/>
-    </row>
-    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="205"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="124"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="124"/>
+      <c r="K53" s="124"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="238"/>
-      <c r="B54" s="199"/>
-      <c r="C54" s="211"/>
-      <c r="D54" s="164"/>
-      <c r="E54" s="164"/>
-      <c r="F54" s="164"/>
-      <c r="G54" s="164"/>
-      <c r="H54" s="164"/>
-      <c r="I54" s="164"/>
-      <c r="J54" s="164"/>
-      <c r="K54" s="164"/>
-      <c r="L54" s="210"/>
-    </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="205"/>
+      <c r="C54" s="123"/>
+      <c r="D54" s="124"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="124"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="124"/>
+      <c r="J54" s="124"/>
+      <c r="K54" s="124"/>
+      <c r="L54" s="125"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="238"/>
-      <c r="B55" s="199"/>
-      <c r="C55" s="211"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="164"/>
-      <c r="F55" s="164"/>
-      <c r="G55" s="164"/>
-      <c r="H55" s="164"/>
-      <c r="I55" s="164"/>
-      <c r="J55" s="164"/>
-      <c r="K55" s="164"/>
-      <c r="L55" s="210"/>
-    </row>
-    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="205"/>
+      <c r="C55" s="123"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="124"/>
+      <c r="J55" s="124"/>
+      <c r="K55" s="124"/>
+      <c r="L55" s="125"/>
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="238"/>
-      <c r="B56" s="199"/>
-      <c r="C56" s="211"/>
-      <c r="D56" s="164"/>
-      <c r="E56" s="164"/>
-      <c r="F56" s="164"/>
-      <c r="G56" s="164"/>
-      <c r="H56" s="164"/>
-      <c r="I56" s="164"/>
-      <c r="J56" s="164"/>
-      <c r="K56" s="164"/>
-      <c r="L56" s="210"/>
-    </row>
-    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="205"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="125"/>
+      <c r="M56" s="9"/>
+    </row>
+    <row r="57" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="238"/>
-      <c r="B57" s="199"/>
-      <c r="C57" s="211"/>
-      <c r="D57" s="164"/>
-      <c r="E57" s="164"/>
-      <c r="F57" s="164"/>
-      <c r="G57" s="164"/>
-      <c r="H57" s="164"/>
-      <c r="I57" s="164"/>
-      <c r="J57" s="164"/>
-      <c r="K57" s="164"/>
-      <c r="L57" s="210"/>
-    </row>
-    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="238"/>
-      <c r="B58" s="199"/>
-      <c r="C58" s="211"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="164"/>
-      <c r="F58" s="164"/>
-      <c r="G58" s="164"/>
-      <c r="H58" s="164"/>
-      <c r="I58" s="164"/>
-      <c r="J58" s="164"/>
-      <c r="K58" s="164"/>
-      <c r="L58" s="210"/>
-    </row>
-    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="238"/>
-      <c r="B59" s="199"/>
-      <c r="C59" s="211"/>
-      <c r="D59" s="164"/>
-      <c r="E59" s="164"/>
-      <c r="F59" s="164"/>
-      <c r="G59" s="164"/>
-      <c r="H59" s="164"/>
-      <c r="I59" s="164"/>
-      <c r="J59" s="164"/>
-      <c r="K59" s="164"/>
-      <c r="L59" s="210"/>
-    </row>
-    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="238"/>
-      <c r="B60" s="199"/>
-      <c r="C60" s="211"/>
-      <c r="D60" s="164"/>
-      <c r="E60" s="164"/>
-      <c r="F60" s="164"/>
-      <c r="G60" s="164"/>
-      <c r="H60" s="164"/>
-      <c r="I60" s="164"/>
-      <c r="J60" s="164"/>
-      <c r="K60" s="164"/>
-      <c r="L60" s="210"/>
-    </row>
-    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="238"/>
-      <c r="B61" s="200"/>
-      <c r="C61" s="212"/>
-      <c r="D61" s="213"/>
-      <c r="E61" s="213"/>
-      <c r="F61" s="213"/>
-      <c r="G61" s="213"/>
-      <c r="H61" s="213"/>
-      <c r="I61" s="213"/>
-      <c r="J61" s="213"/>
-      <c r="K61" s="213"/>
-      <c r="L61" s="214"/>
-    </row>
-    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="238"/>
-      <c r="B62" s="201" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="164" t="s">
+      <c r="B57" s="206"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="127"/>
+      <c r="L57" s="128"/>
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="233" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="228" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="D62" s="184"/>
-      <c r="E62" s="184"/>
-      <c r="F62" s="184"/>
-      <c r="G62" s="184"/>
-      <c r="H62" s="184"/>
-      <c r="I62" s="184"/>
-      <c r="J62" s="184"/>
-      <c r="K62" s="184"/>
-      <c r="L62" s="185"/>
-    </row>
-    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="238"/>
-      <c r="B63" s="202"/>
-      <c r="C63" s="186"/>
-      <c r="D63" s="187"/>
-      <c r="E63" s="187"/>
-      <c r="F63" s="187"/>
-      <c r="G63" s="187"/>
-      <c r="H63" s="187"/>
-      <c r="I63" s="187"/>
-      <c r="J63" s="187"/>
-      <c r="K63" s="187"/>
-      <c r="L63" s="188"/>
-    </row>
-    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="238"/>
-      <c r="B64" s="202"/>
-      <c r="C64" s="186"/>
-      <c r="D64" s="187"/>
-      <c r="E64" s="187"/>
-      <c r="F64" s="187"/>
-      <c r="G64" s="187"/>
-      <c r="H64" s="187"/>
-      <c r="I64" s="187"/>
-      <c r="J64" s="187"/>
-      <c r="K64" s="187"/>
-      <c r="L64" s="188"/>
-    </row>
-    <row r="65" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="238"/>
-      <c r="B65" s="202"/>
-      <c r="C65" s="186"/>
-      <c r="D65" s="187"/>
-      <c r="E65" s="187"/>
-      <c r="F65" s="187"/>
-      <c r="G65" s="187"/>
-      <c r="H65" s="187"/>
-      <c r="I65" s="187"/>
-      <c r="J65" s="187"/>
-      <c r="K65" s="187"/>
-      <c r="L65" s="188"/>
-    </row>
-    <row r="66" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="238"/>
-      <c r="B66" s="202"/>
-      <c r="C66" s="186"/>
-      <c r="D66" s="187"/>
-      <c r="E66" s="187"/>
-      <c r="F66" s="187"/>
-      <c r="G66" s="187"/>
-      <c r="H66" s="187"/>
-      <c r="I66" s="187"/>
-      <c r="J66" s="187"/>
-      <c r="K66" s="187"/>
-      <c r="L66" s="188"/>
-    </row>
-    <row r="67" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="238"/>
-      <c r="B67" s="202"/>
-      <c r="C67" s="186"/>
-      <c r="D67" s="187"/>
-      <c r="E67" s="187"/>
-      <c r="F67" s="187"/>
-      <c r="G67" s="187"/>
-      <c r="H67" s="187"/>
-      <c r="I67" s="187"/>
-      <c r="J67" s="187"/>
-      <c r="K67" s="187"/>
-      <c r="L67" s="188"/>
-    </row>
-    <row r="68" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="238"/>
-      <c r="B68" s="202"/>
-      <c r="C68" s="186"/>
-      <c r="D68" s="187"/>
-      <c r="E68" s="187"/>
-      <c r="F68" s="187"/>
-      <c r="G68" s="187"/>
-      <c r="H68" s="187"/>
-      <c r="I68" s="187"/>
-      <c r="J68" s="187"/>
-      <c r="K68" s="187"/>
-      <c r="L68" s="188"/>
-    </row>
-    <row r="69" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="238"/>
-      <c r="B69" s="203"/>
-      <c r="C69" s="189"/>
-      <c r="D69" s="190"/>
-      <c r="E69" s="190"/>
-      <c r="F69" s="190"/>
-      <c r="G69" s="190"/>
-      <c r="H69" s="190"/>
-      <c r="I69" s="190"/>
-      <c r="J69" s="190"/>
-      <c r="K69" s="190"/>
-      <c r="L69" s="191"/>
-    </row>
-    <row r="70" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="238"/>
-      <c r="B70" s="204" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="164" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" s="121"/>
-      <c r="E70" s="121"/>
-      <c r="F70" s="121"/>
-      <c r="G70" s="121"/>
-      <c r="H70" s="121"/>
-      <c r="I70" s="121"/>
-      <c r="J70" s="121"/>
-      <c r="K70" s="121"/>
-      <c r="L70" s="122"/>
-    </row>
-    <row r="71" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="238"/>
-      <c r="B71" s="205"/>
-      <c r="C71" s="123"/>
-      <c r="D71" s="124"/>
-      <c r="E71" s="124"/>
-      <c r="F71" s="124"/>
-      <c r="G71" s="124"/>
-      <c r="H71" s="124"/>
-      <c r="I71" s="124"/>
-      <c r="J71" s="124"/>
-      <c r="K71" s="124"/>
-      <c r="L71" s="125"/>
-    </row>
-    <row r="72" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="238"/>
-      <c r="B72" s="205"/>
-      <c r="C72" s="123"/>
-      <c r="D72" s="124"/>
-      <c r="E72" s="124"/>
-      <c r="F72" s="124"/>
-      <c r="G72" s="124"/>
-      <c r="H72" s="124"/>
-      <c r="I72" s="124"/>
-      <c r="J72" s="124"/>
-      <c r="K72" s="124"/>
-      <c r="L72" s="125"/>
-    </row>
-    <row r="73" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="238"/>
-      <c r="B73" s="205"/>
-      <c r="C73" s="123"/>
-      <c r="D73" s="124"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="124"/>
-      <c r="G73" s="124"/>
-      <c r="H73" s="124"/>
-      <c r="I73" s="124"/>
-      <c r="J73" s="124"/>
-      <c r="K73" s="124"/>
-      <c r="L73" s="125"/>
-    </row>
-    <row r="74" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="238"/>
-      <c r="B74" s="205"/>
-      <c r="C74" s="123"/>
-      <c r="D74" s="124"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="124"/>
-      <c r="G74" s="124"/>
-      <c r="H74" s="124"/>
-      <c r="I74" s="124"/>
-      <c r="J74" s="124"/>
-      <c r="K74" s="124"/>
-      <c r="L74" s="125"/>
-      <c r="M74" s="9"/>
-    </row>
-    <row r="75" spans="1:13" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="238"/>
-      <c r="B75" s="205"/>
-      <c r="C75" s="123"/>
-      <c r="D75" s="124"/>
-      <c r="E75" s="124"/>
-      <c r="F75" s="124"/>
-      <c r="G75" s="124"/>
-      <c r="H75" s="124"/>
-      <c r="I75" s="124"/>
-      <c r="J75" s="124"/>
-      <c r="K75" s="124"/>
-      <c r="L75" s="125"/>
-      <c r="M75" s="9"/>
-    </row>
-    <row r="76" spans="1:13" ht="5.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="238"/>
-      <c r="B76" s="205"/>
-      <c r="C76" s="123"/>
-      <c r="D76" s="124"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="124"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="124"/>
-      <c r="I76" s="124"/>
-      <c r="J76" s="124"/>
-      <c r="K76" s="124"/>
-      <c r="L76" s="125"/>
-      <c r="M76" s="9"/>
-    </row>
-    <row r="77" spans="1:13" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="238"/>
-      <c r="B77" s="205"/>
-      <c r="C77" s="123"/>
-      <c r="D77" s="124"/>
-      <c r="E77" s="124"/>
-      <c r="F77" s="124"/>
-      <c r="G77" s="124"/>
-      <c r="H77" s="124"/>
-      <c r="I77" s="124"/>
-      <c r="J77" s="124"/>
-      <c r="K77" s="124"/>
-      <c r="L77" s="125"/>
-      <c r="M77" s="9"/>
-    </row>
-    <row r="78" spans="1:13" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="238"/>
-      <c r="B78" s="205"/>
-      <c r="C78" s="123"/>
-      <c r="D78" s="124"/>
-      <c r="E78" s="124"/>
-      <c r="F78" s="124"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="124"/>
-      <c r="I78" s="124"/>
-      <c r="J78" s="124"/>
-      <c r="K78" s="124"/>
-      <c r="L78" s="125"/>
-      <c r="M78" s="9"/>
-    </row>
-    <row r="79" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="238"/>
-      <c r="B79" s="206"/>
-      <c r="C79" s="126"/>
-      <c r="D79" s="127"/>
-      <c r="E79" s="127"/>
-      <c r="F79" s="127"/>
-      <c r="G79" s="127"/>
-      <c r="H79" s="127"/>
-      <c r="I79" s="127"/>
-      <c r="J79" s="127"/>
-      <c r="K79" s="127"/>
-      <c r="L79" s="128"/>
-      <c r="M79" s="9"/>
-    </row>
-    <row r="80" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="233" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="228" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="173" t="s">
+      <c r="E59" s="165"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="165"/>
+      <c r="H59" s="165"/>
+      <c r="I59" s="165"/>
+      <c r="J59" s="165"/>
+      <c r="K59" s="165"/>
+      <c r="L59" s="166"/>
+    </row>
+    <row r="60" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="234"/>
+      <c r="B60" s="230"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="167"/>
+      <c r="E60" s="168"/>
+      <c r="F60" s="168"/>
+      <c r="G60" s="168"/>
+      <c r="H60" s="168"/>
+      <c r="I60" s="168"/>
+      <c r="J60" s="168"/>
+      <c r="K60" s="168"/>
+      <c r="L60" s="169"/>
+    </row>
+    <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="234"/>
+      <c r="B61" s="230"/>
+      <c r="C61" s="175"/>
+      <c r="D61" s="170"/>
+      <c r="E61" s="171"/>
+      <c r="F61" s="171"/>
+      <c r="G61" s="171"/>
+      <c r="H61" s="171"/>
+      <c r="I61" s="171"/>
+      <c r="J61" s="171"/>
+      <c r="K61" s="171"/>
+      <c r="L61" s="172"/>
+    </row>
+    <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="234"/>
+      <c r="B62" s="230"/>
+      <c r="C62" s="176" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" s="165"/>
+      <c r="F62" s="165"/>
+      <c r="G62" s="165"/>
+      <c r="H62" s="165"/>
+      <c r="I62" s="165"/>
+      <c r="J62" s="165"/>
+      <c r="K62" s="165"/>
+      <c r="L62" s="166"/>
+    </row>
+    <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="234"/>
+      <c r="B63" s="230"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="168"/>
+      <c r="F63" s="168"/>
+      <c r="G63" s="168"/>
+      <c r="H63" s="168"/>
+      <c r="I63" s="168"/>
+      <c r="J63" s="168"/>
+      <c r="K63" s="168"/>
+      <c r="L63" s="169"/>
+    </row>
+    <row r="64" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="234"/>
+      <c r="B64" s="232"/>
+      <c r="C64" s="178"/>
+      <c r="D64" s="171"/>
+      <c r="E64" s="171"/>
+      <c r="F64" s="171"/>
+      <c r="G64" s="171"/>
+      <c r="H64" s="171"/>
+      <c r="I64" s="171"/>
+      <c r="J64" s="171"/>
+      <c r="K64" s="171"/>
+      <c r="L64" s="172"/>
+    </row>
+    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="234"/>
+      <c r="B65" s="204" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="164" t="s">
+      <c r="D65" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="E81" s="165"/>
-      <c r="F81" s="165"/>
-      <c r="G81" s="165"/>
-      <c r="H81" s="165"/>
-      <c r="I81" s="165"/>
-      <c r="J81" s="165"/>
-      <c r="K81" s="165"/>
-      <c r="L81" s="166"/>
-    </row>
-    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="234"/>
-      <c r="B82" s="230"/>
-      <c r="C82" s="174"/>
-      <c r="D82" s="167"/>
-      <c r="E82" s="168"/>
-      <c r="F82" s="168"/>
-      <c r="G82" s="168"/>
-      <c r="H82" s="168"/>
-      <c r="I82" s="168"/>
-      <c r="J82" s="168"/>
-      <c r="K82" s="168"/>
-      <c r="L82" s="169"/>
-    </row>
-    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="234"/>
-      <c r="B83" s="230"/>
-      <c r="C83" s="175"/>
-      <c r="D83" s="170"/>
-      <c r="E83" s="171"/>
-      <c r="F83" s="171"/>
-      <c r="G83" s="171"/>
-      <c r="H83" s="171"/>
-      <c r="I83" s="171"/>
-      <c r="J83" s="171"/>
-      <c r="K83" s="171"/>
-      <c r="L83" s="172"/>
-    </row>
-    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="234"/>
-      <c r="B84" s="230"/>
-      <c r="C84" s="176" t="s">
+      <c r="E65" s="165"/>
+      <c r="F65" s="165"/>
+      <c r="G65" s="165"/>
+      <c r="H65" s="165"/>
+      <c r="I65" s="165"/>
+      <c r="J65" s="165"/>
+      <c r="K65" s="165"/>
+      <c r="L65" s="166"/>
+    </row>
+    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="234"/>
+      <c r="B66" s="236"/>
+      <c r="C66" s="174"/>
+      <c r="D66" s="168"/>
+      <c r="E66" s="168"/>
+      <c r="F66" s="168"/>
+      <c r="G66" s="168"/>
+      <c r="H66" s="168"/>
+      <c r="I66" s="168"/>
+      <c r="J66" s="168"/>
+      <c r="K66" s="168"/>
+      <c r="L66" s="169"/>
+    </row>
+    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="234"/>
+      <c r="B67" s="236"/>
+      <c r="C67" s="175"/>
+      <c r="D67" s="171"/>
+      <c r="E67" s="171"/>
+      <c r="F67" s="171"/>
+      <c r="G67" s="171"/>
+      <c r="H67" s="171"/>
+      <c r="I67" s="171"/>
+      <c r="J67" s="171"/>
+      <c r="K67" s="171"/>
+      <c r="L67" s="172"/>
+    </row>
+    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="234"/>
+      <c r="B68" s="236"/>
+      <c r="C68" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="164" t="s">
+      <c r="D68" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="E84" s="165"/>
-      <c r="F84" s="165"/>
-      <c r="G84" s="165"/>
-      <c r="H84" s="165"/>
-      <c r="I84" s="165"/>
-      <c r="J84" s="165"/>
-      <c r="K84" s="165"/>
-      <c r="L84" s="166"/>
-    </row>
-    <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="234"/>
-      <c r="B85" s="230"/>
-      <c r="C85" s="177"/>
-      <c r="D85" s="168"/>
-      <c r="E85" s="168"/>
-      <c r="F85" s="168"/>
-      <c r="G85" s="168"/>
-      <c r="H85" s="168"/>
-      <c r="I85" s="168"/>
-      <c r="J85" s="168"/>
-      <c r="K85" s="168"/>
-      <c r="L85" s="169"/>
-    </row>
-    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="234"/>
-      <c r="B86" s="232"/>
-      <c r="C86" s="178"/>
-      <c r="D86" s="171"/>
-      <c r="E86" s="171"/>
-      <c r="F86" s="171"/>
-      <c r="G86" s="171"/>
-      <c r="H86" s="171"/>
-      <c r="I86" s="171"/>
-      <c r="J86" s="171"/>
-      <c r="K86" s="171"/>
-      <c r="L86" s="172"/>
-    </row>
-    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="234"/>
-      <c r="B87" s="204" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="164" t="s">
+      <c r="E68" s="165"/>
+      <c r="F68" s="165"/>
+      <c r="G68" s="165"/>
+      <c r="H68" s="165"/>
+      <c r="I68" s="165"/>
+      <c r="J68" s="165"/>
+      <c r="K68" s="165"/>
+      <c r="L68" s="166"/>
+    </row>
+    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="234"/>
+      <c r="B69" s="236"/>
+      <c r="C69" s="177"/>
+      <c r="D69" s="168"/>
+      <c r="E69" s="168"/>
+      <c r="F69" s="168"/>
+      <c r="G69" s="168"/>
+      <c r="H69" s="168"/>
+      <c r="I69" s="168"/>
+      <c r="J69" s="168"/>
+      <c r="K69" s="168"/>
+      <c r="L69" s="169"/>
+    </row>
+    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="235"/>
+      <c r="B70" s="237"/>
+      <c r="C70" s="178"/>
+      <c r="D70" s="171"/>
+      <c r="E70" s="171"/>
+      <c r="F70" s="171"/>
+      <c r="G70" s="171"/>
+      <c r="H70" s="171"/>
+      <c r="I70" s="171"/>
+      <c r="J70" s="171"/>
+      <c r="K70" s="171"/>
+      <c r="L70" s="172"/>
+    </row>
+    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="233" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="204" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="E87" s="165"/>
-      <c r="F87" s="165"/>
-      <c r="G87" s="165"/>
-      <c r="H87" s="165"/>
-      <c r="I87" s="165"/>
-      <c r="J87" s="165"/>
-      <c r="K87" s="165"/>
-      <c r="L87" s="166"/>
-    </row>
-    <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="234"/>
-      <c r="B88" s="236"/>
-      <c r="C88" s="174"/>
-      <c r="D88" s="168"/>
-      <c r="E88" s="168"/>
-      <c r="F88" s="168"/>
-      <c r="G88" s="168"/>
-      <c r="H88" s="168"/>
-      <c r="I88" s="168"/>
-      <c r="J88" s="168"/>
-      <c r="K88" s="168"/>
-      <c r="L88" s="169"/>
-    </row>
-    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="234"/>
-      <c r="B89" s="236"/>
-      <c r="C89" s="175"/>
-      <c r="D89" s="171"/>
-      <c r="E89" s="171"/>
-      <c r="F89" s="171"/>
-      <c r="G89" s="171"/>
-      <c r="H89" s="171"/>
-      <c r="I89" s="171"/>
-      <c r="J89" s="171"/>
-      <c r="K89" s="171"/>
-      <c r="L89" s="172"/>
-    </row>
-    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="234"/>
-      <c r="B90" s="236"/>
-      <c r="C90" s="176" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="164" t="s">
+      <c r="D71" s="184"/>
+      <c r="E71" s="184"/>
+      <c r="F71" s="184"/>
+      <c r="G71" s="184"/>
+      <c r="H71" s="184"/>
+      <c r="I71" s="184"/>
+      <c r="J71" s="184"/>
+      <c r="K71" s="184"/>
+      <c r="L71" s="185"/>
+    </row>
+    <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="234"/>
+      <c r="B72" s="236"/>
+      <c r="C72" s="186"/>
+      <c r="D72" s="187"/>
+      <c r="E72" s="187"/>
+      <c r="F72" s="187"/>
+      <c r="G72" s="187"/>
+      <c r="H72" s="187"/>
+      <c r="I72" s="187"/>
+      <c r="J72" s="187"/>
+      <c r="K72" s="187"/>
+      <c r="L72" s="188"/>
+    </row>
+    <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="234"/>
+      <c r="B73" s="236"/>
+      <c r="C73" s="186"/>
+      <c r="D73" s="187"/>
+      <c r="E73" s="187"/>
+      <c r="F73" s="187"/>
+      <c r="G73" s="187"/>
+      <c r="H73" s="187"/>
+      <c r="I73" s="187"/>
+      <c r="J73" s="187"/>
+      <c r="K73" s="187"/>
+      <c r="L73" s="188"/>
+    </row>
+    <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="234"/>
+      <c r="B74" s="236"/>
+      <c r="C74" s="186"/>
+      <c r="D74" s="187"/>
+      <c r="E74" s="187"/>
+      <c r="F74" s="187"/>
+      <c r="G74" s="187"/>
+      <c r="H74" s="187"/>
+      <c r="I74" s="187"/>
+      <c r="J74" s="187"/>
+      <c r="K74" s="187"/>
+      <c r="L74" s="188"/>
+    </row>
+    <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="234"/>
+      <c r="B75" s="236"/>
+      <c r="C75" s="186"/>
+      <c r="D75" s="187"/>
+      <c r="E75" s="187"/>
+      <c r="F75" s="187"/>
+      <c r="G75" s="187"/>
+      <c r="H75" s="187"/>
+      <c r="I75" s="187"/>
+      <c r="J75" s="187"/>
+      <c r="K75" s="187"/>
+      <c r="L75" s="188"/>
+    </row>
+    <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="235"/>
+      <c r="B76" s="237"/>
+      <c r="C76" s="189"/>
+      <c r="D76" s="190"/>
+      <c r="E76" s="190"/>
+      <c r="F76" s="190"/>
+      <c r="G76" s="190"/>
+      <c r="H76" s="190"/>
+      <c r="I76" s="190"/>
+      <c r="J76" s="190"/>
+      <c r="K76" s="190"/>
+      <c r="L76" s="191"/>
+    </row>
+    <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="227" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="228"/>
+      <c r="C77" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="E90" s="165"/>
-      <c r="F90" s="165"/>
-      <c r="G90" s="165"/>
-      <c r="H90" s="165"/>
-      <c r="I90" s="165"/>
-      <c r="J90" s="165"/>
-      <c r="K90" s="165"/>
-      <c r="L90" s="166"/>
-    </row>
-    <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="234"/>
-      <c r="B91" s="236"/>
-      <c r="C91" s="177"/>
-      <c r="D91" s="168"/>
-      <c r="E91" s="168"/>
-      <c r="F91" s="168"/>
-      <c r="G91" s="168"/>
-      <c r="H91" s="168"/>
-      <c r="I91" s="168"/>
-      <c r="J91" s="168"/>
-      <c r="K91" s="168"/>
-      <c r="L91" s="169"/>
-    </row>
-    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="235"/>
-      <c r="B92" s="237"/>
-      <c r="C92" s="178"/>
-      <c r="D92" s="171"/>
-      <c r="E92" s="171"/>
-      <c r="F92" s="171"/>
-      <c r="G92" s="171"/>
-      <c r="H92" s="171"/>
-      <c r="I92" s="171"/>
-      <c r="J92" s="171"/>
-      <c r="K92" s="171"/>
-      <c r="L92" s="172"/>
-    </row>
-    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="233" t="s">
-        <v>18</v>
-      </c>
-      <c r="B93" s="204" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="164" t="s">
-        <v>147</v>
-      </c>
-      <c r="D93" s="184"/>
-      <c r="E93" s="184"/>
-      <c r="F93" s="184"/>
-      <c r="G93" s="184"/>
-      <c r="H93" s="184"/>
-      <c r="I93" s="184"/>
-      <c r="J93" s="184"/>
-      <c r="K93" s="184"/>
-      <c r="L93" s="185"/>
-    </row>
-    <row r="94" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="234"/>
-      <c r="B94" s="236"/>
-      <c r="C94" s="186"/>
-      <c r="D94" s="187"/>
-      <c r="E94" s="187"/>
-      <c r="F94" s="187"/>
-      <c r="G94" s="187"/>
-      <c r="H94" s="187"/>
-      <c r="I94" s="187"/>
-      <c r="J94" s="187"/>
-      <c r="K94" s="187"/>
-      <c r="L94" s="188"/>
-    </row>
-    <row r="95" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="234"/>
-      <c r="B95" s="236"/>
-      <c r="C95" s="186"/>
-      <c r="D95" s="187"/>
-      <c r="E95" s="187"/>
-      <c r="F95" s="187"/>
-      <c r="G95" s="187"/>
-      <c r="H95" s="187"/>
-      <c r="I95" s="187"/>
-      <c r="J95" s="187"/>
-      <c r="K95" s="187"/>
-      <c r="L95" s="188"/>
-    </row>
-    <row r="96" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="234"/>
-      <c r="B96" s="236"/>
-      <c r="C96" s="186"/>
-      <c r="D96" s="187"/>
-      <c r="E96" s="187"/>
-      <c r="F96" s="187"/>
-      <c r="G96" s="187"/>
-      <c r="H96" s="187"/>
-      <c r="I96" s="187"/>
-      <c r="J96" s="187"/>
-      <c r="K96" s="187"/>
-      <c r="L96" s="188"/>
-    </row>
-    <row r="97" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="234"/>
-      <c r="B97" s="236"/>
-      <c r="C97" s="186"/>
-      <c r="D97" s="187"/>
-      <c r="E97" s="187"/>
-      <c r="F97" s="187"/>
-      <c r="G97" s="187"/>
-      <c r="H97" s="187"/>
-      <c r="I97" s="187"/>
-      <c r="J97" s="187"/>
-      <c r="K97" s="187"/>
-      <c r="L97" s="188"/>
-    </row>
-    <row r="98" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="235"/>
-      <c r="B98" s="237"/>
-      <c r="C98" s="189"/>
-      <c r="D98" s="190"/>
-      <c r="E98" s="190"/>
-      <c r="F98" s="190"/>
-      <c r="G98" s="190"/>
-      <c r="H98" s="190"/>
-      <c r="I98" s="190"/>
-      <c r="J98" s="190"/>
-      <c r="K98" s="190"/>
-      <c r="L98" s="191"/>
-    </row>
-    <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="227" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99" s="228"/>
-      <c r="C99" s="164" t="s">
-        <v>147</v>
-      </c>
-      <c r="D99" s="187"/>
-      <c r="E99" s="187"/>
-      <c r="F99" s="187"/>
-      <c r="G99" s="187"/>
-      <c r="H99" s="187"/>
-      <c r="I99" s="187"/>
-      <c r="J99" s="187"/>
-      <c r="K99" s="187"/>
-      <c r="L99" s="188"/>
-    </row>
-    <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="229"/>
-      <c r="B100" s="230"/>
-      <c r="C100" s="186"/>
-      <c r="D100" s="187"/>
-      <c r="E100" s="187"/>
-      <c r="F100" s="187"/>
-      <c r="G100" s="187"/>
-      <c r="H100" s="187"/>
-      <c r="I100" s="187"/>
-      <c r="J100" s="187"/>
-      <c r="K100" s="187"/>
-      <c r="L100" s="188"/>
-    </row>
-    <row r="101" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="229"/>
-      <c r="B101" s="230"/>
-      <c r="C101" s="186"/>
-      <c r="D101" s="187"/>
-      <c r="E101" s="187"/>
-      <c r="F101" s="187"/>
-      <c r="G101" s="187"/>
-      <c r="H101" s="187"/>
-      <c r="I101" s="187"/>
-      <c r="J101" s="187"/>
-      <c r="K101" s="187"/>
-      <c r="L101" s="188"/>
-    </row>
-    <row r="102" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="231"/>
-      <c r="B102" s="232"/>
-      <c r="C102" s="189"/>
-      <c r="D102" s="190"/>
-      <c r="E102" s="190"/>
-      <c r="F102" s="190"/>
-      <c r="G102" s="190"/>
-      <c r="H102" s="190"/>
-      <c r="I102" s="190"/>
-      <c r="J102" s="190"/>
-      <c r="K102" s="190"/>
-      <c r="L102" s="191"/>
-    </row>
-    <row r="103" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="220" t="s">
+      <c r="D77" s="187"/>
+      <c r="E77" s="187"/>
+      <c r="F77" s="187"/>
+      <c r="G77" s="187"/>
+      <c r="H77" s="187"/>
+      <c r="I77" s="187"/>
+      <c r="J77" s="187"/>
+      <c r="K77" s="187"/>
+      <c r="L77" s="188"/>
+    </row>
+    <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="229"/>
+      <c r="B78" s="230"/>
+      <c r="C78" s="186"/>
+      <c r="D78" s="187"/>
+      <c r="E78" s="187"/>
+      <c r="F78" s="187"/>
+      <c r="G78" s="187"/>
+      <c r="H78" s="187"/>
+      <c r="I78" s="187"/>
+      <c r="J78" s="187"/>
+      <c r="K78" s="187"/>
+      <c r="L78" s="188"/>
+    </row>
+    <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="229"/>
+      <c r="B79" s="230"/>
+      <c r="C79" s="186"/>
+      <c r="D79" s="187"/>
+      <c r="E79" s="187"/>
+      <c r="F79" s="187"/>
+      <c r="G79" s="187"/>
+      <c r="H79" s="187"/>
+      <c r="I79" s="187"/>
+      <c r="J79" s="187"/>
+      <c r="K79" s="187"/>
+      <c r="L79" s="188"/>
+    </row>
+    <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="231"/>
+      <c r="B80" s="232"/>
+      <c r="C80" s="189"/>
+      <c r="D80" s="190"/>
+      <c r="E80" s="190"/>
+      <c r="F80" s="190"/>
+      <c r="G80" s="190"/>
+      <c r="H80" s="190"/>
+      <c r="I80" s="190"/>
+      <c r="J80" s="190"/>
+      <c r="K80" s="190"/>
+      <c r="L80" s="191"/>
+    </row>
+    <row r="81" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A81" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="B103" s="221"/>
-      <c r="C103" s="221"/>
-      <c r="D103" s="221"/>
-      <c r="E103" s="221"/>
-      <c r="F103" s="221"/>
-      <c r="G103" s="221"/>
-      <c r="H103" s="221"/>
-      <c r="I103" s="221"/>
-      <c r="J103" s="221"/>
-      <c r="K103" s="221"/>
-      <c r="L103" s="222"/>
-    </row>
-    <row r="104" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="223" t="s">
+      <c r="B81" s="221"/>
+      <c r="C81" s="221"/>
+      <c r="D81" s="221"/>
+      <c r="E81" s="221"/>
+      <c r="F81" s="221"/>
+      <c r="G81" s="221"/>
+      <c r="H81" s="221"/>
+      <c r="I81" s="221"/>
+      <c r="J81" s="221"/>
+      <c r="K81" s="221"/>
+      <c r="L81" s="222"/>
+    </row>
+    <row r="82" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="B104" s="224"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="67"/>
-      <c r="J104" s="67"/>
-      <c r="K104" s="67"/>
-      <c r="L104" s="68"/>
-    </row>
-    <row r="105" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="223" t="s">
+      <c r="B82" s="224"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="67"/>
+      <c r="J82" s="67"/>
+      <c r="K82" s="67"/>
+      <c r="L82" s="68"/>
+    </row>
+    <row r="83" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="223" t="s">
         <v>23</v>
       </c>
-      <c r="B105" s="224"/>
-      <c r="C105" s="11">
+      <c r="B83" s="224"/>
+      <c r="C83" s="11">
         <v>1</v>
       </c>
-      <c r="D105" s="69"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="11">
+      <c r="D83" s="69"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="11">
         <v>2</v>
       </c>
-      <c r="G105" s="7"/>
-      <c r="H105" s="11">
+      <c r="G83" s="7"/>
+      <c r="H83" s="11">
         <v>3</v>
       </c>
-      <c r="I105" s="69"/>
-      <c r="J105" s="70"/>
-      <c r="K105" s="70"/>
-      <c r="L105" s="3"/>
-    </row>
-    <row r="106" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="223" t="s">
+      <c r="I83" s="69"/>
+      <c r="J83" s="70"/>
+      <c r="K83" s="70"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="B106" s="224"/>
-      <c r="C106" s="58" t="s">
+      <c r="B84" s="224"/>
+      <c r="C84" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D106" s="59"/>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
-      <c r="G106" s="59"/>
-      <c r="H106" s="59"/>
-      <c r="I106" s="59"/>
-      <c r="J106" s="59"/>
-      <c r="K106" s="59"/>
-      <c r="L106" s="60"/>
-    </row>
-    <row r="107" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="225" t="s">
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="60"/>
+    </row>
+    <row r="85" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="B107" s="225"/>
-      <c r="C107" s="58" t="s">
+      <c r="B85" s="225"/>
+      <c r="C85" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D107" s="59"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59"/>
-      <c r="I107" s="59"/>
-      <c r="J107" s="59"/>
-      <c r="K107" s="59"/>
-      <c r="L107" s="60"/>
-    </row>
-    <row r="108" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J109" s="62" t="s">
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="60"/>
+    </row>
+    <row r="86" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J87" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="K109" s="62"/>
-      <c r="L109" s="62"/>
-    </row>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="62"/>
+    </row>
+    <row r="91" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="57">
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A99:B102"/>
-    <mergeCell ref="A81:A92"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="C93:L98"/>
-    <mergeCell ref="C99:L102"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="A77:B80"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C71:L76"/>
+    <mergeCell ref="C77:L80"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A7:A79"/>
-    <mergeCell ref="B8:B38"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="A103:L103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:L104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="I105:K105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:L106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:L107"/>
+    <mergeCell ref="A7:A57"/>
+    <mergeCell ref="B8:B22"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="A81:L81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:L82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:L84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:L85"/>
     <mergeCell ref="C7:L7"/>
-    <mergeCell ref="C8:L38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="C62:L69"/>
-    <mergeCell ref="C70:L79"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="B41:B61"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="B70:B79"/>
-    <mergeCell ref="C41:L61"/>
+    <mergeCell ref="C8:L22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="C40:L47"/>
+    <mergeCell ref="C48:L57"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:B39"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="C25:L39"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="H4:H5"/>
@@ -7895,12 +7587,12 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C4:E5"/>
-    <mergeCell ref="D81:L83"/>
-    <mergeCell ref="D84:L86"/>
-    <mergeCell ref="D87:L89"/>
-    <mergeCell ref="D90:L92"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D59:L61"/>
+    <mergeCell ref="D62:L64"/>
+    <mergeCell ref="D65:L67"/>
+    <mergeCell ref="D68:L70"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/template_report.xlsx
+++ b/src/main/resources/template_report.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{0F91B5BC-9396-42BD-B895-C661402C7165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0689A62-EA4F-46E0-B8C2-E9EA3DCFA7D0}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{0F91B5BC-9396-42BD-B895-C661402C7165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51455FCE-0EC1-4A50-8CB1-8A1E8CD6AB26}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="623" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="623" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="80" r:id="rId1"/>
     <sheet name="説明" sheetId="81" r:id="rId2"/>
     <sheet name="業務報告（共通) サンプル" sheetId="82" r:id="rId3"/>
-    <sheet name="業務報告" sheetId="79" r:id="rId4"/>
+    <sheet name="業務報告(大)" sheetId="79" r:id="rId4"/>
+    <sheet name="業務報告 (小)" sheetId="83" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -366,8 +367,212 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{2D15E229-9FC1-45CF-8842-9EAE7FDA6E95}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">勤怠表の実稼働時間
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>(休憩時間を除く)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{031623BE-6670-4F42-A40F-8E49F7D086C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>勤怠表の残業時間</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{A2CC06BC-8AAC-46CB-B548-C9CB35E12392}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">【運用】
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">業務目標/学習目標の達成率を大体で記入。
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">【開発】
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>前月の目標に対する達成率（主観）。業務に対しては通常通りの作業ができれば７０％になる程度のパーセンテージとする。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{C3735DFB-4D11-46BA-90BE-BCF1EC638E08}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">【運用】
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">オペレータ等で変動により、分からない場合は、“-”でよい。
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">【開発】
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>主観による業務量の前月比（業務時間の前月比からの判断でも構わない）。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A83" authorId="0" shapeId="0" xr:uid="{8C688FFD-47B4-4F43-815E-381EF734B103}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>急な調整は難しいので基本的に翌月を指定する事</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A84" authorId="0" shapeId="0" xr:uid="{40A938A5-C5BE-4CCE-AF8F-153432727B6F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">基本的に事務所でお願いします
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="149">
   <si>
     <t>勤務時間</t>
     <phoneticPr fontId="1"/>
@@ -6251,7 +6456,7 @@
   </sheetPr>
   <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7603,6 +7808,1365 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16177D18-F2BF-4DB0-957C-735128DB5CF3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="11.125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C1" s="154" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="181"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="K2" s="226" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="226"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="179" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="181"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="180"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="163"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="13"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="238" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="181"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="216"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="238"/>
+      <c r="B8" s="239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="207" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="209"/>
+    </row>
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="238"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="210"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="238"/>
+      <c r="B10" s="240"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="210"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="238"/>
+      <c r="B11" s="240"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="210"/>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="238"/>
+      <c r="B12" s="240"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="210"/>
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="238"/>
+      <c r="B13" s="240"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="210"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="238"/>
+      <c r="B14" s="240"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="210"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="238"/>
+      <c r="B15" s="240"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="210"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="238"/>
+      <c r="B16" s="240"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="210"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="238"/>
+      <c r="B17" s="240"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="210"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="238"/>
+      <c r="B18" s="240"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="210"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="238"/>
+      <c r="B19" s="240"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="210"/>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="238"/>
+      <c r="B20" s="240"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="210"/>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="238"/>
+      <c r="B21" s="240"/>
+      <c r="C21" s="211"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="210"/>
+    </row>
+    <row r="22" spans="1:12" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="238"/>
+      <c r="B22" s="240"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="210"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="238"/>
+      <c r="B23" s="192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="194" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="195"/>
+      <c r="E23" s="194" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="195"/>
+      <c r="G23" s="194" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="196"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="194" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="196"/>
+      <c r="L23" s="195"/>
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="238"/>
+      <c r="B24" s="193"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="218"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="219"/>
+      <c r="L24" s="218"/>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="238"/>
+      <c r="B25" s="197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="207" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="208"/>
+      <c r="E25" s="208"/>
+      <c r="F25" s="208"/>
+      <c r="G25" s="208"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="208"/>
+      <c r="K25" s="208"/>
+      <c r="L25" s="209"/>
+    </row>
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="238"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="210"/>
+    </row>
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="238"/>
+      <c r="B27" s="198"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="164"/>
+      <c r="L27" s="210"/>
+    </row>
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="238"/>
+      <c r="B28" s="198"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="210"/>
+    </row>
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="238"/>
+      <c r="B29" s="198"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="210"/>
+    </row>
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="238"/>
+      <c r="B30" s="198"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="210"/>
+    </row>
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="238"/>
+      <c r="B31" s="198"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="210"/>
+    </row>
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="238"/>
+      <c r="B32" s="198"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="210"/>
+    </row>
+    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="238"/>
+      <c r="B33" s="198"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="210"/>
+    </row>
+    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="238"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="164"/>
+      <c r="L34" s="210"/>
+    </row>
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="238"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="210"/>
+    </row>
+    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="238"/>
+      <c r="B36" s="199"/>
+      <c r="C36" s="211"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="210"/>
+    </row>
+    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="238"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="211"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="164"/>
+      <c r="K37" s="164"/>
+      <c r="L37" s="210"/>
+    </row>
+    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="238"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="211"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="164"/>
+      <c r="K38" s="164"/>
+      <c r="L38" s="210"/>
+    </row>
+    <row r="39" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="238"/>
+      <c r="B39" s="200"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="213"/>
+      <c r="E39" s="213"/>
+      <c r="F39" s="213"/>
+      <c r="G39" s="213"/>
+      <c r="H39" s="213"/>
+      <c r="I39" s="213"/>
+      <c r="J39" s="213"/>
+      <c r="K39" s="213"/>
+      <c r="L39" s="214"/>
+    </row>
+    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="238"/>
+      <c r="B40" s="201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="184"/>
+      <c r="E40" s="184"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="184"/>
+      <c r="H40" s="184"/>
+      <c r="I40" s="184"/>
+      <c r="J40" s="184"/>
+      <c r="K40" s="184"/>
+      <c r="L40" s="185"/>
+    </row>
+    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="238"/>
+      <c r="B41" s="202"/>
+      <c r="C41" s="186"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="187"/>
+      <c r="K41" s="187"/>
+      <c r="L41" s="188"/>
+    </row>
+    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="238"/>
+      <c r="B42" s="202"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="187"/>
+      <c r="I42" s="187"/>
+      <c r="J42" s="187"/>
+      <c r="K42" s="187"/>
+      <c r="L42" s="188"/>
+    </row>
+    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="238"/>
+      <c r="B43" s="202"/>
+      <c r="C43" s="186"/>
+      <c r="D43" s="187"/>
+      <c r="E43" s="187"/>
+      <c r="F43" s="187"/>
+      <c r="G43" s="187"/>
+      <c r="H43" s="187"/>
+      <c r="I43" s="187"/>
+      <c r="J43" s="187"/>
+      <c r="K43" s="187"/>
+      <c r="L43" s="188"/>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="238"/>
+      <c r="B44" s="202"/>
+      <c r="C44" s="186"/>
+      <c r="D44" s="187"/>
+      <c r="E44" s="187"/>
+      <c r="F44" s="187"/>
+      <c r="G44" s="187"/>
+      <c r="H44" s="187"/>
+      <c r="I44" s="187"/>
+      <c r="J44" s="187"/>
+      <c r="K44" s="187"/>
+      <c r="L44" s="188"/>
+    </row>
+    <row r="45" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="238"/>
+      <c r="B45" s="202"/>
+      <c r="C45" s="186"/>
+      <c r="D45" s="187"/>
+      <c r="E45" s="187"/>
+      <c r="F45" s="187"/>
+      <c r="G45" s="187"/>
+      <c r="H45" s="187"/>
+      <c r="I45" s="187"/>
+      <c r="J45" s="187"/>
+      <c r="K45" s="187"/>
+      <c r="L45" s="188"/>
+    </row>
+    <row r="46" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="238"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="186"/>
+      <c r="D46" s="187"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="187"/>
+      <c r="G46" s="187"/>
+      <c r="H46" s="187"/>
+      <c r="I46" s="187"/>
+      <c r="J46" s="187"/>
+      <c r="K46" s="187"/>
+      <c r="L46" s="188"/>
+    </row>
+    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="238"/>
+      <c r="B47" s="203"/>
+      <c r="C47" s="189"/>
+      <c r="D47" s="190"/>
+      <c r="E47" s="190"/>
+      <c r="F47" s="190"/>
+      <c r="G47" s="190"/>
+      <c r="H47" s="190"/>
+      <c r="I47" s="190"/>
+      <c r="J47" s="190"/>
+      <c r="K47" s="190"/>
+      <c r="L47" s="191"/>
+    </row>
+    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="238"/>
+      <c r="B48" s="204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="164" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="121"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="122"/>
+    </row>
+    <row r="49" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="238"/>
+      <c r="B49" s="205"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="125"/>
+    </row>
+    <row r="50" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="238"/>
+      <c r="B50" s="205"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="124"/>
+      <c r="L50" s="125"/>
+    </row>
+    <row r="51" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="238"/>
+      <c r="B51" s="205"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="124"/>
+      <c r="L51" s="125"/>
+    </row>
+    <row r="52" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="238"/>
+      <c r="B52" s="205"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="124"/>
+      <c r="L52" s="125"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="238"/>
+      <c r="B53" s="205"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="124"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="124"/>
+      <c r="K53" s="124"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="238"/>
+      <c r="B54" s="205"/>
+      <c r="C54" s="123"/>
+      <c r="D54" s="124"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="124"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="124"/>
+      <c r="J54" s="124"/>
+      <c r="K54" s="124"/>
+      <c r="L54" s="125"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="238"/>
+      <c r="B55" s="205"/>
+      <c r="C55" s="123"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="124"/>
+      <c r="J55" s="124"/>
+      <c r="K55" s="124"/>
+      <c r="L55" s="125"/>
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="238"/>
+      <c r="B56" s="205"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="125"/>
+      <c r="M56" s="9"/>
+    </row>
+    <row r="57" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="238"/>
+      <c r="B57" s="206"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="127"/>
+      <c r="L57" s="128"/>
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="233" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="228" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" s="165"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="165"/>
+      <c r="H59" s="165"/>
+      <c r="I59" s="165"/>
+      <c r="J59" s="165"/>
+      <c r="K59" s="165"/>
+      <c r="L59" s="166"/>
+    </row>
+    <row r="60" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="234"/>
+      <c r="B60" s="230"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="167"/>
+      <c r="E60" s="168"/>
+      <c r="F60" s="168"/>
+      <c r="G60" s="168"/>
+      <c r="H60" s="168"/>
+      <c r="I60" s="168"/>
+      <c r="J60" s="168"/>
+      <c r="K60" s="168"/>
+      <c r="L60" s="169"/>
+    </row>
+    <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="234"/>
+      <c r="B61" s="230"/>
+      <c r="C61" s="175"/>
+      <c r="D61" s="170"/>
+      <c r="E61" s="171"/>
+      <c r="F61" s="171"/>
+      <c r="G61" s="171"/>
+      <c r="H61" s="171"/>
+      <c r="I61" s="171"/>
+      <c r="J61" s="171"/>
+      <c r="K61" s="171"/>
+      <c r="L61" s="172"/>
+    </row>
+    <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="234"/>
+      <c r="B62" s="230"/>
+      <c r="C62" s="176" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" s="165"/>
+      <c r="F62" s="165"/>
+      <c r="G62" s="165"/>
+      <c r="H62" s="165"/>
+      <c r="I62" s="165"/>
+      <c r="J62" s="165"/>
+      <c r="K62" s="165"/>
+      <c r="L62" s="166"/>
+    </row>
+    <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="234"/>
+      <c r="B63" s="230"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="168"/>
+      <c r="F63" s="168"/>
+      <c r="G63" s="168"/>
+      <c r="H63" s="168"/>
+      <c r="I63" s="168"/>
+      <c r="J63" s="168"/>
+      <c r="K63" s="168"/>
+      <c r="L63" s="169"/>
+    </row>
+    <row r="64" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="234"/>
+      <c r="B64" s="232"/>
+      <c r="C64" s="178"/>
+      <c r="D64" s="171"/>
+      <c r="E64" s="171"/>
+      <c r="F64" s="171"/>
+      <c r="G64" s="171"/>
+      <c r="H64" s="171"/>
+      <c r="I64" s="171"/>
+      <c r="J64" s="171"/>
+      <c r="K64" s="171"/>
+      <c r="L64" s="172"/>
+    </row>
+    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="234"/>
+      <c r="B65" s="204" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" s="165"/>
+      <c r="F65" s="165"/>
+      <c r="G65" s="165"/>
+      <c r="H65" s="165"/>
+      <c r="I65" s="165"/>
+      <c r="J65" s="165"/>
+      <c r="K65" s="165"/>
+      <c r="L65" s="166"/>
+    </row>
+    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="234"/>
+      <c r="B66" s="236"/>
+      <c r="C66" s="174"/>
+      <c r="D66" s="168"/>
+      <c r="E66" s="168"/>
+      <c r="F66" s="168"/>
+      <c r="G66" s="168"/>
+      <c r="H66" s="168"/>
+      <c r="I66" s="168"/>
+      <c r="J66" s="168"/>
+      <c r="K66" s="168"/>
+      <c r="L66" s="169"/>
+    </row>
+    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="234"/>
+      <c r="B67" s="236"/>
+      <c r="C67" s="175"/>
+      <c r="D67" s="171"/>
+      <c r="E67" s="171"/>
+      <c r="F67" s="171"/>
+      <c r="G67" s="171"/>
+      <c r="H67" s="171"/>
+      <c r="I67" s="171"/>
+      <c r="J67" s="171"/>
+      <c r="K67" s="171"/>
+      <c r="L67" s="172"/>
+    </row>
+    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="234"/>
+      <c r="B68" s="236"/>
+      <c r="C68" s="176" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="165"/>
+      <c r="F68" s="165"/>
+      <c r="G68" s="165"/>
+      <c r="H68" s="165"/>
+      <c r="I68" s="165"/>
+      <c r="J68" s="165"/>
+      <c r="K68" s="165"/>
+      <c r="L68" s="166"/>
+    </row>
+    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="234"/>
+      <c r="B69" s="236"/>
+      <c r="C69" s="177"/>
+      <c r="D69" s="168"/>
+      <c r="E69" s="168"/>
+      <c r="F69" s="168"/>
+      <c r="G69" s="168"/>
+      <c r="H69" s="168"/>
+      <c r="I69" s="168"/>
+      <c r="J69" s="168"/>
+      <c r="K69" s="168"/>
+      <c r="L69" s="169"/>
+    </row>
+    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="235"/>
+      <c r="B70" s="237"/>
+      <c r="C70" s="178"/>
+      <c r="D70" s="171"/>
+      <c r="E70" s="171"/>
+      <c r="F70" s="171"/>
+      <c r="G70" s="171"/>
+      <c r="H70" s="171"/>
+      <c r="I70" s="171"/>
+      <c r="J70" s="171"/>
+      <c r="K70" s="171"/>
+      <c r="L70" s="172"/>
+    </row>
+    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="233" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="204" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="184"/>
+      <c r="E71" s="184"/>
+      <c r="F71" s="184"/>
+      <c r="G71" s="184"/>
+      <c r="H71" s="184"/>
+      <c r="I71" s="184"/>
+      <c r="J71" s="184"/>
+      <c r="K71" s="184"/>
+      <c r="L71" s="185"/>
+    </row>
+    <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="234"/>
+      <c r="B72" s="236"/>
+      <c r="C72" s="186"/>
+      <c r="D72" s="187"/>
+      <c r="E72" s="187"/>
+      <c r="F72" s="187"/>
+      <c r="G72" s="187"/>
+      <c r="H72" s="187"/>
+      <c r="I72" s="187"/>
+      <c r="J72" s="187"/>
+      <c r="K72" s="187"/>
+      <c r="L72" s="188"/>
+    </row>
+    <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="234"/>
+      <c r="B73" s="236"/>
+      <c r="C73" s="186"/>
+      <c r="D73" s="187"/>
+      <c r="E73" s="187"/>
+      <c r="F73" s="187"/>
+      <c r="G73" s="187"/>
+      <c r="H73" s="187"/>
+      <c r="I73" s="187"/>
+      <c r="J73" s="187"/>
+      <c r="K73" s="187"/>
+      <c r="L73" s="188"/>
+    </row>
+    <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="234"/>
+      <c r="B74" s="236"/>
+      <c r="C74" s="186"/>
+      <c r="D74" s="187"/>
+      <c r="E74" s="187"/>
+      <c r="F74" s="187"/>
+      <c r="G74" s="187"/>
+      <c r="H74" s="187"/>
+      <c r="I74" s="187"/>
+      <c r="J74" s="187"/>
+      <c r="K74" s="187"/>
+      <c r="L74" s="188"/>
+    </row>
+    <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="234"/>
+      <c r="B75" s="236"/>
+      <c r="C75" s="186"/>
+      <c r="D75" s="187"/>
+      <c r="E75" s="187"/>
+      <c r="F75" s="187"/>
+      <c r="G75" s="187"/>
+      <c r="H75" s="187"/>
+      <c r="I75" s="187"/>
+      <c r="J75" s="187"/>
+      <c r="K75" s="187"/>
+      <c r="L75" s="188"/>
+    </row>
+    <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="235"/>
+      <c r="B76" s="237"/>
+      <c r="C76" s="189"/>
+      <c r="D76" s="190"/>
+      <c r="E76" s="190"/>
+      <c r="F76" s="190"/>
+      <c r="G76" s="190"/>
+      <c r="H76" s="190"/>
+      <c r="I76" s="190"/>
+      <c r="J76" s="190"/>
+      <c r="K76" s="190"/>
+      <c r="L76" s="191"/>
+    </row>
+    <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="227" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="228"/>
+      <c r="C77" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" s="187"/>
+      <c r="E77" s="187"/>
+      <c r="F77" s="187"/>
+      <c r="G77" s="187"/>
+      <c r="H77" s="187"/>
+      <c r="I77" s="187"/>
+      <c r="J77" s="187"/>
+      <c r="K77" s="187"/>
+      <c r="L77" s="188"/>
+    </row>
+    <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="229"/>
+      <c r="B78" s="230"/>
+      <c r="C78" s="186"/>
+      <c r="D78" s="187"/>
+      <c r="E78" s="187"/>
+      <c r="F78" s="187"/>
+      <c r="G78" s="187"/>
+      <c r="H78" s="187"/>
+      <c r="I78" s="187"/>
+      <c r="J78" s="187"/>
+      <c r="K78" s="187"/>
+      <c r="L78" s="188"/>
+    </row>
+    <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="229"/>
+      <c r="B79" s="230"/>
+      <c r="C79" s="186"/>
+      <c r="D79" s="187"/>
+      <c r="E79" s="187"/>
+      <c r="F79" s="187"/>
+      <c r="G79" s="187"/>
+      <c r="H79" s="187"/>
+      <c r="I79" s="187"/>
+      <c r="J79" s="187"/>
+      <c r="K79" s="187"/>
+      <c r="L79" s="188"/>
+    </row>
+    <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="231"/>
+      <c r="B80" s="232"/>
+      <c r="C80" s="189"/>
+      <c r="D80" s="190"/>
+      <c r="E80" s="190"/>
+      <c r="F80" s="190"/>
+      <c r="G80" s="190"/>
+      <c r="H80" s="190"/>
+      <c r="I80" s="190"/>
+      <c r="J80" s="190"/>
+      <c r="K80" s="190"/>
+      <c r="L80" s="191"/>
+    </row>
+    <row r="81" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A81" s="220" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="221"/>
+      <c r="C81" s="221"/>
+      <c r="D81" s="221"/>
+      <c r="E81" s="221"/>
+      <c r="F81" s="221"/>
+      <c r="G81" s="221"/>
+      <c r="H81" s="221"/>
+      <c r="I81" s="221"/>
+      <c r="J81" s="221"/>
+      <c r="K81" s="221"/>
+      <c r="L81" s="222"/>
+    </row>
+    <row r="82" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="223" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="224"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="67"/>
+      <c r="J82" s="67"/>
+      <c r="K82" s="67"/>
+      <c r="L82" s="68"/>
+    </row>
+    <row r="83" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="223" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="224"/>
+      <c r="C83" s="11">
+        <v>1</v>
+      </c>
+      <c r="D83" s="69"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="11">
+        <v>2</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="11">
+        <v>3</v>
+      </c>
+      <c r="I83" s="69"/>
+      <c r="J83" s="70"/>
+      <c r="K83" s="70"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="223" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="224"/>
+      <c r="C84" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="60"/>
+    </row>
+    <row r="85" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="225" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="225"/>
+      <c r="C85" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="60"/>
+    </row>
+    <row r="86" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J87" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="K87" s="62"/>
+      <c r="L87" s="62"/>
+    </row>
+    <row r="91" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A7:A57"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="B8:B22"/>
+    <mergeCell ref="C8:L22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="B25:B39"/>
+    <mergeCell ref="C25:L39"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="C40:L47"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="C48:L57"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:L61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:L64"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:L67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:L70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C71:L76"/>
+    <mergeCell ref="A77:B80"/>
+    <mergeCell ref="C77:L80"/>
+    <mergeCell ref="A81:L81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:L82"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:L84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:L85"/>
+    <mergeCell ref="J87:L87"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.20902777777777801" right="0.196527777777778" top="0.39305555555555599" bottom="0.23888888888888901" header="0.27500000000000002" footer="0.196527777777778"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{70b52105-1af2-486b-88e7-e8a14488c517}" enabled="1" method="Privileged" siteId="{a54b00a2-87e8-4e92-a76d-de53269b7ddd}" contentBits="0" removed="0"/>

--- a/src/main/resources/template_report.xlsx
+++ b/src/main/resources/template_report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{0F91B5BC-9396-42BD-B895-C661402C7165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51455FCE-0EC1-4A50-8CB1-8A1E8CD6AB26}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{0F91B5BC-9396-42BD-B895-C661402C7165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FA46021-41C3-4D05-961D-77E4009FDFE4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="623" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2898,6 +2898,294 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2905,6 +3193,21 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2919,312 +3222,213 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3248,210 +3452,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5345,23 +5345,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="155">
+      <c r="B2" s="57">
         <v>42547</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -5374,551 +5374,551 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:16" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="160"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="157"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="163"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
     </row>
     <row r="6" spans="1:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="68" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="134"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="71"/>
       <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="131"/>
-      <c r="B8" s="135" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="77"/>
       <c r="O8" s="45"/>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="131"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="142"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="80"/>
       <c r="O9" s="45"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="131"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="142"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="80"/>
       <c r="O10" s="45"/>
       <c r="P10" s="47"/>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="131"/>
-      <c r="B11" s="136"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="142"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="80"/>
       <c r="O11" s="45"/>
     </row>
     <row r="12" spans="1:16" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="131"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="145"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
       <c r="O12" s="47"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="131"/>
-      <c r="B13" s="146" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="147" t="s">
+      <c r="C13" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="148"/>
-      <c r="E13" s="147" t="s">
+      <c r="D13" s="86"/>
+      <c r="E13" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="148"/>
-      <c r="G13" s="147" t="s">
+      <c r="F13" s="86"/>
+      <c r="G13" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="149"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="147" t="s">
+      <c r="H13" s="87"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="149"/>
-      <c r="L13" s="148"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="131"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="150" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="153"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="151"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="89"/>
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="131"/>
-      <c r="B15" s="104" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="108"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="131"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="111"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="99"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="131"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="111"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="99"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="131"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="111"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="99"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="131"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="111"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="131"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="111"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="99"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="131"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="114"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="102"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="131"/>
-      <c r="B22" s="115" t="s">
+      <c r="A22" s="68"/>
+      <c r="B22" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="108"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="96"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="131"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="111"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="99"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="131"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="111"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="99"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="131"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="111"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="99"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="131"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="111"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="99"/>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="131"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="111"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="99"/>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="131"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="111"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="99"/>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="131"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="114"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="102"/>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="131"/>
-      <c r="B30" s="80" t="s">
+      <c r="A30" s="68"/>
+      <c r="B30" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="122"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="111"/>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="131"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="125"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="114"/>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="131"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="125"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="114"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="131"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="124"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="125"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="114"/>
       <c r="O33" s="47"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="131"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="124"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="125"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="114"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="131"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="125"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="114"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="131"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="125"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="114"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="131"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="125"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="114"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="45"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="131"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="124"/>
-      <c r="L38" s="125"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="114"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="45"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="131"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="127"/>
-      <c r="L39" s="128"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="117"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="45"/>
@@ -5927,391 +5927,391 @@
       <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="98" t="s">
+      <c r="C41" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="72"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="118"/>
+      <c r="L41" s="119"/>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="78"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="74"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="121"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="78"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="76"/>
+      <c r="A43" s="125"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="123"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="78"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="101" t="s">
+      <c r="A44" s="125"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="146" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="71" t="s">
+      <c r="D44" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="72"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
+      <c r="K44" s="118"/>
+      <c r="L44" s="119"/>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="78"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="74"/>
+      <c r="A45" s="125"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="120"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="121"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="78"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="76"/>
+      <c r="A46" s="125"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="148"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="123"/>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="78"/>
-      <c r="B47" s="80" t="s">
+      <c r="A47" s="125"/>
+      <c r="B47" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="98" t="s">
+      <c r="C47" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="71" t="s">
+      <c r="D47" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="72"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="119"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="78"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="74"/>
+      <c r="A48" s="125"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="121"/>
     </row>
     <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="78"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="76"/>
+      <c r="A49" s="125"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
+      <c r="J49" s="122"/>
+      <c r="K49" s="122"/>
+      <c r="L49" s="123"/>
     </row>
     <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="78"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="101" t="s">
+      <c r="A50" s="125"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="146" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="71" t="s">
+      <c r="D50" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="72"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="118"/>
+      <c r="K50" s="118"/>
+      <c r="L50" s="119"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="78"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="74"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
+      <c r="K51" s="120"/>
+      <c r="L51" s="121"/>
     </row>
     <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="79"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="76"/>
+      <c r="A52" s="126"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="148"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="123"/>
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="83" t="s">
+      <c r="C53" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="85"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="129"/>
+      <c r="L53" s="130"/>
     </row>
     <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="78"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="87"/>
-      <c r="L54" s="88"/>
+      <c r="A54" s="125"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="132"/>
+      <c r="J54" s="132"/>
+      <c r="K54" s="132"/>
+      <c r="L54" s="133"/>
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="78"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="88"/>
+      <c r="A55" s="125"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="132"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="132"/>
+      <c r="L55" s="133"/>
     </row>
     <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="78"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="88"/>
+      <c r="A56" s="125"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="132"/>
+      <c r="L56" s="133"/>
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="78"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="88"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="132"/>
+      <c r="L57" s="133"/>
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="79"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="88"/>
+      <c r="A58" s="126"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="132"/>
+      <c r="F58" s="132"/>
+      <c r="G58" s="132"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="132"/>
+      <c r="L58" s="133"/>
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="89" t="s">
+      <c r="A59" s="134" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="90"/>
-      <c r="C59" s="83" t="s">
+      <c r="B59" s="135"/>
+      <c r="C59" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="84"/>
-      <c r="L59" s="85"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="129"/>
+      <c r="F59" s="129"/>
+      <c r="G59" s="129"/>
+      <c r="H59" s="129"/>
+      <c r="I59" s="129"/>
+      <c r="J59" s="129"/>
+      <c r="K59" s="129"/>
+      <c r="L59" s="130"/>
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="91"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="87"/>
-      <c r="H60" s="87"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="88"/>
+      <c r="A60" s="136"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="132"/>
+      <c r="F60" s="132"/>
+      <c r="G60" s="132"/>
+      <c r="H60" s="132"/>
+      <c r="I60" s="132"/>
+      <c r="J60" s="132"/>
+      <c r="K60" s="132"/>
+      <c r="L60" s="133"/>
     </row>
     <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="91"/>
-      <c r="B61" s="92"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="87"/>
-      <c r="K61" s="87"/>
-      <c r="L61" s="88"/>
+      <c r="A61" s="136"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="132"/>
+      <c r="G61" s="132"/>
+      <c r="H61" s="132"/>
+      <c r="I61" s="132"/>
+      <c r="J61" s="132"/>
+      <c r="K61" s="132"/>
+      <c r="L61" s="133"/>
     </row>
     <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="93"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="96"/>
-      <c r="H62" s="96"/>
-      <c r="I62" s="96"/>
-      <c r="J62" s="96"/>
-      <c r="K62" s="96"/>
-      <c r="L62" s="97"/>
+      <c r="A62" s="138"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="141"/>
+      <c r="E62" s="141"/>
+      <c r="F62" s="141"/>
+      <c r="G62" s="141"/>
+      <c r="H62" s="141"/>
+      <c r="I62" s="141"/>
+      <c r="J62" s="141"/>
+      <c r="K62" s="141"/>
+      <c r="L62" s="142"/>
     </row>
     <row r="63" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="63" t="s">
+      <c r="A63" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="65"/>
+      <c r="B63" s="150"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="150"/>
+      <c r="F63" s="150"/>
+      <c r="G63" s="150"/>
+      <c r="H63" s="150"/>
+      <c r="I63" s="150"/>
+      <c r="J63" s="150"/>
+      <c r="K63" s="150"/>
+      <c r="L63" s="151"/>
     </row>
     <row r="64" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="152" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="66" t="s">
+      <c r="B64" s="153"/>
+      <c r="C64" s="154" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="68"/>
+      <c r="D64" s="155"/>
+      <c r="E64" s="155"/>
+      <c r="F64" s="155"/>
+      <c r="G64" s="155"/>
+      <c r="H64" s="155"/>
+      <c r="I64" s="155"/>
+      <c r="J64" s="155"/>
+      <c r="K64" s="155"/>
+      <c r="L64" s="156"/>
     </row>
     <row r="65" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="56" t="s">
+      <c r="A65" s="152" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="57"/>
+      <c r="B65" s="153"/>
       <c r="C65" s="48">
         <v>1</v>
       </c>
-      <c r="D65" s="69">
+      <c r="D65" s="157">
         <v>41411</v>
       </c>
-      <c r="E65" s="70"/>
+      <c r="E65" s="158"/>
       <c r="F65" s="48">
         <v>2</v>
       </c>
@@ -6321,48 +6321,48 @@
       <c r="H65" s="48">
         <v>3</v>
       </c>
-      <c r="I65" s="69">
+      <c r="I65" s="157">
         <v>41424</v>
       </c>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
+      <c r="J65" s="158"/>
+      <c r="K65" s="158"/>
       <c r="L65" s="3"/>
     </row>
     <row r="66" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="56" t="s">
+      <c r="A66" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="57"/>
-      <c r="C66" s="58" t="s">
+      <c r="B66" s="153"/>
+      <c r="C66" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="60"/>
+      <c r="D66" s="160"/>
+      <c r="E66" s="160"/>
+      <c r="F66" s="160"/>
+      <c r="G66" s="160"/>
+      <c r="H66" s="160"/>
+      <c r="I66" s="160"/>
+      <c r="J66" s="160"/>
+      <c r="K66" s="160"/>
+      <c r="L66" s="161"/>
     </row>
     <row r="67" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="162" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="61"/>
-      <c r="C67" s="58" t="s">
+      <c r="B67" s="162"/>
+      <c r="C67" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="60"/>
+      <c r="D67" s="160"/>
+      <c r="E67" s="160"/>
+      <c r="F67" s="160"/>
+      <c r="G67" s="160"/>
+      <c r="H67" s="160"/>
+      <c r="I67" s="160"/>
+      <c r="J67" s="160"/>
+      <c r="K67" s="160"/>
+      <c r="L67" s="161"/>
     </row>
     <row r="68" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
@@ -6372,23 +6372,49 @@
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J69" s="62" t="s">
+      <c r="J69" s="163" t="s">
         <v>145</v>
       </c>
-      <c r="K69" s="62"/>
-      <c r="L69" s="62"/>
+      <c r="K69" s="163"/>
+      <c r="L69" s="163"/>
     </row>
     <row r="73" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="74" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:L66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:L67"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:L64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="D50:L52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C53:L58"/>
+    <mergeCell ref="A59:B62"/>
+    <mergeCell ref="C59:L62"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:L43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:L46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:L49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:L21"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:L29"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="C30:L39"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="I6:L6"/>
@@ -6405,39 +6431,13 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:L21"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:L29"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="C30:L39"/>
-    <mergeCell ref="D50:L52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C53:L58"/>
-    <mergeCell ref="A59:B62"/>
-    <mergeCell ref="C59:L62"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:L43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:L46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:L49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="A63:L63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:L64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:L66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:L67"/>
-    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -6476,28 +6476,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="181"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="K2" s="226" t="s">
+      <c r="K2" s="164" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="226"/>
+      <c r="L2" s="164"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -6509,784 +6509,784 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="160"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="180"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="163"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C6" s="13"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
     </row>
     <row r="7" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="238" t="s">
+      <c r="A7" s="192" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="181"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="216"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="203"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="238"/>
-      <c r="B8" s="239" t="s">
+      <c r="A8" s="192"/>
+      <c r="B8" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="207" t="s">
+      <c r="C8" s="204" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="208"/>
-      <c r="K8" s="208"/>
-      <c r="L8" s="209"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="205"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="205"/>
+      <c r="K8" s="205"/>
+      <c r="L8" s="206"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="238"/>
-      <c r="B9" s="240"/>
-      <c r="C9" s="211"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="210"/>
+      <c r="A9" s="192"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="208"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="238"/>
-      <c r="B10" s="240"/>
-      <c r="C10" s="211"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="210"/>
+      <c r="A10" s="192"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="208"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="238"/>
-      <c r="B11" s="240"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="210"/>
+      <c r="A11" s="192"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="207"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="208"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="238"/>
-      <c r="B12" s="240"/>
-      <c r="C12" s="211"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="210"/>
+      <c r="A12" s="192"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="208"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="238"/>
-      <c r="B13" s="240"/>
-      <c r="C13" s="211"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
-      <c r="L13" s="210"/>
+      <c r="A13" s="192"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="208"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="238"/>
-      <c r="B14" s="240"/>
-      <c r="C14" s="211"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="210"/>
+      <c r="A14" s="192"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="208"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="238"/>
-      <c r="B15" s="240"/>
-      <c r="C15" s="211"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="210"/>
+      <c r="A15" s="192"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="208"/>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="238"/>
-      <c r="B16" s="240"/>
-      <c r="C16" s="211"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="210"/>
+      <c r="A16" s="192"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="207"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="208"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="238"/>
-      <c r="B17" s="240"/>
-      <c r="C17" s="211"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="210"/>
+      <c r="A17" s="192"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="208"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="238"/>
-      <c r="B18" s="240"/>
-      <c r="C18" s="211"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="210"/>
+      <c r="A18" s="192"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="207"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="208"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="238"/>
-      <c r="B19" s="240"/>
-      <c r="C19" s="211"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="164"/>
-      <c r="K19" s="164"/>
-      <c r="L19" s="210"/>
+      <c r="A19" s="192"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="208"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="238"/>
-      <c r="B20" s="240"/>
-      <c r="C20" s="211"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="210"/>
+      <c r="A20" s="192"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="174"/>
+      <c r="L20" s="208"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="238"/>
-      <c r="B21" s="240"/>
-      <c r="C21" s="211"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="210"/>
-    </row>
-    <row r="22" spans="1:12" ht="284.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="238"/>
-      <c r="B22" s="240"/>
-      <c r="C22" s="211"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="210"/>
+      <c r="A21" s="192"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="174"/>
+      <c r="K21" s="174"/>
+      <c r="L21" s="208"/>
+    </row>
+    <row r="22" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="192"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="174"/>
+      <c r="L22" s="208"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="238"/>
-      <c r="B23" s="192" t="s">
+      <c r="A23" s="192"/>
+      <c r="B23" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="194" t="s">
+      <c r="C23" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="195"/>
-      <c r="E23" s="194" t="s">
+      <c r="D23" s="214"/>
+      <c r="E23" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="195"/>
-      <c r="G23" s="194" t="s">
+      <c r="F23" s="214"/>
+      <c r="G23" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="196"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="194" t="s">
+      <c r="H23" s="213"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="196"/>
-      <c r="L23" s="195"/>
+      <c r="K23" s="213"/>
+      <c r="L23" s="214"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="238"/>
-      <c r="B24" s="193"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="217"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="218"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="218"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="219"/>
-      <c r="L24" s="218"/>
+      <c r="A24" s="192"/>
+      <c r="B24" s="216"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="209"/>
+      <c r="E24" s="201"/>
+      <c r="F24" s="210"/>
+      <c r="G24" s="201"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="210"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="211"/>
+      <c r="L24" s="210"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="238"/>
-      <c r="B25" s="197" t="s">
+      <c r="A25" s="192"/>
+      <c r="B25" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="207" t="s">
+      <c r="C25" s="204" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="208"/>
-      <c r="E25" s="208"/>
-      <c r="F25" s="208"/>
-      <c r="G25" s="208"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="208"/>
-      <c r="J25" s="208"/>
-      <c r="K25" s="208"/>
-      <c r="L25" s="209"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="205"/>
+      <c r="L25" s="206"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="238"/>
-      <c r="B26" s="198"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="210"/>
+      <c r="A26" s="192"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="208"/>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="238"/>
-      <c r="B27" s="198"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="164"/>
-      <c r="L27" s="210"/>
+      <c r="A27" s="192"/>
+      <c r="B27" s="218"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="174"/>
+      <c r="L27" s="208"/>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="238"/>
-      <c r="B28" s="198"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="164"/>
-      <c r="L28" s="210"/>
+      <c r="A28" s="192"/>
+      <c r="B28" s="218"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="174"/>
+      <c r="L28" s="208"/>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="238"/>
-      <c r="B29" s="198"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="164"/>
-      <c r="L29" s="210"/>
+      <c r="A29" s="192"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="174"/>
+      <c r="L29" s="208"/>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="238"/>
-      <c r="B30" s="198"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="164"/>
-      <c r="K30" s="164"/>
-      <c r="L30" s="210"/>
+      <c r="A30" s="192"/>
+      <c r="B30" s="218"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="174"/>
+      <c r="L30" s="208"/>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="238"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="164"/>
-      <c r="L31" s="210"/>
+      <c r="A31" s="192"/>
+      <c r="B31" s="218"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="174"/>
+      <c r="L31" s="208"/>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="238"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="164"/>
-      <c r="K32" s="164"/>
-      <c r="L32" s="210"/>
+      <c r="A32" s="192"/>
+      <c r="B32" s="218"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="208"/>
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="238"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="164"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="164"/>
-      <c r="L33" s="210"/>
+      <c r="A33" s="192"/>
+      <c r="B33" s="218"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="174"/>
+      <c r="L33" s="208"/>
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="238"/>
-      <c r="B34" s="198"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="164"/>
-      <c r="K34" s="164"/>
-      <c r="L34" s="210"/>
+      <c r="A34" s="192"/>
+      <c r="B34" s="218"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="174"/>
+      <c r="K34" s="174"/>
+      <c r="L34" s="208"/>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="238"/>
-      <c r="B35" s="198"/>
-      <c r="C35" s="164"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="164"/>
-      <c r="L35" s="210"/>
+      <c r="A35" s="192"/>
+      <c r="B35" s="218"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="174"/>
+      <c r="K35" s="174"/>
+      <c r="L35" s="208"/>
     </row>
     <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="238"/>
-      <c r="B36" s="199"/>
-      <c r="C36" s="211"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="164"/>
-      <c r="L36" s="210"/>
+      <c r="A36" s="192"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="174"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="174"/>
+      <c r="K36" s="174"/>
+      <c r="L36" s="208"/>
     </row>
     <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="238"/>
-      <c r="B37" s="199"/>
-      <c r="C37" s="211"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="164"/>
-      <c r="L37" s="210"/>
+      <c r="A37" s="192"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="174"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="174"/>
+      <c r="K37" s="174"/>
+      <c r="L37" s="208"/>
     </row>
     <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="238"/>
-      <c r="B38" s="199"/>
-      <c r="C38" s="211"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="210"/>
-    </row>
-    <row r="39" spans="1:12" ht="193.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="238"/>
-      <c r="B39" s="200"/>
-      <c r="C39" s="212"/>
-      <c r="D39" s="213"/>
-      <c r="E39" s="213"/>
-      <c r="F39" s="213"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="213"/>
-      <c r="I39" s="213"/>
-      <c r="J39" s="213"/>
-      <c r="K39" s="213"/>
-      <c r="L39" s="214"/>
+      <c r="A38" s="192"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="174"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="174"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="174"/>
+      <c r="K38" s="174"/>
+      <c r="L38" s="208"/>
+    </row>
+    <row r="39" spans="1:12" ht="256.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="192"/>
+      <c r="B39" s="220"/>
+      <c r="C39" s="226"/>
+      <c r="D39" s="227"/>
+      <c r="E39" s="227"/>
+      <c r="F39" s="227"/>
+      <c r="G39" s="227"/>
+      <c r="H39" s="227"/>
+      <c r="I39" s="227"/>
+      <c r="J39" s="227"/>
+      <c r="K39" s="227"/>
+      <c r="L39" s="228"/>
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="238"/>
-      <c r="B40" s="201" t="s">
+      <c r="A40" s="192"/>
+      <c r="B40" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="164" t="s">
+      <c r="C40" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="184"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="184"/>
-      <c r="H40" s="184"/>
-      <c r="I40" s="184"/>
-      <c r="J40" s="184"/>
-      <c r="K40" s="184"/>
-      <c r="L40" s="185"/>
+      <c r="D40" s="175"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="175"/>
+      <c r="K40" s="175"/>
+      <c r="L40" s="176"/>
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="238"/>
-      <c r="B41" s="202"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="187"/>
-      <c r="K41" s="187"/>
-      <c r="L41" s="188"/>
+      <c r="A41" s="192"/>
+      <c r="B41" s="222"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="178"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="178"/>
+      <c r="H41" s="178"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="178"/>
+      <c r="K41" s="178"/>
+      <c r="L41" s="179"/>
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="238"/>
-      <c r="B42" s="202"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
-      <c r="J42" s="187"/>
-      <c r="K42" s="187"/>
-      <c r="L42" s="188"/>
+      <c r="A42" s="192"/>
+      <c r="B42" s="222"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="178"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="178"/>
+      <c r="K42" s="178"/>
+      <c r="L42" s="179"/>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="238"/>
-      <c r="B43" s="202"/>
-      <c r="C43" s="186"/>
-      <c r="D43" s="187"/>
-      <c r="E43" s="187"/>
-      <c r="F43" s="187"/>
-      <c r="G43" s="187"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
-      <c r="J43" s="187"/>
-      <c r="K43" s="187"/>
-      <c r="L43" s="188"/>
+      <c r="A43" s="192"/>
+      <c r="B43" s="222"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="178"/>
+      <c r="K43" s="178"/>
+      <c r="L43" s="179"/>
     </row>
     <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="238"/>
-      <c r="B44" s="202"/>
-      <c r="C44" s="186"/>
-      <c r="D44" s="187"/>
-      <c r="E44" s="187"/>
-      <c r="F44" s="187"/>
-      <c r="G44" s="187"/>
-      <c r="H44" s="187"/>
-      <c r="I44" s="187"/>
-      <c r="J44" s="187"/>
-      <c r="K44" s="187"/>
-      <c r="L44" s="188"/>
+      <c r="A44" s="192"/>
+      <c r="B44" s="222"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="178"/>
+      <c r="K44" s="178"/>
+      <c r="L44" s="179"/>
     </row>
     <row r="45" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="238"/>
-      <c r="B45" s="202"/>
-      <c r="C45" s="186"/>
-      <c r="D45" s="187"/>
-      <c r="E45" s="187"/>
-      <c r="F45" s="187"/>
-      <c r="G45" s="187"/>
-      <c r="H45" s="187"/>
-      <c r="I45" s="187"/>
-      <c r="J45" s="187"/>
-      <c r="K45" s="187"/>
-      <c r="L45" s="188"/>
+      <c r="A45" s="192"/>
+      <c r="B45" s="222"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="178"/>
+      <c r="K45" s="178"/>
+      <c r="L45" s="179"/>
     </row>
     <row r="46" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="238"/>
-      <c r="B46" s="202"/>
-      <c r="C46" s="186"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="187"/>
-      <c r="F46" s="187"/>
-      <c r="G46" s="187"/>
-      <c r="H46" s="187"/>
-      <c r="I46" s="187"/>
-      <c r="J46" s="187"/>
-      <c r="K46" s="187"/>
-      <c r="L46" s="188"/>
+      <c r="A46" s="192"/>
+      <c r="B46" s="222"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="178"/>
+      <c r="E46" s="178"/>
+      <c r="F46" s="178"/>
+      <c r="G46" s="178"/>
+      <c r="H46" s="178"/>
+      <c r="I46" s="178"/>
+      <c r="J46" s="178"/>
+      <c r="K46" s="178"/>
+      <c r="L46" s="179"/>
     </row>
     <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="238"/>
-      <c r="B47" s="203"/>
-      <c r="C47" s="189"/>
-      <c r="D47" s="190"/>
-      <c r="E47" s="190"/>
-      <c r="F47" s="190"/>
-      <c r="G47" s="190"/>
-      <c r="H47" s="190"/>
-      <c r="I47" s="190"/>
-      <c r="J47" s="190"/>
-      <c r="K47" s="190"/>
-      <c r="L47" s="191"/>
+      <c r="A47" s="192"/>
+      <c r="B47" s="223"/>
+      <c r="C47" s="180"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="181"/>
+      <c r="G47" s="181"/>
+      <c r="H47" s="181"/>
+      <c r="I47" s="181"/>
+      <c r="J47" s="181"/>
+      <c r="K47" s="181"/>
+      <c r="L47" s="182"/>
     </row>
     <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="238"/>
-      <c r="B48" s="204" t="s">
+      <c r="A48" s="192"/>
+      <c r="B48" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="164" t="s">
+      <c r="C48" s="174" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="122"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
+      <c r="K48" s="110"/>
+      <c r="L48" s="111"/>
     </row>
     <row r="49" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="238"/>
-      <c r="B49" s="205"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="125"/>
+      <c r="A49" s="192"/>
+      <c r="B49" s="224"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="114"/>
     </row>
     <row r="50" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="238"/>
-      <c r="B50" s="205"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="124"/>
-      <c r="L50" s="125"/>
+      <c r="A50" s="192"/>
+      <c r="B50" s="224"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="113"/>
+      <c r="F50" s="113"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="113"/>
+      <c r="I50" s="113"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="113"/>
+      <c r="L50" s="114"/>
     </row>
     <row r="51" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="238"/>
-      <c r="B51" s="205"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="124"/>
-      <c r="L51" s="125"/>
+      <c r="A51" s="192"/>
+      <c r="B51" s="224"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="113"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="114"/>
     </row>
     <row r="52" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="238"/>
-      <c r="B52" s="205"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="124"/>
-      <c r="L52" s="125"/>
+      <c r="A52" s="192"/>
+      <c r="B52" s="224"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="114"/>
       <c r="M52" s="9"/>
     </row>
     <row r="53" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="238"/>
-      <c r="B53" s="205"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="124"/>
-      <c r="K53" s="124"/>
-      <c r="L53" s="125"/>
+      <c r="A53" s="192"/>
+      <c r="B53" s="224"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="113"/>
+      <c r="I53" s="113"/>
+      <c r="J53" s="113"/>
+      <c r="K53" s="113"/>
+      <c r="L53" s="114"/>
       <c r="M53" s="9"/>
     </row>
     <row r="54" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="238"/>
-      <c r="B54" s="205"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="124"/>
-      <c r="J54" s="124"/>
-      <c r="K54" s="124"/>
-      <c r="L54" s="125"/>
+      <c r="A54" s="192"/>
+      <c r="B54" s="224"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="113"/>
+      <c r="I54" s="113"/>
+      <c r="J54" s="113"/>
+      <c r="K54" s="113"/>
+      <c r="L54" s="114"/>
       <c r="M54" s="9"/>
     </row>
     <row r="55" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="238"/>
-      <c r="B55" s="205"/>
-      <c r="C55" s="123"/>
-      <c r="D55" s="124"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="124"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="124"/>
-      <c r="I55" s="124"/>
-      <c r="J55" s="124"/>
-      <c r="K55" s="124"/>
-      <c r="L55" s="125"/>
+      <c r="A55" s="192"/>
+      <c r="B55" s="224"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="113"/>
+      <c r="J55" s="113"/>
+      <c r="K55" s="113"/>
+      <c r="L55" s="114"/>
       <c r="M55" s="9"/>
     </row>
     <row r="56" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="238"/>
-      <c r="B56" s="205"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="125"/>
+      <c r="A56" s="192"/>
+      <c r="B56" s="224"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="113"/>
+      <c r="H56" s="113"/>
+      <c r="I56" s="113"/>
+      <c r="J56" s="113"/>
+      <c r="K56" s="113"/>
+      <c r="L56" s="114"/>
       <c r="M56" s="9"/>
     </row>
     <row r="57" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="238"/>
-      <c r="B57" s="206"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="127"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="127"/>
-      <c r="K57" s="127"/>
-      <c r="L57" s="128"/>
+      <c r="A57" s="192"/>
+      <c r="B57" s="225"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="116"/>
+      <c r="K57" s="116"/>
+      <c r="L57" s="117"/>
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -7294,387 +7294,387 @@
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="233" t="s">
+      <c r="A59" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="228" t="s">
+      <c r="B59" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="173" t="s">
+      <c r="C59" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="164" t="s">
+      <c r="D59" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="E59" s="165"/>
-      <c r="F59" s="165"/>
-      <c r="G59" s="165"/>
-      <c r="H59" s="165"/>
-      <c r="I59" s="165"/>
-      <c r="J59" s="165"/>
-      <c r="K59" s="165"/>
-      <c r="L59" s="166"/>
+      <c r="E59" s="233"/>
+      <c r="F59" s="233"/>
+      <c r="G59" s="233"/>
+      <c r="H59" s="233"/>
+      <c r="I59" s="233"/>
+      <c r="J59" s="233"/>
+      <c r="K59" s="233"/>
+      <c r="L59" s="234"/>
     </row>
     <row r="60" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="234"/>
-      <c r="B60" s="230"/>
-      <c r="C60" s="174"/>
-      <c r="D60" s="167"/>
-      <c r="E60" s="168"/>
-      <c r="F60" s="168"/>
-      <c r="G60" s="168"/>
-      <c r="H60" s="168"/>
-      <c r="I60" s="168"/>
-      <c r="J60" s="168"/>
-      <c r="K60" s="168"/>
-      <c r="L60" s="169"/>
+      <c r="A60" s="172"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="187"/>
+      <c r="D60" s="235"/>
+      <c r="E60" s="236"/>
+      <c r="F60" s="236"/>
+      <c r="G60" s="236"/>
+      <c r="H60" s="236"/>
+      <c r="I60" s="236"/>
+      <c r="J60" s="236"/>
+      <c r="K60" s="236"/>
+      <c r="L60" s="237"/>
     </row>
     <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="234"/>
-      <c r="B61" s="230"/>
-      <c r="C61" s="175"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="171"/>
-      <c r="F61" s="171"/>
-      <c r="G61" s="171"/>
-      <c r="H61" s="171"/>
-      <c r="I61" s="171"/>
-      <c r="J61" s="171"/>
-      <c r="K61" s="171"/>
-      <c r="L61" s="172"/>
+      <c r="A61" s="172"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="188"/>
+      <c r="D61" s="238"/>
+      <c r="E61" s="239"/>
+      <c r="F61" s="239"/>
+      <c r="G61" s="239"/>
+      <c r="H61" s="239"/>
+      <c r="I61" s="239"/>
+      <c r="J61" s="239"/>
+      <c r="K61" s="239"/>
+      <c r="L61" s="240"/>
     </row>
     <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="234"/>
-      <c r="B62" s="230"/>
-      <c r="C62" s="176" t="s">
+      <c r="A62" s="172"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="164" t="s">
+      <c r="D62" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="E62" s="165"/>
-      <c r="F62" s="165"/>
-      <c r="G62" s="165"/>
-      <c r="H62" s="165"/>
-      <c r="I62" s="165"/>
-      <c r="J62" s="165"/>
-      <c r="K62" s="165"/>
-      <c r="L62" s="166"/>
+      <c r="E62" s="233"/>
+      <c r="F62" s="233"/>
+      <c r="G62" s="233"/>
+      <c r="H62" s="233"/>
+      <c r="I62" s="233"/>
+      <c r="J62" s="233"/>
+      <c r="K62" s="233"/>
+      <c r="L62" s="234"/>
     </row>
     <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="234"/>
-      <c r="B63" s="230"/>
-      <c r="C63" s="177"/>
-      <c r="D63" s="168"/>
-      <c r="E63" s="168"/>
-      <c r="F63" s="168"/>
-      <c r="G63" s="168"/>
-      <c r="H63" s="168"/>
-      <c r="I63" s="168"/>
-      <c r="J63" s="168"/>
-      <c r="K63" s="168"/>
-      <c r="L63" s="169"/>
+      <c r="A63" s="172"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="190"/>
+      <c r="D63" s="236"/>
+      <c r="E63" s="236"/>
+      <c r="F63" s="236"/>
+      <c r="G63" s="236"/>
+      <c r="H63" s="236"/>
+      <c r="I63" s="236"/>
+      <c r="J63" s="236"/>
+      <c r="K63" s="236"/>
+      <c r="L63" s="237"/>
     </row>
     <row r="64" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="234"/>
-      <c r="B64" s="232"/>
-      <c r="C64" s="178"/>
-      <c r="D64" s="171"/>
-      <c r="E64" s="171"/>
-      <c r="F64" s="171"/>
-      <c r="G64" s="171"/>
-      <c r="H64" s="171"/>
-      <c r="I64" s="171"/>
-      <c r="J64" s="171"/>
-      <c r="K64" s="171"/>
-      <c r="L64" s="172"/>
+      <c r="A64" s="172"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="191"/>
+      <c r="D64" s="239"/>
+      <c r="E64" s="239"/>
+      <c r="F64" s="239"/>
+      <c r="G64" s="239"/>
+      <c r="H64" s="239"/>
+      <c r="I64" s="239"/>
+      <c r="J64" s="239"/>
+      <c r="K64" s="239"/>
+      <c r="L64" s="240"/>
     </row>
     <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="234"/>
-      <c r="B65" s="204" t="s">
+      <c r="A65" s="172"/>
+      <c r="B65" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="173" t="s">
+      <c r="C65" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="164" t="s">
+      <c r="D65" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="E65" s="165"/>
-      <c r="F65" s="165"/>
-      <c r="G65" s="165"/>
-      <c r="H65" s="165"/>
-      <c r="I65" s="165"/>
-      <c r="J65" s="165"/>
-      <c r="K65" s="165"/>
-      <c r="L65" s="166"/>
+      <c r="E65" s="233"/>
+      <c r="F65" s="233"/>
+      <c r="G65" s="233"/>
+      <c r="H65" s="233"/>
+      <c r="I65" s="233"/>
+      <c r="J65" s="233"/>
+      <c r="K65" s="233"/>
+      <c r="L65" s="234"/>
     </row>
     <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="234"/>
-      <c r="B66" s="236"/>
-      <c r="C66" s="174"/>
-      <c r="D66" s="168"/>
-      <c r="E66" s="168"/>
-      <c r="F66" s="168"/>
-      <c r="G66" s="168"/>
-      <c r="H66" s="168"/>
-      <c r="I66" s="168"/>
-      <c r="J66" s="168"/>
-      <c r="K66" s="168"/>
-      <c r="L66" s="169"/>
+      <c r="A66" s="172"/>
+      <c r="B66" s="184"/>
+      <c r="C66" s="187"/>
+      <c r="D66" s="236"/>
+      <c r="E66" s="236"/>
+      <c r="F66" s="236"/>
+      <c r="G66" s="236"/>
+      <c r="H66" s="236"/>
+      <c r="I66" s="236"/>
+      <c r="J66" s="236"/>
+      <c r="K66" s="236"/>
+      <c r="L66" s="237"/>
     </row>
     <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="234"/>
-      <c r="B67" s="236"/>
-      <c r="C67" s="175"/>
-      <c r="D67" s="171"/>
-      <c r="E67" s="171"/>
-      <c r="F67" s="171"/>
-      <c r="G67" s="171"/>
-      <c r="H67" s="171"/>
-      <c r="I67" s="171"/>
-      <c r="J67" s="171"/>
-      <c r="K67" s="171"/>
-      <c r="L67" s="172"/>
+      <c r="A67" s="172"/>
+      <c r="B67" s="184"/>
+      <c r="C67" s="188"/>
+      <c r="D67" s="239"/>
+      <c r="E67" s="239"/>
+      <c r="F67" s="239"/>
+      <c r="G67" s="239"/>
+      <c r="H67" s="239"/>
+      <c r="I67" s="239"/>
+      <c r="J67" s="239"/>
+      <c r="K67" s="239"/>
+      <c r="L67" s="240"/>
     </row>
     <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="234"/>
-      <c r="B68" s="236"/>
-      <c r="C68" s="176" t="s">
+      <c r="A68" s="172"/>
+      <c r="B68" s="184"/>
+      <c r="C68" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="164" t="s">
+      <c r="D68" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="E68" s="165"/>
-      <c r="F68" s="165"/>
-      <c r="G68" s="165"/>
-      <c r="H68" s="165"/>
-      <c r="I68" s="165"/>
-      <c r="J68" s="165"/>
-      <c r="K68" s="165"/>
-      <c r="L68" s="166"/>
+      <c r="E68" s="233"/>
+      <c r="F68" s="233"/>
+      <c r="G68" s="233"/>
+      <c r="H68" s="233"/>
+      <c r="I68" s="233"/>
+      <c r="J68" s="233"/>
+      <c r="K68" s="233"/>
+      <c r="L68" s="234"/>
     </row>
     <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="234"/>
-      <c r="B69" s="236"/>
-      <c r="C69" s="177"/>
-      <c r="D69" s="168"/>
-      <c r="E69" s="168"/>
-      <c r="F69" s="168"/>
-      <c r="G69" s="168"/>
-      <c r="H69" s="168"/>
-      <c r="I69" s="168"/>
-      <c r="J69" s="168"/>
-      <c r="K69" s="168"/>
-      <c r="L69" s="169"/>
+      <c r="A69" s="172"/>
+      <c r="B69" s="184"/>
+      <c r="C69" s="190"/>
+      <c r="D69" s="236"/>
+      <c r="E69" s="236"/>
+      <c r="F69" s="236"/>
+      <c r="G69" s="236"/>
+      <c r="H69" s="236"/>
+      <c r="I69" s="236"/>
+      <c r="J69" s="236"/>
+      <c r="K69" s="236"/>
+      <c r="L69" s="237"/>
     </row>
     <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="235"/>
-      <c r="B70" s="237"/>
-      <c r="C70" s="178"/>
-      <c r="D70" s="171"/>
-      <c r="E70" s="171"/>
-      <c r="F70" s="171"/>
-      <c r="G70" s="171"/>
-      <c r="H70" s="171"/>
-      <c r="I70" s="171"/>
-      <c r="J70" s="171"/>
-      <c r="K70" s="171"/>
-      <c r="L70" s="172"/>
+      <c r="A70" s="173"/>
+      <c r="B70" s="185"/>
+      <c r="C70" s="191"/>
+      <c r="D70" s="239"/>
+      <c r="E70" s="239"/>
+      <c r="F70" s="239"/>
+      <c r="G70" s="239"/>
+      <c r="H70" s="239"/>
+      <c r="I70" s="239"/>
+      <c r="J70" s="239"/>
+      <c r="K70" s="239"/>
+      <c r="L70" s="240"/>
     </row>
     <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="233" t="s">
+      <c r="A71" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="204" t="s">
+      <c r="B71" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="184"/>
-      <c r="E71" s="184"/>
-      <c r="F71" s="184"/>
-      <c r="G71" s="184"/>
-      <c r="H71" s="184"/>
-      <c r="I71" s="184"/>
-      <c r="J71" s="184"/>
-      <c r="K71" s="184"/>
-      <c r="L71" s="185"/>
+      <c r="D71" s="175"/>
+      <c r="E71" s="175"/>
+      <c r="F71" s="175"/>
+      <c r="G71" s="175"/>
+      <c r="H71" s="175"/>
+      <c r="I71" s="175"/>
+      <c r="J71" s="175"/>
+      <c r="K71" s="175"/>
+      <c r="L71" s="176"/>
     </row>
     <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="234"/>
-      <c r="B72" s="236"/>
-      <c r="C72" s="186"/>
-      <c r="D72" s="187"/>
-      <c r="E72" s="187"/>
-      <c r="F72" s="187"/>
-      <c r="G72" s="187"/>
-      <c r="H72" s="187"/>
-      <c r="I72" s="187"/>
-      <c r="J72" s="187"/>
-      <c r="K72" s="187"/>
-      <c r="L72" s="188"/>
+      <c r="A72" s="172"/>
+      <c r="B72" s="184"/>
+      <c r="C72" s="177"/>
+      <c r="D72" s="178"/>
+      <c r="E72" s="178"/>
+      <c r="F72" s="178"/>
+      <c r="G72" s="178"/>
+      <c r="H72" s="178"/>
+      <c r="I72" s="178"/>
+      <c r="J72" s="178"/>
+      <c r="K72" s="178"/>
+      <c r="L72" s="179"/>
     </row>
     <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="234"/>
-      <c r="B73" s="236"/>
-      <c r="C73" s="186"/>
-      <c r="D73" s="187"/>
-      <c r="E73" s="187"/>
-      <c r="F73" s="187"/>
-      <c r="G73" s="187"/>
-      <c r="H73" s="187"/>
-      <c r="I73" s="187"/>
-      <c r="J73" s="187"/>
-      <c r="K73" s="187"/>
-      <c r="L73" s="188"/>
+      <c r="A73" s="172"/>
+      <c r="B73" s="184"/>
+      <c r="C73" s="177"/>
+      <c r="D73" s="178"/>
+      <c r="E73" s="178"/>
+      <c r="F73" s="178"/>
+      <c r="G73" s="178"/>
+      <c r="H73" s="178"/>
+      <c r="I73" s="178"/>
+      <c r="J73" s="178"/>
+      <c r="K73" s="178"/>
+      <c r="L73" s="179"/>
     </row>
     <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="234"/>
-      <c r="B74" s="236"/>
-      <c r="C74" s="186"/>
-      <c r="D74" s="187"/>
-      <c r="E74" s="187"/>
-      <c r="F74" s="187"/>
-      <c r="G74" s="187"/>
-      <c r="H74" s="187"/>
-      <c r="I74" s="187"/>
-      <c r="J74" s="187"/>
-      <c r="K74" s="187"/>
-      <c r="L74" s="188"/>
+      <c r="A74" s="172"/>
+      <c r="B74" s="184"/>
+      <c r="C74" s="177"/>
+      <c r="D74" s="178"/>
+      <c r="E74" s="178"/>
+      <c r="F74" s="178"/>
+      <c r="G74" s="178"/>
+      <c r="H74" s="178"/>
+      <c r="I74" s="178"/>
+      <c r="J74" s="178"/>
+      <c r="K74" s="178"/>
+      <c r="L74" s="179"/>
     </row>
     <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="234"/>
-      <c r="B75" s="236"/>
-      <c r="C75" s="186"/>
-      <c r="D75" s="187"/>
-      <c r="E75" s="187"/>
-      <c r="F75" s="187"/>
-      <c r="G75" s="187"/>
-      <c r="H75" s="187"/>
-      <c r="I75" s="187"/>
-      <c r="J75" s="187"/>
-      <c r="K75" s="187"/>
-      <c r="L75" s="188"/>
+      <c r="A75" s="172"/>
+      <c r="B75" s="184"/>
+      <c r="C75" s="177"/>
+      <c r="D75" s="178"/>
+      <c r="E75" s="178"/>
+      <c r="F75" s="178"/>
+      <c r="G75" s="178"/>
+      <c r="H75" s="178"/>
+      <c r="I75" s="178"/>
+      <c r="J75" s="178"/>
+      <c r="K75" s="178"/>
+      <c r="L75" s="179"/>
     </row>
     <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="235"/>
-      <c r="B76" s="237"/>
-      <c r="C76" s="189"/>
-      <c r="D76" s="190"/>
-      <c r="E76" s="190"/>
-      <c r="F76" s="190"/>
-      <c r="G76" s="190"/>
-      <c r="H76" s="190"/>
-      <c r="I76" s="190"/>
-      <c r="J76" s="190"/>
-      <c r="K76" s="190"/>
-      <c r="L76" s="191"/>
+      <c r="A76" s="173"/>
+      <c r="B76" s="185"/>
+      <c r="C76" s="180"/>
+      <c r="D76" s="181"/>
+      <c r="E76" s="181"/>
+      <c r="F76" s="181"/>
+      <c r="G76" s="181"/>
+      <c r="H76" s="181"/>
+      <c r="I76" s="181"/>
+      <c r="J76" s="181"/>
+      <c r="K76" s="181"/>
+      <c r="L76" s="182"/>
     </row>
     <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="227" t="s">
+      <c r="A77" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="228"/>
-      <c r="C77" s="164" t="s">
+      <c r="B77" s="166"/>
+      <c r="C77" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="D77" s="187"/>
-      <c r="E77" s="187"/>
-      <c r="F77" s="187"/>
-      <c r="G77" s="187"/>
-      <c r="H77" s="187"/>
-      <c r="I77" s="187"/>
-      <c r="J77" s="187"/>
-      <c r="K77" s="187"/>
-      <c r="L77" s="188"/>
+      <c r="D77" s="178"/>
+      <c r="E77" s="178"/>
+      <c r="F77" s="178"/>
+      <c r="G77" s="178"/>
+      <c r="H77" s="178"/>
+      <c r="I77" s="178"/>
+      <c r="J77" s="178"/>
+      <c r="K77" s="178"/>
+      <c r="L77" s="179"/>
     </row>
     <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="229"/>
-      <c r="B78" s="230"/>
-      <c r="C78" s="186"/>
-      <c r="D78" s="187"/>
-      <c r="E78" s="187"/>
-      <c r="F78" s="187"/>
-      <c r="G78" s="187"/>
-      <c r="H78" s="187"/>
-      <c r="I78" s="187"/>
-      <c r="J78" s="187"/>
-      <c r="K78" s="187"/>
-      <c r="L78" s="188"/>
+      <c r="A78" s="167"/>
+      <c r="B78" s="168"/>
+      <c r="C78" s="177"/>
+      <c r="D78" s="178"/>
+      <c r="E78" s="178"/>
+      <c r="F78" s="178"/>
+      <c r="G78" s="178"/>
+      <c r="H78" s="178"/>
+      <c r="I78" s="178"/>
+      <c r="J78" s="178"/>
+      <c r="K78" s="178"/>
+      <c r="L78" s="179"/>
     </row>
     <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="229"/>
-      <c r="B79" s="230"/>
-      <c r="C79" s="186"/>
-      <c r="D79" s="187"/>
-      <c r="E79" s="187"/>
-      <c r="F79" s="187"/>
-      <c r="G79" s="187"/>
-      <c r="H79" s="187"/>
-      <c r="I79" s="187"/>
-      <c r="J79" s="187"/>
-      <c r="K79" s="187"/>
-      <c r="L79" s="188"/>
+      <c r="A79" s="167"/>
+      <c r="B79" s="168"/>
+      <c r="C79" s="177"/>
+      <c r="D79" s="178"/>
+      <c r="E79" s="178"/>
+      <c r="F79" s="178"/>
+      <c r="G79" s="178"/>
+      <c r="H79" s="178"/>
+      <c r="I79" s="178"/>
+      <c r="J79" s="178"/>
+      <c r="K79" s="178"/>
+      <c r="L79" s="179"/>
     </row>
     <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="231"/>
-      <c r="B80" s="232"/>
-      <c r="C80" s="189"/>
-      <c r="D80" s="190"/>
-      <c r="E80" s="190"/>
-      <c r="F80" s="190"/>
-      <c r="G80" s="190"/>
-      <c r="H80" s="190"/>
-      <c r="I80" s="190"/>
-      <c r="J80" s="190"/>
-      <c r="K80" s="190"/>
-      <c r="L80" s="191"/>
+      <c r="A80" s="169"/>
+      <c r="B80" s="170"/>
+      <c r="C80" s="180"/>
+      <c r="D80" s="181"/>
+      <c r="E80" s="181"/>
+      <c r="F80" s="181"/>
+      <c r="G80" s="181"/>
+      <c r="H80" s="181"/>
+      <c r="I80" s="181"/>
+      <c r="J80" s="181"/>
+      <c r="K80" s="181"/>
+      <c r="L80" s="182"/>
     </row>
     <row r="81" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="220" t="s">
+      <c r="A81" s="195" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="221"/>
-      <c r="C81" s="221"/>
-      <c r="D81" s="221"/>
-      <c r="E81" s="221"/>
-      <c r="F81" s="221"/>
-      <c r="G81" s="221"/>
-      <c r="H81" s="221"/>
-      <c r="I81" s="221"/>
-      <c r="J81" s="221"/>
-      <c r="K81" s="221"/>
-      <c r="L81" s="222"/>
+      <c r="B81" s="196"/>
+      <c r="C81" s="196"/>
+      <c r="D81" s="196"/>
+      <c r="E81" s="196"/>
+      <c r="F81" s="196"/>
+      <c r="G81" s="196"/>
+      <c r="H81" s="196"/>
+      <c r="I81" s="196"/>
+      <c r="J81" s="196"/>
+      <c r="K81" s="196"/>
+      <c r="L81" s="197"/>
     </row>
     <row r="82" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="223" t="s">
+      <c r="A82" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="B82" s="224"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="67"/>
-      <c r="J82" s="67"/>
-      <c r="K82" s="67"/>
-      <c r="L82" s="68"/>
+      <c r="B82" s="199"/>
+      <c r="C82" s="154"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
+      <c r="H82" s="155"/>
+      <c r="I82" s="155"/>
+      <c r="J82" s="155"/>
+      <c r="K82" s="155"/>
+      <c r="L82" s="156"/>
     </row>
     <row r="83" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="223" t="s">
+      <c r="A83" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="B83" s="224"/>
+      <c r="B83" s="199"/>
       <c r="C83" s="11">
         <v>1</v>
       </c>
-      <c r="D83" s="69"/>
-      <c r="E83" s="70"/>
+      <c r="D83" s="157"/>
+      <c r="E83" s="158"/>
       <c r="F83" s="11">
         <v>2</v>
       </c>
@@ -7682,46 +7682,46 @@
       <c r="H83" s="11">
         <v>3</v>
       </c>
-      <c r="I83" s="69"/>
-      <c r="J83" s="70"/>
-      <c r="K83" s="70"/>
+      <c r="I83" s="157"/>
+      <c r="J83" s="158"/>
+      <c r="K83" s="158"/>
       <c r="L83" s="3"/>
     </row>
     <row r="84" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="223" t="s">
+      <c r="A84" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="B84" s="224"/>
-      <c r="C84" s="58" t="s">
+      <c r="B84" s="199"/>
+      <c r="C84" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="59"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="59"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="59"/>
-      <c r="K84" s="59"/>
-      <c r="L84" s="60"/>
+      <c r="D84" s="160"/>
+      <c r="E84" s="160"/>
+      <c r="F84" s="160"/>
+      <c r="G84" s="160"/>
+      <c r="H84" s="160"/>
+      <c r="I84" s="160"/>
+      <c r="J84" s="160"/>
+      <c r="K84" s="160"/>
+      <c r="L84" s="161"/>
     </row>
     <row r="85" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="225" t="s">
+      <c r="A85" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="225"/>
-      <c r="C85" s="58" t="s">
+      <c r="B85" s="200"/>
+      <c r="C85" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="60"/>
+      <c r="D85" s="160"/>
+      <c r="E85" s="160"/>
+      <c r="F85" s="160"/>
+      <c r="G85" s="160"/>
+      <c r="H85" s="160"/>
+      <c r="I85" s="160"/>
+      <c r="J85" s="160"/>
+      <c r="K85" s="160"/>
+      <c r="L85" s="161"/>
     </row>
     <row r="86" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
@@ -7731,16 +7731,57 @@
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J87" s="62" t="s">
+      <c r="J87" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="K87" s="62"/>
-      <c r="L87" s="62"/>
+      <c r="K87" s="163"/>
+      <c r="L87" s="163"/>
     </row>
     <row r="91" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="92" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="D59:L61"/>
+    <mergeCell ref="D62:L64"/>
+    <mergeCell ref="D65:L67"/>
+    <mergeCell ref="D68:L70"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="C40:L47"/>
+    <mergeCell ref="C48:L57"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:B39"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="C25:L39"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="C8:L22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="A81:L81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:L82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:L84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:L85"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="A77:B80"/>
     <mergeCell ref="A59:A70"/>
@@ -7757,47 +7798,6 @@
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="A7:A57"/>
     <mergeCell ref="B8:B22"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="A81:L81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:L82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="I83:K83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:L84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:L85"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="C8:L22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="C40:L47"/>
-    <mergeCell ref="C48:L57"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:B39"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="C25:L39"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="D59:L61"/>
-    <mergeCell ref="D62:L64"/>
-    <mergeCell ref="D65:L67"/>
-    <mergeCell ref="D68:L70"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C64"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7835,28 +7835,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="181"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="K2" s="226" t="s">
+      <c r="K2" s="164" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="226"/>
+      <c r="L2" s="164"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -7868,784 +7868,784 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="160"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="180"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="163"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C6" s="13"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
     </row>
     <row r="7" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="238" t="s">
+      <c r="A7" s="192" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="181"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="216"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="203"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="238"/>
-      <c r="B8" s="239" t="s">
+      <c r="A8" s="192"/>
+      <c r="B8" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="207" t="s">
+      <c r="C8" s="204" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="208"/>
-      <c r="K8" s="208"/>
-      <c r="L8" s="209"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="205"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="205"/>
+      <c r="K8" s="205"/>
+      <c r="L8" s="206"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="238"/>
-      <c r="B9" s="240"/>
-      <c r="C9" s="211"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="210"/>
+      <c r="A9" s="192"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="208"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="238"/>
-      <c r="B10" s="240"/>
-      <c r="C10" s="211"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="210"/>
+      <c r="A10" s="192"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="208"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="238"/>
-      <c r="B11" s="240"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="210"/>
+      <c r="A11" s="192"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="207"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="208"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="238"/>
-      <c r="B12" s="240"/>
-      <c r="C12" s="211"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="210"/>
+      <c r="A12" s="192"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="208"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="238"/>
-      <c r="B13" s="240"/>
-      <c r="C13" s="211"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
-      <c r="L13" s="210"/>
+      <c r="A13" s="192"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="208"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="238"/>
-      <c r="B14" s="240"/>
-      <c r="C14" s="211"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="210"/>
+      <c r="A14" s="192"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="208"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="238"/>
-      <c r="B15" s="240"/>
-      <c r="C15" s="211"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="210"/>
+      <c r="A15" s="192"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="208"/>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="238"/>
-      <c r="B16" s="240"/>
-      <c r="C16" s="211"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="210"/>
+      <c r="A16" s="192"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="207"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="208"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="238"/>
-      <c r="B17" s="240"/>
-      <c r="C17" s="211"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="210"/>
+      <c r="A17" s="192"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="208"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="238"/>
-      <c r="B18" s="240"/>
-      <c r="C18" s="211"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="210"/>
+      <c r="A18" s="192"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="207"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="208"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="238"/>
-      <c r="B19" s="240"/>
-      <c r="C19" s="211"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="164"/>
-      <c r="K19" s="164"/>
-      <c r="L19" s="210"/>
+      <c r="A19" s="192"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="208"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="238"/>
-      <c r="B20" s="240"/>
-      <c r="C20" s="211"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="210"/>
+      <c r="A20" s="192"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="174"/>
+      <c r="L20" s="208"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="238"/>
-      <c r="B21" s="240"/>
-      <c r="C21" s="211"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="210"/>
+      <c r="A21" s="192"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="174"/>
+      <c r="K21" s="174"/>
+      <c r="L21" s="208"/>
     </row>
     <row r="22" spans="1:12" ht="117.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="238"/>
-      <c r="B22" s="240"/>
-      <c r="C22" s="211"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="210"/>
+      <c r="A22" s="192"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="174"/>
+      <c r="L22" s="208"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="238"/>
-      <c r="B23" s="192" t="s">
+      <c r="A23" s="192"/>
+      <c r="B23" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="194" t="s">
+      <c r="C23" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="195"/>
-      <c r="E23" s="194" t="s">
+      <c r="D23" s="214"/>
+      <c r="E23" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="195"/>
-      <c r="G23" s="194" t="s">
+      <c r="F23" s="214"/>
+      <c r="G23" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="196"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="194" t="s">
+      <c r="H23" s="213"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="196"/>
-      <c r="L23" s="195"/>
+      <c r="K23" s="213"/>
+      <c r="L23" s="214"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="238"/>
-      <c r="B24" s="193"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="217"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="218"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="218"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="219"/>
-      <c r="L24" s="218"/>
+      <c r="A24" s="192"/>
+      <c r="B24" s="216"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="209"/>
+      <c r="E24" s="201"/>
+      <c r="F24" s="210"/>
+      <c r="G24" s="201"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="210"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="211"/>
+      <c r="L24" s="210"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="238"/>
-      <c r="B25" s="197" t="s">
+      <c r="A25" s="192"/>
+      <c r="B25" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="207" t="s">
+      <c r="C25" s="204" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="208"/>
-      <c r="E25" s="208"/>
-      <c r="F25" s="208"/>
-      <c r="G25" s="208"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="208"/>
-      <c r="J25" s="208"/>
-      <c r="K25" s="208"/>
-      <c r="L25" s="209"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="205"/>
+      <c r="L25" s="206"/>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="238"/>
-      <c r="B26" s="198"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="210"/>
+      <c r="A26" s="192"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="208"/>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="238"/>
-      <c r="B27" s="198"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="164"/>
-      <c r="L27" s="210"/>
+      <c r="A27" s="192"/>
+      <c r="B27" s="218"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="174"/>
+      <c r="L27" s="208"/>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="238"/>
-      <c r="B28" s="198"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="164"/>
-      <c r="L28" s="210"/>
+      <c r="A28" s="192"/>
+      <c r="B28" s="218"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="174"/>
+      <c r="L28" s="208"/>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="238"/>
-      <c r="B29" s="198"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="164"/>
-      <c r="L29" s="210"/>
+      <c r="A29" s="192"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="174"/>
+      <c r="L29" s="208"/>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="238"/>
-      <c r="B30" s="198"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="164"/>
-      <c r="K30" s="164"/>
-      <c r="L30" s="210"/>
+      <c r="A30" s="192"/>
+      <c r="B30" s="218"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="174"/>
+      <c r="L30" s="208"/>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="238"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="164"/>
-      <c r="L31" s="210"/>
+      <c r="A31" s="192"/>
+      <c r="B31" s="218"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="174"/>
+      <c r="L31" s="208"/>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="238"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="164"/>
-      <c r="K32" s="164"/>
-      <c r="L32" s="210"/>
+      <c r="A32" s="192"/>
+      <c r="B32" s="218"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="208"/>
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="238"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="164"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="164"/>
-      <c r="L33" s="210"/>
+      <c r="A33" s="192"/>
+      <c r="B33" s="218"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="174"/>
+      <c r="L33" s="208"/>
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="238"/>
-      <c r="B34" s="198"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="164"/>
-      <c r="K34" s="164"/>
-      <c r="L34" s="210"/>
+      <c r="A34" s="192"/>
+      <c r="B34" s="218"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="174"/>
+      <c r="K34" s="174"/>
+      <c r="L34" s="208"/>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="238"/>
-      <c r="B35" s="198"/>
-      <c r="C35" s="164"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="164"/>
-      <c r="L35" s="210"/>
+      <c r="A35" s="192"/>
+      <c r="B35" s="218"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="174"/>
+      <c r="K35" s="174"/>
+      <c r="L35" s="208"/>
     </row>
     <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="238"/>
-      <c r="B36" s="199"/>
-      <c r="C36" s="211"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="164"/>
-      <c r="L36" s="210"/>
+      <c r="A36" s="192"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="174"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="174"/>
+      <c r="K36" s="174"/>
+      <c r="L36" s="208"/>
     </row>
     <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="238"/>
-      <c r="B37" s="199"/>
-      <c r="C37" s="211"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="164"/>
-      <c r="L37" s="210"/>
+      <c r="A37" s="192"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="174"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="174"/>
+      <c r="K37" s="174"/>
+      <c r="L37" s="208"/>
     </row>
     <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="238"/>
-      <c r="B38" s="199"/>
-      <c r="C38" s="211"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="210"/>
+      <c r="A38" s="192"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="174"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="174"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="174"/>
+      <c r="K38" s="174"/>
+      <c r="L38" s="208"/>
     </row>
     <row r="39" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="238"/>
-      <c r="B39" s="200"/>
-      <c r="C39" s="212"/>
-      <c r="D39" s="213"/>
-      <c r="E39" s="213"/>
-      <c r="F39" s="213"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="213"/>
-      <c r="I39" s="213"/>
-      <c r="J39" s="213"/>
-      <c r="K39" s="213"/>
-      <c r="L39" s="214"/>
+      <c r="A39" s="192"/>
+      <c r="B39" s="220"/>
+      <c r="C39" s="226"/>
+      <c r="D39" s="227"/>
+      <c r="E39" s="227"/>
+      <c r="F39" s="227"/>
+      <c r="G39" s="227"/>
+      <c r="H39" s="227"/>
+      <c r="I39" s="227"/>
+      <c r="J39" s="227"/>
+      <c r="K39" s="227"/>
+      <c r="L39" s="228"/>
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="238"/>
-      <c r="B40" s="201" t="s">
+      <c r="A40" s="192"/>
+      <c r="B40" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="164" t="s">
+      <c r="C40" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="184"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="184"/>
-      <c r="H40" s="184"/>
-      <c r="I40" s="184"/>
-      <c r="J40" s="184"/>
-      <c r="K40" s="184"/>
-      <c r="L40" s="185"/>
+      <c r="D40" s="175"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="175"/>
+      <c r="K40" s="175"/>
+      <c r="L40" s="176"/>
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="238"/>
-      <c r="B41" s="202"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="187"/>
-      <c r="K41" s="187"/>
-      <c r="L41" s="188"/>
+      <c r="A41" s="192"/>
+      <c r="B41" s="222"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="178"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="178"/>
+      <c r="H41" s="178"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="178"/>
+      <c r="K41" s="178"/>
+      <c r="L41" s="179"/>
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="238"/>
-      <c r="B42" s="202"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
-      <c r="J42" s="187"/>
-      <c r="K42" s="187"/>
-      <c r="L42" s="188"/>
+      <c r="A42" s="192"/>
+      <c r="B42" s="222"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="178"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="178"/>
+      <c r="K42" s="178"/>
+      <c r="L42" s="179"/>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="238"/>
-      <c r="B43" s="202"/>
-      <c r="C43" s="186"/>
-      <c r="D43" s="187"/>
-      <c r="E43" s="187"/>
-      <c r="F43" s="187"/>
-      <c r="G43" s="187"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
-      <c r="J43" s="187"/>
-      <c r="K43" s="187"/>
-      <c r="L43" s="188"/>
+      <c r="A43" s="192"/>
+      <c r="B43" s="222"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="178"/>
+      <c r="K43" s="178"/>
+      <c r="L43" s="179"/>
     </row>
     <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="238"/>
-      <c r="B44" s="202"/>
-      <c r="C44" s="186"/>
-      <c r="D44" s="187"/>
-      <c r="E44" s="187"/>
-      <c r="F44" s="187"/>
-      <c r="G44" s="187"/>
-      <c r="H44" s="187"/>
-      <c r="I44" s="187"/>
-      <c r="J44" s="187"/>
-      <c r="K44" s="187"/>
-      <c r="L44" s="188"/>
+      <c r="A44" s="192"/>
+      <c r="B44" s="222"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="178"/>
+      <c r="K44" s="178"/>
+      <c r="L44" s="179"/>
     </row>
     <row r="45" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="238"/>
-      <c r="B45" s="202"/>
-      <c r="C45" s="186"/>
-      <c r="D45" s="187"/>
-      <c r="E45" s="187"/>
-      <c r="F45" s="187"/>
-      <c r="G45" s="187"/>
-      <c r="H45" s="187"/>
-      <c r="I45" s="187"/>
-      <c r="J45" s="187"/>
-      <c r="K45" s="187"/>
-      <c r="L45" s="188"/>
+      <c r="A45" s="192"/>
+      <c r="B45" s="222"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="178"/>
+      <c r="K45" s="178"/>
+      <c r="L45" s="179"/>
     </row>
     <row r="46" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="238"/>
-      <c r="B46" s="202"/>
-      <c r="C46" s="186"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="187"/>
-      <c r="F46" s="187"/>
-      <c r="G46" s="187"/>
-      <c r="H46" s="187"/>
-      <c r="I46" s="187"/>
-      <c r="J46" s="187"/>
-      <c r="K46" s="187"/>
-      <c r="L46" s="188"/>
+      <c r="A46" s="192"/>
+      <c r="B46" s="222"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="178"/>
+      <c r="E46" s="178"/>
+      <c r="F46" s="178"/>
+      <c r="G46" s="178"/>
+      <c r="H46" s="178"/>
+      <c r="I46" s="178"/>
+      <c r="J46" s="178"/>
+      <c r="K46" s="178"/>
+      <c r="L46" s="179"/>
     </row>
     <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="238"/>
-      <c r="B47" s="203"/>
-      <c r="C47" s="189"/>
-      <c r="D47" s="190"/>
-      <c r="E47" s="190"/>
-      <c r="F47" s="190"/>
-      <c r="G47" s="190"/>
-      <c r="H47" s="190"/>
-      <c r="I47" s="190"/>
-      <c r="J47" s="190"/>
-      <c r="K47" s="190"/>
-      <c r="L47" s="191"/>
+      <c r="A47" s="192"/>
+      <c r="B47" s="223"/>
+      <c r="C47" s="180"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="181"/>
+      <c r="G47" s="181"/>
+      <c r="H47" s="181"/>
+      <c r="I47" s="181"/>
+      <c r="J47" s="181"/>
+      <c r="K47" s="181"/>
+      <c r="L47" s="182"/>
     </row>
     <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="238"/>
-      <c r="B48" s="204" t="s">
+      <c r="A48" s="192"/>
+      <c r="B48" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="164" t="s">
+      <c r="C48" s="174" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="122"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
+      <c r="K48" s="110"/>
+      <c r="L48" s="111"/>
     </row>
     <row r="49" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="238"/>
-      <c r="B49" s="205"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="125"/>
+      <c r="A49" s="192"/>
+      <c r="B49" s="224"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="114"/>
     </row>
     <row r="50" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="238"/>
-      <c r="B50" s="205"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="124"/>
-      <c r="L50" s="125"/>
+      <c r="A50" s="192"/>
+      <c r="B50" s="224"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="113"/>
+      <c r="F50" s="113"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="113"/>
+      <c r="I50" s="113"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="113"/>
+      <c r="L50" s="114"/>
     </row>
     <row r="51" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="238"/>
-      <c r="B51" s="205"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="124"/>
-      <c r="L51" s="125"/>
+      <c r="A51" s="192"/>
+      <c r="B51" s="224"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="113"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="114"/>
     </row>
     <row r="52" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="238"/>
-      <c r="B52" s="205"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="124"/>
-      <c r="L52" s="125"/>
+      <c r="A52" s="192"/>
+      <c r="B52" s="224"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="114"/>
       <c r="M52" s="9"/>
     </row>
     <row r="53" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="238"/>
-      <c r="B53" s="205"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="124"/>
-      <c r="K53" s="124"/>
-      <c r="L53" s="125"/>
+      <c r="A53" s="192"/>
+      <c r="B53" s="224"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="113"/>
+      <c r="I53" s="113"/>
+      <c r="J53" s="113"/>
+      <c r="K53" s="113"/>
+      <c r="L53" s="114"/>
       <c r="M53" s="9"/>
     </row>
     <row r="54" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="238"/>
-      <c r="B54" s="205"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="124"/>
-      <c r="J54" s="124"/>
-      <c r="K54" s="124"/>
-      <c r="L54" s="125"/>
+      <c r="A54" s="192"/>
+      <c r="B54" s="224"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="113"/>
+      <c r="I54" s="113"/>
+      <c r="J54" s="113"/>
+      <c r="K54" s="113"/>
+      <c r="L54" s="114"/>
       <c r="M54" s="9"/>
     </row>
     <row r="55" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="238"/>
-      <c r="B55" s="205"/>
-      <c r="C55" s="123"/>
-      <c r="D55" s="124"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="124"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="124"/>
-      <c r="I55" s="124"/>
-      <c r="J55" s="124"/>
-      <c r="K55" s="124"/>
-      <c r="L55" s="125"/>
+      <c r="A55" s="192"/>
+      <c r="B55" s="224"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="113"/>
+      <c r="J55" s="113"/>
+      <c r="K55" s="113"/>
+      <c r="L55" s="114"/>
       <c r="M55" s="9"/>
     </row>
     <row r="56" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="238"/>
-      <c r="B56" s="205"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="125"/>
+      <c r="A56" s="192"/>
+      <c r="B56" s="224"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="113"/>
+      <c r="H56" s="113"/>
+      <c r="I56" s="113"/>
+      <c r="J56" s="113"/>
+      <c r="K56" s="113"/>
+      <c r="L56" s="114"/>
       <c r="M56" s="9"/>
     </row>
     <row r="57" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="238"/>
-      <c r="B57" s="206"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="127"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="127"/>
-      <c r="K57" s="127"/>
-      <c r="L57" s="128"/>
+      <c r="A57" s="192"/>
+      <c r="B57" s="225"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="116"/>
+      <c r="K57" s="116"/>
+      <c r="L57" s="117"/>
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -8653,387 +8653,387 @@
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="233" t="s">
+      <c r="A59" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="228" t="s">
+      <c r="B59" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="173" t="s">
+      <c r="C59" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="164" t="s">
+      <c r="D59" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="E59" s="165"/>
-      <c r="F59" s="165"/>
-      <c r="G59" s="165"/>
-      <c r="H59" s="165"/>
-      <c r="I59" s="165"/>
-      <c r="J59" s="165"/>
-      <c r="K59" s="165"/>
-      <c r="L59" s="166"/>
+      <c r="E59" s="233"/>
+      <c r="F59" s="233"/>
+      <c r="G59" s="233"/>
+      <c r="H59" s="233"/>
+      <c r="I59" s="233"/>
+      <c r="J59" s="233"/>
+      <c r="K59" s="233"/>
+      <c r="L59" s="234"/>
     </row>
     <row r="60" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="234"/>
-      <c r="B60" s="230"/>
-      <c r="C60" s="174"/>
-      <c r="D60" s="167"/>
-      <c r="E60" s="168"/>
-      <c r="F60" s="168"/>
-      <c r="G60" s="168"/>
-      <c r="H60" s="168"/>
-      <c r="I60" s="168"/>
-      <c r="J60" s="168"/>
-      <c r="K60" s="168"/>
-      <c r="L60" s="169"/>
+      <c r="A60" s="172"/>
+      <c r="B60" s="168"/>
+      <c r="C60" s="187"/>
+      <c r="D60" s="235"/>
+      <c r="E60" s="236"/>
+      <c r="F60" s="236"/>
+      <c r="G60" s="236"/>
+      <c r="H60" s="236"/>
+      <c r="I60" s="236"/>
+      <c r="J60" s="236"/>
+      <c r="K60" s="236"/>
+      <c r="L60" s="237"/>
     </row>
     <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="234"/>
-      <c r="B61" s="230"/>
-      <c r="C61" s="175"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="171"/>
-      <c r="F61" s="171"/>
-      <c r="G61" s="171"/>
-      <c r="H61" s="171"/>
-      <c r="I61" s="171"/>
-      <c r="J61" s="171"/>
-      <c r="K61" s="171"/>
-      <c r="L61" s="172"/>
+      <c r="A61" s="172"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="188"/>
+      <c r="D61" s="238"/>
+      <c r="E61" s="239"/>
+      <c r="F61" s="239"/>
+      <c r="G61" s="239"/>
+      <c r="H61" s="239"/>
+      <c r="I61" s="239"/>
+      <c r="J61" s="239"/>
+      <c r="K61" s="239"/>
+      <c r="L61" s="240"/>
     </row>
     <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="234"/>
-      <c r="B62" s="230"/>
-      <c r="C62" s="176" t="s">
+      <c r="A62" s="172"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="164" t="s">
+      <c r="D62" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="E62" s="165"/>
-      <c r="F62" s="165"/>
-      <c r="G62" s="165"/>
-      <c r="H62" s="165"/>
-      <c r="I62" s="165"/>
-      <c r="J62" s="165"/>
-      <c r="K62" s="165"/>
-      <c r="L62" s="166"/>
+      <c r="E62" s="233"/>
+      <c r="F62" s="233"/>
+      <c r="G62" s="233"/>
+      <c r="H62" s="233"/>
+      <c r="I62" s="233"/>
+      <c r="J62" s="233"/>
+      <c r="K62" s="233"/>
+      <c r="L62" s="234"/>
     </row>
     <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="234"/>
-      <c r="B63" s="230"/>
-      <c r="C63" s="177"/>
-      <c r="D63" s="168"/>
-      <c r="E63" s="168"/>
-      <c r="F63" s="168"/>
-      <c r="G63" s="168"/>
-      <c r="H63" s="168"/>
-      <c r="I63" s="168"/>
-      <c r="J63" s="168"/>
-      <c r="K63" s="168"/>
-      <c r="L63" s="169"/>
+      <c r="A63" s="172"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="190"/>
+      <c r="D63" s="236"/>
+      <c r="E63" s="236"/>
+      <c r="F63" s="236"/>
+      <c r="G63" s="236"/>
+      <c r="H63" s="236"/>
+      <c r="I63" s="236"/>
+      <c r="J63" s="236"/>
+      <c r="K63" s="236"/>
+      <c r="L63" s="237"/>
     </row>
     <row r="64" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="234"/>
-      <c r="B64" s="232"/>
-      <c r="C64" s="178"/>
-      <c r="D64" s="171"/>
-      <c r="E64" s="171"/>
-      <c r="F64" s="171"/>
-      <c r="G64" s="171"/>
-      <c r="H64" s="171"/>
-      <c r="I64" s="171"/>
-      <c r="J64" s="171"/>
-      <c r="K64" s="171"/>
-      <c r="L64" s="172"/>
+      <c r="A64" s="172"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="191"/>
+      <c r="D64" s="239"/>
+      <c r="E64" s="239"/>
+      <c r="F64" s="239"/>
+      <c r="G64" s="239"/>
+      <c r="H64" s="239"/>
+      <c r="I64" s="239"/>
+      <c r="J64" s="239"/>
+      <c r="K64" s="239"/>
+      <c r="L64" s="240"/>
     </row>
     <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="234"/>
-      <c r="B65" s="204" t="s">
+      <c r="A65" s="172"/>
+      <c r="B65" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="173" t="s">
+      <c r="C65" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="164" t="s">
+      <c r="D65" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="E65" s="165"/>
-      <c r="F65" s="165"/>
-      <c r="G65" s="165"/>
-      <c r="H65" s="165"/>
-      <c r="I65" s="165"/>
-      <c r="J65" s="165"/>
-      <c r="K65" s="165"/>
-      <c r="L65" s="166"/>
+      <c r="E65" s="233"/>
+      <c r="F65" s="233"/>
+      <c r="G65" s="233"/>
+      <c r="H65" s="233"/>
+      <c r="I65" s="233"/>
+      <c r="J65" s="233"/>
+      <c r="K65" s="233"/>
+      <c r="L65" s="234"/>
     </row>
     <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="234"/>
-      <c r="B66" s="236"/>
-      <c r="C66" s="174"/>
-      <c r="D66" s="168"/>
-      <c r="E66" s="168"/>
-      <c r="F66" s="168"/>
-      <c r="G66" s="168"/>
-      <c r="H66" s="168"/>
-      <c r="I66" s="168"/>
-      <c r="J66" s="168"/>
-      <c r="K66" s="168"/>
-      <c r="L66" s="169"/>
+      <c r="A66" s="172"/>
+      <c r="B66" s="184"/>
+      <c r="C66" s="187"/>
+      <c r="D66" s="236"/>
+      <c r="E66" s="236"/>
+      <c r="F66" s="236"/>
+      <c r="G66" s="236"/>
+      <c r="H66" s="236"/>
+      <c r="I66" s="236"/>
+      <c r="J66" s="236"/>
+      <c r="K66" s="236"/>
+      <c r="L66" s="237"/>
     </row>
     <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="234"/>
-      <c r="B67" s="236"/>
-      <c r="C67" s="175"/>
-      <c r="D67" s="171"/>
-      <c r="E67" s="171"/>
-      <c r="F67" s="171"/>
-      <c r="G67" s="171"/>
-      <c r="H67" s="171"/>
-      <c r="I67" s="171"/>
-      <c r="J67" s="171"/>
-      <c r="K67" s="171"/>
-      <c r="L67" s="172"/>
+      <c r="A67" s="172"/>
+      <c r="B67" s="184"/>
+      <c r="C67" s="188"/>
+      <c r="D67" s="239"/>
+      <c r="E67" s="239"/>
+      <c r="F67" s="239"/>
+      <c r="G67" s="239"/>
+      <c r="H67" s="239"/>
+      <c r="I67" s="239"/>
+      <c r="J67" s="239"/>
+      <c r="K67" s="239"/>
+      <c r="L67" s="240"/>
     </row>
     <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="234"/>
-      <c r="B68" s="236"/>
-      <c r="C68" s="176" t="s">
+      <c r="A68" s="172"/>
+      <c r="B68" s="184"/>
+      <c r="C68" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="164" t="s">
+      <c r="D68" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="E68" s="165"/>
-      <c r="F68" s="165"/>
-      <c r="G68" s="165"/>
-      <c r="H68" s="165"/>
-      <c r="I68" s="165"/>
-      <c r="J68" s="165"/>
-      <c r="K68" s="165"/>
-      <c r="L68" s="166"/>
+      <c r="E68" s="233"/>
+      <c r="F68" s="233"/>
+      <c r="G68" s="233"/>
+      <c r="H68" s="233"/>
+      <c r="I68" s="233"/>
+      <c r="J68" s="233"/>
+      <c r="K68" s="233"/>
+      <c r="L68" s="234"/>
     </row>
     <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="234"/>
-      <c r="B69" s="236"/>
-      <c r="C69" s="177"/>
-      <c r="D69" s="168"/>
-      <c r="E69" s="168"/>
-      <c r="F69" s="168"/>
-      <c r="G69" s="168"/>
-      <c r="H69" s="168"/>
-      <c r="I69" s="168"/>
-      <c r="J69" s="168"/>
-      <c r="K69" s="168"/>
-      <c r="L69" s="169"/>
+      <c r="A69" s="172"/>
+      <c r="B69" s="184"/>
+      <c r="C69" s="190"/>
+      <c r="D69" s="236"/>
+      <c r="E69" s="236"/>
+      <c r="F69" s="236"/>
+      <c r="G69" s="236"/>
+      <c r="H69" s="236"/>
+      <c r="I69" s="236"/>
+      <c r="J69" s="236"/>
+      <c r="K69" s="236"/>
+      <c r="L69" s="237"/>
     </row>
     <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="235"/>
-      <c r="B70" s="237"/>
-      <c r="C70" s="178"/>
-      <c r="D70" s="171"/>
-      <c r="E70" s="171"/>
-      <c r="F70" s="171"/>
-      <c r="G70" s="171"/>
-      <c r="H70" s="171"/>
-      <c r="I70" s="171"/>
-      <c r="J70" s="171"/>
-      <c r="K70" s="171"/>
-      <c r="L70" s="172"/>
+      <c r="A70" s="173"/>
+      <c r="B70" s="185"/>
+      <c r="C70" s="191"/>
+      <c r="D70" s="239"/>
+      <c r="E70" s="239"/>
+      <c r="F70" s="239"/>
+      <c r="G70" s="239"/>
+      <c r="H70" s="239"/>
+      <c r="I70" s="239"/>
+      <c r="J70" s="239"/>
+      <c r="K70" s="239"/>
+      <c r="L70" s="240"/>
     </row>
     <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="233" t="s">
+      <c r="A71" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="204" t="s">
+      <c r="B71" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="C71" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="184"/>
-      <c r="E71" s="184"/>
-      <c r="F71" s="184"/>
-      <c r="G71" s="184"/>
-      <c r="H71" s="184"/>
-      <c r="I71" s="184"/>
-      <c r="J71" s="184"/>
-      <c r="K71" s="184"/>
-      <c r="L71" s="185"/>
+      <c r="D71" s="175"/>
+      <c r="E71" s="175"/>
+      <c r="F71" s="175"/>
+      <c r="G71" s="175"/>
+      <c r="H71" s="175"/>
+      <c r="I71" s="175"/>
+      <c r="J71" s="175"/>
+      <c r="K71" s="175"/>
+      <c r="L71" s="176"/>
     </row>
     <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="234"/>
-      <c r="B72" s="236"/>
-      <c r="C72" s="186"/>
-      <c r="D72" s="187"/>
-      <c r="E72" s="187"/>
-      <c r="F72" s="187"/>
-      <c r="G72" s="187"/>
-      <c r="H72" s="187"/>
-      <c r="I72" s="187"/>
-      <c r="J72" s="187"/>
-      <c r="K72" s="187"/>
-      <c r="L72" s="188"/>
+      <c r="A72" s="172"/>
+      <c r="B72" s="184"/>
+      <c r="C72" s="177"/>
+      <c r="D72" s="178"/>
+      <c r="E72" s="178"/>
+      <c r="F72" s="178"/>
+      <c r="G72" s="178"/>
+      <c r="H72" s="178"/>
+      <c r="I72" s="178"/>
+      <c r="J72" s="178"/>
+      <c r="K72" s="178"/>
+      <c r="L72" s="179"/>
     </row>
     <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="234"/>
-      <c r="B73" s="236"/>
-      <c r="C73" s="186"/>
-      <c r="D73" s="187"/>
-      <c r="E73" s="187"/>
-      <c r="F73" s="187"/>
-      <c r="G73" s="187"/>
-      <c r="H73" s="187"/>
-      <c r="I73" s="187"/>
-      <c r="J73" s="187"/>
-      <c r="K73" s="187"/>
-      <c r="L73" s="188"/>
+      <c r="A73" s="172"/>
+      <c r="B73" s="184"/>
+      <c r="C73" s="177"/>
+      <c r="D73" s="178"/>
+      <c r="E73" s="178"/>
+      <c r="F73" s="178"/>
+      <c r="G73" s="178"/>
+      <c r="H73" s="178"/>
+      <c r="I73" s="178"/>
+      <c r="J73" s="178"/>
+      <c r="K73" s="178"/>
+      <c r="L73" s="179"/>
     </row>
     <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="234"/>
-      <c r="B74" s="236"/>
-      <c r="C74" s="186"/>
-      <c r="D74" s="187"/>
-      <c r="E74" s="187"/>
-      <c r="F74" s="187"/>
-      <c r="G74" s="187"/>
-      <c r="H74" s="187"/>
-      <c r="I74" s="187"/>
-      <c r="J74" s="187"/>
-      <c r="K74" s="187"/>
-      <c r="L74" s="188"/>
+      <c r="A74" s="172"/>
+      <c r="B74" s="184"/>
+      <c r="C74" s="177"/>
+      <c r="D74" s="178"/>
+      <c r="E74" s="178"/>
+      <c r="F74" s="178"/>
+      <c r="G74" s="178"/>
+      <c r="H74" s="178"/>
+      <c r="I74" s="178"/>
+      <c r="J74" s="178"/>
+      <c r="K74" s="178"/>
+      <c r="L74" s="179"/>
     </row>
     <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="234"/>
-      <c r="B75" s="236"/>
-      <c r="C75" s="186"/>
-      <c r="D75" s="187"/>
-      <c r="E75" s="187"/>
-      <c r="F75" s="187"/>
-      <c r="G75" s="187"/>
-      <c r="H75" s="187"/>
-      <c r="I75" s="187"/>
-      <c r="J75" s="187"/>
-      <c r="K75" s="187"/>
-      <c r="L75" s="188"/>
+      <c r="A75" s="172"/>
+      <c r="B75" s="184"/>
+      <c r="C75" s="177"/>
+      <c r="D75" s="178"/>
+      <c r="E75" s="178"/>
+      <c r="F75" s="178"/>
+      <c r="G75" s="178"/>
+      <c r="H75" s="178"/>
+      <c r="I75" s="178"/>
+      <c r="J75" s="178"/>
+      <c r="K75" s="178"/>
+      <c r="L75" s="179"/>
     </row>
     <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="235"/>
-      <c r="B76" s="237"/>
-      <c r="C76" s="189"/>
-      <c r="D76" s="190"/>
-      <c r="E76" s="190"/>
-      <c r="F76" s="190"/>
-      <c r="G76" s="190"/>
-      <c r="H76" s="190"/>
-      <c r="I76" s="190"/>
-      <c r="J76" s="190"/>
-      <c r="K76" s="190"/>
-      <c r="L76" s="191"/>
+      <c r="A76" s="173"/>
+      <c r="B76" s="185"/>
+      <c r="C76" s="180"/>
+      <c r="D76" s="181"/>
+      <c r="E76" s="181"/>
+      <c r="F76" s="181"/>
+      <c r="G76" s="181"/>
+      <c r="H76" s="181"/>
+      <c r="I76" s="181"/>
+      <c r="J76" s="181"/>
+      <c r="K76" s="181"/>
+      <c r="L76" s="182"/>
     </row>
     <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="227" t="s">
+      <c r="A77" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="228"/>
-      <c r="C77" s="164" t="s">
+      <c r="B77" s="166"/>
+      <c r="C77" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="D77" s="187"/>
-      <c r="E77" s="187"/>
-      <c r="F77" s="187"/>
-      <c r="G77" s="187"/>
-      <c r="H77" s="187"/>
-      <c r="I77" s="187"/>
-      <c r="J77" s="187"/>
-      <c r="K77" s="187"/>
-      <c r="L77" s="188"/>
+      <c r="D77" s="178"/>
+      <c r="E77" s="178"/>
+      <c r="F77" s="178"/>
+      <c r="G77" s="178"/>
+      <c r="H77" s="178"/>
+      <c r="I77" s="178"/>
+      <c r="J77" s="178"/>
+      <c r="K77" s="178"/>
+      <c r="L77" s="179"/>
     </row>
     <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="229"/>
-      <c r="B78" s="230"/>
-      <c r="C78" s="186"/>
-      <c r="D78" s="187"/>
-      <c r="E78" s="187"/>
-      <c r="F78" s="187"/>
-      <c r="G78" s="187"/>
-      <c r="H78" s="187"/>
-      <c r="I78" s="187"/>
-      <c r="J78" s="187"/>
-      <c r="K78" s="187"/>
-      <c r="L78" s="188"/>
+      <c r="A78" s="167"/>
+      <c r="B78" s="168"/>
+      <c r="C78" s="177"/>
+      <c r="D78" s="178"/>
+      <c r="E78" s="178"/>
+      <c r="F78" s="178"/>
+      <c r="G78" s="178"/>
+      <c r="H78" s="178"/>
+      <c r="I78" s="178"/>
+      <c r="J78" s="178"/>
+      <c r="K78" s="178"/>
+      <c r="L78" s="179"/>
     </row>
     <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="229"/>
-      <c r="B79" s="230"/>
-      <c r="C79" s="186"/>
-      <c r="D79" s="187"/>
-      <c r="E79" s="187"/>
-      <c r="F79" s="187"/>
-      <c r="G79" s="187"/>
-      <c r="H79" s="187"/>
-      <c r="I79" s="187"/>
-      <c r="J79" s="187"/>
-      <c r="K79" s="187"/>
-      <c r="L79" s="188"/>
+      <c r="A79" s="167"/>
+      <c r="B79" s="168"/>
+      <c r="C79" s="177"/>
+      <c r="D79" s="178"/>
+      <c r="E79" s="178"/>
+      <c r="F79" s="178"/>
+      <c r="G79" s="178"/>
+      <c r="H79" s="178"/>
+      <c r="I79" s="178"/>
+      <c r="J79" s="178"/>
+      <c r="K79" s="178"/>
+      <c r="L79" s="179"/>
     </row>
     <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="231"/>
-      <c r="B80" s="232"/>
-      <c r="C80" s="189"/>
-      <c r="D80" s="190"/>
-      <c r="E80" s="190"/>
-      <c r="F80" s="190"/>
-      <c r="G80" s="190"/>
-      <c r="H80" s="190"/>
-      <c r="I80" s="190"/>
-      <c r="J80" s="190"/>
-      <c r="K80" s="190"/>
-      <c r="L80" s="191"/>
+      <c r="A80" s="169"/>
+      <c r="B80" s="170"/>
+      <c r="C80" s="180"/>
+      <c r="D80" s="181"/>
+      <c r="E80" s="181"/>
+      <c r="F80" s="181"/>
+      <c r="G80" s="181"/>
+      <c r="H80" s="181"/>
+      <c r="I80" s="181"/>
+      <c r="J80" s="181"/>
+      <c r="K80" s="181"/>
+      <c r="L80" s="182"/>
     </row>
     <row r="81" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="220" t="s">
+      <c r="A81" s="195" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="221"/>
-      <c r="C81" s="221"/>
-      <c r="D81" s="221"/>
-      <c r="E81" s="221"/>
-      <c r="F81" s="221"/>
-      <c r="G81" s="221"/>
-      <c r="H81" s="221"/>
-      <c r="I81" s="221"/>
-      <c r="J81" s="221"/>
-      <c r="K81" s="221"/>
-      <c r="L81" s="222"/>
+      <c r="B81" s="196"/>
+      <c r="C81" s="196"/>
+      <c r="D81" s="196"/>
+      <c r="E81" s="196"/>
+      <c r="F81" s="196"/>
+      <c r="G81" s="196"/>
+      <c r="H81" s="196"/>
+      <c r="I81" s="196"/>
+      <c r="J81" s="196"/>
+      <c r="K81" s="196"/>
+      <c r="L81" s="197"/>
     </row>
     <row r="82" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="223" t="s">
+      <c r="A82" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="B82" s="224"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="67"/>
-      <c r="J82" s="67"/>
-      <c r="K82" s="67"/>
-      <c r="L82" s="68"/>
+      <c r="B82" s="199"/>
+      <c r="C82" s="154"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
+      <c r="H82" s="155"/>
+      <c r="I82" s="155"/>
+      <c r="J82" s="155"/>
+      <c r="K82" s="155"/>
+      <c r="L82" s="156"/>
     </row>
     <row r="83" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="223" t="s">
+      <c r="A83" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="B83" s="224"/>
+      <c r="B83" s="199"/>
       <c r="C83" s="11">
         <v>1</v>
       </c>
-      <c r="D83" s="69"/>
-      <c r="E83" s="70"/>
+      <c r="D83" s="157"/>
+      <c r="E83" s="158"/>
       <c r="F83" s="11">
         <v>2</v>
       </c>
@@ -9041,46 +9041,46 @@
       <c r="H83" s="11">
         <v>3</v>
       </c>
-      <c r="I83" s="69"/>
-      <c r="J83" s="70"/>
-      <c r="K83" s="70"/>
+      <c r="I83" s="157"/>
+      <c r="J83" s="158"/>
+      <c r="K83" s="158"/>
       <c r="L83" s="3"/>
     </row>
     <row r="84" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="223" t="s">
+      <c r="A84" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="B84" s="224"/>
-      <c r="C84" s="58" t="s">
+      <c r="B84" s="199"/>
+      <c r="C84" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="59"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="59"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="59"/>
-      <c r="K84" s="59"/>
-      <c r="L84" s="60"/>
+      <c r="D84" s="160"/>
+      <c r="E84" s="160"/>
+      <c r="F84" s="160"/>
+      <c r="G84" s="160"/>
+      <c r="H84" s="160"/>
+      <c r="I84" s="160"/>
+      <c r="J84" s="160"/>
+      <c r="K84" s="160"/>
+      <c r="L84" s="161"/>
     </row>
     <row r="85" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="225" t="s">
+      <c r="A85" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="225"/>
-      <c r="C85" s="58" t="s">
+      <c r="B85" s="200"/>
+      <c r="C85" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="60"/>
+      <c r="D85" s="160"/>
+      <c r="E85" s="160"/>
+      <c r="F85" s="160"/>
+      <c r="G85" s="160"/>
+      <c r="H85" s="160"/>
+      <c r="I85" s="160"/>
+      <c r="J85" s="160"/>
+      <c r="K85" s="160"/>
+      <c r="L85" s="161"/>
     </row>
     <row r="86" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
@@ -9090,26 +9090,47 @@
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J87" s="62" t="s">
+      <c r="J87" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="K87" s="62"/>
-      <c r="L87" s="62"/>
+      <c r="K87" s="163"/>
+      <c r="L87" s="163"/>
     </row>
     <row r="91" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="92" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:L84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:L85"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:L67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:L70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C71:L76"/>
+    <mergeCell ref="A77:B80"/>
+    <mergeCell ref="C77:L80"/>
+    <mergeCell ref="A81:L81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:L82"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="C40:L47"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="C48:L57"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:L61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:L64"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="A7:A57"/>
     <mergeCell ref="C7:L7"/>
@@ -9126,37 +9147,16 @@
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="B25:B39"/>
     <mergeCell ref="C25:L39"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="C40:L47"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="C48:L57"/>
-    <mergeCell ref="A59:A70"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:L61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:L64"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="I83:K83"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:L67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:L70"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C71:L76"/>
-    <mergeCell ref="A77:B80"/>
-    <mergeCell ref="C77:L80"/>
-    <mergeCell ref="A81:L81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:L82"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:L84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:L85"/>
-    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
